--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\ver2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D9E506-2958-4927-9FFE-08E782F0DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC22C51-FC23-4B64-856B-6601A0999833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +254,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +538,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +596,9 @@
       <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>1910</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
         <v>54</v>
@@ -615,9 +618,13 @@
       <c r="D3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4">
+        <v>1943</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2">
+        <v>140001</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
@@ -662,36 +669,41 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>150002</v>
+      <c r="A6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="H6" s="2">
         <v>140001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
+      <c r="A7" s="1">
+        <v>150002</v>
       </c>
       <c r="B7" s="1">
         <v>15</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1953</v>
+      </c>
+      <c r="H7" s="2">
+        <v>140001</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\ver2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC22C51-FC23-4B64-856B-6601A0999833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD17D8-C6B1-4BC7-AEB6-BB50A200DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Dương Thị Chinh</t>
+  </si>
+  <si>
+    <t>Đang sống</t>
   </si>
 </sst>
 </file>
@@ -537,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +647,9 @@
       <c r="E4">
         <v>1945</v>
       </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
@@ -664,6 +670,9 @@
       <c r="E5">
         <v>1953</v>
       </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
       <c r="J5" s="1">
         <v>150001</v>
       </c>
@@ -681,6 +690,9 @@
       <c r="E6">
         <v>1950</v>
       </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
       <c r="H6" s="2">
         <v>140001</v>
       </c>
@@ -701,6 +713,9 @@
       <c r="E7">
         <v>1953</v>
       </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="2">
         <v>140001</v>
       </c>
@@ -715,6 +730,9 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
       <c r="J8" s="1">
         <v>150002</v>
       </c>
@@ -732,6 +750,9 @@
       <c r="E9">
         <v>1977</v>
       </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="1">
         <v>150001</v>
       </c>
@@ -755,6 +776,9 @@
       <c r="E10">
         <v>1979</v>
       </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
       <c r="H10" s="1">
         <v>150001</v>
       </c>
@@ -774,6 +798,9 @@
       </c>
       <c r="E11">
         <v>1984</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -797,6 +824,9 @@
       <c r="E12">
         <v>1981</v>
       </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
       <c r="H12" s="1">
         <v>150001</v>
       </c>
@@ -816,6 +846,9 @@
       </c>
       <c r="E13">
         <v>1985</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -839,6 +872,9 @@
       <c r="E14">
         <v>1988</v>
       </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
       <c r="H14" s="1">
         <v>150001</v>
       </c>
@@ -858,6 +894,9 @@
       </c>
       <c r="E15">
         <v>1989</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -878,6 +917,9 @@
       <c r="E16">
         <v>1991</v>
       </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
       <c r="H16" s="1">
         <v>150001</v>
       </c>
@@ -898,6 +940,9 @@
       <c r="E17">
         <v>1978</v>
       </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
       <c r="H17" s="1">
         <v>150002</v>
       </c>
@@ -921,6 +966,9 @@
       <c r="E18">
         <v>1980</v>
       </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
       <c r="H18" s="1">
         <v>150002</v>
       </c>
@@ -937,6 +985,9 @@
       </c>
       <c r="D19" t="s">
         <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -983,6 +1034,9 @@
       <c r="E21">
         <v>1987</v>
       </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
@@ -1005,6 +1059,9 @@
       <c r="E22">
         <v>2007</v>
       </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
       <c r="H22" s="1">
         <v>160001</v>
       </c>
@@ -1025,6 +1082,9 @@
       <c r="E23">
         <v>2012</v>
       </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
       <c r="H23" s="1">
         <v>160001</v>
       </c>
@@ -1045,6 +1105,9 @@
       <c r="E24">
         <v>2016</v>
       </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
       <c r="H24" s="1">
         <v>160002</v>
       </c>
@@ -1068,6 +1131,9 @@
       <c r="E25">
         <v>2021</v>
       </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
       <c r="H25" s="1">
         <v>160002</v>
       </c>
@@ -1088,6 +1154,9 @@
       <c r="E26">
         <v>2004</v>
       </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
       <c r="H26" s="1">
         <v>160004</v>
       </c>
@@ -1111,6 +1180,9 @@
       <c r="E27">
         <v>2006</v>
       </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
       <c r="H27" s="1">
         <v>160004</v>
       </c>
@@ -1134,6 +1206,9 @@
       <c r="E28">
         <v>2009</v>
       </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
       <c r="H28" s="1">
         <v>160004</v>
       </c>
@@ -1157,6 +1232,9 @@
       <c r="E29">
         <v>2006</v>
       </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
       <c r="H29" s="1">
         <v>160005</v>
       </c>
@@ -1177,6 +1255,9 @@
       <c r="E30">
         <v>2007</v>
       </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
       <c r="H30" s="1">
         <v>160005</v>
       </c>
@@ -1199,6 +1280,9 @@
       </c>
       <c r="E31">
         <v>2012</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
       </c>
       <c r="H31" s="1">
         <v>160005</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\ver2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD17D8-C6B1-4BC7-AEB6-BB50A200DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CF835-95A7-4FF7-BDF9-64349FD9A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Dương Thị Chinh</t>
-  </si>
-  <si>
-    <t>Đang sống</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,7 +254,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +617,7 @@
       <c r="D3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>1943</v>
       </c>
       <c r="F3" s="3"/>
@@ -647,9 +643,6 @@
       <c r="E4">
         <v>1945</v>
       </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
@@ -670,9 +663,6 @@
       <c r="E5">
         <v>1953</v>
       </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
       <c r="J5" s="1">
         <v>150001</v>
       </c>
@@ -690,9 +680,6 @@
       <c r="E6">
         <v>1950</v>
       </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
       <c r="H6" s="2">
         <v>140001</v>
       </c>
@@ -713,9 +700,6 @@
       <c r="E7">
         <v>1953</v>
       </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
       <c r="H7" s="2">
         <v>140001</v>
       </c>
@@ -730,9 +714,6 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
       <c r="J8" s="1">
         <v>150002</v>
       </c>
@@ -750,9 +731,6 @@
       <c r="E9">
         <v>1977</v>
       </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" s="1">
         <v>150001</v>
       </c>
@@ -776,9 +754,6 @@
       <c r="E10">
         <v>1979</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
       <c r="H10" s="1">
         <v>150001</v>
       </c>
@@ -798,9 +773,6 @@
       </c>
       <c r="E11">
         <v>1984</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -824,9 +796,6 @@
       <c r="E12">
         <v>1981</v>
       </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="1">
         <v>150001</v>
       </c>
@@ -846,9 +815,6 @@
       </c>
       <c r="E13">
         <v>1985</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -872,9 +838,6 @@
       <c r="E14">
         <v>1988</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" s="1">
         <v>150001</v>
       </c>
@@ -894,9 +857,6 @@
       </c>
       <c r="E15">
         <v>1989</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -917,9 +877,6 @@
       <c r="E16">
         <v>1991</v>
       </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="1">
         <v>150001</v>
       </c>
@@ -940,9 +897,6 @@
       <c r="E17">
         <v>1978</v>
       </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
       <c r="H17" s="1">
         <v>150002</v>
       </c>
@@ -966,9 +920,6 @@
       <c r="E18">
         <v>1980</v>
       </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
       <c r="H18" s="1">
         <v>150002</v>
       </c>
@@ -985,9 +936,6 @@
       </c>
       <c r="D19" t="s">
         <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1034,9 +982,6 @@
       <c r="E21">
         <v>1987</v>
       </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
@@ -1059,9 +1004,6 @@
       <c r="E22">
         <v>2007</v>
       </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
       <c r="H22" s="1">
         <v>160001</v>
       </c>
@@ -1082,9 +1024,6 @@
       <c r="E23">
         <v>2012</v>
       </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
       <c r="H23" s="1">
         <v>160001</v>
       </c>
@@ -1105,9 +1044,6 @@
       <c r="E24">
         <v>2016</v>
       </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
       <c r="H24" s="1">
         <v>160002</v>
       </c>
@@ -1131,9 +1067,6 @@
       <c r="E25">
         <v>2021</v>
       </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
       <c r="H25" s="1">
         <v>160002</v>
       </c>
@@ -1154,9 +1087,6 @@
       <c r="E26">
         <v>2004</v>
       </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
       <c r="H26" s="1">
         <v>160004</v>
       </c>
@@ -1180,9 +1110,6 @@
       <c r="E27">
         <v>2006</v>
       </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
       <c r="H27" s="1">
         <v>160004</v>
       </c>
@@ -1206,9 +1133,6 @@
       <c r="E28">
         <v>2009</v>
       </c>
-      <c r="F28" t="s">
-        <v>59</v>
-      </c>
       <c r="H28" s="1">
         <v>160004</v>
       </c>
@@ -1232,9 +1156,6 @@
       <c r="E29">
         <v>2006</v>
       </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
       <c r="H29" s="1">
         <v>160005</v>
       </c>
@@ -1255,9 +1176,6 @@
       <c r="E30">
         <v>2007</v>
       </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
       <c r="H30" s="1">
         <v>160005</v>
       </c>
@@ -1280,9 +1198,6 @@
       </c>
       <c r="E31">
         <v>2012</v>
-      </c>
-      <c r="F31" t="s">
-        <v>59</v>
       </c>
       <c r="H31" s="1">
         <v>160005</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\ver2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CF835-95A7-4FF7-BDF9-64349FD9A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F04AD-207F-4F39-B62E-486AE5CC29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -186,9 +186,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Dương Văn Miếu</t>
-  </si>
-  <si>
     <t>Trưởng phái, đời 14</t>
   </si>
   <si>
@@ -202,6 +199,18 @@
   </si>
   <si>
     <t>Dương Thị Chinh</t>
+  </si>
+  <si>
+    <t>140001v2</t>
+  </si>
+  <si>
+    <t>Vương Thị Tíu</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Dương Danh Miếu</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +263,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F4:F19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,166 +606,167 @@
         <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3">
         <v>1910</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1910</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1999</v>
+      </c>
+      <c r="J3" s="4">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3">
+      <c r="E4" s="5">
         <v>1943</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="2">
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="4">
         <v>140001</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>150001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1945</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2">
-        <v>140001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>1953</v>
-      </c>
-      <c r="J5" s="1">
-        <v>150001</v>
+        <v>1945</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4">
+        <v>140001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>1950</v>
-      </c>
-      <c r="H6" s="2">
-        <v>140001</v>
+        <v>1953</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="J6" s="1">
+        <v>150001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>150002</v>
+      <c r="A7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>1953</v>
-      </c>
-      <c r="H7" s="2">
+        <v>1950</v>
+      </c>
+      <c r="H7" s="4">
         <v>140001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+      <c r="A8" s="1">
+        <v>150002</v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1">
-        <v>150002</v>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1953</v>
+      </c>
+      <c r="H8" s="4">
+        <v>140001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>15</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1">
+        <v>150002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1977</v>
-      </c>
-      <c r="H9" s="1">
-        <v>150001</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>160001</v>
-      </c>
-      <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>1979</v>
       </c>
       <c r="H10" s="1">
         <v>150001</v>
@@ -762,163 +776,163 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11" s="1">
+        <v>160001</v>
       </c>
       <c r="B11" s="1">
         <v>16</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>1984</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>160001</v>
+        <v>1979</v>
+      </c>
+      <c r="H11" s="1">
+        <v>150001</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>160002</v>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>1981</v>
-      </c>
-      <c r="H12" s="1">
-        <v>150001</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>9</v>
+        <v>1984</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>160001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+      <c r="A13" s="1">
+        <v>160002</v>
       </c>
       <c r="B13" s="1">
         <v>16</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>1985</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <v>160002</v>
+        <v>1981</v>
+      </c>
+      <c r="H13" s="1">
+        <v>150001</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>160003</v>
+      <c r="A14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>1988</v>
-      </c>
-      <c r="H14" s="1">
-        <v>150001</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>9</v>
+        <v>1985</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>160002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
+      <c r="A15" s="1">
+        <v>160003</v>
       </c>
       <c r="B15" s="1">
         <v>16</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>1989</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
-        <v>160003</v>
+        <v>1988</v>
+      </c>
+      <c r="H15" s="1">
+        <v>150001</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1991</v>
-      </c>
-      <c r="H16" s="1">
-        <v>150001</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>9</v>
+        <v>1989</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>160003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>1978</v>
+        <v>1991</v>
       </c>
       <c r="H17" s="1">
-        <v>150002</v>
+        <v>150001</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>160004</v>
+      <c r="A18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="H18" s="1">
         <v>150002</v>
@@ -928,101 +942,104 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+      <c r="A19" s="1">
+        <v>160004</v>
       </c>
       <c r="B19" s="1">
         <v>16</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
-        <v>160004</v>
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1980</v>
+      </c>
+      <c r="H19" s="1">
+        <v>150002</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>160005</v>
+      <c r="A20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>1982</v>
-      </c>
-      <c r="F20">
-        <v>2023</v>
-      </c>
-      <c r="H20" s="1">
-        <v>150002</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <v>160004</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
+      <c r="A21" s="1">
+        <v>160005</v>
       </c>
       <c r="B21" s="1">
         <v>16</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1982</v>
+      </c>
+      <c r="F21">
+        <v>2023</v>
+      </c>
+      <c r="H21" s="1">
+        <v>150002</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>1987</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
         <v>160005</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>170001</v>
-      </c>
-      <c r="B22" s="1">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22">
-        <v>2007</v>
-      </c>
-      <c r="H22" s="1">
-        <v>160001</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>17</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H23" s="1">
         <v>160001</v>
@@ -1033,39 +1050,36 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="H24" s="1">
-        <v>160002</v>
+        <v>160001</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>170002</v>
+      <c r="A25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>17</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E25">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="H25" s="1">
         <v>160002</v>
@@ -1075,40 +1089,40 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
+      <c r="A26" s="1">
+        <v>170002</v>
       </c>
       <c r="B26" s="1">
         <v>17</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="H26" s="1">
-        <v>160004</v>
+        <v>160002</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>170003</v>
+      <c r="A27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>17</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E27">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="H27" s="1">
         <v>160004</v>
@@ -1119,7 +1133,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>170004</v>
+        <v>170003</v>
       </c>
       <c r="B28" s="1">
         <v>17</v>
@@ -1128,10 +1142,10 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="H28" s="1">
         <v>160004</v>
@@ -1142,7 +1156,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>170005</v>
+        <v>170004</v>
       </c>
       <c r="B29" s="1">
         <v>17</v>
@@ -1151,30 +1165,33 @@
         <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="H29" s="1">
-        <v>160005</v>
+        <v>160004</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
+      <c r="A30" s="1">
+        <v>170005</v>
       </c>
       <c r="B30" s="1">
         <v>17</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H30" s="1">
         <v>160005</v>
@@ -1184,25 +1201,45 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>170006</v>
+      <c r="A31" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>17</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E31">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H31" s="1">
         <v>160005</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>170006</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>2012</v>
+      </c>
+      <c r="H32" s="1">
+        <v>160005</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\ver2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F04AD-207F-4F39-B62E-486AE5CC29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C9A3E0-088C-4A68-A384-6FA5FFA9FEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,10 +263,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +546,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +554,7 @@
     <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="10.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="9" width="11.44140625" customWidth="1"/>
   </cols>
@@ -576,10 +572,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -608,10 +604,10 @@
       <c r="D2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1910</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G2" t="s">
@@ -621,46 +617,47 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>1910</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>1999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>140001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>1943</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>140001</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -676,14 +673,17 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1945</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>140001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -696,10 +696,9 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1953</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="J6" s="1">
         <v>150001</v>
       </c>
@@ -714,11 +713,14 @@
       <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1950</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>140001</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -734,11 +736,14 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1953</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>140001</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -765,7 +770,7 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1977</v>
       </c>
       <c r="H10" s="1">
@@ -788,7 +793,7 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1979</v>
       </c>
       <c r="H11" s="1">
@@ -808,7 +813,7 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1984</v>
       </c>
       <c r="H12" s="1"/>
@@ -830,7 +835,7 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>1981</v>
       </c>
       <c r="H13" s="1">
@@ -850,7 +855,7 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>1985</v>
       </c>
       <c r="H14" s="1"/>
@@ -872,7 +877,7 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>1988</v>
       </c>
       <c r="H15" s="1">
@@ -892,7 +897,7 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>1989</v>
       </c>
       <c r="H16" s="1"/>
@@ -911,7 +916,7 @@
       <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>1991</v>
       </c>
       <c r="H17" s="1">
@@ -931,7 +936,7 @@
       <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1978</v>
       </c>
       <c r="H18" s="1">
@@ -954,7 +959,7 @@
       <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>1980</v>
       </c>
       <c r="H19" s="1">
@@ -993,10 +998,10 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>1982</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>2023</v>
       </c>
       <c r="H21" s="1">
@@ -1016,7 +1021,7 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>1987</v>
       </c>
       <c r="H22" s="1"/>
@@ -1038,7 +1043,7 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>2007</v>
       </c>
       <c r="H23" s="1">
@@ -1058,7 +1063,7 @@
       <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>2012</v>
       </c>
       <c r="H24" s="1">
@@ -1078,7 +1083,7 @@
       <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>2016</v>
       </c>
       <c r="H25" s="1">
@@ -1101,7 +1106,7 @@
       <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>2021</v>
       </c>
       <c r="H26" s="1">
@@ -1121,7 +1126,7 @@
       <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>2004</v>
       </c>
       <c r="H27" s="1">
@@ -1144,7 +1149,7 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>2006</v>
       </c>
       <c r="H28" s="1">
@@ -1167,7 +1172,7 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>2009</v>
       </c>
       <c r="H29" s="1">
@@ -1190,7 +1195,7 @@
       <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>2006</v>
       </c>
       <c r="H30" s="1">
@@ -1210,7 +1215,7 @@
       <c r="D31" t="s">
         <v>48</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>2007</v>
       </c>
       <c r="H31" s="1">
@@ -1233,7 +1238,7 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>2012</v>
       </c>
       <c r="H32" s="1">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\ver2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C9A3E0-088C-4A68-A384-6FA5FFA9FEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F844F-E8F4-450A-8D08-73B33B145F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -186,9 +197,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Trưởng phái, đời 14</t>
-  </si>
-  <si>
     <t>140001g1</t>
   </si>
   <si>
@@ -210,14 +218,57 @@
     <t>?</t>
   </si>
   <si>
-    <t>Dương Danh Miếu</t>
+    <t>Kỵ nhật</t>
+  </si>
+  <si>
+    <t>Táng</t>
+  </si>
+  <si>
+    <t>Dương Văn Miếu</t>
+  </si>
+  <si>
+    <t>Cầu Cây Bàng</t>
+  </si>
+  <si>
+    <t>Cầu Đất</t>
+  </si>
+  <si>
+    <t>Dương Danh Lang</t>
+  </si>
+  <si>
+    <t>Trưởng phái, đời 13</t>
+  </si>
+  <si>
+    <t>130001v1</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhớn</t>
+  </si>
+  <si>
+    <t>140001v1</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Sáu</t>
+  </si>
+  <si>
+    <t>Trưởng phái, đời 14
+- Chung bia mộ cụ Lang</t>
+  </si>
+  <si>
+    <t>Chung bia mộ cụ Lang</t>
+  </si>
+  <si>
+    <t>Dương Danh Mưu</t>
+  </si>
+  <si>
+    <t>12/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +280,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,6 +320,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,11 +627,13 @@
     <col min="2" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="6" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="9" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,295 +652,340 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>130001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>130001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>140001</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="1">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
         <v>1910</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="1">
+        <v>130001</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="1">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1910</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1999</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="1">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>140002</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1920</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1">
+        <v>130001</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1910</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1999</v>
-      </c>
-      <c r="J3" s="1">
-        <v>140001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1943</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1">
-        <v>140001</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>150001</v>
-      </c>
-      <c r="B5" s="1">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1945</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1">
-        <v>140001</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1953</v>
-      </c>
-      <c r="J6" s="1">
-        <v>150001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1950</v>
-      </c>
-      <c r="H7" s="1">
-        <v>140001</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>150002</v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
-        <v>1953</v>
-      </c>
-      <c r="H8" s="1">
+        <v>1943</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1">
         <v>140001</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>150001</v>
       </c>
       <c r="B9" s="1">
         <v>15</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1945</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="J9" s="1">
-        <v>150002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>140001</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1953</v>
+      </c>
+      <c r="L10" s="1">
+        <v>150001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1950</v>
+      </c>
+      <c r="J11" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>150002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1953</v>
+      </c>
+      <c r="J12" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1">
+        <v>150002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E14" s="1">
         <v>1977</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J14" s="1">
         <v>150001</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>160001</v>
-      </c>
-      <c r="B11" s="1">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1979</v>
-      </c>
-      <c r="H11" s="1">
-        <v>150001</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1984</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>160001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>160002</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1981</v>
-      </c>
-      <c r="H13" s="1">
-        <v>150001</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1985</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>160002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>160003</v>
       </c>
       <c r="B15" s="1">
         <v>16</v>
@@ -875,80 +994,82 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1">
-        <v>1988</v>
-      </c>
-      <c r="H15" s="1">
+        <v>1979</v>
+      </c>
+      <c r="J15" s="1">
         <v>150001</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
-        <v>1989</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <v>160003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>1984</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>160001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>160002</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1">
-        <v>1991</v>
-      </c>
-      <c r="H17" s="1">
+        <v>1981</v>
+      </c>
+      <c r="J17" s="1">
         <v>150001</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>1978</v>
-      </c>
-      <c r="H18" s="1">
-        <v>150002</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1985</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <v>160002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>160004</v>
+        <v>160003</v>
       </c>
       <c r="B19" s="1">
         <v>16</v>
@@ -957,234 +1078,230 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
-        <v>1980</v>
-      </c>
-      <c r="H19" s="1">
-        <v>150002</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1988</v>
+      </c>
+      <c r="J19" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <v>160004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>160005</v>
+        <v>21</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1989</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <v>160003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1">
-        <v>1982</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2023</v>
-      </c>
-      <c r="H21" s="1">
-        <v>150002</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1991</v>
+      </c>
+      <c r="J21" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1978</v>
+      </c>
+      <c r="J22" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>160004</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1980</v>
+      </c>
+      <c r="J23" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <v>160004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>160005</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1982</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E26" s="1">
         <v>1987</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
         <v>160005</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>170001</v>
-      </c>
-      <c r="B23" s="1">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2007</v>
-      </c>
-      <c r="H23" s="1">
-        <v>160001</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H24" s="1">
-        <v>160001</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="1">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H25" s="1">
-        <v>160002</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>170002</v>
-      </c>
-      <c r="B26" s="1">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2021</v>
-      </c>
-      <c r="H26" s="1">
-        <v>160002</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>17</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H27" s="1">
-        <v>160004</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>170003</v>
+        <v>2007</v>
+      </c>
+      <c r="J27" s="1">
+        <v>160001</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>17</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1">
-        <v>2006</v>
-      </c>
-      <c r="H28" s="1">
-        <v>160004</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>170004</v>
+        <v>2012</v>
+      </c>
+      <c r="J28" s="1">
+        <v>160001</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B29" s="1">
         <v>17</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
-        <v>2009</v>
-      </c>
-      <c r="H29" s="1">
-        <v>160004</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2016</v>
+      </c>
+      <c r="J29" s="1">
+        <v>160002</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>170005</v>
+        <v>170002</v>
       </c>
       <c r="B30" s="1">
         <v>17</v>
@@ -1193,41 +1310,41 @@
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>2006</v>
-      </c>
-      <c r="H30" s="1">
-        <v>160005</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2021</v>
+      </c>
+      <c r="J30" s="1">
+        <v>160002</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1">
-        <v>2007</v>
-      </c>
-      <c r="H31" s="1">
-        <v>160005</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2004</v>
+      </c>
+      <c r="J31" s="1">
+        <v>160004</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>170006</v>
+        <v>170003</v>
       </c>
       <c r="B32" s="1">
         <v>17</v>
@@ -1236,19 +1353,109 @@
         <v>52</v>
       </c>
       <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J32" s="1">
+        <v>160004</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>170004</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2009</v>
+      </c>
+      <c r="J33" s="1">
+        <v>160004</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>170005</v>
+      </c>
+      <c r="B34" s="1">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J34" s="1">
+        <v>160005</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J35" s="1">
+        <v>160005</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>170006</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E36" s="1">
         <v>2012</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J36" s="1">
         <v>160005</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\ver2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F844F-E8F4-450A-8D08-73B33B145F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C636EC9-A92C-409A-B338-C7897AC0223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>12/10</t>
+  </si>
+  <si>
+    <t>Dương Danh Mô</t>
   </si>
 </sst>
 </file>
@@ -614,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD70"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,6 +696,9 @@
       <c r="G2" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>63</v>
       </c>
@@ -749,6 +755,9 @@
       <c r="G4" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>63</v>
       </c>
@@ -778,6 +787,9 @@
       <c r="G5" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>63</v>
       </c>
@@ -801,6 +813,9 @@
       <c r="F6" s="1">
         <v>1999</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>63</v>
       </c>
@@ -833,54 +848,52 @@
       <c r="I7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="1">
-        <v>130001</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>140003</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1943</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="1">
-        <v>140001</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>150001</v>
       </c>
       <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1">
-        <v>1945</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>35</v>
+        <v>1943</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J9" s="1">
         <v>140001</v>
@@ -890,57 +903,60 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="1">
+        <v>150001</v>
       </c>
       <c r="B10" s="1">
         <v>15</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>1953</v>
-      </c>
-      <c r="L10" s="1">
-        <v>150001</v>
+        <v>1945</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>1950</v>
-      </c>
-      <c r="J11" s="1">
-        <v>140001</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>57</v>
+        <v>1953</v>
+      </c>
+      <c r="L11" s="1">
+        <v>150001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>150002</v>
+      <c r="A12" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="1">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="J12" s="1">
         <v>140001</v>
@@ -950,54 +966,54 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" s="1">
+        <v>150002</v>
       </c>
       <c r="B13" s="1">
         <v>15</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1">
-        <v>150002</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1953</v>
+      </c>
+      <c r="J13" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1">
+        <v>150002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>1977</v>
-      </c>
-      <c r="J14" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>160001</v>
-      </c>
-      <c r="B15" s="1">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1979</v>
       </c>
       <c r="J15" s="1">
         <v>150001</v>
@@ -1007,163 +1023,163 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" s="1">
+        <v>160001</v>
       </c>
       <c r="B16" s="1">
         <v>16</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1">
-        <v>1984</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
-        <v>160001</v>
+        <v>1979</v>
+      </c>
+      <c r="J16" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>160002</v>
+      <c r="A17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
-        <v>1981</v>
-      </c>
-      <c r="J17" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>9</v>
+        <v>1984</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>160001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="1">
+        <v>160002</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1">
-        <v>1985</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <v>160002</v>
+        <v>1981</v>
+      </c>
+      <c r="J18" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>160003</v>
+      <c r="A19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
-        <v>1988</v>
-      </c>
-      <c r="J19" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>9</v>
+        <v>1985</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <v>160002</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="1">
+        <v>160003</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
-        <v>1989</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1">
-        <v>160003</v>
+        <v>1988</v>
+      </c>
+      <c r="J20" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1">
-        <v>1991</v>
-      </c>
-      <c r="J21" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>9</v>
+        <v>1989</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <v>160003</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1">
-        <v>1978</v>
+        <v>1991</v>
       </c>
       <c r="J22" s="1">
-        <v>150002</v>
+        <v>150001</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>160004</v>
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="J23" s="1">
         <v>150002</v>
@@ -1173,104 +1189,107 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="1">
+        <v>160004</v>
       </c>
       <c r="B24" s="1">
         <v>16</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1">
-        <v>160004</v>
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1980</v>
+      </c>
+      <c r="J24" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>160005</v>
+      <c r="A25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1982</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2023</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="1">
-        <v>150002</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <v>160004</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="1">
+        <v>160005</v>
       </c>
       <c r="B26" s="1">
         <v>16</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1982</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>1987</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
         <v>160005</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>170001</v>
-      </c>
-      <c r="B27" s="1">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2007</v>
-      </c>
-      <c r="J27" s="1">
-        <v>160001</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>17</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="J28" s="1">
         <v>160001</v>
@@ -1281,39 +1300,36 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="J29" s="1">
-        <v>160002</v>
+        <v>160001</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>170002</v>
+      <c r="A30" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B30" s="1">
         <v>17</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="J30" s="1">
         <v>160002</v>
@@ -1323,40 +1339,40 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="1">
+        <v>170002</v>
       </c>
       <c r="B31" s="1">
         <v>17</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="J31" s="1">
-        <v>160004</v>
+        <v>160002</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>170003</v>
+      <c r="A32" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B32" s="1">
         <v>17</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="J32" s="1">
         <v>160004</v>
@@ -1367,7 +1383,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>170004</v>
+        <v>170003</v>
       </c>
       <c r="B33" s="1">
         <v>17</v>
@@ -1376,10 +1392,10 @@
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="J33" s="1">
         <v>160004</v>
@@ -1390,7 +1406,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>170005</v>
+        <v>170004</v>
       </c>
       <c r="B34" s="1">
         <v>17</v>
@@ -1399,30 +1415,33 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="J34" s="1">
-        <v>160005</v>
+        <v>160004</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
+      <c r="A35" s="1">
+        <v>170005</v>
       </c>
       <c r="B35" s="1">
         <v>17</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J35" s="1">
         <v>160005</v>
@@ -1432,25 +1451,45 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>170006</v>
+      <c r="A36" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B36" s="1">
         <v>17</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="J36" s="1">
         <v>160005</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>170006</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J37" s="1">
+        <v>160005</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B96CD-4FDD-4244-9E0C-CD9F989C7DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F2739-9680-49E0-95DA-05642957EBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$220</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="421">
   <si>
     <t>ID</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Dương Danh Mưu</t>
-  </si>
-  <si>
-    <t>12/10</t>
   </si>
   <si>
     <t>Dương Danh Mô</t>
@@ -1298,6 +1295,15 @@
   </si>
   <si>
     <t>Hiệu Thuần An</t>
+  </si>
+  <si>
+    <t>140008v2</t>
+  </si>
+  <si>
+    <t>160020v1</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương</t>
   </si>
 </sst>
 </file>
@@ -1673,11 +1679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L220"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J202" sqref="J202:K202"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1741,19 +1747,19 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>63</v>
@@ -1762,22 +1768,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>59</v>
@@ -1800,19 +1806,19 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>59</v>
@@ -1821,30 +1827,30 @@
         <v>80001</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>59</v>
@@ -1864,19 +1870,19 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>59</v>
@@ -1885,30 +1891,30 @@
         <v>90001</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>59</v>
@@ -1928,7 +1934,7 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -1937,7 +1943,7 @@
         <v>59</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>59</v>
@@ -1946,21 +1952,18 @@
         <v>90001</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>100003</v>
+      <c r="A9" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>59</v>
@@ -1969,94 +1972,91 @@
         <v>59</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1">
         <v>90001</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>110001</v>
-      </c>
-      <c r="B10" s="1">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="1">
-        <v>100001</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="1">
-        <v>110001</v>
+      <c r="K11" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>402</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>59</v>
@@ -2065,21 +2065,21 @@
         <v>59</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>106</v>
+        <v>404</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>59</v>
       </c>
       <c r="L12" s="1">
-        <v>110001</v>
+        <v>100003</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>110002</v>
+        <v>110001</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2088,7 +2088,7 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>59</v>
@@ -2096,11 +2096,11 @@
       <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
+      <c r="G13" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>59</v>
@@ -2109,154 +2109,148 @@
         <v>100001</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>110003</v>
+      <c r="A14" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="1">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="1">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>110002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>110003</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="1">
-        <v>100001</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>120001</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="1">
-        <v>110001</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>120002</v>
-      </c>
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="1">
-        <v>110001</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="1">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="1">
-        <v>120001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
@@ -2264,31 +2258,31 @@
       <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>119</v>
+      <c r="G18" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>59</v>
       </c>
       <c r="L18" s="1">
-        <v>120001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>110003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>130001</v>
+        <v>110004</v>
       </c>
       <c r="B19" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>59</v>
@@ -2296,34 +2290,34 @@
       <c r="F19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
+      <c r="G19" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J19" s="1">
-        <v>120001</v>
+        <v>100002</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>130002</v>
+        <v>110005</v>
       </c>
       <c r="B20" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
@@ -2331,66 +2325,57 @@
       <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J20" s="1">
-        <v>120001</v>
+        <v>100002</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>130003</v>
-      </c>
-      <c r="B21" s="1">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="1">
-        <v>120001</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>117</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="11">
+        <v>110006</v>
+      </c>
+      <c r="B21" s="11">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="11">
+        <v>100002</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="B22" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>59</v>
@@ -2399,62 +2384,59 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>124</v>
+        <v>374</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="1">
-        <v>130001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>140001</v>
+        <v>59</v>
+      </c>
+      <c r="L22" s="16">
+        <v>110006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B23" s="1">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1910</v>
+        <v>376</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>70</v>
+      <c r="G23" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>59</v>
+        <v>378</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="1">
-        <v>130001</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="L23" s="16">
+        <v>110006</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
+      <c r="A24" s="1">
+        <v>110007</v>
       </c>
       <c r="B24" s="1">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>59</v>
@@ -2463,84 +2445,94 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>59</v>
+        <v>401</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="1">
-        <v>140001</v>
+        <v>59</v>
+      </c>
+      <c r="J24" s="1">
+        <v>100003</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
+      <c r="A25" s="1">
+        <v>110008</v>
       </c>
       <c r="B25" s="1">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1910</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1999</v>
+        <v>407</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="1">
-        <v>140001</v>
+        <v>59</v>
+      </c>
+      <c r="J25" s="1">
+        <v>100003</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>140002</v>
+      <c r="A26" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B26" s="1">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1920</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2009</v>
+        <v>411</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>73</v>
+        <v>413</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L26" s="1">
+        <v>110008</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>140003</v>
+      <c r="A27" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B27" s="1">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>59</v>
@@ -2548,638 +2540,941 @@
       <c r="F27" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G27" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="H27" s="5" t="s">
-        <v>59</v>
+        <v>413</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="L27" s="1">
+        <v>110008</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
+      <c r="A28" s="1">
+        <v>120001</v>
       </c>
       <c r="B28" s="1">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1943</v>
+        <v>108</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J28" s="1">
-        <v>140001</v>
+        <v>110001</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>150001</v>
+      <c r="A29" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B29" s="1">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1945</v>
+        <v>113</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="1">
-        <v>140001</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="1">
+        <v>120001</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1953</v>
+        <v>117</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="L30" s="1">
-        <v>150001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>120002</v>
       </c>
       <c r="B31" s="1">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1950</v>
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J31" s="1">
-        <v>140001</v>
+        <v>110001</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>150002</v>
+      <c r="A32" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B32" s="1">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1953</v>
-      </c>
-      <c r="J32" s="1">
-        <v>140001</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>57</v>
+        <v>117</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="1">
+        <v>120002</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
+      <c r="A33" s="1">
+        <v>120003</v>
       </c>
       <c r="B33" s="1">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D33" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="16">
+        <v>110006</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>120004</v>
+      </c>
+      <c r="B34" s="1">
         <v>12</v>
       </c>
-      <c r="L33" s="1">
-        <v>150002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1">
-        <v>15</v>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1977</v>
-      </c>
-      <c r="J34" s="1">
-        <v>150001</v>
+        <v>380</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="16">
+        <v>110006</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>160001</v>
+      <c r="A35" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="B35" s="1">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="1">
+        <v>120004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>120005</v>
+      </c>
+      <c r="B36" s="1">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>381</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="16">
+        <v>110006</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="1">
+        <v>120005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>120006</v>
+      </c>
+      <c r="B38" s="1">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="1">
+        <v>110008</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>130001</v>
+      </c>
+      <c r="B39" s="1">
         <v>13</v>
       </c>
-      <c r="E35" s="1">
-        <v>1979</v>
-      </c>
-      <c r="J35" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1984</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1">
-        <v>160001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>160002</v>
-      </c>
-      <c r="B37" s="1">
-        <v>16</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1981</v>
-      </c>
-      <c r="J37" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1985</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1">
-        <v>160002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>160003</v>
-      </c>
-      <c r="B39" s="1">
-        <v>16</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1988</v>
+        <v>65</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J39" s="1">
-        <v>150001</v>
+        <v>120001</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1989</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L40" s="1">
-        <v>160003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>130001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>130002</v>
       </c>
       <c r="B41" s="1">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1991</v>
+        <v>121</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J41" s="1">
-        <v>150001</v>
+        <v>120001</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1978</v>
-      </c>
-      <c r="J42" s="1">
-        <v>150002</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>11</v>
+        <v>128</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="1">
+        <v>130002</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>160004</v>
+      <c r="A43" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B43" s="1">
-        <v>16</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1980</v>
-      </c>
-      <c r="J43" s="1">
-        <v>150002</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L43" s="1">
+        <v>130002</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>23</v>
+      <c r="A44" s="1">
+        <v>130003</v>
       </c>
       <c r="B44" s="1">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1">
-        <v>160004</v>
+        <v>122</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>160005</v>
+      <c r="A45" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B45" s="1">
-        <v>16</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1982</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2023</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="1">
-        <v>150002</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="L45">
+        <v>130003</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>26</v>
+      <c r="A46" s="1">
+        <v>130004</v>
       </c>
       <c r="B46" s="1">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1987</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1">
-        <v>160005</v>
+        <v>197</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
-        <v>170001</v>
+      <c r="A47" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B47" s="1">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2007</v>
-      </c>
-      <c r="J47" s="1">
-        <v>160001</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>14</v>
+        <v>204</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" s="1">
+        <v>130004</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="B48" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2012</v>
-      </c>
-      <c r="J48" s="1">
-        <v>160001</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>206</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" s="1">
+        <v>130004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>130005</v>
       </c>
       <c r="B49" s="1">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2016</v>
+        <v>198</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J49" s="1">
-        <v>160002</v>
+        <v>120002</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
-        <v>170002</v>
+      <c r="A50" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B50" s="1">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J50" s="1">
-        <v>160002</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50" s="1">
+        <v>130005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>130006</v>
       </c>
       <c r="B51" s="1">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2004</v>
+        <v>199</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J51" s="1">
-        <v>160004</v>
+        <v>120002</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>170003</v>
+        <v>130007</v>
       </c>
       <c r="B52" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="1">
-        <v>2006</v>
+        <v>200</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J52" s="1">
-        <v>160004</v>
+        <v>120002</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="1">
-        <v>170004</v>
+      <c r="A53" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B53" s="1">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2009</v>
-      </c>
-      <c r="J53" s="1">
-        <v>160004</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L53" s="1">
+        <v>130007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>170005</v>
+        <v>130008</v>
       </c>
       <c r="B54" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2006</v>
+        <v>201</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="J54" s="1">
-        <v>160005</v>
+        <v>120002</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>304</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2007</v>
-      </c>
-      <c r="J55" s="1">
-        <v>160005</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>26</v>
+        <v>305</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L55" s="1">
+        <v>130008</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>170006</v>
+        <v>130009</v>
       </c>
       <c r="B56" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2012</v>
+        <v>389</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J56" s="1">
-        <v>160005</v>
+        <v>120004</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>26</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>128</v>
+      <c r="A57" s="1">
+        <v>130010</v>
       </c>
       <c r="B57" s="1">
         <v>13</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>392</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>59</v>
@@ -3187,28 +3482,28 @@
       <c r="F57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="H57" s="5" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="1">
-        <v>130002</v>
+      <c r="J57" s="1">
+        <v>120005</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>132</v>
+        <v>393</v>
       </c>
       <c r="B58" s="1">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>59</v>
@@ -3217,30 +3512,27 @@
         <v>59</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>135</v>
+        <v>397</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>59</v>
       </c>
       <c r="L58" s="1">
-        <v>130002</v>
+        <v>130010</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A59" s="1">
-        <v>140002</v>
+      <c r="A59" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B59" s="1">
-        <v>14</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
@@ -3248,51 +3540,57 @@
       <c r="F59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="I59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J59" s="1">
-        <v>130002</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>137</v>
+      <c r="L59" s="1">
+        <v>130010</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>140001</v>
       </c>
       <c r="B60" s="1">
         <v>14</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1910</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>139</v>
+      <c r="G60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="1">
+        <v>130001</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>59</v>
@@ -3301,56 +3599,47 @@
         <v>59</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L61">
-        <v>130003</v>
+        <v>63</v>
+      </c>
+      <c r="L61" s="1">
+        <v>140001</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" s="1">
-        <v>140003</v>
+      <c r="A62" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B62" s="1">
         <v>14</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>143</v>
+        <v>58</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1910</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1999</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J62">
-        <v>130003</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>142</v>
+        <v>63</v>
+      </c>
+      <c r="L62" s="1">
+        <v>140001</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
-        <v>140004</v>
+        <v>140002</v>
       </c>
       <c r="B63" s="1">
         <v>14</v>
@@ -3359,7 +3648,7 @@
         <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>59</v>
@@ -3367,25 +3656,31 @@
       <c r="F63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J63">
-        <v>130003</v>
+      <c r="G63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="1">
+        <v>130002</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="1">
-        <v>140005</v>
+      <c r="A64" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B64" s="1">
         <v>14</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>59</v>
@@ -3393,22 +3688,22 @@
       <c r="F64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J64">
-        <v>130003</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>142</v>
+      <c r="G64" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>144</v>
+      <c r="A65" s="1">
+        <v>140003</v>
       </c>
       <c r="B65" s="1">
         <v>14</v>
       </c>
+      <c r="C65" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>59</v>
@@ -3417,7 +3712,7 @@
         <v>59</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>59</v>
@@ -3425,105 +3720,132 @@
       <c r="I65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L65" s="1">
+      <c r="J65">
+        <v>130003</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="1">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L66" s="1">
         <v>140003</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66" s="1">
-        <v>150003</v>
-      </c>
-      <c r="B66" s="1">
-        <v>15</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J66" s="1">
-        <v>140003</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>147</v>
+      <c r="A67" s="1">
+        <v>140004</v>
       </c>
       <c r="B67" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L67" s="1">
-        <v>150003</v>
+      <c r="F67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67">
+        <v>130003</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A68" s="1">
-        <v>160006</v>
+      <c r="A68" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B68" s="1">
-        <v>16</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J68" s="1">
-        <v>150003</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>147</v>
+      <c r="F68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L68" s="1">
+        <v>140004</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>160007</v>
+        <v>140005</v>
       </c>
       <c r="B69" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J69" s="1">
-        <v>150003</v>
+      <c r="F69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69">
+        <v>130003</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B70" s="1">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>59</v>
@@ -3541,21 +3863,21 @@
         <v>59</v>
       </c>
       <c r="L70" s="1">
-        <v>140004</v>
+        <v>140005</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>150004</v>
+        <v>140006</v>
       </c>
       <c r="B71" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>59</v>
@@ -3563,34 +3885,25 @@
       <c r="F71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J71" s="1">
-        <v>140004</v>
+        <v>130004</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>150005</v>
+        <v>140007</v>
       </c>
       <c r="B72" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>59</v>
@@ -3598,166 +3911,214 @@
       <c r="F72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J72" s="1">
-        <v>140004</v>
+        <v>130004</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A73" s="1">
-        <v>150006</v>
+      <c r="A73" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B73" s="1">
-        <v>15</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J73" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>151</v>
+      <c r="F73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L73" s="1">
+        <v>140007</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>150007</v>
+        <v>140008</v>
       </c>
       <c r="B74" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J74" s="1">
-        <v>140004</v>
+        <v>130005</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
-        <v>150008</v>
+        <v>140008</v>
       </c>
       <c r="B75" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J75" s="1">
-        <v>140004</v>
+        <v>130007</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A76" s="1">
-        <v>150009</v>
+      <c r="A76" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J76" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>151</v>
+      <c r="F76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L76" s="1">
+        <v>140008</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="B77" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="L77" s="1">
-        <v>150004</v>
+        <v>140008</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>160008</v>
+        <v>140009</v>
       </c>
       <c r="B78" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J78" s="1">
-        <v>150004</v>
+        <v>130008</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>160009</v>
+        <v>140010</v>
       </c>
       <c r="B79" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>59</v>
@@ -3765,22 +4126,31 @@
       <c r="F79" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G79" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J79" s="1">
-        <v>150004</v>
+        <v>130008</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="B80" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>59</v>
@@ -3791,271 +4161,304 @@
       <c r="G80" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H80" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="L80" s="1">
-        <v>150005</v>
+        <v>140010</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A81" s="1">
-        <v>160010</v>
+      <c r="A81" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="B81" s="1">
-        <v>16</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J81" s="1">
-        <v>150005</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>163</v>
+      <c r="F81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L81" s="1">
+        <v>140010</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>166</v>
+      <c r="A82" s="1">
+        <v>140011</v>
       </c>
       <c r="B82" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L82" s="1">
-        <v>150006</v>
+      <c r="F82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A83" s="1">
-        <v>160011</v>
+      <c r="A83" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="B83" s="1">
-        <v>16</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="1">
-        <v>150006</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>166</v>
+      <c r="F83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L83" s="1">
+        <v>140011</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>168</v>
+      <c r="A84" s="1">
+        <v>140012</v>
       </c>
       <c r="B84" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L84" s="1">
-        <v>150007</v>
+      <c r="F84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J84" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A85" s="1">
-        <v>160012</v>
+      <c r="A85" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="B85" s="1">
-        <v>16</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J85" s="1">
-        <v>150007</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>168</v>
+      <c r="F85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L85" s="1">
+        <v>140012</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>171</v>
+      <c r="A86" s="1">
+        <v>140013</v>
       </c>
       <c r="B86" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L86" s="1">
-        <v>150008</v>
+      <c r="F86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J86" s="1">
+        <v>130010</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>160013</v>
+        <v>150001</v>
       </c>
       <c r="B87" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1945</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="J87" s="1">
-        <v>150008</v>
+        <v>140001</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A88" s="1">
-        <v>160014</v>
+      <c r="A88" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B88" s="1">
-        <v>16</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J88" s="1">
-        <v>150008</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>171</v>
+        <v>8</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1953</v>
+      </c>
+      <c r="L88" s="1">
+        <v>150001</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>174</v>
+      <c r="A89" s="1">
+        <v>150002</v>
       </c>
       <c r="B89" s="1">
         <v>15</v>
       </c>
+      <c r="C89" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D89" t="s">
-        <v>176</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L89" s="1">
-        <v>150009</v>
+        <v>10</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1953</v>
+      </c>
+      <c r="J89" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="B90" s="1">
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L90" s="1">
-        <v>150009</v>
+        <v>150002</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
-        <v>160015</v>
+        <v>150003</v>
       </c>
       <c r="B91" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J91" s="1">
-        <v>150009</v>
+        <v>140003</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="B92" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="L92" s="1">
-        <v>140005</v>
+        <v>150003</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
-        <v>150010</v>
+        <v>150004</v>
       </c>
       <c r="B93" s="1">
         <v>15</v>
@@ -4064,7 +4467,7 @@
         <v>52</v>
       </c>
       <c r="D93" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>59</v>
@@ -4073,50 +4476,41 @@
         <v>59</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="J93" s="1">
-        <v>140005</v>
+        <v>140004</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A94" s="1">
-        <v>150011</v>
+      <c r="A94" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B94" s="1">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G94" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J94" s="1">
-        <v>140005</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>179</v>
+      <c r="L94" s="1">
+        <v>150004</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
-        <v>150012</v>
+        <v>150005</v>
       </c>
       <c r="B95" s="1">
         <v>15</v>
@@ -4125,302 +4519,248 @@
         <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J95" s="1">
-        <v>140005</v>
+        <v>140004</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B96" s="1">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="L96" s="1">
-        <v>150011</v>
+        <v>150005</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
-        <v>160015</v>
+        <v>150006</v>
       </c>
       <c r="B97" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J97" s="1">
-        <v>150011</v>
+        <v>140004</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A98" s="1">
-        <v>160016</v>
+      <c r="A98" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B98" s="1">
-        <v>16</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J98" s="1">
-        <v>150011</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>187</v>
+      <c r="L98" s="1">
+        <v>150006</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>191</v>
+      <c r="A99" s="1">
+        <v>150007</v>
       </c>
       <c r="B99" s="1">
         <v>15</v>
       </c>
+      <c r="C99" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D99" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L99" s="1">
-        <v>150012</v>
+      <c r="J99" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A100" s="1">
-        <v>160017</v>
+      <c r="A100" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B100" s="1">
-        <v>16</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J100" s="1">
-        <v>150012</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>191</v>
+      <c r="L100" s="1">
+        <v>150007</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
-        <v>195</v>
+      <c r="A101" s="1">
+        <v>150008</v>
       </c>
       <c r="B101" s="1">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L101" s="1">
-        <v>120002</v>
+      <c r="J101" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A102" s="1">
-        <v>130004</v>
+      <c r="A102" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B102" s="1">
-        <v>13</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J102" s="1">
-        <v>120002</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="L102" s="1">
+        <v>150008</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
-        <v>130005</v>
+        <v>150009</v>
       </c>
       <c r="B103" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J103" s="1">
-        <v>120002</v>
+        <v>140004</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A104" s="1">
-        <v>130006</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B104" s="1">
-        <v>13</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J104" s="1">
-        <v>120002</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>195</v>
+      <c r="L104" s="1">
+        <v>150009</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A105" s="1">
-        <v>130007</v>
+      <c r="A105" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B105" s="1">
-        <v>13</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J105" s="1">
-        <v>120002</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="L105" s="1">
+        <v>150009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
-        <v>130008</v>
+        <v>150010</v>
       </c>
       <c r="B106" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>59</v>
@@ -4428,173 +4768,146 @@
       <c r="F106" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>303</v>
+      <c r="G106" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>304</v>
+        <v>59</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="J106" s="1">
-        <v>120002</v>
+        <v>140005</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>209</v>
+      <c r="A107" s="1">
+        <v>150011</v>
       </c>
       <c r="B107" s="1">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G107" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L107" s="1">
-        <v>130004</v>
+        <v>184</v>
+      </c>
+      <c r="J107" s="1">
+        <v>140005</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B108" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="L108" s="1">
-        <v>130004</v>
+        <v>150011</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
-        <v>140006</v>
+        <v>150012</v>
       </c>
       <c r="B109" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D109" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J109" s="1">
-        <v>130004</v>
+        <v>140005</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="1">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L110" s="1">
+        <v>150012</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>150013</v>
+      </c>
+      <c r="B111" s="1">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" t="s">
+        <v>215</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J111" s="1">
         <v>140007</v>
       </c>
-      <c r="B110" s="1">
-        <v>14</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="K111" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J110" s="1">
-        <v>130004</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B111" s="1">
-        <v>14</v>
-      </c>
-      <c r="D111" t="s">
-        <v>214</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I111" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L111" s="1">
-        <v>140007</v>
-      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A112" s="1">
-        <v>150013</v>
+      <c r="A112" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B112" s="1">
         <v>15</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D112" t="s">
-        <v>216</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J112" s="1">
-        <v>140007</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="L112" s="1">
+        <v>150013</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
@@ -4608,16 +4921,16 @@
         <v>52</v>
       </c>
       <c r="D113" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>59</v>
@@ -4629,35 +4942,44 @@
         <v>140007</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
-        <v>219</v>
+      <c r="A114" s="1">
+        <v>150015</v>
       </c>
       <c r="B114" s="1">
         <v>15</v>
       </c>
+      <c r="C114" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D114" t="s">
-        <v>220</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="L114" s="1">
-        <v>150013</v>
+        <v>228</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J114" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B115" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>59</v>
@@ -4665,63 +4987,42 @@
       <c r="F115" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G115" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="L115" s="1">
-        <v>130005</v>
+        <v>150015</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
+        <v>150016</v>
+      </c>
+      <c r="B116" s="1">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" t="s">
+        <v>229</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J116" s="1">
         <v>140008</v>
       </c>
-      <c r="B116" s="1">
-        <v>14</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="K116" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J116" s="1">
-        <v>130005</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B117" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>59</v>
@@ -4729,6 +5030,9 @@
       <c r="F117" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G117" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="H117" s="5" t="s">
         <v>59</v>
       </c>
@@ -4736,12 +5040,12 @@
         <v>59</v>
       </c>
       <c r="L117" s="1">
-        <v>140008</v>
+        <v>150016</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
-        <v>150015</v>
+        <v>150017</v>
       </c>
       <c r="B118" s="1">
         <v>15</v>
@@ -4750,47 +5054,35 @@
         <v>52</v>
       </c>
       <c r="D118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F118" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J118" s="1">
         <v>140008</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A119" s="1">
-        <v>150016</v>
+      <c r="A119" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B119" s="1">
         <v>15</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D119" t="s">
-        <v>230</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J119" s="1">
-        <v>140008</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+      <c r="L119" s="1">
+        <v>150017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
-        <v>150017</v>
+        <v>150018</v>
       </c>
       <c r="B120" s="1">
         <v>15</v>
@@ -4799,402 +5091,467 @@
         <v>52</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I120" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J120" s="1">
         <v>140008</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
-        <v>232</v>
+      <c r="A121" s="1">
+        <v>150019</v>
       </c>
       <c r="B121" s="1">
         <v>15</v>
       </c>
+      <c r="C121" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D121" t="s">
-        <v>233</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L121" s="1">
-        <v>150015</v>
+        <v>277</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1945</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J121" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A122" s="1">
-        <v>160018</v>
+      <c r="A122" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="B122" s="1">
-        <v>16</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>234</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J122" s="1">
-        <v>150015</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>232</v>
+        <v>283</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1947</v>
+      </c>
+      <c r="L122" s="1">
+        <v>150019</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
-        <v>160019</v>
+        <v>150020</v>
       </c>
       <c r="B123" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D123" t="s">
-        <v>235</v>
+        <v>317</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="J123" s="1">
-        <v>150015</v>
+        <v>140010</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A124" s="1">
-        <v>160020</v>
+      <c r="A124" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B124" s="1">
-        <v>16</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J124" s="1">
-        <v>150015</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>232</v>
+      <c r="F124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L124" s="1">
+        <v>150020</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
-        <v>237</v>
+      <c r="A125" s="1">
+        <v>150021</v>
       </c>
       <c r="B125" s="1">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D125" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L125" s="1">
-        <v>160018</v>
+      <c r="F125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J125" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A126" s="1">
-        <v>170006</v>
+      <c r="A126" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="B126" s="1">
-        <v>17</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>239</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1991</v>
-      </c>
-      <c r="J126" s="1">
-        <v>160018</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>237</v>
+        <v>327</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L126" s="1">
+        <v>150021</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
-        <v>240</v>
+      <c r="A127" s="1">
+        <v>150022</v>
       </c>
       <c r="B127" s="1">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>241</v>
+        <v>330</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L127" s="1">
-        <v>160019</v>
+      <c r="J127" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A128" s="1">
-        <v>170007</v>
+      <c r="A128" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B128" s="1">
-        <v>17</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J128" s="1">
-        <v>160019</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>240</v>
+      <c r="L128" s="1">
+        <v>150022</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
-        <v>243</v>
+      <c r="A129" s="1">
+        <v>150023</v>
       </c>
       <c r="B129" s="1">
         <v>15</v>
       </c>
+      <c r="C129" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D129" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I129" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L129" s="1">
-        <v>150016</v>
+      <c r="J129" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A130" s="1">
-        <v>160021</v>
+      <c r="A130" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="B130" s="1">
-        <v>16</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
-      </c>
-      <c r="J130" s="1">
-        <v>150016</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>243</v>
+        <v>336</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L130" s="1">
+        <v>150023</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
-        <v>160022</v>
+        <v>150024</v>
       </c>
       <c r="B131" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D131" t="s">
-        <v>246</v>
+        <v>341</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J131" s="1">
-        <v>150016</v>
+        <v>140011</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A132" s="1">
-        <v>160023</v>
+      <c r="A132" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B132" s="1">
-        <v>16</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>247</v>
-      </c>
-      <c r="J132" s="1">
-        <v>150016</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>243</v>
+        <v>342</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L132" s="1">
+        <v>150024</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
-        <v>160024</v>
+        <v>150025</v>
       </c>
       <c r="B133" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D133" t="s">
-        <v>248</v>
+        <v>353</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="J133" s="1">
-        <v>150016</v>
+        <v>140012</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="B134" s="1">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>54</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1943</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J134" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="1">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>56</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1950</v>
+      </c>
+      <c r="J135" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" s="1">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1977</v>
+      </c>
+      <c r="J136" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>160001</v>
+      </c>
+      <c r="B137" s="1">
         <v>16</v>
       </c>
-      <c r="D134" t="s">
-        <v>249</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L134" s="1">
-        <v>160021</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A135" s="1">
-        <v>170008</v>
-      </c>
-      <c r="B135" s="1">
-        <v>17</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" t="s">
-        <v>25</v>
-      </c>
-      <c r="J135" s="1">
-        <v>160021</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A136" s="1">
-        <v>170009</v>
-      </c>
-      <c r="B136" s="1">
-        <v>17</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D136" t="s">
-        <v>251</v>
-      </c>
-      <c r="J136" s="1">
-        <v>160021</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B137" s="1">
-        <v>15</v>
+      <c r="C137" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D137" t="s">
-        <v>253</v>
-      </c>
-      <c r="L137" s="1">
-        <v>150017</v>
+        <v>13</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1979</v>
+      </c>
+      <c r="J137" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A138" s="1">
-        <v>160025</v>
+      <c r="A138" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B138" s="1">
         <v>16</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D138" t="s">
-        <v>254</v>
-      </c>
-      <c r="J138" s="1">
-        <v>150017</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>252</v>
+        <v>15</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1984</v>
+      </c>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1">
+        <v>160001</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
-        <v>160026</v>
+        <v>160002</v>
       </c>
       <c r="B139" s="1">
         <v>16</v>
@@ -5203,38 +5560,40 @@
         <v>52</v>
       </c>
       <c r="D139" t="s">
-        <v>255</v>
+        <v>16</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1981</v>
       </c>
       <c r="J139" s="1">
-        <v>150017</v>
+        <v>150001</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A140" s="1">
-        <v>160027</v>
+      <c r="A140" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B140" s="1">
         <v>16</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D140" t="s">
-        <v>256</v>
-      </c>
-      <c r="J140" s="1">
-        <v>150017</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>252</v>
+        <v>18</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1985</v>
+      </c>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1">
+        <v>160002</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
-        <v>160028</v>
+        <v>160003</v>
       </c>
       <c r="B141" s="1">
         <v>16</v>
@@ -5243,240 +5602,222 @@
         <v>52</v>
       </c>
       <c r="D141" t="s">
-        <v>158</v>
+        <v>19</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1988</v>
       </c>
       <c r="J141" s="1">
-        <v>150017</v>
+        <v>150001</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="B142" s="1">
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>258</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1989</v>
+      </c>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
       <c r="L142" s="1">
-        <v>160025</v>
+        <v>160003</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
-        <v>259</v>
+      <c r="A143" s="1">
+        <v>160004</v>
       </c>
       <c r="B143" s="1">
         <v>16</v>
       </c>
+      <c r="C143" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D143" t="s">
-        <v>260</v>
-      </c>
-      <c r="L143" s="1">
-        <v>160026</v>
+        <v>22</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1980</v>
+      </c>
+      <c r="J143" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="B144" s="1">
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>262</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
       <c r="L144" s="1">
-        <v>160027</v>
+        <v>160004</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
-        <v>267</v>
+      <c r="A145" s="1">
+        <v>160005</v>
       </c>
       <c r="B145" s="1">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D145" t="s">
-        <v>268</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>270</v>
+        <v>25</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1982</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2023</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L145" s="1">
-        <v>130007</v>
+        <v>64</v>
+      </c>
+      <c r="J145" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A146" s="1">
-        <v>140008</v>
+      <c r="A146" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B146" s="1">
-        <v>14</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>271</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I146" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J146" s="1">
-        <v>130007</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>267</v>
+        <v>27</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1987</v>
+      </c>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1">
+        <v>160005</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A147" s="1" t="s">
-        <v>227</v>
+      <c r="A147" s="1">
+        <v>160006</v>
       </c>
       <c r="B147" s="1">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D147" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I147" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L147" s="1">
-        <v>140008</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="J147" s="1">
+        <v>150003</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
-        <v>150018</v>
+        <v>160007</v>
       </c>
       <c r="B148" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J148" s="1">
-        <v>140008</v>
+        <v>150003</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
-        <v>150019</v>
+        <v>160008</v>
       </c>
       <c r="B149" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D149" t="s">
-        <v>278</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1945</v>
-      </c>
-      <c r="F149" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I149" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J149" s="1">
-        <v>140008</v>
+        <v>150004</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
-        <v>283</v>
+      <c r="A150" s="1">
+        <v>160009</v>
       </c>
       <c r="B150" s="1">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D150" t="s">
-        <v>284</v>
-      </c>
-      <c r="E150" s="1">
-        <v>1947</v>
-      </c>
-      <c r="L150" s="1">
-        <v>150019</v>
+        <v>161</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J150" s="1">
+        <v>150004</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
-        <v>160029</v>
+        <v>160010</v>
       </c>
       <c r="B151" s="1">
         <v>16</v>
@@ -5485,21 +5826,21 @@
         <v>52</v>
       </c>
       <c r="D151" t="s">
-        <v>285</v>
-      </c>
-      <c r="E151" s="1">
-        <v>1974</v>
+        <v>164</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J151" s="1">
-        <v>150019</v>
+        <v>150005</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
-        <v>160030</v>
+        <v>160011</v>
       </c>
       <c r="B152" s="1">
         <v>16</v>
@@ -5508,523 +5849,447 @@
         <v>52</v>
       </c>
       <c r="D152" t="s">
-        <v>286</v>
-      </c>
-      <c r="E152" s="1">
-        <v>1977</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>287</v>
+        <v>29</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J152" s="1">
-        <v>150019</v>
+        <v>150006</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
-        <v>294</v>
+      <c r="A153" s="1">
+        <v>160012</v>
       </c>
       <c r="B153" s="1">
         <v>16</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D153" t="s">
-        <v>296</v>
-      </c>
-      <c r="E153" s="1">
-        <v>1979</v>
+        <v>169</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J153" s="1">
-        <v>150019</v>
+        <v>150007</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A154" s="1" t="s">
-        <v>295</v>
+      <c r="A154" s="1">
+        <v>160013</v>
       </c>
       <c r="B154" s="1">
         <v>16</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D154" t="s">
-        <v>297</v>
-      </c>
-      <c r="E154" s="1">
-        <v>1981</v>
+        <v>171</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J154" s="1">
-        <v>150019</v>
+        <v>150008</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
-        <v>288</v>
+      <c r="A155" s="1">
+        <v>160014</v>
       </c>
       <c r="B155" s="1">
         <v>16</v>
       </c>
+      <c r="C155" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D155" t="s">
-        <v>289</v>
-      </c>
-      <c r="E155" s="1">
-        <v>1979</v>
-      </c>
-      <c r="L155" s="1">
-        <v>160029</v>
+        <v>172</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J155" s="1">
+        <v>150008</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
-        <v>170010</v>
+        <v>160015</v>
       </c>
       <c r="B156" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D156" t="s">
-        <v>290</v>
-      </c>
-      <c r="E156" s="1">
-        <v>2005</v>
+        <v>177</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J156" s="1">
-        <v>160029</v>
+        <v>150009</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
-        <v>170011</v>
+        <v>160015</v>
       </c>
       <c r="B157" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D157" t="s">
-        <v>291</v>
-      </c>
-      <c r="E157" s="1">
-        <v>2008</v>
+        <v>188</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J157" s="1">
-        <v>160029</v>
+        <v>150011</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
-        <v>301</v>
+      <c r="A158" s="1">
+        <v>160016</v>
       </c>
       <c r="B158" s="1">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D158" t="s">
-        <v>292</v>
-      </c>
-      <c r="E158" s="1">
-        <v>2016</v>
+        <v>189</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J158" s="1">
-        <v>160029</v>
+        <v>150011</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A159" s="1" t="s">
-        <v>298</v>
+      <c r="A159" s="1">
+        <v>160017</v>
       </c>
       <c r="B159" s="1">
         <v>16</v>
       </c>
+      <c r="C159" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D159" t="s">
-        <v>299</v>
-      </c>
-      <c r="E159" s="1">
-        <v>1989</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="L159" s="1">
-        <v>160030</v>
+        <v>192</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J159" s="1">
+        <v>150012</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A160" s="1" t="s">
-        <v>293</v>
+      <c r="A160" s="1">
+        <v>160018</v>
       </c>
       <c r="B160" s="1">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D160" t="s">
-        <v>302</v>
-      </c>
-      <c r="E160" s="1">
-        <v>2011</v>
+        <v>233</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J160" s="1">
-        <v>160030</v>
+        <v>150015</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="B161" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I161" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="L161" s="1">
-        <v>130008</v>
+        <v>160018</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
-        <v>140009</v>
+        <v>160019</v>
       </c>
       <c r="B162" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D162" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J162" s="1">
-        <v>130008</v>
+        <v>150015</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A163" s="1">
-        <v>140010</v>
+      <c r="A163" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B163" s="1">
-        <v>14</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="I163" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J163" s="1">
-        <v>130008</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>305</v>
+      <c r="L163" s="1">
+        <v>160019</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
-        <v>140011</v>
+        <v>160020</v>
       </c>
       <c r="B164" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D164" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J164" s="1">
-        <v>130008</v>
+        <v>150015</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A165" s="1">
-        <v>140012</v>
+      <c r="A165" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B165" s="1">
-        <v>14</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J165" s="1">
-        <v>130008</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>305</v>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1">
+        <v>160020</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A166" s="1" t="s">
-        <v>315</v>
+      <c r="A166" s="1">
+        <v>160021</v>
       </c>
       <c r="B166" s="1">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D166" t="s">
-        <v>316</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L166" s="1">
-        <v>140010</v>
+        <v>244</v>
+      </c>
+      <c r="J166" s="1">
+        <v>150016</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="B167" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I167" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="L167" s="1">
-        <v>140010</v>
+        <v>160021</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
-        <v>150020</v>
+        <v>160022</v>
       </c>
       <c r="B168" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D168" t="s">
-        <v>318</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="J168" s="1">
-        <v>140010</v>
+        <v>150016</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
-        <v>150021</v>
+        <v>160023</v>
       </c>
       <c r="B169" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D169" t="s">
-        <v>319</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="J169" s="1">
-        <v>140010</v>
+        <v>150016</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
-        <v>150022</v>
+        <v>160024</v>
       </c>
       <c r="B170" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D170" t="s">
-        <v>331</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="J170" s="1">
-        <v>140010</v>
+        <v>150016</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
-        <v>150023</v>
+        <v>160025</v>
       </c>
       <c r="B171" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D171" t="s">
-        <v>332</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="J171" s="1">
-        <v>140010</v>
+        <v>150017</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="B172" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>321</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I172" s="8" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="L172" s="1">
-        <v>150020</v>
+        <v>160025</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
-        <v>160031</v>
+        <v>160026</v>
       </c>
       <c r="B173" s="1">
         <v>16</v>
@@ -6033,113 +6298,86 @@
         <v>52</v>
       </c>
       <c r="D173" t="s">
-        <v>322</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="J173" s="1">
-        <v>150020</v>
+        <v>150017</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>324</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="L174" s="1">
-        <v>160031</v>
+        <v>160026</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
-        <v>170012</v>
+        <v>160027</v>
       </c>
       <c r="B175" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D175" t="s">
-        <v>325</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="J175" s="1">
-        <v>160031</v>
+        <v>150017</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A176" s="1">
-        <v>170013</v>
+      <c r="A176" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="B176" s="1">
-        <v>17</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>326</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J176" s="1">
-        <v>160031</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>323</v>
+        <v>261</v>
+      </c>
+      <c r="L176" s="1">
+        <v>160027</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A177" s="1" t="s">
-        <v>327</v>
+      <c r="A177" s="1">
+        <v>160028</v>
       </c>
       <c r="B177" s="1">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D177" t="s">
-        <v>328</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L177" s="1">
-        <v>150021</v>
+        <v>157</v>
+      </c>
+      <c r="J177" s="1">
+        <v>150017</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
-        <v>160032</v>
+        <v>160029</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
@@ -6148,84 +6386,84 @@
         <v>52</v>
       </c>
       <c r="D178" t="s">
-        <v>254</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>59</v>
+        <v>284</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1974</v>
       </c>
       <c r="J178" s="1">
-        <v>150021</v>
+        <v>150019</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A179" s="1">
-        <v>160033</v>
+      <c r="A179" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B179" s="1">
         <v>16</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D179" t="s">
-        <v>329</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J179" s="1">
-        <v>150021</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>327</v>
+        <v>288</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1979</v>
+      </c>
+      <c r="L179" s="1">
+        <v>160029</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A180" s="1" t="s">
-        <v>334</v>
+      <c r="A180" s="1">
+        <v>160030</v>
       </c>
       <c r="B180" s="1">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D180" t="s">
-        <v>335</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L180" s="1">
-        <v>150022</v>
+        <v>285</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1977</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J180" s="1">
+        <v>150019</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A181" s="1">
-        <v>160034</v>
+      <c r="A181" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="B181" s="1">
         <v>16</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D181" t="s">
-        <v>161</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J181" s="1">
-        <v>150022</v>
-      </c>
-      <c r="K181" s="1" t="s">
-        <v>334</v>
+        <v>298</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="L181" s="1">
+        <v>160030</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
-        <v>160035</v>
+        <v>160031</v>
       </c>
       <c r="B182" s="1">
         <v>16</v>
@@ -6234,38 +6472,38 @@
         <v>52</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J182" s="1">
-        <v>150022</v>
+        <v>150020</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B183" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L183" s="1">
-        <v>150023</v>
+        <v>160031</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
-        <v>160036</v>
+        <v>160032</v>
       </c>
       <c r="B184" s="1">
         <v>16</v>
@@ -6274,21 +6512,21 @@
         <v>52</v>
       </c>
       <c r="D184" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J184" s="1">
-        <v>150023</v>
+        <v>150021</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
-        <v>160037</v>
+        <v>160033</v>
       </c>
       <c r="B185" s="1">
         <v>16</v>
@@ -6297,102 +6535,90 @@
         <v>52</v>
       </c>
       <c r="D185" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J185" s="1">
-        <v>150023</v>
+        <v>150021</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A186" s="1" t="s">
-        <v>340</v>
+      <c r="A186" s="1">
+        <v>160034</v>
       </c>
       <c r="B186" s="1">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D186" t="s">
-        <v>341</v>
+        <v>160</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I186" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L186" s="1">
-        <v>140011</v>
+      <c r="J186" s="1">
+        <v>150022</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
-        <v>150024</v>
+        <v>160035</v>
       </c>
       <c r="B187" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D187" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I187" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="J187" s="1">
-        <v>140011</v>
+        <v>150022</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A188" s="1" t="s">
-        <v>344</v>
+      <c r="A188" s="1">
+        <v>160036</v>
       </c>
       <c r="B188" s="1">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D188" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L188" s="1">
-        <v>150024</v>
+      <c r="J188" s="1">
+        <v>150023</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
-        <v>160038</v>
+        <v>160037</v>
       </c>
       <c r="B189" s="1">
         <v>16</v>
@@ -6401,21 +6627,21 @@
         <v>52</v>
       </c>
       <c r="D189" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J189" s="1">
-        <v>150024</v>
+        <v>150023</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
-        <v>160039</v>
+        <v>160038</v>
       </c>
       <c r="B190" s="1">
         <v>16</v>
@@ -6424,7 +6650,7 @@
         <v>52</v>
       </c>
       <c r="D190" t="s">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>59</v>
@@ -6433,18 +6659,18 @@
         <v>150024</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B191" s="1">
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>59</v>
@@ -6455,36 +6681,36 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
-        <v>170014</v>
+        <v>160039</v>
       </c>
       <c r="B192" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D192" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J192" s="1">
-        <v>160038</v>
+        <v>150024</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B193" s="1">
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>59</v>
@@ -6494,826 +6720,573 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A194" s="1">
-        <v>170015</v>
+      <c r="A194" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B194" s="1">
-        <v>17</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>350</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1991</v>
       </c>
       <c r="J194" s="1">
-        <v>160039</v>
+        <v>150001</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>351</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="B195" s="1">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1978</v>
+      </c>
+      <c r="J195" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B196" s="1">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>295</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1979</v>
+      </c>
+      <c r="J196" s="1">
+        <v>150019</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B197" s="1">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>296</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1981</v>
+      </c>
+      <c r="J197" s="1">
+        <v>150019</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
+        <v>170001</v>
+      </c>
+      <c r="B198" s="1">
+        <v>17</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198" t="s">
+        <v>29</v>
+      </c>
+      <c r="E198" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J198" s="1">
+        <v>160001</v>
+      </c>
+      <c r="K198" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D195" t="s">
-        <v>353</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I195" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L195" s="1">
-        <v>140012</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A196" s="1">
-        <v>150025</v>
-      </c>
-      <c r="B196" s="1">
-        <v>15</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D196" t="s">
-        <v>354</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J196" s="1">
-        <v>140012</v>
-      </c>
-      <c r="K196" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A197" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B197" s="1">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s">
-        <v>268</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I197" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L197" s="1">
-        <v>110003</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A198" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B198" s="1">
-        <v>10</v>
-      </c>
-      <c r="D198" t="s">
-        <v>101</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="I198" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L198" s="1">
-        <v>100002</v>
-      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A199" s="1" t="s">
-        <v>361</v>
+      <c r="A199" s="1">
+        <v>170002</v>
       </c>
       <c r="B199" s="1">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D199" t="s">
-        <v>101</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L199" s="1">
-        <v>100002</v>
+        <v>30</v>
+      </c>
+      <c r="E199" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J199" s="1">
+        <v>160002</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
-        <v>110004</v>
+        <v>170003</v>
       </c>
       <c r="B200" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D200" t="s">
-        <v>366</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I200" s="10" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="E200" s="1">
+        <v>2006</v>
       </c>
       <c r="J200" s="1">
-        <v>100002</v>
+        <v>160004</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>361</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
-        <v>110005</v>
+        <v>170004</v>
       </c>
       <c r="B201" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>367</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E201" s="1">
+        <v>2009</v>
       </c>
       <c r="J201" s="1">
-        <v>100002</v>
+        <v>160004</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A202" s="11">
-        <v>110006</v>
-      </c>
-      <c r="B202" s="11">
-        <v>11</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G202" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="H202" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I202" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J202" s="11">
-        <v>100002</v>
-      </c>
-      <c r="K202" s="11" t="s">
-        <v>361</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>170005</v>
+      </c>
+      <c r="B202" s="1">
+        <v>17</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D202" t="s">
+        <v>33</v>
+      </c>
+      <c r="E202" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J202" s="1">
+        <v>160005</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A203" s="1" t="s">
-        <v>373</v>
+      <c r="A203" s="1">
+        <v>170006</v>
       </c>
       <c r="B203" s="1">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>374</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G203" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I203" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L203" s="16">
-        <v>110006</v>
+        <v>34</v>
+      </c>
+      <c r="E203" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J203" s="1">
+        <v>160005</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A204" s="1" t="s">
-        <v>376</v>
+      <c r="A204" s="1">
+        <v>170006</v>
       </c>
       <c r="B204" s="1">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>377</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H204" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="I204" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L204" s="16">
-        <v>110006</v>
+        <v>238</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1991</v>
+      </c>
+      <c r="J204" s="1">
+        <v>160018</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
-        <v>120003</v>
+        <v>170007</v>
       </c>
       <c r="B205" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G205" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="H205" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I205" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J205" s="16">
-        <v>110006</v>
+      <c r="J205" s="1">
+        <v>160019</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
-        <v>120004</v>
+        <v>170008</v>
       </c>
       <c r="B206" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D206" t="s">
-        <v>381</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G206" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H206" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I206" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J206" s="16">
-        <v>110006</v>
+        <v>25</v>
+      </c>
+      <c r="J206" s="1">
+        <v>160021</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>376</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
-        <v>120005</v>
+        <v>170009</v>
       </c>
       <c r="B207" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D207" t="s">
-        <v>382</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G207" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="H207" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I207" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J207" s="16">
-        <v>110006</v>
+        <v>250</v>
+      </c>
+      <c r="J207" s="1">
+        <v>160021</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>376</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A208" s="1" t="s">
-        <v>387</v>
+      <c r="A208" s="1">
+        <v>170010</v>
       </c>
       <c r="B208" s="1">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D208" t="s">
-        <v>101</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G208" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H208" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="I208" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L208" s="1">
-        <v>120004</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+      <c r="E208" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J208" s="1">
+        <v>160029</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
-        <v>130009</v>
+        <v>170011</v>
       </c>
       <c r="B209" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I209" s="10" t="s">
-        <v>59</v>
+        <v>290</v>
+      </c>
+      <c r="E209" s="1">
+        <v>2008</v>
       </c>
       <c r="J209" s="1">
-        <v>120004</v>
+        <v>160029</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A210" s="1" t="s">
-        <v>391</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
+        <v>170012</v>
       </c>
       <c r="B210" s="1">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G210" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="H210" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="I210" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L210" s="1">
-        <v>120005</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J210" s="1">
+        <v>160031</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
-        <v>130010</v>
+        <v>170013</v>
       </c>
       <c r="B211" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D211" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H211" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I211" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J211" s="1">
-        <v>120005</v>
+        <v>160031</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A212" s="1" t="s">
-        <v>394</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
+        <v>170014</v>
       </c>
       <c r="B212" s="1">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D212" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H212" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I212" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L212" s="1">
-        <v>130010</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A213" s="1" t="s">
-        <v>395</v>
+      <c r="J212" s="1">
+        <v>160038</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
+        <v>170015</v>
       </c>
       <c r="B213" s="1">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D213" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I213" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L213" s="1">
-        <v>130010</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A214" s="1">
-        <v>140013</v>
+      <c r="J213" s="1">
+        <v>160039</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B214" s="1">
+        <v>17</v>
+      </c>
+      <c r="D214" t="s">
+        <v>43</v>
+      </c>
+      <c r="E214" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J214" s="1">
+        <v>160001</v>
+      </c>
+      <c r="K214" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D214" t="s">
-        <v>400</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H214" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I214" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J214" s="1">
-        <v>130010</v>
-      </c>
-      <c r="K214" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>403</v>
+        <v>44</v>
       </c>
       <c r="B215" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D215" t="s">
-        <v>404</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="H215" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="I215" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L215" s="1">
-        <v>100003</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A216" s="1">
-        <v>110007</v>
+        <v>45</v>
+      </c>
+      <c r="E215" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J215" s="1">
+        <v>160002</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B216" s="1">
-        <v>11</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D216" t="s">
-        <v>407</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G216" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H216" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I216" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="E216" s="1">
+        <v>2004</v>
       </c>
       <c r="J216" s="1">
-        <v>100003</v>
+        <v>160004</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A217" s="1">
-        <v>110008</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B217" s="1">
-        <v>11</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D217" t="s">
-        <v>408</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G217" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="H217" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I217" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="E217" s="1">
+        <v>2007</v>
       </c>
       <c r="J217" s="1">
-        <v>100003</v>
+        <v>160005</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>411</v>
+        <v>300</v>
       </c>
       <c r="B218" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D218" t="s">
-        <v>412</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G218" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H218" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="I218" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L218" s="1">
-        <v>110008</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+      <c r="E218" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J218" s="1">
+        <v>160029</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>415</v>
+        <v>292</v>
       </c>
       <c r="B219" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D219" t="s">
-        <v>416</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="H219" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="I219" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L219" s="1">
-        <v>110008</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A220" s="1">
-        <v>120006</v>
-      </c>
-      <c r="B220" s="1">
-        <v>12</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D220" t="s">
-        <v>231</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G220" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="I220" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J220" s="1">
-        <v>110008</v>
-      </c>
-      <c r="K220" s="1" t="s">
-        <v>415</v>
+        <v>301</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J219" s="1">
+        <v>160030</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L221" xr:uid="{4C12FB2C-A941-41D9-B9E0-026C8AC41FCD}"/>
+  <autoFilter ref="A1:L220" xr:uid="{4C12FB2C-A941-41D9-B9E0-026C8AC41FCD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L219">
+    <sortCondition ref="B2:B219"/>
+    <sortCondition ref="A2:A219"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C8023-7957-47A6-B319-56B5ED0F2CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35F9CBE-1218-41D0-B655-715D3389129B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="699">
   <si>
     <t>ID</t>
   </si>
@@ -1263,9 +1263,6 @@
   </si>
   <si>
     <t>Nguyễn Thị Hương</t>
-  </si>
-  <si>
-    <t>Đang sống</t>
   </si>
   <si>
     <t>Quê Sài Sơn, Quốc Oai</t>
@@ -2519,8 +2516,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1048576"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2594,7 +2591,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>75</v>
@@ -3194,7 +3191,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>359</v>
@@ -5164,7 +5161,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -5207,9 +5204,6 @@
       <c r="E86" s="1">
         <v>1945</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G86" s="8" t="s">
         <v>35</v>
       </c>
@@ -5234,11 +5228,8 @@
       <c r="E87" s="1">
         <v>1953</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="L87" s="1">
         <v>150001</v>
@@ -5260,9 +5251,6 @@
       <c r="E88" s="1">
         <v>1953</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J88" s="1">
         <v>140001</v>
       </c>
@@ -5284,11 +5272,8 @@
       <c r="E89" s="1">
         <v>1958</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G89" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L89" s="1">
         <v>150002</v>
@@ -5310,9 +5295,6 @@
       <c r="E90" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J90" s="1">
         <v>140003</v>
       </c>
@@ -5329,16 +5311,13 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
+        <v>410</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="L91" s="1">
         <v>150003</v>
@@ -5393,9 +5372,6 @@
       <c r="E93" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L93" s="1">
         <v>150004</v>
       </c>
@@ -5481,9 +5457,6 @@
       <c r="E96" s="1">
         <v>1957</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J96" s="1">
         <v>140004</v>
       </c>
@@ -5505,9 +5478,6 @@
       <c r="E97" s="1">
         <v>1961</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L97" s="1">
         <v>150006</v>
       </c>
@@ -5528,9 +5498,6 @@
       <c r="E98" s="1">
         <v>1961</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J98" s="1">
         <v>140004</v>
       </c>
@@ -5547,13 +5514,10 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E99" s="1">
         <v>1966</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L99" s="1">
         <v>150007</v>
@@ -5575,9 +5539,6 @@
       <c r="E100" s="1">
         <v>1964</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J100" s="1">
         <v>140004</v>
       </c>
@@ -5594,16 +5555,13 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E101" s="1">
         <v>1971</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="L101" s="1">
         <v>150008</v>
@@ -5625,9 +5583,6 @@
       <c r="E102" s="1">
         <v>1974</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J102" s="1">
         <v>140004</v>
       </c>
@@ -5644,16 +5599,13 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E103" s="1">
         <v>1979</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G103" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L103" s="1">
         <v>150009</v>
@@ -5667,13 +5619,10 @@
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L104" s="1">
         <v>150009</v>
@@ -5731,9 +5680,6 @@
       <c r="E106" s="1">
         <v>1951</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G106" s="8" t="s">
         <v>178</v>
       </c>
@@ -5758,9 +5704,6 @@
       <c r="E107" s="1">
         <v>1959</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L107" s="1">
         <v>150011</v>
       </c>
@@ -5781,9 +5724,6 @@
       <c r="E108" s="1">
         <v>1960</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J108" s="1">
         <v>140005</v>
       </c>
@@ -5800,13 +5740,10 @@
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L109" s="1">
         <v>150012</v>
@@ -5828,9 +5765,6 @@
       <c r="E110" s="1">
         <v>1943</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J110" s="1">
         <v>140007</v>
       </c>
@@ -5847,16 +5781,13 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E111" s="1">
         <v>1959</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G111" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L111" s="1">
         <v>150013</v>
@@ -5961,9 +5892,6 @@
       <c r="E115" s="1">
         <v>1930</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J115" s="1">
         <v>140008</v>
       </c>
@@ -6017,9 +5945,6 @@
       <c r="E117" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J117" s="1">
         <v>140008</v>
       </c>
@@ -6080,7 +6005,7 @@
         <v>140014</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L119"/>
     </row>
@@ -6116,7 +6041,7 @@
         <v>140014</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L120"/>
     </row>
@@ -6133,9 +6058,6 @@
       <c r="E121" s="1">
         <v>1947</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L121" s="1">
         <v>150019</v>
       </c>
@@ -6246,7 +6168,7 @@
         <v>59</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>59</v>
@@ -6274,9 +6196,6 @@
       <c r="E126" s="1">
         <v>1940</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J126" s="1">
         <v>140010</v>
       </c>
@@ -6298,9 +6217,6 @@
       <c r="E127" s="1">
         <v>1940</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L127" s="1">
         <v>150022</v>
       </c>
@@ -6321,9 +6237,6 @@
       <c r="E128" s="1">
         <v>1947</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J128" s="1">
         <v>140010</v>
       </c>
@@ -6345,11 +6258,8 @@
       <c r="E129" s="1">
         <v>1948</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G129" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L129" s="1">
         <v>150023</v>
@@ -6404,9 +6314,6 @@
       <c r="E131" s="1">
         <v>1938</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L131" s="1">
         <v>150024</v>
       </c>
@@ -6457,9 +6364,6 @@
       <c r="E133" s="1">
         <v>1979</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J133" s="1">
         <v>150001</v>
       </c>
@@ -6481,11 +6385,8 @@
       <c r="E134" s="1">
         <v>1983</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -6509,9 +6410,6 @@
       <c r="E135" s="1">
         <v>1981</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J135" s="1">
         <v>150001</v>
       </c>
@@ -6533,11 +6431,8 @@
       <c r="E136" s="1">
         <v>1985</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G136" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -6561,9 +6456,6 @@
       <c r="E137" s="1">
         <v>1988</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J137" s="1">
         <v>150001</v>
       </c>
@@ -6585,11 +6477,8 @@
       <c r="E138" s="1">
         <v>1989</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G138" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -6613,9 +6502,6 @@
       <c r="E139" s="1">
         <v>1980</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J139" s="1">
         <v>150002</v>
       </c>
@@ -6637,11 +6523,8 @@
       <c r="E140" s="1">
         <v>1983</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G140" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -6692,9 +6575,6 @@
       <c r="E142" s="1">
         <v>1987</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1">
@@ -6717,9 +6597,6 @@
       <c r="E143" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J143" s="1">
         <v>150003</v>
       </c>
@@ -6730,19 +6607,16 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B144" s="1">
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J144" s="1"/>
       <c r="L144" s="1">
@@ -6765,9 +6639,6 @@
       <c r="E145" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J145" s="1">
         <v>150003</v>
       </c>
@@ -6778,19 +6649,16 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B146" s="1">
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J146" s="1"/>
       <c r="L146" s="1">
@@ -6813,9 +6681,6 @@
       <c r="E147" s="1">
         <v>1980</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J147" s="1">
         <v>150004</v>
       </c>
@@ -6826,19 +6691,16 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B148" s="1">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E148" s="1">
         <v>1981</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L148" s="1">
         <v>160008</v>
@@ -6890,9 +6752,6 @@
       <c r="E150" s="1">
         <v>1983</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J150" s="1">
         <v>150005</v>
       </c>
@@ -6903,19 +6762,16 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B151" s="1">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E151" s="1">
         <v>1981</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L151" s="1">
         <v>160010</v>
@@ -6937,9 +6793,6 @@
       <c r="E152" s="1">
         <v>1993</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J152" s="1">
         <v>150006</v>
       </c>
@@ -6950,7 +6803,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B153" s="1">
         <v>16</v>
@@ -6961,11 +6814,8 @@
       <c r="E153" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G153" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L153" s="1">
         <v>160011</v>
@@ -6973,19 +6823,16 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B154" s="1">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L154" s="1">
         <v>160011</v>
@@ -7007,9 +6854,6 @@
       <c r="E155" s="1">
         <v>2000</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J155" s="1">
         <v>150007</v>
       </c>
@@ -7020,19 +6864,16 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B156" s="1">
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E156" s="1">
         <v>1995</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L156" s="1">
         <v>160012</v>
@@ -7054,9 +6895,6 @@
       <c r="E157" s="1">
         <v>1993</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J157" s="1">
         <v>150008</v>
       </c>
@@ -7081,9 +6919,6 @@
       <c r="E158" s="1">
         <v>1997</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J158" s="1">
         <v>150008</v>
       </c>
@@ -7108,9 +6943,6 @@
       <c r="E159" s="1">
         <v>1979</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J159" s="1">
         <v>150011</v>
       </c>
@@ -7121,19 +6953,16 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B160" s="1">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E160" s="1">
         <v>1985</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L160" s="1">
         <v>160015</v>
@@ -7155,9 +6984,6 @@
       <c r="E161" s="1">
         <v>1984</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J161" s="1">
         <v>150011</v>
       </c>
@@ -7168,19 +6994,16 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B162" s="1">
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E162" s="1">
         <v>1989</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L162" s="1">
         <v>160016</v>
@@ -7202,9 +7025,6 @@
       <c r="E163" s="1">
         <v>1989</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J163" s="1">
         <v>150012</v>
       </c>
@@ -7215,19 +7035,16 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B164" s="1">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E164" s="1">
         <v>1990</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L164" s="1">
         <v>160017</v>
@@ -7282,9 +7099,6 @@
       <c r="E166" s="1">
         <v>1953</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L166" s="1">
         <v>160018</v>
       </c>
@@ -7305,9 +7119,6 @@
       <c r="E167" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J167" s="1">
         <v>150015</v>
       </c>
@@ -7329,9 +7140,6 @@
       <c r="E168" s="1">
         <v>1962</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L168" s="1">
         <v>160019</v>
       </c>
@@ -7352,11 +7160,8 @@
       <c r="E169" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G169" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J169" s="1">
         <v>150015</v>
@@ -7378,9 +7183,6 @@
       </c>
       <c r="E170" s="1">
         <v>1977</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -7404,9 +7206,6 @@
       <c r="E171" s="1">
         <v>1954</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J171" s="1">
         <v>150016</v>
       </c>
@@ -7423,13 +7222,10 @@
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E172" s="1">
         <v>1958</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L172" s="1">
         <v>160021</v>
@@ -7451,9 +7247,6 @@
       <c r="E173" s="1">
         <v>1960</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J173" s="1">
         <v>150016</v>
       </c>
@@ -7464,19 +7257,16 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E174" s="1">
         <v>1962</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L174" s="1">
         <v>160022</v>
@@ -7498,9 +7288,6 @@
       <c r="E175" s="1">
         <v>1968</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J175" s="1">
         <v>150016</v>
       </c>
@@ -7511,13 +7298,13 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B176" s="1">
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E176" s="1">
         <v>1975</v>
@@ -7542,9 +7329,6 @@
       <c r="E177" s="1">
         <v>1978</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J177" s="1">
         <v>150016</v>
       </c>
@@ -7555,22 +7339,19 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E178" s="1">
         <v>1976</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G178" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L178" s="1">
         <v>160024</v>
@@ -7592,9 +7373,6 @@
       <c r="E179" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J179" s="1">
         <v>150017</v>
       </c>
@@ -7616,9 +7394,6 @@
       <c r="E180" s="1">
         <v>1951</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L180" s="1">
         <v>160025</v>
       </c>
@@ -7636,9 +7411,6 @@
       <c r="D181" t="s">
         <v>244</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J181" s="1">
         <v>150017</v>
       </c>
@@ -7660,9 +7432,6 @@
       <c r="E182" s="1">
         <v>1963</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L182" s="1">
         <v>160026</v>
       </c>
@@ -7680,9 +7449,6 @@
       <c r="D183" t="s">
         <v>245</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J183" s="1">
         <v>150017</v>
       </c>
@@ -7699,10 +7465,7 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>585</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>408</v>
+        <v>584</v>
       </c>
       <c r="L184" s="1">
         <v>160027</v>
@@ -7721,9 +7484,6 @@
       <c r="D185" t="s">
         <v>155</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J185" s="1">
         <v>150017</v>
       </c>
@@ -7734,13 +7494,13 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B186" s="1">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
         <v>588</v>
-      </c>
-      <c r="B186" s="1">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>589</v>
       </c>
       <c r="E186" s="1">
         <v>1972</v>
@@ -7765,9 +7525,6 @@
       <c r="E187" s="1">
         <v>1974</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J187" s="1">
         <v>150019</v>
       </c>
@@ -7789,9 +7546,6 @@
       <c r="E188" s="1">
         <v>1979</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L188" s="1">
         <v>160029</v>
       </c>
@@ -7812,9 +7566,6 @@
       <c r="E189" s="1">
         <v>1977</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G189" s="8" t="s">
         <v>275</v>
       </c>
@@ -7839,9 +7590,6 @@
       <c r="E190" s="1">
         <v>1989</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G190" s="8" t="s">
         <v>288</v>
       </c>
@@ -7865,9 +7613,6 @@
       <c r="E191" s="1">
         <v>1952</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J191" s="1">
         <v>150020</v>
       </c>
@@ -7889,9 +7634,6 @@
       <c r="E192" s="1">
         <v>1954</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L192" s="1">
         <v>160031</v>
       </c>
@@ -7912,9 +7654,6 @@
       <c r="E193" s="1">
         <v>1960</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J193" s="1">
         <v>150021</v>
       </c>
@@ -7925,7 +7664,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B194" s="1">
         <v>16</v>
@@ -7937,7 +7676,7 @@
         <v>1960</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L194" s="1">
         <v>160032</v>
@@ -7959,9 +7698,6 @@
       <c r="E195" s="1">
         <v>1964</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J195" s="1">
         <v>150021</v>
       </c>
@@ -7972,13 +7708,13 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B196" s="1">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
         <v>600</v>
-      </c>
-      <c r="B196" s="1">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>601</v>
       </c>
       <c r="E196" s="1">
         <v>1963</v>
@@ -8003,9 +7739,6 @@
       <c r="E197" s="1">
         <v>1966</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J197" s="1">
         <v>150022</v>
       </c>
@@ -8016,13 +7749,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B198" s="1">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E198" s="1">
         <v>1966</v>
@@ -8047,9 +7780,6 @@
       <c r="E199" s="1">
         <v>1974</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J199" s="1">
         <v>150022</v>
       </c>
@@ -8060,13 +7790,13 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B200" s="1">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E200" s="1">
         <v>1980</v>
@@ -8091,9 +7821,6 @@
       <c r="E201" s="1">
         <v>1970</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J201" s="1">
         <v>150023</v>
       </c>
@@ -8104,13 +7831,13 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>59</v>
@@ -8135,9 +7862,6 @@
       <c r="E203" s="1">
         <v>1981</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J203" s="1">
         <v>150023</v>
       </c>
@@ -8148,13 +7872,13 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B204" s="1">
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E204" s="1">
         <v>1985</v>
@@ -8179,9 +7903,6 @@
       <c r="E205" s="1">
         <v>1960</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J205" s="1">
         <v>150024</v>
       </c>
@@ -8203,11 +7924,8 @@
       <c r="E206" s="1">
         <v>1963</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G206" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L206" s="1">
         <v>160038</v>
@@ -8229,9 +7947,6 @@
       <c r="E207" s="1">
         <v>1963</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J207" s="1">
         <v>150024</v>
       </c>
@@ -8253,9 +7968,6 @@
       <c r="E208" s="1">
         <v>1975</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L208" s="1">
         <v>160039</v>
       </c>
@@ -8271,7 +7983,7 @@
         <v>52</v>
       </c>
       <c r="D209" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>59</v>
@@ -8306,9 +8018,6 @@
       <c r="E210" s="1">
         <v>1998</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J210" s="1">
         <v>150013</v>
       </c>
@@ -8346,13 +8055,13 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B212" s="1">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
         <v>603</v>
-      </c>
-      <c r="B212" s="1">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>604</v>
       </c>
       <c r="E212" s="1">
         <v>1973</v>
@@ -8372,13 +8081,10 @@
         <v>52</v>
       </c>
       <c r="D213" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E213" s="1">
         <v>2010</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J213" s="1">
         <v>150009</v>
@@ -8404,9 +8110,6 @@
       <c r="E214" s="1">
         <v>2007</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J214" s="1">
         <v>160001</v>
       </c>
@@ -8430,9 +8133,6 @@
       <c r="E215" s="1">
         <v>2020</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J215" s="1">
         <v>160002</v>
       </c>
@@ -8456,9 +8156,6 @@
       <c r="E216" s="1">
         <v>2005</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J216" s="1">
         <v>160004</v>
       </c>
@@ -8482,9 +8179,6 @@
       <c r="E217" s="1">
         <v>2009</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J217" s="1">
         <v>160004</v>
       </c>
@@ -8508,9 +8202,6 @@
       <c r="E218" s="1">
         <v>2004</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J218" s="1">
         <v>160005</v>
       </c>
@@ -8520,7 +8211,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
-        <v>170006</v>
+        <v>170049</v>
       </c>
       <c r="B219" s="1">
         <v>17</v>
@@ -8534,9 +8225,6 @@
       <c r="E219" s="1">
         <v>2010</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J219" s="1">
         <v>160005</v>
       </c>
@@ -8546,13 +8234,13 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B220" s="1">
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E220" s="1">
         <v>1991</v>
@@ -8577,9 +8265,6 @@
       <c r="E221" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J221" s="1">
         <v>160019</v>
       </c>
@@ -8589,13 +8274,13 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B222" s="1">
         <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E222" s="1">
         <v>1992</v>
@@ -8617,9 +8302,6 @@
       <c r="D223" t="s">
         <v>25</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J223" s="1">
         <v>160021</v>
       </c>
@@ -8643,9 +8325,6 @@
       <c r="E224" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J224" s="1">
         <v>160021</v>
       </c>
@@ -8669,9 +8348,6 @@
       <c r="E225" s="1">
         <v>2005</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J225" s="1">
         <v>160029</v>
       </c>
@@ -8695,9 +8371,6 @@
       <c r="E226" s="1">
         <v>2008</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J226" s="1">
         <v>160029</v>
       </c>
@@ -8721,9 +8394,6 @@
       <c r="E227" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J227" s="1">
         <v>160031</v>
       </c>
@@ -8733,13 +8403,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B228" s="1">
         <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E228" s="1">
         <v>1983</v>
@@ -8764,9 +8434,6 @@
       <c r="E229" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J229" s="1">
         <v>160031</v>
       </c>
@@ -8776,13 +8443,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B230" s="1">
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E230" s="1">
         <v>1979</v>
@@ -8807,9 +8474,6 @@
       <c r="E231" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J231" s="1">
         <v>160038</v>
       </c>
@@ -8833,9 +8497,6 @@
       <c r="E232" s="1">
         <v>2005</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J232" s="1">
         <v>160039</v>
       </c>
@@ -8854,19 +8515,16 @@
         <v>52</v>
       </c>
       <c r="D233" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J233" s="1">
         <v>160007</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.45">
@@ -8880,19 +8538,16 @@
         <v>52</v>
       </c>
       <c r="D234" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E234" s="1">
         <v>2012</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J234" s="1">
         <v>160008</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.45">
@@ -8906,19 +8561,16 @@
         <v>52</v>
       </c>
       <c r="D235" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E235" s="1">
         <v>2014</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J235" s="1">
         <v>160008</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.45">
@@ -8932,19 +8584,16 @@
         <v>52</v>
       </c>
       <c r="D236" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E236" s="1">
         <v>2018</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J236" s="1">
         <v>160010</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.45">
@@ -8958,19 +8607,16 @@
         <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E237" s="1">
         <v>2018</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J237" s="1">
         <v>160012</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.45">
@@ -8984,19 +8630,16 @@
         <v>52</v>
       </c>
       <c r="D238" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E238" s="1">
         <v>2023</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J238" s="1">
         <v>160012</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.45">
@@ -9010,19 +8653,16 @@
         <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E239" s="1">
         <v>2007</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J239" s="1">
         <v>160015</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.45">
@@ -9036,19 +8676,16 @@
         <v>52</v>
       </c>
       <c r="D240" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E240" s="1">
         <v>2011</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J240" s="1">
         <v>160016</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.45">
@@ -9062,19 +8699,16 @@
         <v>52</v>
       </c>
       <c r="D241" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E241" s="1">
         <v>2013</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J241" s="1">
         <v>160017</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.45">
@@ -9093,9 +8727,6 @@
       <c r="E242" s="1">
         <v>1997</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J242" s="1">
         <v>160020</v>
       </c>
@@ -9154,13 +8785,13 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B245" s="1">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E245" s="1">
         <v>1983</v>
@@ -9185,22 +8816,19 @@
       <c r="E246" s="1">
         <v>1987</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="K246" s="1">
         <v>160022</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B247" s="1">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>59</v>
@@ -9220,27 +8848,24 @@
         <v>52</v>
       </c>
       <c r="D248" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E248" s="1">
         <v>1989</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="K248" s="1">
         <v>160022</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B249" s="1">
         <v>17</v>
       </c>
       <c r="D249" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E249" s="1">
         <v>1991</v>
@@ -9260,7 +8885,7 @@
         <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E250" s="1">
         <v>2008</v>
@@ -9269,7 +8894,7 @@
         <v>160023</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.45">
@@ -9283,7 +8908,7 @@
         <v>52</v>
       </c>
       <c r="D251" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E251" s="1">
         <v>2006</v>
@@ -9292,7 +8917,7 @@
         <v>160024</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.45">
@@ -9320,13 +8945,13 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B253" s="1">
         <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E253" s="1">
         <v>1983</v>
@@ -9360,13 +8985,13 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B255" s="1">
         <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E255" s="1">
         <v>1987</v>
@@ -9386,7 +9011,7 @@
         <v>52</v>
       </c>
       <c r="D256" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E256" s="1">
         <v>1987</v>
@@ -9400,13 +9025,13 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B257" s="1">
         <v>17</v>
       </c>
       <c r="D257" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E257" s="1">
         <v>1990</v>
@@ -9440,13 +9065,13 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B259" s="1">
         <v>17</v>
       </c>
       <c r="D259" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E259" s="1">
         <v>1984</v>
@@ -9466,7 +9091,7 @@
         <v>52</v>
       </c>
       <c r="D260" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E260" s="1">
         <v>1990</v>
@@ -9480,13 +9105,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B261" s="1">
         <v>17</v>
       </c>
       <c r="D261" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E261" s="1">
         <v>1993</v>
@@ -9506,7 +9131,7 @@
         <v>52</v>
       </c>
       <c r="D262" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E262" s="1">
         <v>1994</v>
@@ -9529,7 +9154,7 @@
         <v>52</v>
       </c>
       <c r="D263" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E263" s="1">
         <v>1994</v>
@@ -9538,7 +9163,7 @@
         <v>160028</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.45">
@@ -9552,7 +9177,7 @@
         <v>52</v>
       </c>
       <c r="D264" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E264" s="1">
         <v>1997</v>
@@ -9561,7 +9186,7 @@
         <v>160032</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.45">
@@ -9584,7 +9209,7 @@
         <v>160033</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.45">
@@ -9598,7 +9223,7 @@
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E266" s="1">
         <v>1998</v>
@@ -9607,7 +9232,7 @@
         <v>160033</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
@@ -9621,7 +9246,7 @@
         <v>52</v>
       </c>
       <c r="D267" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E267" s="1">
         <v>2003</v>
@@ -9630,7 +9255,7 @@
         <v>160042</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.45">
@@ -9644,7 +9269,7 @@
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E268" s="1">
         <v>1992</v>
@@ -9653,18 +9278,18 @@
         <v>160034</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B269" s="1">
         <v>17</v>
       </c>
       <c r="D269" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E269" s="1">
         <v>1991</v>
@@ -9684,7 +9309,7 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E270" s="1">
         <v>2004</v>
@@ -9693,7 +9318,7 @@
         <v>160035</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
@@ -9707,7 +9332,7 @@
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E271" s="1">
         <v>2005</v>
@@ -9716,7 +9341,7 @@
         <v>160035</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
@@ -9730,7 +9355,7 @@
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E272" s="1">
         <v>2002</v>
@@ -9739,7 +9364,7 @@
         <v>160036</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.45">
@@ -9753,7 +9378,7 @@
         <v>52</v>
       </c>
       <c r="D273" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E273" s="1">
         <v>2006</v>
@@ -9762,7 +9387,7 @@
         <v>160036</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.45">
@@ -9790,13 +9415,13 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B275" s="1">
         <v>17</v>
       </c>
       <c r="D275" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E275" s="1">
         <v>1987</v>
@@ -9807,7 +9432,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
-        <v>170049</v>
+        <v>170006</v>
       </c>
       <c r="B276" s="1">
         <v>17</v>
@@ -9820,9 +9445,6 @@
       </c>
       <c r="E276" s="1">
         <v>1991</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J276" s="1">
         <v>160018</v>
@@ -9842,7 +9464,7 @@
         <v>52</v>
       </c>
       <c r="D277" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E277" s="1">
         <v>2011</v>
@@ -9851,7 +9473,7 @@
         <v>170029</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.45">
@@ -9874,7 +9496,7 @@
         <v>170032</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.45">
@@ -9888,7 +9510,7 @@
         <v>52</v>
       </c>
       <c r="D279" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E279" s="1">
         <v>2013</v>
@@ -9897,7 +9519,7 @@
         <v>170034</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.45">
@@ -9911,7 +9533,7 @@
         <v>52</v>
       </c>
       <c r="D280" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E280" s="1">
         <v>2016</v>
@@ -9920,7 +9542,7 @@
         <v>170034</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.45">
@@ -9943,7 +9565,7 @@
         <v>170035</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.45">
@@ -9957,7 +9579,7 @@
         <v>52</v>
       </c>
       <c r="D282" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E282" s="1">
         <v>2012</v>
@@ -9966,7 +9588,7 @@
         <v>170012</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.45">
@@ -9980,7 +9602,7 @@
         <v>52</v>
       </c>
       <c r="D283" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E283" s="1">
         <v>2005</v>
@@ -9989,7 +9611,7 @@
         <v>170013</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.45">
@@ -10003,7 +9625,7 @@
         <v>52</v>
       </c>
       <c r="D284" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E284" s="1">
         <v>2008</v>
@@ -10012,7 +9634,7 @@
         <v>170048</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.45">
@@ -10026,7 +9648,7 @@
         <v>52</v>
       </c>
       <c r="D285" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E285" s="1">
         <v>2011</v>
@@ -10035,7 +9657,7 @@
         <v>170048</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.45">
@@ -10049,7 +9671,7 @@
         <v>52</v>
       </c>
       <c r="D286" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E286" s="1">
         <v>2014</v>
@@ -10058,7 +9680,7 @@
         <v>170007</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.45">
@@ -10072,7 +9694,7 @@
         <v>52</v>
       </c>
       <c r="D287" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E287" s="1">
         <v>2016</v>
@@ -10081,7 +9703,7 @@
         <v>170007</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.45">
@@ -10095,7 +9717,7 @@
         <v>52</v>
       </c>
       <c r="D288" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E288" s="1">
         <v>2009</v>
@@ -10104,7 +9726,7 @@
         <v>170027</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.45">
@@ -10118,7 +9740,7 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E289" s="1">
         <v>2015</v>
@@ -10127,7 +9749,7 @@
         <v>170027</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.45">
@@ -10141,7 +9763,7 @@
         <v>52</v>
       </c>
       <c r="D290" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E290" s="1">
         <v>2019</v>
@@ -10150,7 +9772,7 @@
         <v>170006</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.45">
@@ -10164,7 +9786,7 @@
         <v>52</v>
       </c>
       <c r="D291" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E291" s="1">
         <v>2014</v>
@@ -10173,7 +9795,7 @@
         <v>170036</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.45">
@@ -10187,7 +9809,7 @@
         <v>52</v>
       </c>
       <c r="D292" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E292" s="1">
         <v>2018</v>
@@ -10196,7 +9818,7 @@
         <v>170043</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.45">
@@ -10210,7 +9832,7 @@
         <v>52</v>
       </c>
       <c r="D293" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E293" s="1">
         <v>2023</v>
@@ -10219,7 +9841,7 @@
         <v>170043</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.45">
@@ -10233,7 +9855,7 @@
         <v>52</v>
       </c>
       <c r="D294" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E294" s="1">
         <v>2013</v>
@@ -10242,7 +9864,7 @@
         <v>170033</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.45">
@@ -10282,9 +9904,6 @@
       <c r="E296" s="1">
         <v>1950</v>
       </c>
-      <c r="F296" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J296" s="1">
         <v>140001</v>
       </c>
@@ -10329,9 +9948,6 @@
       <c r="E298" s="1">
         <v>1977</v>
       </c>
-      <c r="F298" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J298" s="1">
         <v>150001</v>
       </c>
@@ -10353,9 +9969,6 @@
       <c r="E299" s="1">
         <v>1991</v>
       </c>
-      <c r="F299" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J299" s="1">
         <v>150001</v>
       </c>
@@ -10377,9 +9990,6 @@
       <c r="E300" s="1">
         <v>1978</v>
       </c>
-      <c r="F300" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J300" s="1">
         <v>150002</v>
       </c>
@@ -10390,19 +10000,16 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B301" s="1">
+        <v>16</v>
+      </c>
+      <c r="D301" t="s">
         <v>423</v>
       </c>
-      <c r="B301" s="1">
-        <v>16</v>
-      </c>
-      <c r="D301" t="s">
-        <v>424</v>
-      </c>
       <c r="E301" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J301" s="1">
         <v>150003</v>
@@ -10413,19 +10020,16 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B302" s="1">
         <v>16</v>
       </c>
       <c r="D302" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J302" s="1">
         <v>150003</v>
@@ -10436,13 +10040,13 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B303" s="1">
         <v>16</v>
       </c>
       <c r="D303" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E303" s="1">
         <v>1988</v>
@@ -10460,19 +10064,16 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B304" s="1">
+        <v>16</v>
+      </c>
+      <c r="D304" t="s">
         <v>429</v>
       </c>
-      <c r="B304" s="1">
-        <v>16</v>
-      </c>
-      <c r="D304" t="s">
-        <v>430</v>
-      </c>
       <c r="E304" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J304" s="1">
         <v>150005</v>
@@ -10484,20 +10085,17 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B305" s="1">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
         <v>432</v>
-      </c>
-      <c r="B305" s="1">
-        <v>16</v>
-      </c>
-      <c r="D305" t="s">
-        <v>433</v>
       </c>
       <c r="E305" s="1">
         <v>1984</v>
       </c>
-      <c r="F305" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J305" s="1">
         <v>150006</v>
       </c>
@@ -10508,20 +10106,17 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B306" s="1">
         <v>16</v>
       </c>
       <c r="D306" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E306" s="1">
         <v>1991</v>
       </c>
-      <c r="F306" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J306" s="1">
         <v>150006</v>
       </c>
@@ -10532,20 +10127,17 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B307" s="1">
         <v>16</v>
       </c>
       <c r="D307" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E307" s="1">
         <v>1991</v>
       </c>
-      <c r="F307" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J307" s="1">
         <v>150007</v>
       </c>
@@ -10556,20 +10148,17 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B308" s="1">
         <v>16</v>
       </c>
       <c r="D308" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E308" s="1">
         <v>1994</v>
       </c>
-      <c r="F308" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J308" s="1">
         <v>150007</v>
       </c>
@@ -10580,20 +10169,17 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B309" s="1">
         <v>16</v>
       </c>
       <c r="D309" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E309" s="1">
         <v>1995</v>
       </c>
-      <c r="F309" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J309" s="1">
         <v>150007</v>
       </c>
@@ -10604,20 +10190,17 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B310" s="1">
+        <v>16</v>
+      </c>
+      <c r="D310" t="s">
         <v>443</v>
-      </c>
-      <c r="B310" s="1">
-        <v>16</v>
-      </c>
-      <c r="D310" t="s">
-        <v>444</v>
       </c>
       <c r="E310" s="1">
         <v>2007</v>
       </c>
-      <c r="F310" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J310" s="1">
         <v>150009</v>
       </c>
@@ -10628,20 +10211,17 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B311" s="1">
         <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E311" s="1">
         <v>1982</v>
       </c>
-      <c r="F311" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J311" s="1">
         <v>150011</v>
       </c>
@@ -10652,13 +10232,13 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B312" s="1">
         <v>16</v>
       </c>
       <c r="D312" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E312" s="1">
         <v>1995</v>
@@ -10673,20 +10253,17 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B313" s="1">
+        <v>16</v>
+      </c>
+      <c r="D313" t="s">
         <v>448</v>
-      </c>
-      <c r="B313" s="1">
-        <v>16</v>
-      </c>
-      <c r="D313" t="s">
-        <v>449</v>
       </c>
       <c r="E313" s="1">
         <v>1986</v>
       </c>
-      <c r="F313" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J313" s="1">
         <v>150013</v>
       </c>
@@ -10697,13 +10274,13 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B314" s="1">
+        <v>16</v>
+      </c>
+      <c r="D314" t="s">
         <v>450</v>
-      </c>
-      <c r="B314" s="1">
-        <v>16</v>
-      </c>
-      <c r="D314" t="s">
-        <v>451</v>
       </c>
       <c r="E314" s="1">
         <v>1950</v>
@@ -10721,13 +10298,13 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B315" s="1">
         <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>59</v>
@@ -10747,13 +10324,13 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B316" s="1">
         <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E316" s="1">
         <v>1961</v>
@@ -10770,20 +10347,17 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B317" s="1">
         <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E317" s="1">
         <v>1965</v>
       </c>
-      <c r="F317" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J317" s="1">
         <v>150015</v>
       </c>
@@ -10793,13 +10367,13 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B318" s="1">
         <v>16</v>
       </c>
       <c r="D318" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E318" s="1">
         <v>1957</v>
@@ -10816,13 +10390,13 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B319" s="1">
         <v>16</v>
       </c>
       <c r="D319" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E319" s="1">
         <v>1966</v>
@@ -10840,13 +10414,13 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B320" s="1">
+        <v>16</v>
+      </c>
+      <c r="D320" t="s">
         <v>463</v>
-      </c>
-      <c r="B320" s="1">
-        <v>16</v>
-      </c>
-      <c r="D320" t="s">
-        <v>464</v>
       </c>
       <c r="E320" s="1">
         <v>1977</v>
@@ -10864,13 +10438,13 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B321" s="1">
         <v>16</v>
       </c>
       <c r="D321" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E321" s="1">
         <v>1957</v>
@@ -10898,9 +10472,6 @@
       <c r="E322" s="1">
         <v>1979</v>
       </c>
-      <c r="F322" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J322" s="1">
         <v>150019</v>
       </c>
@@ -10922,9 +10493,6 @@
       <c r="E323" s="1">
         <v>1981</v>
       </c>
-      <c r="F323" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J323" s="1">
         <v>150019</v>
       </c>
@@ -10935,20 +10503,17 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B324" s="1">
         <v>16</v>
       </c>
       <c r="D324" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E324" s="1">
         <v>1955</v>
       </c>
-      <c r="F324" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J324" s="1">
         <v>150020</v>
       </c>
@@ -10959,20 +10524,17 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B325" s="1">
         <v>16</v>
       </c>
       <c r="D325" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E325" s="1">
         <v>1960</v>
       </c>
-      <c r="F325" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J325" s="1">
         <v>150020</v>
       </c>
@@ -10983,20 +10545,17 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B326" s="1">
         <v>16</v>
       </c>
       <c r="D326" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E326" s="1">
         <v>1965</v>
       </c>
-      <c r="F326" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J326" s="1">
         <v>150020</v>
       </c>
@@ -11007,13 +10566,13 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B327" s="1">
         <v>16</v>
       </c>
       <c r="D327" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E327" s="1">
         <v>1953</v>
@@ -11031,13 +10590,13 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B328" s="1">
         <v>16</v>
       </c>
       <c r="D328" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E328" s="1">
         <v>1961</v>
@@ -11055,13 +10614,13 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B329" s="1">
         <v>16</v>
       </c>
       <c r="D329" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E329" s="1">
         <v>1963</v>
@@ -11079,13 +10638,13 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B330" s="1">
         <v>16</v>
       </c>
       <c r="D330" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E330" s="1">
         <v>1968</v>
@@ -11103,13 +10662,13 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B331" s="1">
         <v>16</v>
       </c>
       <c r="D331" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E331" s="1">
         <v>1969</v>
@@ -11127,13 +10686,13 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B332" s="1">
         <v>16</v>
       </c>
       <c r="D332" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E332" s="1">
         <v>1971</v>
@@ -11151,20 +10710,17 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B333" s="1">
         <v>16</v>
       </c>
       <c r="D333" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E333" s="1">
         <v>1961</v>
       </c>
-      <c r="F333" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J333" s="1">
         <v>150022</v>
       </c>
@@ -11175,20 +10731,17 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B334" s="1">
         <v>16</v>
       </c>
       <c r="D334" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E334" s="1">
         <v>1964</v>
       </c>
-      <c r="F334" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J334" s="1">
         <v>150022</v>
       </c>
@@ -11199,20 +10752,17 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B335" s="1">
         <v>16</v>
       </c>
       <c r="D335" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E335" s="1">
         <v>1969</v>
       </c>
-      <c r="F335" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J335" s="1">
         <v>150022</v>
       </c>
@@ -11223,20 +10773,17 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B336" s="1">
         <v>16</v>
       </c>
       <c r="D336" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E336" s="1">
         <v>1972</v>
       </c>
-      <c r="F336" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J336" s="1">
         <v>150022</v>
       </c>
@@ -11247,20 +10794,17 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B337" s="1">
         <v>16</v>
       </c>
       <c r="D337" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E337" s="1">
         <v>1976</v>
       </c>
-      <c r="F337" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J337" s="1">
         <v>150022</v>
       </c>
@@ -11271,7 +10815,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B338" s="1">
         <v>16</v>
@@ -11282,9 +10826,6 @@
       <c r="E338" s="1">
         <v>1977</v>
       </c>
-      <c r="F338" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J338" s="1">
         <v>150023</v>
       </c>
@@ -11295,13 +10836,13 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B339" s="1">
         <v>16</v>
       </c>
       <c r="D339" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>59</v>
@@ -11315,13 +10856,13 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B340" s="1">
         <v>16</v>
       </c>
       <c r="D340" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>59</v>
@@ -11346,9 +10887,6 @@
       <c r="E341" s="1">
         <v>2012</v>
       </c>
-      <c r="F341" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J341" s="1">
         <v>160001</v>
       </c>
@@ -11369,9 +10907,6 @@
       <c r="E342" s="1">
         <v>2016</v>
       </c>
-      <c r="F342" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J342" s="1">
         <v>160002</v>
       </c>
@@ -11392,9 +10927,6 @@
       <c r="E343" s="1">
         <v>2003</v>
       </c>
-      <c r="F343" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J343" s="1">
         <v>160004</v>
       </c>
@@ -11415,9 +10947,6 @@
       <c r="E344" s="1">
         <v>2007</v>
       </c>
-      <c r="F344" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J344" s="1">
         <v>160005</v>
       </c>
@@ -11427,53 +10956,47 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B345" s="1">
         <v>17</v>
       </c>
       <c r="D345" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J345" s="1">
         <v>160006</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B346" s="1">
         <v>17</v>
       </c>
       <c r="D346" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J346" s="1">
         <v>160006</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B347" s="1">
         <v>17</v>
@@ -11484,241 +11007,208 @@
       <c r="E347" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F347" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J347" s="1">
         <v>160007</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B348" s="1">
         <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J348" s="1">
         <v>160007</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B349" s="1">
         <v>17</v>
       </c>
       <c r="D349" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J349" s="1">
         <v>160008</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
       </c>
       <c r="D350" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E350" s="1">
         <v>2018</v>
       </c>
-      <c r="F350" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J350" s="1">
         <v>160010</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B351" s="1">
         <v>17</v>
       </c>
       <c r="D351" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F351" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G351" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J351" s="1">
         <v>160010</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B352" s="1">
         <v>17</v>
       </c>
       <c r="D352" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E352" s="1">
         <v>2023</v>
       </c>
-      <c r="F352" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J352" s="1">
         <v>160010</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E353" s="1">
         <v>2005</v>
       </c>
-      <c r="F353" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J353" s="1">
         <v>160015</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E354" s="1">
         <v>2015</v>
       </c>
-      <c r="F354" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J354" s="1">
         <v>160015</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B355" s="1">
         <v>17</v>
       </c>
       <c r="D355" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E355" s="1">
         <v>2015</v>
       </c>
-      <c r="F355" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J355" s="1">
         <v>160016</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B356" s="1">
         <v>17</v>
       </c>
       <c r="D356" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E356" s="1">
         <v>2017</v>
       </c>
-      <c r="F356" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J356" s="1">
         <v>160017</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
       <c r="D357" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J357" s="1">
         <v>160018</v>
@@ -11729,19 +11219,16 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J358" s="1">
         <v>160018</v>
@@ -11752,19 +11239,16 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
       </c>
       <c r="D359" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J359" s="1">
         <v>160018</v>
@@ -11775,20 +11259,17 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B360" s="1">
         <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E360" s="1">
         <v>1982</v>
       </c>
-      <c r="F360" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J360" s="1">
         <v>160019</v>
       </c>
@@ -11798,20 +11279,17 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E361" s="1">
         <v>1984</v>
       </c>
-      <c r="F361" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J361" s="1">
         <v>160019</v>
       </c>
@@ -11821,20 +11299,17 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B362" s="1">
         <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E362" s="1">
         <v>1987</v>
       </c>
-      <c r="F362" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J362" s="1">
         <v>160019</v>
       </c>
@@ -11844,20 +11319,17 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B363" s="1">
         <v>17</v>
       </c>
       <c r="D363" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E363" s="1">
         <v>2000</v>
       </c>
-      <c r="F363" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J363" s="1">
         <v>160020</v>
       </c>
@@ -11867,20 +11339,17 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B364" s="1">
         <v>17</v>
       </c>
       <c r="D364" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E364" s="1">
         <v>2005</v>
       </c>
-      <c r="F364" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J364" s="1">
         <v>160020</v>
       </c>
@@ -11890,13 +11359,13 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E365" s="1">
         <v>1979</v>
@@ -11910,13 +11379,13 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B366" s="1">
         <v>17</v>
       </c>
       <c r="D366" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E366" s="1">
         <v>1994</v>
@@ -11925,18 +11394,18 @@
         <v>160023</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B367" s="1">
         <v>17</v>
       </c>
       <c r="D367" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>59</v>
@@ -11951,18 +11420,18 @@
         <v>160023</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E368" s="1">
         <v>2002</v>
@@ -11971,18 +11440,18 @@
         <v>160024</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B369" s="1">
         <v>17</v>
       </c>
       <c r="D369" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E369" s="1">
         <v>1984</v>
@@ -11996,13 +11465,13 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B370" s="1">
         <v>17</v>
       </c>
       <c r="D370" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E370" s="1">
         <v>1996</v>
@@ -12016,13 +11485,13 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E371" s="1">
         <v>1992</v>
@@ -12031,7 +11500,7 @@
         <v>160028</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.45">
@@ -12047,9 +11516,6 @@
       <c r="E372" s="1">
         <v>2016</v>
       </c>
-      <c r="F372" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J372" s="1">
         <v>160029</v>
       </c>
@@ -12070,9 +11536,6 @@
       <c r="E373" s="1">
         <v>2011</v>
       </c>
-      <c r="F373" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J373" s="1">
         <v>160030</v>
       </c>
@@ -12082,13 +11545,13 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B374" s="1">
         <v>17</v>
       </c>
       <c r="D374" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E374" s="1">
         <v>1981</v>
@@ -12102,13 +11565,13 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E375" s="1">
         <v>1981</v>
@@ -12122,13 +11585,13 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B376" s="1">
         <v>17</v>
       </c>
       <c r="D376" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E376" s="1">
         <v>1986</v>
@@ -12142,13 +11605,13 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E377" s="1">
         <v>1992</v>
@@ -12157,18 +11620,18 @@
         <v>160032</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E378" s="1">
         <v>1996</v>
@@ -12177,18 +11640,18 @@
         <v>160034</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E379" s="1">
         <v>2009</v>
@@ -12197,18 +11660,18 @@
         <v>160035</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B380" s="1">
         <v>17</v>
       </c>
       <c r="D380" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E380" s="1">
         <v>2012</v>
@@ -12217,18 +11680,18 @@
         <v>160037</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E381" s="1">
         <v>2014</v>
@@ -12237,18 +11700,18 @@
         <v>160037</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B382" s="1">
         <v>17</v>
       </c>
       <c r="D382" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E382" s="1">
         <v>1986</v>
@@ -12262,13 +11725,13 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B383" s="1">
         <v>17</v>
       </c>
       <c r="D383" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E383" s="1">
         <v>1996</v>
@@ -12282,13 +11745,13 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
       </c>
       <c r="D384" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E384" s="1">
         <v>1999</v>
@@ -12302,13 +11765,13 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B385" s="1">
         <v>17</v>
       </c>
       <c r="D385" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E385" s="1">
         <v>2001</v>
@@ -12322,13 +11785,13 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B386" s="1">
         <v>17</v>
       </c>
       <c r="D386" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>59</v>
@@ -12337,18 +11800,18 @@
         <v>160042</v>
       </c>
       <c r="K386" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B387" s="1">
         <v>18</v>
       </c>
       <c r="D387" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E387" s="1">
         <v>2015</v>
@@ -12357,18 +11820,18 @@
         <v>170006</v>
       </c>
       <c r="K387" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B388" s="1">
         <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E388" s="1">
         <v>2018</v>
@@ -12377,18 +11840,18 @@
         <v>170007</v>
       </c>
       <c r="K388" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B389" s="1">
         <v>18</v>
       </c>
       <c r="D389" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E389" s="1">
         <v>2006</v>
@@ -12397,18 +11860,18 @@
         <v>170012</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B390" s="1">
         <v>18</v>
       </c>
       <c r="D390" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E390" s="1">
         <v>2007</v>
@@ -12417,18 +11880,18 @@
         <v>170012</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B391" s="1">
         <v>18</v>
       </c>
       <c r="D391" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E391" s="1">
         <v>2008</v>
@@ -12437,18 +11900,18 @@
         <v>170013</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B392" s="1">
         <v>18</v>
       </c>
       <c r="D392" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E392" s="1">
         <v>2017</v>
@@ -12457,18 +11920,18 @@
         <v>170027</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B393" s="1">
         <v>18</v>
       </c>
       <c r="D393" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E393" s="1">
         <v>2022</v>
@@ -12477,18 +11940,18 @@
         <v>170028</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B394" s="1">
         <v>18</v>
       </c>
       <c r="D394" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E394" s="1">
         <v>2014</v>
@@ -12497,18 +11960,18 @@
         <v>170029</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B395" s="1">
         <v>18</v>
       </c>
       <c r="D395" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E395" s="1">
         <v>2007</v>
@@ -12517,18 +11980,18 @@
         <v>170032</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B396" s="1">
         <v>18</v>
       </c>
       <c r="D396" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E396" s="1">
         <v>2012</v>
@@ -12537,18 +12000,18 @@
         <v>170033</v>
       </c>
       <c r="K396" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B397" s="1">
         <v>18</v>
       </c>
       <c r="D397" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E397" s="1">
         <v>2009</v>
@@ -12557,7 +12020,7 @@
         <v>170035</v>
       </c>
       <c r="K397" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35F9CBE-1218-41D0-B655-715D3389129B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1E25D8-E3CA-41C9-96E6-2EA3A73B51A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="698">
   <si>
     <t>ID</t>
   </si>
@@ -1599,9 +1599,6 @@
   </si>
   <si>
     <t>160010v1</t>
-  </si>
-  <si>
-    <t>160010v2</t>
   </si>
   <si>
     <t>Dương Thị Nhã</t>
@@ -2516,8 +2513,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K350" sqref="K350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2591,7 +2588,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>75</v>
@@ -3191,7 +3188,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>359</v>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -6005,7 +6002,7 @@
         <v>140014</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L119"/>
     </row>
@@ -6041,7 +6038,7 @@
         <v>140014</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L120"/>
     </row>
@@ -6803,7 +6800,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B153" s="1">
         <v>16</v>
@@ -6823,7 +6820,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B154" s="1">
         <v>16</v>
@@ -6864,13 +6861,13 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B156" s="1">
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E156" s="1">
         <v>1995</v>
@@ -6953,13 +6950,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B160" s="1">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E160" s="1">
         <v>1985</v>
@@ -6994,13 +6991,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B162" s="1">
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E162" s="1">
         <v>1989</v>
@@ -7035,13 +7032,13 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B164" s="1">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E164" s="1">
         <v>1990</v>
@@ -7222,7 +7219,7 @@
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E172" s="1">
         <v>1958</v>
@@ -7257,13 +7254,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E174" s="1">
         <v>1962</v>
@@ -7298,13 +7295,13 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B176" s="1">
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E176" s="1">
         <v>1975</v>
@@ -7339,19 +7336,19 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E178" s="1">
         <v>1976</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L178" s="1">
         <v>160024</v>
@@ -7465,7 +7462,7 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L184" s="1">
         <v>160027</v>
@@ -7494,13 +7491,13 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B186" s="1">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
         <v>587</v>
-      </c>
-      <c r="B186" s="1">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>588</v>
       </c>
       <c r="E186" s="1">
         <v>1972</v>
@@ -7664,7 +7661,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B194" s="1">
         <v>16</v>
@@ -7708,13 +7705,13 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B196" s="1">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
         <v>599</v>
-      </c>
-      <c r="B196" s="1">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>600</v>
       </c>
       <c r="E196" s="1">
         <v>1963</v>
@@ -7749,13 +7746,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B198" s="1">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E198" s="1">
         <v>1966</v>
@@ -7790,13 +7787,13 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B200" s="1">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E200" s="1">
         <v>1980</v>
@@ -7831,13 +7828,13 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>59</v>
@@ -7872,13 +7869,13 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B204" s="1">
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E204" s="1">
         <v>1985</v>
@@ -8055,13 +8052,13 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B212" s="1">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
         <v>602</v>
-      </c>
-      <c r="B212" s="1">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>603</v>
       </c>
       <c r="E212" s="1">
         <v>1973</v>
@@ -8234,13 +8231,13 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B220" s="1">
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E220" s="1">
         <v>1991</v>
@@ -8274,13 +8271,13 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B222" s="1">
         <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E222" s="1">
         <v>1992</v>
@@ -8403,13 +8400,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B228" s="1">
         <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E228" s="1">
         <v>1983</v>
@@ -8443,13 +8440,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B230" s="1">
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E230" s="1">
         <v>1979</v>
@@ -8607,7 +8604,7 @@
         <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E237" s="1">
         <v>2018</v>
@@ -8616,7 +8613,7 @@
         <v>160012</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.45">
@@ -8630,7 +8627,7 @@
         <v>52</v>
       </c>
       <c r="D238" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E238" s="1">
         <v>2023</v>
@@ -8639,7 +8636,7 @@
         <v>160012</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.45">
@@ -8653,7 +8650,7 @@
         <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E239" s="1">
         <v>2007</v>
@@ -8662,7 +8659,7 @@
         <v>160015</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.45">
@@ -8676,7 +8673,7 @@
         <v>52</v>
       </c>
       <c r="D240" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E240" s="1">
         <v>2011</v>
@@ -8685,7 +8682,7 @@
         <v>160016</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.45">
@@ -8699,7 +8696,7 @@
         <v>52</v>
       </c>
       <c r="D241" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E241" s="1">
         <v>2013</v>
@@ -8708,7 +8705,7 @@
         <v>160017</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.45">
@@ -8785,13 +8782,13 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B245" s="1">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E245" s="1">
         <v>1983</v>
@@ -8822,13 +8819,13 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B247" s="1">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>59</v>
@@ -8848,7 +8845,7 @@
         <v>52</v>
       </c>
       <c r="D248" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E248" s="1">
         <v>1989</v>
@@ -8859,13 +8856,13 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B249" s="1">
         <v>17</v>
       </c>
       <c r="D249" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E249" s="1">
         <v>1991</v>
@@ -8885,7 +8882,7 @@
         <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E250" s="1">
         <v>2008</v>
@@ -8894,7 +8891,7 @@
         <v>160023</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.45">
@@ -8908,7 +8905,7 @@
         <v>52</v>
       </c>
       <c r="D251" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E251" s="1">
         <v>2006</v>
@@ -8917,7 +8914,7 @@
         <v>160024</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.45">
@@ -8945,13 +8942,13 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B253" s="1">
         <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E253" s="1">
         <v>1983</v>
@@ -8985,13 +8982,13 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B255" s="1">
         <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E255" s="1">
         <v>1987</v>
@@ -9011,7 +9008,7 @@
         <v>52</v>
       </c>
       <c r="D256" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E256" s="1">
         <v>1987</v>
@@ -9025,13 +9022,13 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B257" s="1">
         <v>17</v>
       </c>
       <c r="D257" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E257" s="1">
         <v>1990</v>
@@ -9065,13 +9062,13 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B259" s="1">
         <v>17</v>
       </c>
       <c r="D259" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E259" s="1">
         <v>1984</v>
@@ -9091,7 +9088,7 @@
         <v>52</v>
       </c>
       <c r="D260" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E260" s="1">
         <v>1990</v>
@@ -9105,13 +9102,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B261" s="1">
         <v>17</v>
       </c>
       <c r="D261" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E261" s="1">
         <v>1993</v>
@@ -9131,7 +9128,7 @@
         <v>52</v>
       </c>
       <c r="D262" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E262" s="1">
         <v>1994</v>
@@ -9154,7 +9151,7 @@
         <v>52</v>
       </c>
       <c r="D263" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E263" s="1">
         <v>1994</v>
@@ -9163,7 +9160,7 @@
         <v>160028</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.45">
@@ -9177,7 +9174,7 @@
         <v>52</v>
       </c>
       <c r="D264" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E264" s="1">
         <v>1997</v>
@@ -9186,7 +9183,7 @@
         <v>160032</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.45">
@@ -9209,7 +9206,7 @@
         <v>160033</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.45">
@@ -9223,7 +9220,7 @@
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E266" s="1">
         <v>1998</v>
@@ -9232,7 +9229,7 @@
         <v>160033</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
@@ -9246,7 +9243,7 @@
         <v>52</v>
       </c>
       <c r="D267" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E267" s="1">
         <v>2003</v>
@@ -9255,7 +9252,7 @@
         <v>160042</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.45">
@@ -9269,7 +9266,7 @@
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E268" s="1">
         <v>1992</v>
@@ -9278,18 +9275,18 @@
         <v>160034</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B269" s="1">
         <v>17</v>
       </c>
       <c r="D269" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E269" s="1">
         <v>1991</v>
@@ -9309,7 +9306,7 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E270" s="1">
         <v>2004</v>
@@ -9318,7 +9315,7 @@
         <v>160035</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
@@ -9332,7 +9329,7 @@
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E271" s="1">
         <v>2005</v>
@@ -9341,7 +9338,7 @@
         <v>160035</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
@@ -9355,7 +9352,7 @@
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E272" s="1">
         <v>2002</v>
@@ -9364,7 +9361,7 @@
         <v>160036</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.45">
@@ -9378,7 +9375,7 @@
         <v>52</v>
       </c>
       <c r="D273" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E273" s="1">
         <v>2006</v>
@@ -9387,7 +9384,7 @@
         <v>160036</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.45">
@@ -9415,13 +9412,13 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B275" s="1">
         <v>17</v>
       </c>
       <c r="D275" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E275" s="1">
         <v>1987</v>
@@ -9464,7 +9461,7 @@
         <v>52</v>
       </c>
       <c r="D277" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E277" s="1">
         <v>2011</v>
@@ -9473,7 +9470,7 @@
         <v>170029</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.45">
@@ -9496,7 +9493,7 @@
         <v>170032</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.45">
@@ -9510,7 +9507,7 @@
         <v>52</v>
       </c>
       <c r="D279" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E279" s="1">
         <v>2013</v>
@@ -9519,7 +9516,7 @@
         <v>170034</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.45">
@@ -9533,7 +9530,7 @@
         <v>52</v>
       </c>
       <c r="D280" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E280" s="1">
         <v>2016</v>
@@ -9542,7 +9539,7 @@
         <v>170034</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.45">
@@ -9565,7 +9562,7 @@
         <v>170035</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.45">
@@ -9579,7 +9576,7 @@
         <v>52</v>
       </c>
       <c r="D282" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E282" s="1">
         <v>2012</v>
@@ -9588,7 +9585,7 @@
         <v>170012</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.45">
@@ -9602,7 +9599,7 @@
         <v>52</v>
       </c>
       <c r="D283" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E283" s="1">
         <v>2005</v>
@@ -9611,7 +9608,7 @@
         <v>170013</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.45">
@@ -9625,7 +9622,7 @@
         <v>52</v>
       </c>
       <c r="D284" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E284" s="1">
         <v>2008</v>
@@ -9634,7 +9631,7 @@
         <v>170048</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.45">
@@ -9648,7 +9645,7 @@
         <v>52</v>
       </c>
       <c r="D285" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E285" s="1">
         <v>2011</v>
@@ -9657,7 +9654,7 @@
         <v>170048</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.45">
@@ -9671,7 +9668,7 @@
         <v>52</v>
       </c>
       <c r="D286" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E286" s="1">
         <v>2014</v>
@@ -9680,7 +9677,7 @@
         <v>170007</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.45">
@@ -9694,7 +9691,7 @@
         <v>52</v>
       </c>
       <c r="D287" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E287" s="1">
         <v>2016</v>
@@ -9703,7 +9700,7 @@
         <v>170007</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.45">
@@ -9717,7 +9714,7 @@
         <v>52</v>
       </c>
       <c r="D288" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E288" s="1">
         <v>2009</v>
@@ -9726,7 +9723,7 @@
         <v>170027</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.45">
@@ -9740,7 +9737,7 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E289" s="1">
         <v>2015</v>
@@ -9749,7 +9746,7 @@
         <v>170027</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.45">
@@ -9763,7 +9760,7 @@
         <v>52</v>
       </c>
       <c r="D290" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E290" s="1">
         <v>2019</v>
@@ -9772,7 +9769,7 @@
         <v>170006</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.45">
@@ -9786,7 +9783,7 @@
         <v>52</v>
       </c>
       <c r="D291" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E291" s="1">
         <v>2014</v>
@@ -9795,7 +9792,7 @@
         <v>170036</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.45">
@@ -9809,7 +9806,7 @@
         <v>52</v>
       </c>
       <c r="D292" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E292" s="1">
         <v>2018</v>
@@ -9818,7 +9815,7 @@
         <v>170043</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.45">
@@ -9832,7 +9829,7 @@
         <v>52</v>
       </c>
       <c r="D293" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E293" s="1">
         <v>2023</v>
@@ -9841,7 +9838,7 @@
         <v>170043</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.45">
@@ -9855,7 +9852,7 @@
         <v>52</v>
       </c>
       <c r="D294" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E294" s="1">
         <v>2013</v>
@@ -9864,7 +9861,7 @@
         <v>170033</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.45">
@@ -11056,7 +11053,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
@@ -11071,61 +11068,61 @@
         <v>160010</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B351" s="1">
         <v>17</v>
       </c>
       <c r="D351" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G351" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J351" s="1">
-        <v>160010</v>
+        <v>160011</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B352" s="1">
         <v>17</v>
       </c>
       <c r="D352" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E352" s="1">
         <v>2023</v>
       </c>
       <c r="J352" s="1">
-        <v>160010</v>
+        <v>160011</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E353" s="1">
         <v>2005</v>
@@ -11134,18 +11131,18 @@
         <v>160015</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E354" s="1">
         <v>2015</v>
@@ -11154,18 +11151,18 @@
         <v>160015</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B355" s="1">
         <v>17</v>
       </c>
       <c r="D355" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E355" s="1">
         <v>2015</v>
@@ -11174,18 +11171,18 @@
         <v>160016</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B356" s="1">
         <v>17</v>
       </c>
       <c r="D356" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E356" s="1">
         <v>2017</v>
@@ -11194,18 +11191,18 @@
         <v>160017</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
       <c r="D357" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>59</v>
@@ -11219,13 +11216,13 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>59</v>
@@ -11239,7 +11236,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
@@ -11259,13 +11256,13 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B360" s="1">
         <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E360" s="1">
         <v>1982</v>
@@ -11279,13 +11276,13 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E361" s="1">
         <v>1984</v>
@@ -11299,7 +11296,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B362" s="1">
         <v>17</v>
@@ -11319,13 +11316,13 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B363" s="1">
         <v>17</v>
       </c>
       <c r="D363" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E363" s="1">
         <v>2000</v>
@@ -11339,13 +11336,13 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B364" s="1">
         <v>17</v>
       </c>
       <c r="D364" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E364" s="1">
         <v>2005</v>
@@ -11359,7 +11356,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
@@ -11379,7 +11376,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B366" s="1">
         <v>17</v>
@@ -11394,18 +11391,18 @@
         <v>160023</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B367" s="1">
         <v>17</v>
       </c>
       <c r="D367" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>59</v>
@@ -11420,18 +11417,18 @@
         <v>160023</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E368" s="1">
         <v>2002</v>
@@ -11440,18 +11437,18 @@
         <v>160024</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B369" s="1">
         <v>17</v>
       </c>
       <c r="D369" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E369" s="1">
         <v>1984</v>
@@ -11465,7 +11462,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B370" s="1">
         <v>17</v>
@@ -11485,13 +11482,13 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E371" s="1">
         <v>1992</v>
@@ -11500,7 +11497,7 @@
         <v>160028</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.45">
@@ -11545,7 +11542,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B374" s="1">
         <v>17</v>
@@ -11565,13 +11562,13 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E375" s="1">
         <v>1981</v>
@@ -11585,7 +11582,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B376" s="1">
         <v>17</v>
@@ -11605,13 +11602,13 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E377" s="1">
         <v>1992</v>
@@ -11620,18 +11617,18 @@
         <v>160032</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E378" s="1">
         <v>1996</v>
@@ -11640,18 +11637,18 @@
         <v>160034</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E379" s="1">
         <v>2009</v>
@@ -11660,18 +11657,18 @@
         <v>160035</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B380" s="1">
         <v>17</v>
       </c>
       <c r="D380" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E380" s="1">
         <v>2012</v>
@@ -11680,18 +11677,18 @@
         <v>160037</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E381" s="1">
         <v>2014</v>
@@ -11700,18 +11697,18 @@
         <v>160037</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B382" s="1">
         <v>17</v>
       </c>
       <c r="D382" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E382" s="1">
         <v>1986</v>
@@ -11725,13 +11722,13 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B383" s="1">
         <v>17</v>
       </c>
       <c r="D383" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E383" s="1">
         <v>1996</v>
@@ -11745,7 +11742,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
@@ -11765,13 +11762,13 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B385" s="1">
         <v>17</v>
       </c>
       <c r="D385" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E385" s="1">
         <v>2001</v>
@@ -11785,13 +11782,13 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B386" s="1">
         <v>17</v>
       </c>
       <c r="D386" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>59</v>
@@ -11800,18 +11797,18 @@
         <v>160042</v>
       </c>
       <c r="K386" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B387" s="1">
         <v>18</v>
       </c>
       <c r="D387" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E387" s="1">
         <v>2015</v>
@@ -11820,18 +11817,18 @@
         <v>170006</v>
       </c>
       <c r="K387" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B388" s="1">
         <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E388" s="1">
         <v>2018</v>
@@ -11840,18 +11837,18 @@
         <v>170007</v>
       </c>
       <c r="K388" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B389" s="1">
         <v>18</v>
       </c>
       <c r="D389" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E389" s="1">
         <v>2006</v>
@@ -11860,18 +11857,18 @@
         <v>170012</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B390" s="1">
         <v>18</v>
       </c>
       <c r="D390" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E390" s="1">
         <v>2007</v>
@@ -11880,18 +11877,18 @@
         <v>170012</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B391" s="1">
         <v>18</v>
       </c>
       <c r="D391" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E391" s="1">
         <v>2008</v>
@@ -11900,12 +11897,12 @@
         <v>170013</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B392" s="1">
         <v>18</v>
@@ -11920,18 +11917,18 @@
         <v>170027</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B393" s="1">
         <v>18</v>
       </c>
       <c r="D393" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E393" s="1">
         <v>2022</v>
@@ -11940,12 +11937,12 @@
         <v>170028</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B394" s="1">
         <v>18</v>
@@ -11960,12 +11957,12 @@
         <v>170029</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B395" s="1">
         <v>18</v>
@@ -11980,18 +11977,18 @@
         <v>170032</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B396" s="1">
         <v>18</v>
       </c>
       <c r="D396" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E396" s="1">
         <v>2012</v>
@@ -12000,18 +11997,18 @@
         <v>170033</v>
       </c>
       <c r="K396" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B397" s="1">
         <v>18</v>
       </c>
       <c r="D397" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E397" s="1">
         <v>2009</v>
@@ -12020,7 +12017,7 @@
         <v>170035</v>
       </c>
       <c r="K397" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1E25D8-E3CA-41C9-96E6-2EA3A73B51A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E3C74-BC2D-4A8A-B4CF-087DFB5269ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,8 +2513,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K350" sqref="K350"/>
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E3C74-BC2D-4A8A-B4CF-087DFB5269ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56233480-CF5F-4D6A-A4AA-25DAFE27CDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1628,9 +1628,6 @@
     <t>160011g2</t>
   </si>
   <si>
-    <t>160012v1</t>
-  </si>
-  <si>
     <t>Dương Thành Đăng Khoa</t>
   </si>
   <si>
@@ -2135,6 +2132,9 @@
   <si>
     <t>Chưa rõ cụ nào sinh ra???, có trùng với cụ Trọng Phong không?
 Hiệu Chất Thực</t>
+  </si>
+  <si>
+    <t>160013v1</t>
   </si>
 </sst>
 </file>
@@ -2513,8 +2513,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A351" sqref="A351"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J238" sqref="J238:K238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2588,7 +2588,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>75</v>
@@ -3188,7 +3188,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>359</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -6002,7 +6002,7 @@
         <v>140014</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L119"/>
     </row>
@@ -6038,7 +6038,7 @@
         <v>140014</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L120"/>
     </row>
@@ -6860,45 +6860,45 @@
       <c r="L155"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
-        <v>529</v>
+      <c r="A156" s="1">
+        <v>160013</v>
       </c>
       <c r="B156" s="1">
         <v>16</v>
       </c>
+      <c r="C156" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D156" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1993</v>
+      </c>
+      <c r="J156" s="1">
+        <v>150008</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L156"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B157" s="1">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
         <v>524</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E157" s="1">
         <v>1995</v>
       </c>
-      <c r="L156" s="1">
+      <c r="L157" s="1">
         <v>160012</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A157" s="1">
-        <v>160013</v>
-      </c>
-      <c r="B157" s="1">
-        <v>16</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D157" t="s">
-        <v>168</v>
-      </c>
-      <c r="E157" s="1">
-        <v>1993</v>
-      </c>
-      <c r="J157" s="1">
-        <v>150008</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L157"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
@@ -6950,13 +6950,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B160" s="1">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E160" s="1">
         <v>1985</v>
@@ -6991,13 +6991,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B162" s="1">
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E162" s="1">
         <v>1989</v>
@@ -7032,13 +7032,13 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B164" s="1">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E164" s="1">
         <v>1990</v>
@@ -7219,7 +7219,7 @@
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E172" s="1">
         <v>1958</v>
@@ -7254,13 +7254,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E174" s="1">
         <v>1962</v>
@@ -7295,13 +7295,13 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B176" s="1">
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E176" s="1">
         <v>1975</v>
@@ -7336,19 +7336,19 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E178" s="1">
         <v>1976</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L178" s="1">
         <v>160024</v>
@@ -7462,7 +7462,7 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L184" s="1">
         <v>160027</v>
@@ -7491,13 +7491,13 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B186" s="1">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
         <v>586</v>
-      </c>
-      <c r="B186" s="1">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>587</v>
       </c>
       <c r="E186" s="1">
         <v>1972</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B194" s="1">
         <v>16</v>
@@ -7705,13 +7705,13 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B196" s="1">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
         <v>598</v>
-      </c>
-      <c r="B196" s="1">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>599</v>
       </c>
       <c r="E196" s="1">
         <v>1963</v>
@@ -7746,13 +7746,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B198" s="1">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E198" s="1">
         <v>1966</v>
@@ -7787,13 +7787,13 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B200" s="1">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E200" s="1">
         <v>1980</v>
@@ -7828,13 +7828,13 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>59</v>
@@ -7869,13 +7869,13 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B204" s="1">
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E204" s="1">
         <v>1985</v>
@@ -8052,13 +8052,13 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B212" s="1">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
         <v>601</v>
-      </c>
-      <c r="B212" s="1">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>602</v>
       </c>
       <c r="E212" s="1">
         <v>1973</v>
@@ -8231,13 +8231,13 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B220" s="1">
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E220" s="1">
         <v>1991</v>
@@ -8271,13 +8271,13 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B222" s="1">
         <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E222" s="1">
         <v>1992</v>
@@ -8400,13 +8400,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B228" s="1">
         <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E228" s="1">
         <v>1983</v>
@@ -8440,13 +8440,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B230" s="1">
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E230" s="1">
         <v>1979</v>
@@ -8604,16 +8604,16 @@
         <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E237" s="1">
         <v>2018</v>
       </c>
       <c r="J237" s="1">
-        <v>160012</v>
+        <v>160013</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>529</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.45">
@@ -8627,16 +8627,16 @@
         <v>52</v>
       </c>
       <c r="D238" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E238" s="1">
         <v>2023</v>
       </c>
       <c r="J238" s="1">
-        <v>160012</v>
+        <v>160013</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>529</v>
+        <v>697</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.45">
@@ -8650,7 +8650,7 @@
         <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E239" s="1">
         <v>2007</v>
@@ -8659,7 +8659,7 @@
         <v>160015</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.45">
@@ -8673,7 +8673,7 @@
         <v>52</v>
       </c>
       <c r="D240" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E240" s="1">
         <v>2011</v>
@@ -8682,7 +8682,7 @@
         <v>160016</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.45">
@@ -8696,7 +8696,7 @@
         <v>52</v>
       </c>
       <c r="D241" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E241" s="1">
         <v>2013</v>
@@ -8705,7 +8705,7 @@
         <v>160017</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.45">
@@ -8782,13 +8782,13 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B245" s="1">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E245" s="1">
         <v>1983</v>
@@ -8819,13 +8819,13 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B247" s="1">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>59</v>
@@ -8845,7 +8845,7 @@
         <v>52</v>
       </c>
       <c r="D248" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E248" s="1">
         <v>1989</v>
@@ -8856,13 +8856,13 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B249" s="1">
         <v>17</v>
       </c>
       <c r="D249" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E249" s="1">
         <v>1991</v>
@@ -8882,7 +8882,7 @@
         <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E250" s="1">
         <v>2008</v>
@@ -8891,7 +8891,7 @@
         <v>160023</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.45">
@@ -8905,7 +8905,7 @@
         <v>52</v>
       </c>
       <c r="D251" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E251" s="1">
         <v>2006</v>
@@ -8914,7 +8914,7 @@
         <v>160024</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.45">
@@ -8942,13 +8942,13 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B253" s="1">
         <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E253" s="1">
         <v>1983</v>
@@ -8982,13 +8982,13 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B255" s="1">
         <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E255" s="1">
         <v>1987</v>
@@ -9008,7 +9008,7 @@
         <v>52</v>
       </c>
       <c r="D256" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E256" s="1">
         <v>1987</v>
@@ -9022,13 +9022,13 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B257" s="1">
         <v>17</v>
       </c>
       <c r="D257" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E257" s="1">
         <v>1990</v>
@@ -9062,13 +9062,13 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B259" s="1">
         <v>17</v>
       </c>
       <c r="D259" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E259" s="1">
         <v>1984</v>
@@ -9088,7 +9088,7 @@
         <v>52</v>
       </c>
       <c r="D260" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E260" s="1">
         <v>1990</v>
@@ -9102,13 +9102,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B261" s="1">
         <v>17</v>
       </c>
       <c r="D261" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E261" s="1">
         <v>1993</v>
@@ -9128,7 +9128,7 @@
         <v>52</v>
       </c>
       <c r="D262" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E262" s="1">
         <v>1994</v>
@@ -9151,7 +9151,7 @@
         <v>52</v>
       </c>
       <c r="D263" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E263" s="1">
         <v>1994</v>
@@ -9160,7 +9160,7 @@
         <v>160028</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.45">
@@ -9174,7 +9174,7 @@
         <v>52</v>
       </c>
       <c r="D264" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E264" s="1">
         <v>1997</v>
@@ -9183,7 +9183,7 @@
         <v>160032</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.45">
@@ -9206,7 +9206,7 @@
         <v>160033</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.45">
@@ -9220,7 +9220,7 @@
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E266" s="1">
         <v>1998</v>
@@ -9229,7 +9229,7 @@
         <v>160033</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
@@ -9243,7 +9243,7 @@
         <v>52</v>
       </c>
       <c r="D267" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E267" s="1">
         <v>2003</v>
@@ -9252,7 +9252,7 @@
         <v>160042</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.45">
@@ -9266,7 +9266,7 @@
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E268" s="1">
         <v>1992</v>
@@ -9275,18 +9275,18 @@
         <v>160034</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B269" s="1">
         <v>17</v>
       </c>
       <c r="D269" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E269" s="1">
         <v>1991</v>
@@ -9306,7 +9306,7 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E270" s="1">
         <v>2004</v>
@@ -9315,7 +9315,7 @@
         <v>160035</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
@@ -9329,7 +9329,7 @@
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E271" s="1">
         <v>2005</v>
@@ -9338,7 +9338,7 @@
         <v>160035</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
@@ -9352,7 +9352,7 @@
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E272" s="1">
         <v>2002</v>
@@ -9361,7 +9361,7 @@
         <v>160036</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.45">
@@ -9375,7 +9375,7 @@
         <v>52</v>
       </c>
       <c r="D273" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E273" s="1">
         <v>2006</v>
@@ -9384,7 +9384,7 @@
         <v>160036</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.45">
@@ -9412,13 +9412,13 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B275" s="1">
         <v>17</v>
       </c>
       <c r="D275" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E275" s="1">
         <v>1987</v>
@@ -9461,7 +9461,7 @@
         <v>52</v>
       </c>
       <c r="D277" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E277" s="1">
         <v>2011</v>
@@ -9470,7 +9470,7 @@
         <v>170029</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.45">
@@ -9493,7 +9493,7 @@
         <v>170032</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.45">
@@ -9507,7 +9507,7 @@
         <v>52</v>
       </c>
       <c r="D279" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E279" s="1">
         <v>2013</v>
@@ -9516,7 +9516,7 @@
         <v>170034</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.45">
@@ -9530,7 +9530,7 @@
         <v>52</v>
       </c>
       <c r="D280" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E280" s="1">
         <v>2016</v>
@@ -9539,7 +9539,7 @@
         <v>170034</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.45">
@@ -9562,7 +9562,7 @@
         <v>170035</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.45">
@@ -9576,7 +9576,7 @@
         <v>52</v>
       </c>
       <c r="D282" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E282" s="1">
         <v>2012</v>
@@ -9585,7 +9585,7 @@
         <v>170012</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.45">
@@ -9599,7 +9599,7 @@
         <v>52</v>
       </c>
       <c r="D283" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E283" s="1">
         <v>2005</v>
@@ -9608,7 +9608,7 @@
         <v>170013</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.45">
@@ -9622,7 +9622,7 @@
         <v>52</v>
       </c>
       <c r="D284" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E284" s="1">
         <v>2008</v>
@@ -9631,7 +9631,7 @@
         <v>170048</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.45">
@@ -9645,7 +9645,7 @@
         <v>52</v>
       </c>
       <c r="D285" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E285" s="1">
         <v>2011</v>
@@ -9654,7 +9654,7 @@
         <v>170048</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.45">
@@ -9668,7 +9668,7 @@
         <v>52</v>
       </c>
       <c r="D286" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E286" s="1">
         <v>2014</v>
@@ -9677,7 +9677,7 @@
         <v>170007</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.45">
@@ -9691,7 +9691,7 @@
         <v>52</v>
       </c>
       <c r="D287" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E287" s="1">
         <v>2016</v>
@@ -9700,7 +9700,7 @@
         <v>170007</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.45">
@@ -9714,7 +9714,7 @@
         <v>52</v>
       </c>
       <c r="D288" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E288" s="1">
         <v>2009</v>
@@ -9723,7 +9723,7 @@
         <v>170027</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.45">
@@ -9737,7 +9737,7 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E289" s="1">
         <v>2015</v>
@@ -9746,7 +9746,7 @@
         <v>170027</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.45">
@@ -9760,7 +9760,7 @@
         <v>52</v>
       </c>
       <c r="D290" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E290" s="1">
         <v>2019</v>
@@ -9769,7 +9769,7 @@
         <v>170006</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.45">
@@ -9783,7 +9783,7 @@
         <v>52</v>
       </c>
       <c r="D291" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E291" s="1">
         <v>2014</v>
@@ -9792,7 +9792,7 @@
         <v>170036</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.45">
@@ -9806,7 +9806,7 @@
         <v>52</v>
       </c>
       <c r="D292" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E292" s="1">
         <v>2018</v>
@@ -9815,7 +9815,7 @@
         <v>170043</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.45">
@@ -9829,7 +9829,7 @@
         <v>52</v>
       </c>
       <c r="D293" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E293" s="1">
         <v>2023</v>
@@ -9838,7 +9838,7 @@
         <v>170043</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.45">
@@ -9852,7 +9852,7 @@
         <v>52</v>
       </c>
       <c r="D294" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E294" s="1">
         <v>2013</v>
@@ -9861,7 +9861,7 @@
         <v>170033</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.45">
@@ -11116,13 +11116,13 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E353" s="1">
         <v>2005</v>
@@ -11131,18 +11131,18 @@
         <v>160015</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E354" s="1">
         <v>2015</v>
@@ -11151,18 +11151,18 @@
         <v>160015</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B355" s="1">
         <v>17</v>
       </c>
       <c r="D355" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E355" s="1">
         <v>2015</v>
@@ -11171,18 +11171,18 @@
         <v>160016</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B356" s="1">
         <v>17</v>
       </c>
       <c r="D356" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E356" s="1">
         <v>2017</v>
@@ -11191,18 +11191,18 @@
         <v>160017</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
       <c r="D357" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>59</v>
@@ -11216,13 +11216,13 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>59</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
@@ -11256,13 +11256,13 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B360" s="1">
         <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E360" s="1">
         <v>1982</v>
@@ -11276,13 +11276,13 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E361" s="1">
         <v>1984</v>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B362" s="1">
         <v>17</v>
@@ -11316,13 +11316,13 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B363" s="1">
         <v>17</v>
       </c>
       <c r="D363" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E363" s="1">
         <v>2000</v>
@@ -11336,13 +11336,13 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B364" s="1">
         <v>17</v>
       </c>
       <c r="D364" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E364" s="1">
         <v>2005</v>
@@ -11356,7 +11356,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B366" s="1">
         <v>17</v>
@@ -11391,18 +11391,18 @@
         <v>160023</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B367" s="1">
         <v>17</v>
       </c>
       <c r="D367" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>59</v>
@@ -11417,18 +11417,18 @@
         <v>160023</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E368" s="1">
         <v>2002</v>
@@ -11437,18 +11437,18 @@
         <v>160024</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B369" s="1">
         <v>17</v>
       </c>
       <c r="D369" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E369" s="1">
         <v>1984</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B370" s="1">
         <v>17</v>
@@ -11482,13 +11482,13 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E371" s="1">
         <v>1992</v>
@@ -11497,7 +11497,7 @@
         <v>160028</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.45">
@@ -11542,7 +11542,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B374" s="1">
         <v>17</v>
@@ -11562,13 +11562,13 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E375" s="1">
         <v>1981</v>
@@ -11582,7 +11582,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B376" s="1">
         <v>17</v>
@@ -11602,13 +11602,13 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E377" s="1">
         <v>1992</v>
@@ -11617,18 +11617,18 @@
         <v>160032</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E378" s="1">
         <v>1996</v>
@@ -11637,18 +11637,18 @@
         <v>160034</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E379" s="1">
         <v>2009</v>
@@ -11657,18 +11657,18 @@
         <v>160035</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B380" s="1">
         <v>17</v>
       </c>
       <c r="D380" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E380" s="1">
         <v>2012</v>
@@ -11677,18 +11677,18 @@
         <v>160037</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E381" s="1">
         <v>2014</v>
@@ -11697,18 +11697,18 @@
         <v>160037</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B382" s="1">
         <v>17</v>
       </c>
       <c r="D382" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E382" s="1">
         <v>1986</v>
@@ -11722,13 +11722,13 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B383" s="1">
         <v>17</v>
       </c>
       <c r="D383" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E383" s="1">
         <v>1996</v>
@@ -11742,7 +11742,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
@@ -11762,13 +11762,13 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B385" s="1">
         <v>17</v>
       </c>
       <c r="D385" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E385" s="1">
         <v>2001</v>
@@ -11782,13 +11782,13 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B386" s="1">
         <v>17</v>
       </c>
       <c r="D386" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>59</v>
@@ -11797,18 +11797,18 @@
         <v>160042</v>
       </c>
       <c r="K386" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B387" s="1">
         <v>18</v>
       </c>
       <c r="D387" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E387" s="1">
         <v>2015</v>
@@ -11817,18 +11817,18 @@
         <v>170006</v>
       </c>
       <c r="K387" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B388" s="1">
         <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E388" s="1">
         <v>2018</v>
@@ -11837,18 +11837,18 @@
         <v>170007</v>
       </c>
       <c r="K388" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B389" s="1">
         <v>18</v>
       </c>
       <c r="D389" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E389" s="1">
         <v>2006</v>
@@ -11857,18 +11857,18 @@
         <v>170012</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B390" s="1">
         <v>18</v>
       </c>
       <c r="D390" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E390" s="1">
         <v>2007</v>
@@ -11877,18 +11877,18 @@
         <v>170012</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B391" s="1">
         <v>18</v>
       </c>
       <c r="D391" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E391" s="1">
         <v>2008</v>
@@ -11897,12 +11897,12 @@
         <v>170013</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B392" s="1">
         <v>18</v>
@@ -11917,18 +11917,18 @@
         <v>170027</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B393" s="1">
         <v>18</v>
       </c>
       <c r="D393" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E393" s="1">
         <v>2022</v>
@@ -11937,12 +11937,12 @@
         <v>170028</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B394" s="1">
         <v>18</v>
@@ -11957,12 +11957,12 @@
         <v>170029</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B395" s="1">
         <v>18</v>
@@ -11977,18 +11977,18 @@
         <v>170032</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B396" s="1">
         <v>18</v>
       </c>
       <c r="D396" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E396" s="1">
         <v>2012</v>
@@ -11997,18 +11997,18 @@
         <v>170033</v>
       </c>
       <c r="K396" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B397" s="1">
         <v>18</v>
       </c>
       <c r="D397" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E397" s="1">
         <v>2009</v>
@@ -12017,7 +12017,7 @@
         <v>170035</v>
       </c>
       <c r="K397" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56233480-CF5F-4D6A-A4AA-25DAFE27CDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B9E5F-D2CF-43B5-A45A-EA0F03779F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$395</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="698">
   <si>
     <t>ID</t>
   </si>
@@ -2510,11 +2510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L397"/>
+  <dimension ref="A1:L395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J238" sqref="J238:K238"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E338" sqref="E338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5333,8 +5333,8 @@
       <c r="D92" t="s">
         <v>150</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>59</v>
+      <c r="E92" s="1">
+        <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>59</v>
@@ -5386,8 +5386,8 @@
       <c r="D94" t="s">
         <v>151</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>59</v>
+      <c r="E94" s="1">
+        <v>2</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>59</v>
@@ -5638,8 +5638,8 @@
       <c r="D105" t="s">
         <v>174</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>59</v>
+      <c r="E105" s="1">
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>59</v>
@@ -5839,8 +5839,8 @@
       <c r="D113" t="s">
         <v>219</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>59</v>
+      <c r="E113" s="1">
+        <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>59</v>
@@ -5983,8 +5983,8 @@
       <c r="D119" t="s">
         <v>265</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>59</v>
+      <c r="E119" s="1">
+        <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>59</v>
@@ -6072,8 +6072,8 @@
       <c r="D122" t="s">
         <v>306</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>59</v>
+      <c r="E122" s="1">
+        <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>59</v>
@@ -6591,8 +6591,8 @@
       <c r="D143" t="s">
         <v>146</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>59</v>
+      <c r="E143" s="1">
+        <v>3</v>
       </c>
       <c r="J143" s="1">
         <v>150003</v>
@@ -6633,8 +6633,8 @@
       <c r="D145" t="s">
         <v>147</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>59</v>
+      <c r="E145" s="1">
+        <v>4</v>
       </c>
       <c r="J145" s="1">
         <v>150003</v>
@@ -7060,8 +7060,8 @@
       <c r="D165" t="s">
         <v>224</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>59</v>
+      <c r="E165" s="1">
+        <v>1952</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>59</v>
@@ -7113,8 +7113,8 @@
       <c r="D167" t="s">
         <v>225</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>59</v>
+      <c r="E167" s="1">
+        <v>1954</v>
       </c>
       <c r="J167" s="1">
         <v>150015</v>
@@ -7154,8 +7154,8 @@
       <c r="D169" t="s">
         <v>226</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>59</v>
+      <c r="E169" s="1">
+        <v>1964</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>453</v>
@@ -7367,8 +7367,8 @@
       <c r="D179" t="s">
         <v>243</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>59</v>
+      <c r="E179" s="1">
+        <v>1</v>
       </c>
       <c r="J179" s="1">
         <v>150017</v>
@@ -7408,6 +7408,9 @@
       <c r="D181" t="s">
         <v>244</v>
       </c>
+      <c r="E181" s="1">
+        <v>1959</v>
+      </c>
       <c r="J181" s="1">
         <v>150017</v>
       </c>
@@ -7446,6 +7449,9 @@
       <c r="D183" t="s">
         <v>245</v>
       </c>
+      <c r="E183" s="1">
+        <v>1961</v>
+      </c>
       <c r="J183" s="1">
         <v>150017</v>
       </c>
@@ -7481,6 +7487,9 @@
       <c r="D185" t="s">
         <v>155</v>
       </c>
+      <c r="E185" s="1">
+        <v>1963</v>
+      </c>
       <c r="J185" s="1">
         <v>150017</v>
       </c>
@@ -8259,8 +8268,8 @@
       <c r="D221" t="s">
         <v>232</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>59</v>
+      <c r="E221" s="1">
+        <v>1992</v>
       </c>
       <c r="J221" s="1">
         <v>160019</v>
@@ -8288,7 +8297,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
-        <v>170008</v>
+        <v>170010</v>
       </c>
       <c r="B223" s="1">
         <v>17</v>
@@ -8297,18 +8306,21 @@
         <v>52</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>278</v>
+      </c>
+      <c r="E223" s="1">
+        <v>2005</v>
       </c>
       <c r="J223" s="1">
-        <v>160021</v>
+        <v>160029</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
-        <v>170009</v>
+        <v>170011</v>
       </c>
       <c r="B224" s="1">
         <v>17</v>
@@ -8317,21 +8329,21 @@
         <v>52</v>
       </c>
       <c r="D224" t="s">
-        <v>240</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>59</v>
+        <v>279</v>
+      </c>
+      <c r="E224" s="1">
+        <v>2008</v>
       </c>
       <c r="J224" s="1">
-        <v>160021</v>
+        <v>160029</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
-        <v>170010</v>
+        <v>170012</v>
       </c>
       <c r="B225" s="1">
         <v>17</v>
@@ -8340,44 +8352,38 @@
         <v>52</v>
       </c>
       <c r="D225" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="E225" s="1">
-        <v>2005</v>
+        <v>1975</v>
       </c>
       <c r="J225" s="1">
-        <v>160029</v>
+        <v>160031</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A226" s="1">
-        <v>170011</v>
+      <c r="A226" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="B226" s="1">
         <v>17</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D226" t="s">
-        <v>279</v>
+        <v>648</v>
       </c>
       <c r="E226" s="1">
-        <v>2008</v>
-      </c>
-      <c r="J226" s="1">
-        <v>160029</v>
-      </c>
-      <c r="K226" s="1" t="s">
-        <v>276</v>
+        <v>1983</v>
+      </c>
+      <c r="L226" s="1">
+        <v>170012</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
-        <v>170012</v>
+        <v>170013</v>
       </c>
       <c r="B227" s="1">
         <v>17</v>
@@ -8386,10 +8392,10 @@
         <v>52</v>
       </c>
       <c r="D227" t="s">
-        <v>313</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>59</v>
+        <v>314</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1978</v>
       </c>
       <c r="J227" s="1">
         <v>160031</v>
@@ -8400,24 +8406,24 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B228" s="1">
         <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="E228" s="1">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="L228" s="1">
-        <v>170012</v>
+        <v>170013</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
-        <v>170013</v>
+        <v>170014</v>
       </c>
       <c r="B229" s="1">
         <v>17</v>
@@ -8426,38 +8432,44 @@
         <v>52</v>
       </c>
       <c r="D229" t="s">
-        <v>314</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>59</v>
+        <v>336</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1982</v>
       </c>
       <c r="J229" s="1">
-        <v>160031</v>
+        <v>160038</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A230" s="1" t="s">
-        <v>655</v>
+      <c r="A230" s="1">
+        <v>170015</v>
       </c>
       <c r="B230" s="1">
         <v>17</v>
       </c>
+      <c r="C230" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D230" t="s">
-        <v>656</v>
+        <v>338</v>
       </c>
       <c r="E230" s="1">
-        <v>1979</v>
-      </c>
-      <c r="L230" s="1">
-        <v>170013</v>
+        <v>2005</v>
+      </c>
+      <c r="J230" s="1">
+        <v>160039</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
-        <v>170014</v>
+        <v>170016</v>
       </c>
       <c r="B231" s="1">
         <v>17</v>
@@ -8466,21 +8478,21 @@
         <v>52</v>
       </c>
       <c r="D231" t="s">
-        <v>336</v>
+        <v>503</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J231" s="1">
-        <v>160038</v>
+        <v>160007</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>334</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
-        <v>170015</v>
+        <v>170017</v>
       </c>
       <c r="B232" s="1">
         <v>17</v>
@@ -8489,21 +8501,21 @@
         <v>52</v>
       </c>
       <c r="D232" t="s">
-        <v>338</v>
+        <v>510</v>
       </c>
       <c r="E232" s="1">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="J232" s="1">
-        <v>160039</v>
+        <v>160008</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>339</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
-        <v>170016</v>
+        <v>170018</v>
       </c>
       <c r="B233" s="1">
         <v>17</v>
@@ -8512,21 +8524,21 @@
         <v>52</v>
       </c>
       <c r="D233" t="s">
-        <v>503</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>59</v>
+        <v>511</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2014</v>
       </c>
       <c r="J233" s="1">
-        <v>160007</v>
+        <v>160008</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
-        <v>170017</v>
+        <v>170019</v>
       </c>
       <c r="B234" s="1">
         <v>17</v>
@@ -8535,21 +8547,21 @@
         <v>52</v>
       </c>
       <c r="D234" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="E234" s="1">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="J234" s="1">
-        <v>160008</v>
+        <v>160010</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
-        <v>170018</v>
+        <v>170020</v>
       </c>
       <c r="B235" s="1">
         <v>17</v>
@@ -8558,21 +8570,21 @@
         <v>52</v>
       </c>
       <c r="D235" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="E235" s="1">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J235" s="1">
-        <v>160008</v>
+        <v>160013</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>509</v>
+        <v>697</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
-        <v>170019</v>
+        <v>170021</v>
       </c>
       <c r="B236" s="1">
         <v>17</v>
@@ -8581,21 +8593,21 @@
         <v>52</v>
       </c>
       <c r="D236" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="E236" s="1">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J236" s="1">
-        <v>160010</v>
+        <v>160013</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>515</v>
+        <v>697</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
-        <v>170020</v>
+        <v>170022</v>
       </c>
       <c r="B237" s="1">
         <v>17</v>
@@ -8604,21 +8616,21 @@
         <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E237" s="1">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="J237" s="1">
-        <v>160013</v>
+        <v>160015</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>697</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
-        <v>170021</v>
+        <v>170023</v>
       </c>
       <c r="B238" s="1">
         <v>17</v>
@@ -8627,21 +8639,21 @@
         <v>52</v>
       </c>
       <c r="D238" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E238" s="1">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="J238" s="1">
-        <v>160013</v>
+        <v>160016</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>697</v>
+        <v>539</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
-        <v>170022</v>
+        <v>170024</v>
       </c>
       <c r="B239" s="1">
         <v>17</v>
@@ -8650,21 +8662,21 @@
         <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="E239" s="1">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="J239" s="1">
-        <v>160015</v>
+        <v>160017</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
-        <v>170023</v>
+        <v>170025</v>
       </c>
       <c r="B240" s="1">
         <v>17</v>
@@ -8673,21 +8685,21 @@
         <v>52</v>
       </c>
       <c r="D240" t="s">
-        <v>540</v>
+        <v>159</v>
       </c>
       <c r="E240" s="1">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="J240" s="1">
-        <v>160016</v>
+        <v>160020</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>539</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
-        <v>170024</v>
+        <v>170026</v>
       </c>
       <c r="B241" s="1">
         <v>17</v>
@@ -8696,21 +8708,24 @@
         <v>52</v>
       </c>
       <c r="D241" t="s">
-        <v>544</v>
+        <v>25</v>
       </c>
       <c r="E241" s="1">
-        <v>2013</v>
+        <v>1981</v>
+      </c>
+      <c r="F241" s="1">
+        <v>2015</v>
       </c>
       <c r="J241" s="1">
-        <v>160017</v>
+        <v>160021</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>546</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
-        <v>170025</v>
+        <v>170027</v>
       </c>
       <c r="B242" s="1">
         <v>17</v>
@@ -8719,47 +8734,38 @@
         <v>52</v>
       </c>
       <c r="D242" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="E242" s="1">
-        <v>1997</v>
+        <v>1983</v>
       </c>
       <c r="J242" s="1">
-        <v>160020</v>
+        <v>160021</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A243" s="1">
-        <v>170026</v>
+      <c r="A243" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="B243" s="1">
         <v>17</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>671</v>
       </c>
       <c r="E243" s="1">
-        <v>1981</v>
-      </c>
-      <c r="F243" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J243" s="1">
-        <v>160021</v>
-      </c>
-      <c r="K243" s="1" t="s">
-        <v>239</v>
+        <v>1983</v>
+      </c>
+      <c r="L243" s="1">
+        <v>170027</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
-        <v>170027</v>
+        <v>170028</v>
       </c>
       <c r="B244" s="1">
         <v>17</v>
@@ -8768,38 +8774,35 @@
         <v>52</v>
       </c>
       <c r="D244" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E244" s="1">
-        <v>1983</v>
-      </c>
-      <c r="J244" s="1">
-        <v>160021</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>239</v>
+        <v>1987</v>
+      </c>
+      <c r="K244" s="1">
+        <v>160022</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="B245" s="1">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>671</v>
-      </c>
-      <c r="E245" s="1">
-        <v>1983</v>
+        <v>690</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="L245" s="1">
-        <v>170027</v>
+        <v>170028</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
-        <v>170028</v>
+        <v>170029</v>
       </c>
       <c r="B246" s="1">
         <v>17</v>
@@ -8808,10 +8811,10 @@
         <v>52</v>
       </c>
       <c r="D246" t="s">
-        <v>182</v>
+        <v>566</v>
       </c>
       <c r="E246" s="1">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="K246" s="1">
         <v>160022</v>
@@ -8819,24 +8822,24 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="B247" s="1">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>690</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>59</v>
+        <v>634</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1991</v>
       </c>
       <c r="L247" s="1">
-        <v>170028</v>
+        <v>170029</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
-        <v>170029</v>
+        <v>170030</v>
       </c>
       <c r="B248" s="1">
         <v>17</v>
@@ -8845,35 +8848,44 @@
         <v>52</v>
       </c>
       <c r="D248" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E248" s="1">
-        <v>1989</v>
-      </c>
-      <c r="K248" s="1">
-        <v>160022</v>
+        <v>2008</v>
+      </c>
+      <c r="J248" s="1">
+        <v>160023</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A249" s="1" t="s">
-        <v>633</v>
+      <c r="A249" s="1">
+        <v>170031</v>
       </c>
       <c r="B249" s="1">
         <v>17</v>
       </c>
+      <c r="C249" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D249" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="E249" s="1">
-        <v>1991</v>
-      </c>
-      <c r="L249" s="1">
-        <v>170029</v>
+        <v>2006</v>
+      </c>
+      <c r="J249" s="1">
+        <v>160024</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
-        <v>170030</v>
+        <v>170032</v>
       </c>
       <c r="B250" s="1">
         <v>17</v>
@@ -8882,44 +8894,38 @@
         <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>572</v>
+        <v>177</v>
       </c>
       <c r="E250" s="1">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="J250" s="1">
-        <v>160023</v>
+        <v>160025</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>570</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A251" s="1">
-        <v>170031</v>
+      <c r="A251" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="B251" s="1">
         <v>17</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D251" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="E251" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J251" s="1">
-        <v>160024</v>
-      </c>
-      <c r="K251" s="1" t="s">
-        <v>568</v>
+        <v>1983</v>
+      </c>
+      <c r="L251" s="1">
+        <v>170032</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
-        <v>170032</v>
+        <v>170033</v>
       </c>
       <c r="B252" s="1">
         <v>17</v>
@@ -8928,10 +8934,10 @@
         <v>52</v>
       </c>
       <c r="D252" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E252" s="1">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="J252" s="1">
         <v>160025</v>
@@ -8942,24 +8948,24 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="B253" s="1">
         <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="E253" s="1">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="L253" s="1">
-        <v>170032</v>
+        <v>170033</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
-        <v>170033</v>
+        <v>170034</v>
       </c>
       <c r="B254" s="1">
         <v>17</v>
@@ -8968,10 +8974,10 @@
         <v>52</v>
       </c>
       <c r="D254" t="s">
-        <v>158</v>
+        <v>579</v>
       </c>
       <c r="E254" s="1">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="J254" s="1">
         <v>160025</v>
@@ -8982,24 +8988,24 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="B255" s="1">
         <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="E255" s="1">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="L255" s="1">
-        <v>170033</v>
+        <v>170034</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
-        <v>170034</v>
+        <v>170035</v>
       </c>
       <c r="B256" s="1">
         <v>17</v>
@@ -9008,38 +9014,38 @@
         <v>52</v>
       </c>
       <c r="D256" t="s">
-        <v>579</v>
+        <v>183</v>
       </c>
       <c r="E256" s="1">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="J256" s="1">
-        <v>160025</v>
+        <v>160026</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B257" s="1">
         <v>17</v>
       </c>
       <c r="D257" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E257" s="1">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="L257" s="1">
-        <v>170034</v>
+        <v>170035</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
-        <v>170035</v>
+        <v>170036</v>
       </c>
       <c r="B258" s="1">
         <v>17</v>
@@ -9048,38 +9054,38 @@
         <v>52</v>
       </c>
       <c r="D258" t="s">
-        <v>183</v>
+        <v>583</v>
       </c>
       <c r="E258" s="1">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="J258" s="1">
-        <v>160026</v>
+        <v>160027</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="B259" s="1">
         <v>17</v>
       </c>
       <c r="D259" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="E259" s="1">
-        <v>1984</v>
+        <v>1993</v>
       </c>
       <c r="L259" s="1">
-        <v>170035</v>
+        <v>170036</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
-        <v>170036</v>
+        <v>170037</v>
       </c>
       <c r="B260" s="1">
         <v>17</v>
@@ -9088,10 +9094,10 @@
         <v>52</v>
       </c>
       <c r="D260" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
       <c r="E260" s="1">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="J260" s="1">
         <v>160027</v>
@@ -9101,25 +9107,31 @@
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A261" s="1" t="s">
-        <v>679</v>
+      <c r="A261" s="1">
+        <v>170038</v>
       </c>
       <c r="B261" s="1">
         <v>17</v>
       </c>
+      <c r="C261" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D261" t="s">
-        <v>680</v>
+        <v>588</v>
       </c>
       <c r="E261" s="1">
-        <v>1993</v>
-      </c>
-      <c r="L261" s="1">
-        <v>170036</v>
+        <v>1994</v>
+      </c>
+      <c r="J261" s="1">
+        <v>160028</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
-        <v>170037</v>
+        <v>170039</v>
       </c>
       <c r="B262" s="1">
         <v>17</v>
@@ -9128,21 +9140,21 @@
         <v>52</v>
       </c>
       <c r="D262" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
       <c r="E262" s="1">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="J262" s="1">
-        <v>160027</v>
+        <v>160032</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>250</v>
+        <v>594</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
-        <v>170038</v>
+        <v>170040</v>
       </c>
       <c r="B263" s="1">
         <v>17</v>
@@ -9151,21 +9163,21 @@
         <v>52</v>
       </c>
       <c r="D263" t="s">
-        <v>588</v>
+        <v>183</v>
       </c>
       <c r="E263" s="1">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="J263" s="1">
-        <v>160028</v>
+        <v>160033</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
-        <v>170039</v>
+        <v>170041</v>
       </c>
       <c r="B264" s="1">
         <v>17</v>
@@ -9174,21 +9186,21 @@
         <v>52</v>
       </c>
       <c r="D264" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E264" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="J264" s="1">
-        <v>160032</v>
+        <v>160033</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
-        <v>170040</v>
+        <v>170042</v>
       </c>
       <c r="B265" s="1">
         <v>17</v>
@@ -9197,21 +9209,21 @@
         <v>52</v>
       </c>
       <c r="D265" t="s">
-        <v>183</v>
+        <v>602</v>
       </c>
       <c r="E265" s="1">
-        <v>1987</v>
+        <v>2003</v>
       </c>
       <c r="J265" s="1">
-        <v>160033</v>
+        <v>160042</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
-        <v>170041</v>
+        <v>170043</v>
       </c>
       <c r="B266" s="1">
         <v>17</v>
@@ -9220,44 +9232,38 @@
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E266" s="1">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="J266" s="1">
-        <v>160033</v>
+        <v>160034</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A267" s="1">
-        <v>170042</v>
+      <c r="A267" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="B267" s="1">
         <v>17</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D267" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="E267" s="1">
-        <v>2003</v>
-      </c>
-      <c r="J267" s="1">
-        <v>160042</v>
-      </c>
-      <c r="K267" s="1" t="s">
-        <v>600</v>
+        <v>1991</v>
+      </c>
+      <c r="L267" s="1">
+        <v>170043</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
-        <v>170043</v>
+        <v>170044</v>
       </c>
       <c r="B268" s="1">
         <v>17</v>
@@ -9266,38 +9272,44 @@
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E268" s="1">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="J268" s="1">
-        <v>160034</v>
+        <v>160035</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A269" s="1" t="s">
-        <v>682</v>
+      <c r="A269" s="1">
+        <v>170045</v>
       </c>
       <c r="B269" s="1">
         <v>17</v>
       </c>
+      <c r="C269" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D269" t="s">
-        <v>683</v>
+        <v>613</v>
       </c>
       <c r="E269" s="1">
-        <v>1991</v>
-      </c>
-      <c r="L269" s="1">
-        <v>170043</v>
+        <v>2005</v>
+      </c>
+      <c r="J269" s="1">
+        <v>160035</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
-        <v>170044</v>
+        <v>170046</v>
       </c>
       <c r="B270" s="1">
         <v>17</v>
@@ -9306,21 +9318,21 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E270" s="1">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="J270" s="1">
-        <v>160035</v>
+        <v>160036</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
-        <v>170045</v>
+        <v>170047</v>
       </c>
       <c r="B271" s="1">
         <v>17</v>
@@ -9329,21 +9341,21 @@
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E271" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="J271" s="1">
-        <v>160035</v>
+        <v>160036</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
-        <v>170046</v>
+        <v>170048</v>
       </c>
       <c r="B272" s="1">
         <v>17</v>
@@ -9352,44 +9364,38 @@
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>617</v>
+        <v>336</v>
       </c>
       <c r="E272" s="1">
-        <v>2002</v>
+        <v>1982</v>
       </c>
       <c r="J272" s="1">
-        <v>160036</v>
+        <v>160038</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>619</v>
+        <v>334</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A273" s="1">
-        <v>170047</v>
+      <c r="A273" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="B273" s="1">
         <v>17</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D273" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="E273" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J273" s="1">
-        <v>160036</v>
-      </c>
-      <c r="K273" s="1" t="s">
-        <v>619</v>
+        <v>1987</v>
+      </c>
+      <c r="L273" s="1">
+        <v>170048</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
-        <v>170048</v>
+        <v>170006</v>
       </c>
       <c r="B274" s="1">
         <v>17</v>
@@ -9398,61 +9404,67 @@
         <v>52</v>
       </c>
       <c r="D274" t="s">
-        <v>336</v>
+        <v>229</v>
       </c>
       <c r="E274" s="1">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="J274" s="1">
-        <v>160038</v>
+        <v>160018</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A275" s="1" t="s">
-        <v>660</v>
+      <c r="A275" s="1">
+        <v>180001</v>
       </c>
       <c r="B275" s="1">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D275" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="E275" s="1">
-        <v>1987</v>
-      </c>
-      <c r="L275" s="1">
-        <v>170048</v>
+        <v>2011</v>
+      </c>
+      <c r="J275" s="1">
+        <v>170029</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
-        <v>170006</v>
+        <v>180002</v>
       </c>
       <c r="B276" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D276" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="E276" s="1">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="J276" s="1">
-        <v>160018</v>
+        <v>170032</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>227</v>
+        <v>637</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
-        <v>180001</v>
+        <v>180003</v>
       </c>
       <c r="B277" s="1">
         <v>18</v>
@@ -9461,21 +9473,21 @@
         <v>52</v>
       </c>
       <c r="D277" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="E277" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="J277" s="1">
-        <v>170029</v>
+        <v>170034</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
-        <v>180002</v>
+        <v>180004</v>
       </c>
       <c r="B278" s="1">
         <v>18</v>
@@ -9484,21 +9496,21 @@
         <v>52</v>
       </c>
       <c r="D278" t="s">
-        <v>147</v>
+        <v>643</v>
       </c>
       <c r="E278" s="1">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="J278" s="1">
-        <v>170032</v>
+        <v>170034</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
-        <v>180003</v>
+        <v>180005</v>
       </c>
       <c r="B279" s="1">
         <v>18</v>
@@ -9507,21 +9519,21 @@
         <v>52</v>
       </c>
       <c r="D279" t="s">
-        <v>642</v>
+        <v>185</v>
       </c>
       <c r="E279" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J279" s="1">
-        <v>170034</v>
+        <v>170035</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
-        <v>180004</v>
+        <v>180006</v>
       </c>
       <c r="B280" s="1">
         <v>18</v>
@@ -9530,21 +9542,21 @@
         <v>52</v>
       </c>
       <c r="D280" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E280" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="J280" s="1">
-        <v>170034</v>
+        <v>170012</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
-        <v>180005</v>
+        <v>180007</v>
       </c>
       <c r="B281" s="1">
         <v>18</v>
@@ -9553,21 +9565,21 @@
         <v>52</v>
       </c>
       <c r="D281" t="s">
-        <v>185</v>
+        <v>657</v>
       </c>
       <c r="E281" s="1">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="J281" s="1">
-        <v>170035</v>
+        <v>170013</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
-        <v>180006</v>
+        <v>180008</v>
       </c>
       <c r="B282" s="1">
         <v>18</v>
@@ -9576,21 +9588,21 @@
         <v>52</v>
       </c>
       <c r="D282" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="E282" s="1">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="J282" s="1">
-        <v>170012</v>
+        <v>170048</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
-        <v>180007</v>
+        <v>180009</v>
       </c>
       <c r="B283" s="1">
         <v>18</v>
@@ -9599,21 +9611,21 @@
         <v>52</v>
       </c>
       <c r="D283" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E283" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="J283" s="1">
-        <v>170013</v>
+        <v>170048</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
-        <v>180008</v>
+        <v>180010</v>
       </c>
       <c r="B284" s="1">
         <v>18</v>
@@ -9622,21 +9634,21 @@
         <v>52</v>
       </c>
       <c r="D284" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E284" s="1">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="J284" s="1">
-        <v>170048</v>
+        <v>170007</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
-        <v>180009</v>
+        <v>180011</v>
       </c>
       <c r="B285" s="1">
         <v>18</v>
@@ -9645,21 +9657,21 @@
         <v>52</v>
       </c>
       <c r="D285" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E285" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="J285" s="1">
-        <v>170048</v>
+        <v>170007</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
-        <v>180010</v>
+        <v>180012</v>
       </c>
       <c r="B286" s="1">
         <v>18</v>
@@ -9668,21 +9680,21 @@
         <v>52</v>
       </c>
       <c r="D286" t="s">
-        <v>666</v>
+        <v>534</v>
       </c>
       <c r="E286" s="1">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="J286" s="1">
-        <v>170007</v>
+        <v>170027</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
-        <v>180011</v>
+        <v>180013</v>
       </c>
       <c r="B287" s="1">
         <v>18</v>
@@ -9691,21 +9703,21 @@
         <v>52</v>
       </c>
       <c r="D287" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="E287" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J287" s="1">
-        <v>170007</v>
+        <v>170027</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
-        <v>180012</v>
+        <v>180014</v>
       </c>
       <c r="B288" s="1">
         <v>18</v>
@@ -9714,21 +9726,21 @@
         <v>52</v>
       </c>
       <c r="D288" t="s">
-        <v>534</v>
+        <v>677</v>
       </c>
       <c r="E288" s="1">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="J288" s="1">
-        <v>170027</v>
+        <v>170006</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
-        <v>180013</v>
+        <v>180015</v>
       </c>
       <c r="B289" s="1">
         <v>18</v>
@@ -9737,21 +9749,21 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="E289" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J289" s="1">
-        <v>170027</v>
+        <v>170036</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
-        <v>180014</v>
+        <v>180016</v>
       </c>
       <c r="B290" s="1">
         <v>18</v>
@@ -9760,21 +9772,21 @@
         <v>52</v>
       </c>
       <c r="D290" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="E290" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J290" s="1">
-        <v>170006</v>
+        <v>170043</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
-        <v>180015</v>
+        <v>180017</v>
       </c>
       <c r="B291" s="1">
         <v>18</v>
@@ -9783,21 +9795,21 @@
         <v>52</v>
       </c>
       <c r="D291" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="E291" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="J291" s="1">
-        <v>170036</v>
+        <v>170043</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
-        <v>180016</v>
+        <v>180018</v>
       </c>
       <c r="B292" s="1">
         <v>18</v>
@@ -9806,334 +9818,330 @@
         <v>52</v>
       </c>
       <c r="D292" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="E292" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="J292" s="1">
-        <v>170043</v>
+        <v>170033</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A293" s="1">
-        <v>180017</v>
+      <c r="A293" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B293" s="1">
-        <v>18</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D293" t="s">
-        <v>662</v>
+        <v>54</v>
       </c>
       <c r="E293" s="1">
-        <v>2023</v>
+        <v>1943</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J293" s="1">
-        <v>170043</v>
+        <v>140001</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>682</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L293"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A294" s="1">
-        <v>180018</v>
+      <c r="A294" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B294" s="1">
-        <v>18</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D294" t="s">
-        <v>642</v>
+        <v>56</v>
       </c>
       <c r="E294" s="1">
-        <v>2013</v>
+        <v>1950</v>
       </c>
       <c r="J294" s="1">
-        <v>170033</v>
+        <v>140001</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>685</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L294"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="B295" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D295" t="s">
-        <v>54</v>
-      </c>
-      <c r="E295" s="1">
-        <v>1943</v>
+        <v>136</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J295" s="1">
-        <v>140001</v>
-      </c>
-      <c r="K295" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L295"/>
+      <c r="G295" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L295" s="1">
+        <v>140002</v>
+      </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B296" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D296" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E296" s="1">
-        <v>1950</v>
+        <v>1977</v>
       </c>
       <c r="J296" s="1">
-        <v>140001</v>
+        <v>150001</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="L296"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="B297" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D297" t="s">
-        <v>136</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G297" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L297" s="1">
-        <v>140002</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1991</v>
+      </c>
+      <c r="J297" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L297"/>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B298" s="1">
         <v>16</v>
       </c>
       <c r="D298" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E298" s="1">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="J298" s="1">
-        <v>150001</v>
+        <v>150002</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L298"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="B299" s="1">
         <v>16</v>
       </c>
       <c r="D299" t="s">
-        <v>39</v>
+        <v>423</v>
       </c>
       <c r="E299" s="1">
-        <v>1991</v>
+        <v>1</v>
       </c>
       <c r="J299" s="1">
-        <v>150001</v>
+        <v>150003</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L299"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="B300" s="1">
         <v>16</v>
       </c>
       <c r="D300" t="s">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="E300" s="1">
-        <v>1978</v>
+        <v>2</v>
       </c>
       <c r="J300" s="1">
-        <v>150002</v>
+        <v>150003</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L300"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B301" s="1">
         <v>16</v>
       </c>
       <c r="D301" t="s">
-        <v>423</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>59</v>
+        <v>426</v>
+      </c>
+      <c r="E301" s="1">
+        <v>1988</v>
+      </c>
+      <c r="F301" s="1">
+        <v>2025</v>
       </c>
       <c r="J301" s="1">
-        <v>150003</v>
+        <v>150004</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="L301"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B302" s="1">
         <v>16</v>
       </c>
       <c r="D302" t="s">
-        <v>424</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>59</v>
+        <v>429</v>
+      </c>
+      <c r="E302" s="1">
+        <v>1</v>
       </c>
       <c r="J302" s="1">
-        <v>150003</v>
+        <v>150005</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L302"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B303" s="1">
         <v>16</v>
       </c>
       <c r="D303" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E303" s="1">
-        <v>1988</v>
-      </c>
-      <c r="F303" s="1">
-        <v>2025</v>
+        <v>1984</v>
       </c>
       <c r="J303" s="1">
-        <v>150004</v>
+        <v>150006</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L303"/>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B304" s="1">
         <v>16</v>
       </c>
       <c r="D304" t="s">
-        <v>429</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>59</v>
+        <v>433</v>
+      </c>
+      <c r="E304" s="1">
+        <v>1991</v>
       </c>
       <c r="J304" s="1">
-        <v>150005</v>
+        <v>150006</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L304"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B305" s="1">
         <v>16</v>
       </c>
       <c r="D305" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E305" s="1">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="J305" s="1">
-        <v>150006</v>
+        <v>150007</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L305"/>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B306" s="1">
         <v>16</v>
       </c>
       <c r="D306" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E306" s="1">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="J306" s="1">
-        <v>150006</v>
+        <v>150007</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L306"/>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B307" s="1">
         <v>16</v>
       </c>
       <c r="D307" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E307" s="1">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="J307" s="1">
         <v>150007</v>
@@ -10145,142 +10153,150 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B308" s="1">
         <v>16</v>
       </c>
       <c r="D308" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E308" s="1">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="J308" s="1">
-        <v>150007</v>
+        <v>150009</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L308"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B309" s="1">
         <v>16</v>
       </c>
       <c r="D309" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E309" s="1">
-        <v>1995</v>
+        <v>1982</v>
       </c>
       <c r="J309" s="1">
-        <v>150007</v>
+        <v>150011</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L309"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B310" s="1">
         <v>16</v>
       </c>
       <c r="D310" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E310" s="1">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="J310" s="1">
-        <v>150009</v>
+        <v>150012</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L310"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B311" s="1">
         <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E311" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="J311" s="1">
-        <v>150011</v>
+        <v>150013</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="L311"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B312" s="1">
         <v>16</v>
       </c>
       <c r="D312" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="E312" s="1">
-        <v>1995</v>
+        <v>1950</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J312" s="1">
-        <v>150012</v>
+        <v>150015</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L312"/>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B313" s="1">
         <v>16</v>
       </c>
       <c r="D313" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E313" s="1">
-        <v>1986</v>
+        <v>1965</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G313" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="J313" s="1">
-        <v>150013</v>
+        <v>150015</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L313"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B314" s="1">
         <v>16</v>
       </c>
       <c r="D314" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E314" s="1">
-        <v>1950</v>
+        <v>1961</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>59</v>
@@ -10291,26 +10307,19 @@
       <c r="K314" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L314"/>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B315" s="1">
         <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>451</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G315" s="8" t="s">
-        <v>210</v>
+        <v>456</v>
+      </c>
+      <c r="E315" s="1">
+        <v>1965</v>
       </c>
       <c r="J315" s="1">
         <v>150015</v>
@@ -10321,59 +10330,63 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B316" s="1">
         <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E316" s="1">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J316" s="1">
-        <v>150015</v>
+        <v>150016</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B317" s="1">
         <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E317" s="1">
-        <v>1965</v>
+        <v>1966</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J317" s="1">
-        <v>150015</v>
+        <v>150016</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="L317"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B318" s="1">
         <v>16</v>
       </c>
       <c r="D318" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E318" s="1">
-        <v>1957</v>
+        <v>1977</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>59</v>
@@ -10384,132 +10397,127 @@
       <c r="K318" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="L318"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B319" s="1">
         <v>16</v>
       </c>
       <c r="D319" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E319" s="1">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J319" s="1">
-        <v>150016</v>
+        <v>150017</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L319"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="B320" s="1">
         <v>16</v>
       </c>
       <c r="D320" t="s">
-        <v>463</v>
+        <v>284</v>
       </c>
       <c r="E320" s="1">
-        <v>1977</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>59</v>
+        <v>1979</v>
       </c>
       <c r="J320" s="1">
-        <v>150016</v>
+        <v>150019</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="L320"/>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
-        <v>465</v>
+        <v>283</v>
       </c>
       <c r="B321" s="1">
         <v>16</v>
       </c>
       <c r="D321" t="s">
-        <v>464</v>
+        <v>285</v>
       </c>
       <c r="E321" s="1">
-        <v>1957</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>59</v>
+        <v>1981</v>
       </c>
       <c r="J321" s="1">
-        <v>150017</v>
+        <v>150019</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="L321"/>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
-        <v>282</v>
+        <v>469</v>
       </c>
       <c r="B322" s="1">
         <v>16</v>
       </c>
       <c r="D322" t="s">
-        <v>284</v>
+        <v>466</v>
       </c>
       <c r="E322" s="1">
-        <v>1979</v>
+        <v>1955</v>
       </c>
       <c r="J322" s="1">
-        <v>150019</v>
+        <v>150020</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L322"/>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="B323" s="1">
         <v>16</v>
       </c>
       <c r="D323" t="s">
-        <v>285</v>
+        <v>467</v>
       </c>
       <c r="E323" s="1">
-        <v>1981</v>
+        <v>1960</v>
       </c>
       <c r="J323" s="1">
-        <v>150019</v>
+        <v>150020</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L323"/>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B324" s="1">
         <v>16</v>
       </c>
       <c r="D324" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E324" s="1">
-        <v>1955</v>
+        <v>1965</v>
       </c>
       <c r="J324" s="1">
         <v>150020</v>
@@ -10521,58 +10529,64 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B325" s="1">
         <v>16</v>
       </c>
       <c r="D325" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E325" s="1">
-        <v>1960</v>
+        <v>1953</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J325" s="1">
-        <v>150020</v>
+        <v>150021</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L325"/>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B326" s="1">
         <v>16</v>
       </c>
       <c r="D326" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E326" s="1">
-        <v>1965</v>
+        <v>1961</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J326" s="1">
-        <v>150020</v>
+        <v>150021</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L326"/>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B327" s="1">
         <v>16</v>
       </c>
       <c r="D327" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="E327" s="1">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>59</v>
@@ -10587,16 +10601,16 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B328" s="1">
         <v>16</v>
       </c>
       <c r="D328" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E328" s="1">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>59</v>
@@ -10611,16 +10625,16 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B329" s="1">
         <v>16</v>
       </c>
       <c r="D329" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="E329" s="1">
-        <v>1963</v>
+        <v>1969</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>59</v>
@@ -10635,16 +10649,16 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B330" s="1">
         <v>16</v>
       </c>
       <c r="D330" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="E330" s="1">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>59</v>
@@ -10659,64 +10673,58 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B331" s="1">
         <v>16</v>
       </c>
       <c r="D331" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="E331" s="1">
-        <v>1969</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>59</v>
+        <v>1961</v>
       </c>
       <c r="J331" s="1">
-        <v>150021</v>
+        <v>150022</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L331"/>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B332" s="1">
         <v>16</v>
       </c>
       <c r="D332" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="E332" s="1">
-        <v>1971</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>59</v>
+        <v>1964</v>
       </c>
       <c r="J332" s="1">
-        <v>150021</v>
+        <v>150022</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L332"/>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B333" s="1">
         <v>16</v>
       </c>
       <c r="D333" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="E333" s="1">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="J333" s="1">
         <v>150022</v>
@@ -10728,16 +10736,16 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B334" s="1">
         <v>16</v>
       </c>
       <c r="D334" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E334" s="1">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="J334" s="1">
         <v>150022</v>
@@ -10749,16 +10757,16 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B335" s="1">
         <v>16</v>
       </c>
       <c r="D335" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E335" s="1">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="J335" s="1">
         <v>150022</v>
@@ -10770,439 +10778,437 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B336" s="1">
         <v>16</v>
       </c>
       <c r="D336" t="s">
-        <v>486</v>
+        <v>39</v>
       </c>
       <c r="E336" s="1">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="J336" s="1">
-        <v>150022</v>
+        <v>150023</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L336"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B337" s="1">
         <v>16</v>
       </c>
       <c r="D337" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="E337" s="1">
-        <v>1976</v>
+        <v>1962</v>
       </c>
       <c r="J337" s="1">
-        <v>150022</v>
+        <v>150024</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L337"/>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B338" s="1">
         <v>16</v>
       </c>
       <c r="D338" t="s">
-        <v>39</v>
-      </c>
-      <c r="E338" s="1">
-        <v>1977</v>
+        <v>493</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J338" s="1">
-        <v>150023</v>
+        <v>150024</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L338"/>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="B339" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D339" t="s">
-        <v>492</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E339" s="1">
+        <v>2012</v>
       </c>
       <c r="J339" s="1">
-        <v>150024</v>
+        <v>160001</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
-        <v>495</v>
+        <v>44</v>
       </c>
       <c r="B340" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D340" t="s">
-        <v>493</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="E340" s="1">
+        <v>2016</v>
       </c>
       <c r="J340" s="1">
-        <v>150024</v>
+        <v>160002</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B341" s="1">
         <v>17</v>
       </c>
       <c r="D341" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E341" s="1">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="J341" s="1">
-        <v>160001</v>
+        <v>160004</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B342" s="1">
         <v>17</v>
       </c>
       <c r="D342" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E342" s="1">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="J342" s="1">
-        <v>160002</v>
+        <v>160005</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="B343" s="1">
         <v>17</v>
       </c>
       <c r="D343" t="s">
-        <v>47</v>
-      </c>
-      <c r="E343" s="1">
-        <v>2003</v>
+        <v>498</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J343" s="1">
-        <v>160004</v>
+        <v>160006</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
-        <v>49</v>
+        <v>501</v>
       </c>
       <c r="B344" s="1">
         <v>17</v>
       </c>
       <c r="D344" t="s">
-        <v>48</v>
-      </c>
-      <c r="E344" s="1">
-        <v>2007</v>
+        <v>499</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J344" s="1">
-        <v>160005</v>
+        <v>160006</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B345" s="1">
         <v>17</v>
       </c>
       <c r="D345" t="s">
-        <v>498</v>
+        <v>43</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J345" s="1">
-        <v>160006</v>
+        <v>160007</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B346" s="1">
         <v>17</v>
       </c>
       <c r="D346" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J346" s="1">
-        <v>160006</v>
+        <v>160007</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B347" s="1">
         <v>17</v>
       </c>
       <c r="D347" t="s">
-        <v>43</v>
+        <v>512</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J347" s="1">
-        <v>160007</v>
+        <v>160008</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="B348" s="1">
         <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>504</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>59</v>
+        <v>517</v>
+      </c>
+      <c r="E348" s="1">
+        <v>2018</v>
       </c>
       <c r="J348" s="1">
-        <v>160007</v>
+        <v>160010</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="B349" s="1">
         <v>17</v>
       </c>
       <c r="D349" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G349" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="J349" s="1">
-        <v>160008</v>
+        <v>160011</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
       </c>
       <c r="D350" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E350" s="1">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J350" s="1">
-        <v>160010</v>
+        <v>160011</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B351" s="1">
         <v>17</v>
       </c>
       <c r="D351" t="s">
-        <v>520</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G351" s="8" t="s">
-        <v>522</v>
+        <v>533</v>
+      </c>
+      <c r="E351" s="1">
+        <v>2005</v>
       </c>
       <c r="J351" s="1">
-        <v>160011</v>
+        <v>160015</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B352" s="1">
         <v>17</v>
       </c>
       <c r="D352" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="E352" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="J352" s="1">
-        <v>160011</v>
+        <v>160015</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E353" s="1">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="J353" s="1">
-        <v>160015</v>
+        <v>160016</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="E354" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="J354" s="1">
-        <v>160015</v>
+        <v>160017</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B355" s="1">
         <v>17</v>
       </c>
       <c r="D355" t="s">
-        <v>541</v>
-      </c>
-      <c r="E355" s="1">
-        <v>2015</v>
+        <v>548</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J355" s="1">
-        <v>160016</v>
+        <v>160018</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>539</v>
+        <v>227</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B356" s="1">
         <v>17</v>
       </c>
       <c r="D356" t="s">
-        <v>545</v>
-      </c>
-      <c r="E356" s="1">
-        <v>2017</v>
+        <v>549</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J356" s="1">
-        <v>160017</v>
+        <v>160018</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>546</v>
+        <v>227</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
       <c r="D357" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>59</v>
@@ -11216,56 +11222,56 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>549</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>59</v>
+        <v>553</v>
+      </c>
+      <c r="E358" s="1">
+        <v>1982</v>
       </c>
       <c r="J358" s="1">
-        <v>160018</v>
+        <v>160019</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
       </c>
       <c r="D359" t="s">
-        <v>492</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>59</v>
+        <v>554</v>
+      </c>
+      <c r="E359" s="1">
+        <v>1984</v>
       </c>
       <c r="J359" s="1">
-        <v>160018</v>
+        <v>160019</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B360" s="1">
         <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>553</v>
+        <v>474</v>
       </c>
       <c r="E360" s="1">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="J360" s="1">
         <v>160019</v>
@@ -11276,282 +11282,282 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E361" s="1">
-        <v>1984</v>
+        <v>2000</v>
       </c>
       <c r="J361" s="1">
-        <v>160019</v>
+        <v>160020</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B362" s="1">
         <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="E362" s="1">
-        <v>1987</v>
+        <v>2005</v>
       </c>
       <c r="J362" s="1">
-        <v>160019</v>
+        <v>160020</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B363" s="1">
         <v>17</v>
       </c>
       <c r="D363" t="s">
-        <v>558</v>
+        <v>435</v>
       </c>
       <c r="E363" s="1">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="J363" s="1">
-        <v>160020</v>
+        <v>160021</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B364" s="1">
         <v>17</v>
       </c>
       <c r="D364" t="s">
-        <v>559</v>
+        <v>487</v>
       </c>
       <c r="E364" s="1">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="J364" s="1">
-        <v>160020</v>
+        <v>160023</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>406</v>
+        <v>570</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>435</v>
-      </c>
-      <c r="E365" s="1">
-        <v>1979</v>
+        <v>571</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G365" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="J365" s="1">
-        <v>160021</v>
+        <v>160023</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>239</v>
+        <v>570</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B366" s="1">
         <v>17</v>
       </c>
       <c r="D366" t="s">
-        <v>487</v>
+        <v>575</v>
       </c>
       <c r="E366" s="1">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="J366" s="1">
-        <v>160023</v>
+        <v>160024</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B367" s="1">
         <v>17</v>
       </c>
       <c r="D367" t="s">
-        <v>571</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G367" s="8" t="s">
-        <v>210</v>
+        <v>580</v>
+      </c>
+      <c r="E367" s="1">
+        <v>1984</v>
       </c>
       <c r="J367" s="1">
-        <v>160023</v>
+        <v>160025</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>570</v>
+        <v>246</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>575</v>
+        <v>482</v>
       </c>
       <c r="E368" s="1">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="J368" s="1">
-        <v>160024</v>
+        <v>160027</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>568</v>
+        <v>250</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B369" s="1">
         <v>17</v>
       </c>
       <c r="D369" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E369" s="1">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="J369" s="1">
-        <v>160025</v>
+        <v>160028</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>246</v>
+        <v>585</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
-        <v>584</v>
+        <v>289</v>
       </c>
       <c r="B370" s="1">
         <v>17</v>
       </c>
       <c r="D370" t="s">
-        <v>482</v>
+        <v>280</v>
       </c>
       <c r="E370" s="1">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="J370" s="1">
-        <v>160027</v>
+        <v>160029</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
-        <v>589</v>
+        <v>281</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>587</v>
+        <v>290</v>
       </c>
       <c r="E371" s="1">
-        <v>1992</v>
+        <v>2011</v>
       </c>
       <c r="J371" s="1">
-        <v>160028</v>
+        <v>160030</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>585</v>
+        <v>286</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
-        <v>289</v>
+        <v>591</v>
       </c>
       <c r="B372" s="1">
         <v>17</v>
       </c>
       <c r="D372" t="s">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="E372" s="1">
-        <v>2016</v>
+        <v>1981</v>
       </c>
       <c r="J372" s="1">
-        <v>160029</v>
+        <v>160031</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
-        <v>281</v>
+        <v>592</v>
       </c>
       <c r="B373" s="1">
         <v>17</v>
       </c>
       <c r="D373" t="s">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="E373" s="1">
-        <v>2011</v>
+        <v>1981</v>
       </c>
       <c r="J373" s="1">
-        <v>160030</v>
+        <v>160031</v>
       </c>
       <c r="K373" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B374" s="1">
         <v>17</v>
       </c>
       <c r="D374" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="E374" s="1">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="J374" s="1">
         <v>160031</v>
@@ -11562,176 +11568,176 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E375" s="1">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="J375" s="1">
-        <v>160031</v>
+        <v>160032</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>311</v>
+        <v>594</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="B376" s="1">
         <v>17</v>
       </c>
       <c r="D376" t="s">
-        <v>448</v>
+        <v>608</v>
       </c>
       <c r="E376" s="1">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="J376" s="1">
-        <v>160031</v>
+        <v>160034</v>
       </c>
       <c r="K376" s="1" t="s">
-        <v>311</v>
+        <v>606</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="E377" s="1">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="J377" s="1">
-        <v>160032</v>
+        <v>160035</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="E378" s="1">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="J378" s="1">
-        <v>160034</v>
+        <v>160037</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="E379" s="1">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="J379" s="1">
-        <v>160035</v>
+        <v>160037</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B380" s="1">
         <v>17</v>
       </c>
       <c r="D380" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E380" s="1">
-        <v>2012</v>
+        <v>1986</v>
       </c>
       <c r="J380" s="1">
-        <v>160037</v>
+        <v>160038</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>621</v>
+        <v>334</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E381" s="1">
-        <v>2014</v>
+        <v>1996</v>
       </c>
       <c r="J381" s="1">
-        <v>160037</v>
+        <v>160039</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>621</v>
+        <v>339</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B382" s="1">
         <v>17</v>
       </c>
       <c r="D382" t="s">
-        <v>626</v>
+        <v>436</v>
       </c>
       <c r="E382" s="1">
-        <v>1986</v>
+        <v>1999</v>
       </c>
       <c r="J382" s="1">
-        <v>160038</v>
+        <v>160039</v>
       </c>
       <c r="K382" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B383" s="1">
         <v>17</v>
       </c>
       <c r="D383" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E383" s="1">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="J383" s="1">
         <v>160039</v>
@@ -11742,293 +11748,253 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
       </c>
       <c r="D384" t="s">
-        <v>436</v>
-      </c>
-      <c r="E384" s="1">
-        <v>1999</v>
+        <v>603</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J384" s="1">
-        <v>160039</v>
+        <v>160042</v>
       </c>
       <c r="K384" s="1" t="s">
-        <v>339</v>
+        <v>600</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="B385" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D385" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
       <c r="E385" s="1">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="J385" s="1">
-        <v>160039</v>
+        <v>170006</v>
       </c>
       <c r="K385" s="1" t="s">
-        <v>339</v>
+        <v>674</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
-        <v>604</v>
+        <v>669</v>
       </c>
       <c r="B386" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D386" t="s">
-        <v>603</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>59</v>
+        <v>668</v>
+      </c>
+      <c r="E386" s="1">
+        <v>2018</v>
       </c>
       <c r="J386" s="1">
-        <v>160042</v>
+        <v>170007</v>
       </c>
       <c r="K386" s="1" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="B387" s="1">
         <v>18</v>
       </c>
       <c r="D387" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="E387" s="1">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="J387" s="1">
-        <v>170006</v>
+        <v>170012</v>
       </c>
       <c r="K387" s="1" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="B388" s="1">
         <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="E388" s="1">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="J388" s="1">
-        <v>170007</v>
+        <v>170012</v>
       </c>
       <c r="K388" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B389" s="1">
         <v>18</v>
       </c>
       <c r="D389" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="E389" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="J389" s="1">
-        <v>170012</v>
+        <v>170013</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="B390" s="1">
         <v>18</v>
       </c>
       <c r="D390" t="s">
-        <v>650</v>
+        <v>468</v>
       </c>
       <c r="E390" s="1">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="J390" s="1">
-        <v>170012</v>
+        <v>170027</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="B391" s="1">
         <v>18</v>
       </c>
       <c r="D391" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="E391" s="1">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="J391" s="1">
-        <v>170013</v>
+        <v>170028</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
-        <v>673</v>
+        <v>636</v>
       </c>
       <c r="B392" s="1">
         <v>18</v>
       </c>
       <c r="D392" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="E392" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J392" s="1">
-        <v>170027</v>
+        <v>170029</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
-        <v>692</v>
+        <v>639</v>
       </c>
       <c r="B393" s="1">
         <v>18</v>
       </c>
       <c r="D393" t="s">
-        <v>691</v>
+        <v>476</v>
       </c>
       <c r="E393" s="1">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="J393" s="1">
-        <v>170028</v>
+        <v>170032</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>689</v>
+        <v>637</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
-        <v>636</v>
+        <v>688</v>
       </c>
       <c r="B394" s="1">
         <v>18</v>
       </c>
       <c r="D394" t="s">
-        <v>444</v>
+        <v>687</v>
       </c>
       <c r="E394" s="1">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="J394" s="1">
-        <v>170029</v>
+        <v>170033</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>633</v>
+        <v>685</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B395" s="1">
         <v>18</v>
       </c>
       <c r="D395" t="s">
-        <v>476</v>
+        <v>646</v>
       </c>
       <c r="E395" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="J395" s="1">
-        <v>170032</v>
+        <v>170035</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A396" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B396" s="1">
-        <v>18</v>
-      </c>
-      <c r="D396" t="s">
-        <v>687</v>
-      </c>
-      <c r="E396" s="1">
-        <v>2012</v>
-      </c>
-      <c r="J396" s="1">
-        <v>170033</v>
-      </c>
-      <c r="K396" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A397" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B397" s="1">
-        <v>18</v>
-      </c>
-      <c r="D397" t="s">
-        <v>646</v>
-      </c>
-      <c r="E397" s="1">
-        <v>2009</v>
-      </c>
-      <c r="J397" s="1">
-        <v>170035</v>
-      </c>
-      <c r="K397" s="1" t="s">
         <v>645</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N397" xr:uid="{22D72683-6866-4431-9C3B-624A912C74B3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N397">
-      <sortCondition ref="M1:M397"/>
+  <autoFilter ref="A1:N395" xr:uid="{22D72683-6866-4431-9C3B-624A912C74B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N395">
+      <sortCondition ref="M1:M395"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M397">
-    <sortCondition ref="B2:B397"/>
-    <sortCondition ref="M2:M397"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M395">
+    <sortCondition ref="B2:B395"/>
+    <sortCondition ref="M2:M395"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B9E5F-D2CF-43B5-A45A-EA0F03779F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95933574-CF76-4580-A3F8-0A5146E21725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,9 +353,6 @@
     <t>Dương Danh Khương</t>
   </si>
   <si>
-    <t>Dương Danh Thử</t>
-  </si>
-  <si>
     <t>Hiệu Phúc Trạch</t>
   </si>
   <si>
@@ -2135,6 +2132,9 @@
   </si>
   <si>
     <t>160013v1</t>
+  </si>
+  <si>
+    <t>Dương Danh Thự</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2226,9 +2226,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2513,24 +2510,24 @@
   <dimension ref="A1:L395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E338" sqref="E338"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="10.86328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.53125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.46484375" style="10" customWidth="1"/>
-    <col min="10" max="11" width="11.46484375" customWidth="1"/>
-    <col min="12" max="12" width="9.06640625" style="1"/>
+    <col min="8" max="8" width="8.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="10" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>80001</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>75</v>
@@ -2597,7 +2594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -2626,7 +2623,7 @@
         <v>80001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>90001</v>
       </c>
@@ -2662,7 +2659,7 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>90001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100001</v>
       </c>
@@ -2727,7 +2724,7 @@
       </c>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>100002</v>
       </c>
@@ -2776,7 +2773,7 @@
         <v>59</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>59</v>
@@ -2789,9 +2786,9 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
@@ -2806,10 +2803,10 @@
         <v>59</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>59</v>
@@ -2818,9 +2815,9 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
@@ -2835,10 +2832,10 @@
         <v>59</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>59</v>
@@ -2847,7 +2844,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>100003</v>
       </c>
@@ -2867,10 +2864,10 @@
         <v>59</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>59</v>
@@ -2883,27 +2880,27 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>59</v>
@@ -2912,7 +2909,7 @@
         <v>100003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>110001</v>
       </c>
@@ -2948,7 +2945,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>110001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>110001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>110002</v>
       </c>
@@ -3017,7 +3014,7 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>59</v>
@@ -3041,7 +3038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>110003</v>
       </c>
@@ -3052,19 +3049,19 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>59</v>
@@ -3076,15 +3073,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="1">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
@@ -3093,10 +3090,10 @@
         <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>59</v>
@@ -3105,7 +3102,7 @@
         <v>110003</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>110004</v>
       </c>
@@ -3116,7 +3113,7 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>59</v>
@@ -3125,10 +3122,10 @@
         <v>59</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>59</v>
@@ -3137,11 +3134,11 @@
         <v>100002</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>110005</v>
       </c>
@@ -3152,7 +3149,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
@@ -3164,11 +3161,11 @@
         <v>100002</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>110006</v>
       </c>
@@ -3179,19 +3176,19 @@
         <v>52</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>359</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>59</v>
@@ -3200,69 +3197,69 @@
         <v>100002</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B22" s="1">
         <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="1">
+        <v>110006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="16">
-        <v>110006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="B23" s="1">
         <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="I23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="1">
         <v>110006</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>110007</v>
       </c>
@@ -3273,7 +3270,7 @@
         <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>59</v>
@@ -3282,10 +3279,10 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>59</v>
@@ -3294,11 +3291,11 @@
         <v>100003</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>110008</v>
       </c>
@@ -3309,7 +3306,7 @@
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -3318,7 +3315,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>105</v>
@@ -3330,31 +3327,31 @@
         <v>100003</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B26" s="1">
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>59</v>
@@ -3363,27 +3360,27 @@
         <v>110008</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>59</v>
@@ -3392,7 +3389,7 @@
         <v>110008</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>120001</v>
       </c>
@@ -3403,19 +3400,19 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
+        <v>697</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>59</v>
@@ -3428,27 +3425,27 @@
       </c>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1">
         <v>12</v>
       </c>
       <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>59</v>
@@ -3457,27 +3454,27 @@
         <v>120001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1">
         <v>12</v>
       </c>
       <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>59</v>
@@ -3486,7 +3483,7 @@
         <v>120001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>120002</v>
       </c>
@@ -3506,10 +3503,10 @@
         <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>59</v>
@@ -3522,15 +3519,15 @@
       </c>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>59</v>
@@ -3539,10 +3536,10 @@
         <v>59</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>59</v>
@@ -3551,7 +3548,7 @@
         <v>120002</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>120003</v>
       </c>
@@ -3562,7 +3559,7 @@
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>59</v>
@@ -3571,23 +3568,23 @@
         <v>59</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="I33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="1">
         <v>110006</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>120004</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>59</v>
@@ -3607,25 +3604,25 @@
         <v>59</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="1">
         <v>110006</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B35" s="1">
         <v>12</v>
@@ -3640,10 +3637,10 @@
         <v>59</v>
       </c>
       <c r="G35" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>59</v>
@@ -3652,7 +3649,7 @@
         <v>120004</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>120005</v>
       </c>
@@ -3663,7 +3660,7 @@
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>59</v>
@@ -3672,31 +3669,31 @@
         <v>59</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="1">
         <v>110006</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>59</v>
@@ -3705,10 +3702,10 @@
         <v>59</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>59</v>
@@ -3717,7 +3714,7 @@
         <v>120005</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>120006</v>
       </c>
@@ -3728,7 +3725,7 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>59</v>
@@ -3737,7 +3734,7 @@
         <v>59</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>59</v>
@@ -3746,11 +3743,11 @@
         <v>110008</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>130001</v>
       </c>
@@ -3770,10 +3767,10 @@
         <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>59</v>
@@ -3782,11 +3779,11 @@
         <v>120001</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -3803,10 +3800,10 @@
         <v>59</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>63</v>
@@ -3815,7 +3812,7 @@
         <v>130001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>130002</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>59</v>
@@ -3835,7 +3832,7 @@
         <v>59</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>59</v>
@@ -3847,31 +3844,31 @@
         <v>120001</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1">
         <v>13</v>
       </c>
       <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="H42" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>59</v>
@@ -3880,27 +3877,27 @@
         <v>130002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1">
         <v>13</v>
       </c>
       <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>59</v>
@@ -3909,7 +3906,7 @@
         <v>130002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>130003</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>59</v>
@@ -3932,7 +3929,7 @@
         <v>59</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>59</v>
@@ -3941,13 +3938,13 @@
         <v>120001</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1">
         <v>13</v>
@@ -3974,7 +3971,7 @@
         <v>130003</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>130004</v>
       </c>
@@ -3985,7 +3982,7 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>59</v>
@@ -3994,10 +3991,10 @@
         <v>59</v>
       </c>
       <c r="G46" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>59</v>
@@ -4006,60 +4003,60 @@
         <v>120002</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" s="1">
         <v>13</v>
       </c>
       <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="L47" s="1">
         <v>130004</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" s="1">
         <v>13</v>
       </c>
       <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="L48" s="1">
         <v>130004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>130005</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>59</v>
@@ -4079,10 +4076,10 @@
         <v>59</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>59</v>
@@ -4091,13 +4088,13 @@
         <v>120002</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="1">
         <v>13</v>
@@ -4112,7 +4109,7 @@
         <v>59</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>59</v>
@@ -4124,7 +4121,7 @@
         <v>130005</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>130006</v>
       </c>
@@ -4135,7 +4132,7 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>59</v>
@@ -4144,10 +4141,10 @@
         <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>59</v>
@@ -4156,11 +4153,11 @@
         <v>120002</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>130007</v>
       </c>
@@ -4171,7 +4168,7 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>59</v>
@@ -4180,10 +4177,10 @@
         <v>59</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>59</v>
@@ -4192,31 +4189,31 @@
         <v>120002</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53" s="1">
         <v>13</v>
       </c>
       <c r="D53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="8" t="s">
+      <c r="H53" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>59</v>
@@ -4225,7 +4222,7 @@
         <v>130007</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>130008</v>
       </c>
@@ -4236,7 +4233,7 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>59</v>
@@ -4245,40 +4242,40 @@
         <v>59</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="J54" s="1">
         <v>120002</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" s="1">
         <v>13</v>
       </c>
       <c r="D55" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" s="8" t="s">
+      <c r="H55" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>59</v>
@@ -4287,7 +4284,7 @@
         <v>130008</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>130009</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>59</v>
@@ -4313,11 +4310,11 @@
         <v>120004</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>130010</v>
       </c>
@@ -4328,7 +4325,7 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>59</v>
@@ -4346,31 +4343,31 @@
         <v>120005</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B58" s="1">
         <v>13</v>
       </c>
       <c r="D58" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="8" t="s">
+      <c r="H58" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>59</v>
@@ -4379,15 +4376,15 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B59" s="1">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
@@ -4402,7 +4399,7 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>140001</v>
       </c>
@@ -4438,7 +4435,7 @@
       </c>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>140001</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -4493,7 +4490,7 @@
         <v>140001</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>140002</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>59</v>
@@ -4525,11 +4522,11 @@
         <v>130002</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>140003</v>
       </c>
@@ -4540,7 +4537,7 @@
         <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>59</v>
@@ -4549,7 +4546,7 @@
         <v>59</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>59</v>
@@ -4561,19 +4558,19 @@
         <v>130003</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="1">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>59</v>
@@ -4594,7 +4591,7 @@
         <v>140003</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>140004</v>
       </c>
@@ -4617,19 +4614,19 @@
         <v>130003</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="1">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>59</v>
@@ -4650,7 +4647,7 @@
         <v>140004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>140005</v>
       </c>
@@ -4673,19 +4670,19 @@
         <v>130003</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L68"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" s="1">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>59</v>
@@ -4706,7 +4703,7 @@
         <v>140005</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>140006</v>
       </c>
@@ -4717,7 +4714,7 @@
         <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>59</v>
@@ -4729,11 +4726,11 @@
         <v>130004</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>140007</v>
       </c>
@@ -4744,7 +4741,7 @@
         <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>59</v>
@@ -4756,28 +4753,28 @@
         <v>130004</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" s="1">
         <v>14</v>
       </c>
       <c r="D72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>59</v>
@@ -4789,7 +4786,7 @@
         <v>140007</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>140008</v>
       </c>
@@ -4800,7 +4797,7 @@
         <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>59</v>
@@ -4821,19 +4818,19 @@
         <v>130005</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L73"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B74" s="1">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>59</v>
@@ -4851,7 +4848,7 @@
         <v>140008</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>140009</v>
       </c>
@@ -4862,7 +4859,7 @@
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>59</v>
@@ -4871,10 +4868,10 @@
         <v>59</v>
       </c>
       <c r="G75" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>59</v>
@@ -4883,11 +4880,11 @@
         <v>130008</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>140010</v>
       </c>
@@ -4898,7 +4895,7 @@
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>59</v>
@@ -4910,7 +4907,7 @@
         <v>59</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>59</v>
@@ -4919,19 +4916,19 @@
         <v>130008</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B77" s="1">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>59</v>
@@ -4946,15 +4943,15 @@
         <v>140010</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B78" s="1">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>59</v>
@@ -4975,7 +4972,7 @@
         <v>140010</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>140011</v>
       </c>
@@ -4986,7 +4983,7 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>59</v>
@@ -4998,19 +4995,19 @@
         <v>130008</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B80" s="1">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>59</v>
@@ -5031,7 +5028,7 @@
         <v>140011</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>140012</v>
       </c>
@@ -5042,7 +5039,7 @@
         <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>59</v>
@@ -5054,19 +5051,19 @@
         <v>130008</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B82" s="1">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>59</v>
@@ -5087,7 +5084,7 @@
         <v>140012</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>140013</v>
       </c>
@@ -5098,7 +5095,7 @@
         <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>59</v>
@@ -5116,11 +5113,11 @@
         <v>130010</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>140014</v>
       </c>
@@ -5131,19 +5128,19 @@
         <v>52</v>
       </c>
       <c r="D84" t="s">
+        <v>258</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G84" s="8" t="s">
+      <c r="H84" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>59</v>
@@ -5152,31 +5149,31 @@
         <v>130007</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L84"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
       </c>
       <c r="D85" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G85" s="8" t="s">
+      <c r="H85" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>59</v>
@@ -5185,7 +5182,7 @@
         <v>140014</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>150001</v>
       </c>
@@ -5212,7 +5209,7 @@
       </c>
       <c r="L86"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -5226,13 +5223,13 @@
         <v>1953</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L87" s="1">
         <v>150001</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>150002</v>
       </c>
@@ -5256,7 +5253,7 @@
       </c>
       <c r="L88"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -5270,13 +5267,13 @@
         <v>1958</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L89" s="1">
         <v>150002</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>150003</v>
       </c>
@@ -5287,7 +5284,7 @@
         <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>59</v>
@@ -5296,31 +5293,31 @@
         <v>140003</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L90"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="1">
         <v>15</v>
       </c>
       <c r="D91" t="s">
+        <v>409</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="L91" s="1">
         <v>150003</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>150004</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -5352,19 +5349,19 @@
         <v>140004</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L92"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" s="1">
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>59</v>
@@ -5373,7 +5370,7 @@
         <v>150004</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>150005</v>
       </c>
@@ -5384,7 +5381,7 @@
         <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -5405,19 +5402,19 @@
         <v>140004</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L94"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B95" s="1">
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>59</v>
@@ -5438,7 +5435,7 @@
         <v>150005</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>150006</v>
       </c>
@@ -5449,7 +5446,7 @@
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E96" s="1">
         <v>1957</v>
@@ -5458,19 +5455,19 @@
         <v>140004</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B97" s="1">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E97" s="1">
         <v>1961</v>
@@ -5479,7 +5476,7 @@
         <v>150006</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>150007</v>
       </c>
@@ -5490,7 +5487,7 @@
         <v>52</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98" s="1">
         <v>1961</v>
@@ -5499,19 +5496,19 @@
         <v>140004</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="1">
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E99" s="1">
         <v>1966</v>
@@ -5520,7 +5517,7 @@
         <v>150007</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>150008</v>
       </c>
@@ -5531,7 +5528,7 @@
         <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E100" s="1">
         <v>1964</v>
@@ -5540,31 +5537,31 @@
         <v>140004</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="1">
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E101" s="1">
         <v>1971</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L101" s="1">
         <v>150008</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>150009</v>
       </c>
@@ -5575,7 +5572,7 @@
         <v>52</v>
       </c>
       <c r="D102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E102" s="1">
         <v>1974</v>
@@ -5584,39 +5581,39 @@
         <v>140004</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="1">
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E103" s="1">
         <v>1979</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L103" s="1">
         <v>150009</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" s="1">
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>59</v>
@@ -5625,7 +5622,7 @@
         <v>150009</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>150010</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -5645,23 +5642,23 @@
         <v>59</v>
       </c>
       <c r="G105" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I105" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="J105" s="1">
         <v>140005</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>150011</v>
       </c>
@@ -5672,31 +5669,31 @@
         <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E106" s="1">
         <v>1951</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J106" s="1">
         <v>140005</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L106"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B107" s="1">
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E107" s="1">
         <v>1959</v>
@@ -5705,7 +5702,7 @@
         <v>150011</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>150012</v>
       </c>
@@ -5716,7 +5713,7 @@
         <v>52</v>
       </c>
       <c r="D108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E108" s="1">
         <v>1960</v>
@@ -5725,19 +5722,19 @@
         <v>140005</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L108"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B109" s="1">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>59</v>
@@ -5746,7 +5743,7 @@
         <v>150012</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>150013</v>
       </c>
@@ -5757,7 +5754,7 @@
         <v>52</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E110" s="1">
         <v>1943</v>
@@ -5766,31 +5763,31 @@
         <v>140007</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" s="1">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E111" s="1">
         <v>1959</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L111" s="1">
         <v>150013</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>150014</v>
       </c>
@@ -5801,16 +5798,16 @@
         <v>52</v>
       </c>
       <c r="D112" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>59</v>
@@ -5822,11 +5819,11 @@
         <v>140007</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L112"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>150015</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>52</v>
       </c>
       <c r="D113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -5849,19 +5846,19 @@
         <v>140008</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L113"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B114" s="1">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>59</v>
@@ -5873,7 +5870,7 @@
         <v>150015</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>150016</v>
       </c>
@@ -5884,7 +5881,7 @@
         <v>52</v>
       </c>
       <c r="D115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E115" s="1">
         <v>1930</v>
@@ -5893,19 +5890,19 @@
         <v>140008</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L115"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B116" s="1">
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E116" s="1">
         <v>1930</v>
@@ -5926,7 +5923,7 @@
         <v>150016</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>150017</v>
       </c>
@@ -5937,7 +5934,7 @@
         <v>52</v>
       </c>
       <c r="D117" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>59</v>
@@ -5946,19 +5943,19 @@
         <v>140008</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L117"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="1">
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>59</v>
@@ -5970,7 +5967,7 @@
         <v>150017</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>150018</v>
       </c>
@@ -5981,7 +5978,7 @@
         <v>52</v>
       </c>
       <c r="D119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -5990,10 +5987,10 @@
         <v>59</v>
       </c>
       <c r="G119" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>59</v>
@@ -6002,11 +5999,11 @@
         <v>140014</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L119"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>150019</v>
       </c>
@@ -6017,7 +6014,7 @@
         <v>52</v>
       </c>
       <c r="D120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E120" s="1">
         <v>1945</v>
@@ -6026,10 +6023,10 @@
         <v>2014</v>
       </c>
       <c r="G120" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>59</v>
@@ -6038,19 +6035,19 @@
         <v>140014</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B121" s="1">
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E121" s="1">
         <v>1947</v>
@@ -6059,7 +6056,7 @@
         <v>150019</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>150020</v>
       </c>
@@ -6070,7 +6067,7 @@
         <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -6085,19 +6082,19 @@
         <v>140010</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B123" s="1">
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>59</v>
@@ -6118,7 +6115,7 @@
         <v>150020</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>150021</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>52</v>
       </c>
       <c r="D124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E124" s="1">
         <v>1936</v>
@@ -6144,19 +6141,19 @@
         <v>140010</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B125" s="1">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E125" s="1">
         <v>1940</v>
@@ -6165,7 +6162,7 @@
         <v>59</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>59</v>
@@ -6177,7 +6174,7 @@
         <v>150021</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>150022</v>
       </c>
@@ -6188,7 +6185,7 @@
         <v>52</v>
       </c>
       <c r="D126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E126" s="1">
         <v>1940</v>
@@ -6197,19 +6194,19 @@
         <v>140010</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B127" s="1">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E127" s="1">
         <v>1940</v>
@@ -6218,7 +6215,7 @@
         <v>150022</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>150023</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>52</v>
       </c>
       <c r="D128" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E128" s="1">
         <v>1947</v>
@@ -6238,31 +6235,31 @@
         <v>140010</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B129" s="1">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E129" s="1">
         <v>1948</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L129" s="1">
         <v>150023</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>150024</v>
       </c>
@@ -6273,7 +6270,7 @@
         <v>52</v>
       </c>
       <c r="D130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E130" s="1">
         <v>1938</v>
@@ -6294,19 +6291,19 @@
         <v>140011</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L130"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B131" s="1">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E131" s="1">
         <v>1938</v>
@@ -6315,7 +6312,7 @@
         <v>150024</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>150025</v>
       </c>
@@ -6326,7 +6323,7 @@
         <v>52</v>
       </c>
       <c r="D132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>59</v>
@@ -6335,17 +6332,17 @@
         <v>59</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J132" s="1">
         <v>140012</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L132"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>160001</v>
       </c>
@@ -6369,7 +6366,7 @@
       </c>
       <c r="L133"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
@@ -6383,7 +6380,7 @@
         <v>1983</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -6391,7 +6388,7 @@
         <v>160001</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>160002</v>
       </c>
@@ -6415,7 +6412,7 @@
       </c>
       <c r="L135"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>17</v>
       </c>
@@ -6429,7 +6426,7 @@
         <v>1985</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -6437,7 +6434,7 @@
         <v>160002</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>160003</v>
       </c>
@@ -6461,7 +6458,7 @@
       </c>
       <c r="L137"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>20</v>
       </c>
@@ -6475,7 +6472,7 @@
         <v>1989</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -6483,7 +6480,7 @@
         <v>160003</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>160004</v>
       </c>
@@ -6507,7 +6504,7 @@
       </c>
       <c r="L139"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>23</v>
       </c>
@@ -6521,7 +6518,7 @@
         <v>1983</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -6529,7 +6526,7 @@
         <v>160004</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>160005</v>
       </c>
@@ -6559,7 +6556,7 @@
       </c>
       <c r="L141"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>26</v>
       </c>
@@ -6578,7 +6575,7 @@
         <v>160005</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>160006</v>
       </c>
@@ -6589,7 +6586,7 @@
         <v>52</v>
       </c>
       <c r="D143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
@@ -6598,19 +6595,19 @@
         <v>150003</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L143"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B144" s="1">
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>59</v>
@@ -6620,7 +6617,7 @@
         <v>160006</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>160007</v>
       </c>
@@ -6631,7 +6628,7 @@
         <v>52</v>
       </c>
       <c r="D145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
@@ -6640,19 +6637,19 @@
         <v>150003</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L145"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B146" s="1">
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>59</v>
@@ -6662,7 +6659,7 @@
         <v>160007</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>160008</v>
       </c>
@@ -6673,7 +6670,7 @@
         <v>52</v>
       </c>
       <c r="D147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E147" s="1">
         <v>1980</v>
@@ -6682,19 +6679,19 @@
         <v>150004</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L147"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B148" s="1">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E148" s="1">
         <v>1981</v>
@@ -6703,7 +6700,7 @@
         <v>160008</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>160009</v>
       </c>
@@ -6714,7 +6711,7 @@
         <v>52</v>
       </c>
       <c r="D149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>59</v>
@@ -6723,17 +6720,17 @@
         <v>59</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J149" s="1">
         <v>150004</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L149"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>160010</v>
       </c>
@@ -6744,7 +6741,7 @@
         <v>52</v>
       </c>
       <c r="D150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E150" s="1">
         <v>1983</v>
@@ -6753,19 +6750,19 @@
         <v>150005</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L150"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B151" s="1">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E151" s="1">
         <v>1981</v>
@@ -6774,7 +6771,7 @@
         <v>160010</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>160011</v>
       </c>
@@ -6794,39 +6791,39 @@
         <v>150006</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L152"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B153" s="1">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L153" s="1">
         <v>160011</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B154" s="1">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>59</v>
@@ -6835,7 +6832,7 @@
         <v>160011</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>160012</v>
       </c>
@@ -6846,7 +6843,7 @@
         <v>52</v>
       </c>
       <c r="D155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E155" s="1">
         <v>2000</v>
@@ -6855,11 +6852,11 @@
         <v>150007</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L155"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>160013</v>
       </c>
@@ -6870,7 +6867,7 @@
         <v>52</v>
       </c>
       <c r="D156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E156" s="1">
         <v>1993</v>
@@ -6879,19 +6876,19 @@
         <v>150008</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L156"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B157" s="1">
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E157" s="1">
         <v>1995</v>
@@ -6900,7 +6897,7 @@
         <v>160012</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>160014</v>
       </c>
@@ -6911,7 +6908,7 @@
         <v>52</v>
       </c>
       <c r="D158" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E158" s="1">
         <v>1997</v>
@@ -6920,11 +6917,11 @@
         <v>150008</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L158"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>160015</v>
       </c>
@@ -6935,7 +6932,7 @@
         <v>52</v>
       </c>
       <c r="D159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E159" s="1">
         <v>1979</v>
@@ -6944,19 +6941,19 @@
         <v>150011</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L159"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B160" s="1">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E160" s="1">
         <v>1985</v>
@@ -6965,7 +6962,7 @@
         <v>160015</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160016</v>
       </c>
@@ -6976,7 +6973,7 @@
         <v>52</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E161" s="1">
         <v>1984</v>
@@ -6985,19 +6982,19 @@
         <v>150011</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L161"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B162" s="1">
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E162" s="1">
         <v>1989</v>
@@ -7006,7 +7003,7 @@
         <v>160016</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>160017</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>52</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E163" s="1">
         <v>1989</v>
@@ -7026,19 +7023,19 @@
         <v>150012</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L163"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B164" s="1">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E164" s="1">
         <v>1990</v>
@@ -7047,7 +7044,7 @@
         <v>160017</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>160018</v>
       </c>
@@ -7058,7 +7055,7 @@
         <v>52</v>
       </c>
       <c r="D165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E165" s="1">
         <v>1952</v>
@@ -7079,19 +7076,19 @@
         <v>150015</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L165"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" s="1">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
         <v>227</v>
-      </c>
-      <c r="B166" s="1">
-        <v>16</v>
-      </c>
-      <c r="D166" t="s">
-        <v>228</v>
       </c>
       <c r="E166" s="1">
         <v>1953</v>
@@ -7100,7 +7097,7 @@
         <v>160018</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>160019</v>
       </c>
@@ -7111,7 +7108,7 @@
         <v>52</v>
       </c>
       <c r="D167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E167" s="1">
         <v>1954</v>
@@ -7120,19 +7117,19 @@
         <v>150015</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L167"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" s="1">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
         <v>230</v>
-      </c>
-      <c r="B168" s="1">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>231</v>
       </c>
       <c r="E168" s="1">
         <v>1962</v>
@@ -7141,7 +7138,7 @@
         <v>160019</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>160020</v>
       </c>
@@ -7152,31 +7149,31 @@
         <v>52</v>
       </c>
       <c r="D169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E169" s="1">
         <v>1964</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J169" s="1">
         <v>150015</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L169"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B170" s="1">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
         <v>406</v>
-      </c>
-      <c r="B170" s="1">
-        <v>16</v>
-      </c>
-      <c r="D170" t="s">
-        <v>407</v>
       </c>
       <c r="E170" s="1">
         <v>1977</v>
@@ -7187,7 +7184,7 @@
         <v>160020</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>160021</v>
       </c>
@@ -7198,7 +7195,7 @@
         <v>52</v>
       </c>
       <c r="D171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E171" s="1">
         <v>1954</v>
@@ -7207,19 +7204,19 @@
         <v>150016</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L171"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B172" s="1">
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E172" s="1">
         <v>1958</v>
@@ -7228,7 +7225,7 @@
         <v>160021</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>160022</v>
       </c>
@@ -7239,7 +7236,7 @@
         <v>52</v>
       </c>
       <c r="D173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E173" s="1">
         <v>1960</v>
@@ -7248,19 +7245,19 @@
         <v>150016</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L173"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E174" s="1">
         <v>1962</v>
@@ -7269,7 +7266,7 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>160023</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>52</v>
       </c>
       <c r="D175" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E175" s="1">
         <v>1968</v>
@@ -7289,19 +7286,19 @@
         <v>150016</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L175"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B176" s="1">
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E176" s="1">
         <v>1975</v>
@@ -7310,7 +7307,7 @@
         <v>160023</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>160024</v>
       </c>
@@ -7321,7 +7318,7 @@
         <v>52</v>
       </c>
       <c r="D177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E177" s="1">
         <v>1978</v>
@@ -7330,31 +7327,31 @@
         <v>150016</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L177"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E178" s="1">
         <v>1976</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L178" s="1">
         <v>160024</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>160025</v>
       </c>
@@ -7365,7 +7362,7 @@
         <v>52</v>
       </c>
       <c r="D179" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -7374,19 +7371,19 @@
         <v>150017</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L179"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B180" s="1">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
         <v>246</v>
-      </c>
-      <c r="B180" s="1">
-        <v>16</v>
-      </c>
-      <c r="D180" t="s">
-        <v>247</v>
       </c>
       <c r="E180" s="1">
         <v>1951</v>
@@ -7395,7 +7392,7 @@
         <v>160025</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>160026</v>
       </c>
@@ -7406,7 +7403,7 @@
         <v>52</v>
       </c>
       <c r="D181" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E181" s="1">
         <v>1959</v>
@@ -7415,19 +7412,19 @@
         <v>150017</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L181"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" s="1">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
         <v>248</v>
-      </c>
-      <c r="B182" s="1">
-        <v>16</v>
-      </c>
-      <c r="D182" t="s">
-        <v>249</v>
       </c>
       <c r="E182" s="1">
         <v>1963</v>
@@ -7436,7 +7433,7 @@
         <v>160026</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>160027</v>
       </c>
@@ -7447,7 +7444,7 @@
         <v>52</v>
       </c>
       <c r="D183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E183" s="1">
         <v>1961</v>
@@ -7456,25 +7453,25 @@
         <v>150017</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L183"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B184" s="1">
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L184" s="1">
         <v>160027</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>160028</v>
       </c>
@@ -7485,7 +7482,7 @@
         <v>52</v>
       </c>
       <c r="D185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E185" s="1">
         <v>1963</v>
@@ -7494,19 +7491,19 @@
         <v>150017</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L185"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B186" s="1">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
         <v>585</v>
-      </c>
-      <c r="B186" s="1">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>586</v>
       </c>
       <c r="E186" s="1">
         <v>1972</v>
@@ -7515,7 +7512,7 @@
         <v>160028</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>160029</v>
       </c>
@@ -7526,7 +7523,7 @@
         <v>52</v>
       </c>
       <c r="D187" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E187" s="1">
         <v>1974</v>
@@ -7535,19 +7532,19 @@
         <v>150019</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L187"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B188" s="1">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
         <v>276</v>
-      </c>
-      <c r="B188" s="1">
-        <v>16</v>
-      </c>
-      <c r="D188" t="s">
-        <v>277</v>
       </c>
       <c r="E188" s="1">
         <v>1979</v>
@@ -7556,7 +7553,7 @@
         <v>160029</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>160030</v>
       </c>
@@ -7567,43 +7564,43 @@
         <v>52</v>
       </c>
       <c r="D189" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E189" s="1">
         <v>1977</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J189" s="1">
         <v>150019</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L189"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B190" s="1">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
         <v>286</v>
-      </c>
-      <c r="B190" s="1">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>287</v>
       </c>
       <c r="E190" s="1">
         <v>1989</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L190" s="1">
         <v>160030</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>160031</v>
       </c>
@@ -7614,7 +7611,7 @@
         <v>52</v>
       </c>
       <c r="D191" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E191" s="1">
         <v>1952</v>
@@ -7623,19 +7620,19 @@
         <v>150020</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L191"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B192" s="1">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
         <v>311</v>
-      </c>
-      <c r="B192" s="1">
-        <v>16</v>
-      </c>
-      <c r="D192" t="s">
-        <v>312</v>
       </c>
       <c r="E192" s="1">
         <v>1954</v>
@@ -7644,7 +7641,7 @@
         <v>160031</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>160032</v>
       </c>
@@ -7655,7 +7652,7 @@
         <v>52</v>
       </c>
       <c r="D193" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E193" s="1">
         <v>1960</v>
@@ -7664,31 +7661,31 @@
         <v>150021</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L193"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B194" s="1">
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E194" s="1">
         <v>1960</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L194" s="1">
         <v>160032</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>160033</v>
       </c>
@@ -7699,7 +7696,7 @@
         <v>52</v>
       </c>
       <c r="D195" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E195" s="1">
         <v>1964</v>
@@ -7708,19 +7705,19 @@
         <v>150021</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L195"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B196" s="1">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
         <v>597</v>
-      </c>
-      <c r="B196" s="1">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>598</v>
       </c>
       <c r="E196" s="1">
         <v>1963</v>
@@ -7729,7 +7726,7 @@
         <v>160033</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>160034</v>
       </c>
@@ -7740,7 +7737,7 @@
         <v>52</v>
       </c>
       <c r="D197" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E197" s="1">
         <v>1966</v>
@@ -7749,19 +7746,19 @@
         <v>150022</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L197"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B198" s="1">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E198" s="1">
         <v>1966</v>
@@ -7770,7 +7767,7 @@
         <v>160034</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>160035</v>
       </c>
@@ -7781,7 +7778,7 @@
         <v>52</v>
       </c>
       <c r="D199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E199" s="1">
         <v>1974</v>
@@ -7790,19 +7787,19 @@
         <v>150022</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L199"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B200" s="1">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E200" s="1">
         <v>1980</v>
@@ -7811,7 +7808,7 @@
         <v>160035</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>160036</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E201" s="1">
         <v>1970</v>
@@ -7831,19 +7828,19 @@
         <v>150023</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L201"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>59</v>
@@ -7852,7 +7849,7 @@
         <v>160036</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>160037</v>
       </c>
@@ -7863,7 +7860,7 @@
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E203" s="1">
         <v>1981</v>
@@ -7872,19 +7869,19 @@
         <v>150023</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L203"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B204" s="1">
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E204" s="1">
         <v>1985</v>
@@ -7893,7 +7890,7 @@
         <v>160037</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>160038</v>
       </c>
@@ -7904,7 +7901,7 @@
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E205" s="1">
         <v>1960</v>
@@ -7913,31 +7910,31 @@
         <v>150024</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L205"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B206" s="1">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
         <v>334</v>
-      </c>
-      <c r="B206" s="1">
-        <v>16</v>
-      </c>
-      <c r="D206" t="s">
-        <v>335</v>
       </c>
       <c r="E206" s="1">
         <v>1963</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L206" s="1">
         <v>160038</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>160039</v>
       </c>
@@ -7948,7 +7945,7 @@
         <v>52</v>
       </c>
       <c r="D207" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E207" s="1">
         <v>1963</v>
@@ -7957,19 +7954,19 @@
         <v>150024</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L207"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B208" s="1">
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E208" s="1">
         <v>1975</v>
@@ -7978,7 +7975,7 @@
         <v>160039</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>160040</v>
       </c>
@@ -7989,7 +7986,7 @@
         <v>52</v>
       </c>
       <c r="D209" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>59</v>
@@ -7998,17 +7995,17 @@
         <v>59</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J209" s="1">
         <v>150006</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L209"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>160041</v>
       </c>
@@ -8019,7 +8016,7 @@
         <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E210" s="1">
         <v>1998</v>
@@ -8028,11 +8025,11 @@
         <v>150013</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L210"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>160042</v>
       </c>
@@ -8043,7 +8040,7 @@
         <v>52</v>
       </c>
       <c r="D211" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E211" s="1">
         <v>1974</v>
@@ -8055,19 +8052,19 @@
         <v>150021</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L211"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B212" s="1">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
         <v>600</v>
-      </c>
-      <c r="B212" s="1">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>601</v>
       </c>
       <c r="E212" s="1">
         <v>1973</v>
@@ -8076,7 +8073,7 @@
         <v>160042</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>160043</v>
       </c>
@@ -8087,7 +8084,7 @@
         <v>52</v>
       </c>
       <c r="D213" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E213" s="1">
         <v>2010</v>
@@ -8096,11 +8093,11 @@
         <v>150009</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L213"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>170001</v>
       </c>
@@ -8123,7 +8120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>170002</v>
       </c>
@@ -8146,7 +8143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>170003</v>
       </c>
@@ -8169,7 +8166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>170004</v>
       </c>
@@ -8192,7 +8189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>170005</v>
       </c>
@@ -8215,7 +8212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>170049</v>
       </c>
@@ -8238,15 +8235,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B220" s="1">
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E220" s="1">
         <v>1991</v>
@@ -8255,7 +8252,7 @@
         <v>170006</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>170007</v>
       </c>
@@ -8266,7 +8263,7 @@
         <v>52</v>
       </c>
       <c r="D221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E221" s="1">
         <v>1992</v>
@@ -8275,18 +8272,18 @@
         <v>160019</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B222" s="1">
         <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E222" s="1">
         <v>1992</v>
@@ -8295,7 +8292,7 @@
         <v>170007</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>170010</v>
       </c>
@@ -8306,7 +8303,7 @@
         <v>52</v>
       </c>
       <c r="D223" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E223" s="1">
         <v>2005</v>
@@ -8315,10 +8312,10 @@
         <v>160029</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>170011</v>
       </c>
@@ -8329,7 +8326,7 @@
         <v>52</v>
       </c>
       <c r="D224" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E224" s="1">
         <v>2008</v>
@@ -8338,10 +8335,10 @@
         <v>160029</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>170012</v>
       </c>
@@ -8352,7 +8349,7 @@
         <v>52</v>
       </c>
       <c r="D225" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E225" s="1">
         <v>1975</v>
@@ -8361,18 +8358,18 @@
         <v>160031</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B226" s="1">
         <v>17</v>
       </c>
       <c r="D226" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E226" s="1">
         <v>1983</v>
@@ -8381,7 +8378,7 @@
         <v>170012</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>170013</v>
       </c>
@@ -8392,7 +8389,7 @@
         <v>52</v>
       </c>
       <c r="D227" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E227" s="1">
         <v>1978</v>
@@ -8401,18 +8398,18 @@
         <v>160031</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B228" s="1">
         <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E228" s="1">
         <v>1979</v>
@@ -8421,7 +8418,7 @@
         <v>170013</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>170014</v>
       </c>
@@ -8432,7 +8429,7 @@
         <v>52</v>
       </c>
       <c r="D229" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E229" s="1">
         <v>1982</v>
@@ -8441,10 +8438,10 @@
         <v>160038</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>170015</v>
       </c>
@@ -8455,7 +8452,7 @@
         <v>52</v>
       </c>
       <c r="D230" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E230" s="1">
         <v>2005</v>
@@ -8464,10 +8461,10 @@
         <v>160039</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>170016</v>
       </c>
@@ -8478,7 +8475,7 @@
         <v>52</v>
       </c>
       <c r="D231" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>59</v>
@@ -8487,10 +8484,10 @@
         <v>160007</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>170017</v>
       </c>
@@ -8501,7 +8498,7 @@
         <v>52</v>
       </c>
       <c r="D232" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E232" s="1">
         <v>2012</v>
@@ -8510,10 +8507,10 @@
         <v>160008</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>170018</v>
       </c>
@@ -8524,7 +8521,7 @@
         <v>52</v>
       </c>
       <c r="D233" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E233" s="1">
         <v>2014</v>
@@ -8533,10 +8530,10 @@
         <v>160008</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>170019</v>
       </c>
@@ -8547,7 +8544,7 @@
         <v>52</v>
       </c>
       <c r="D234" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E234" s="1">
         <v>2018</v>
@@ -8556,10 +8553,10 @@
         <v>160010</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>170020</v>
       </c>
@@ -8570,7 +8567,7 @@
         <v>52</v>
       </c>
       <c r="D235" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E235" s="1">
         <v>2018</v>
@@ -8579,10 +8576,10 @@
         <v>160013</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>170021</v>
       </c>
@@ -8593,7 +8590,7 @@
         <v>52</v>
       </c>
       <c r="D236" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E236" s="1">
         <v>2023</v>
@@ -8602,10 +8599,10 @@
         <v>160013</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>170022</v>
       </c>
@@ -8616,7 +8613,7 @@
         <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E237" s="1">
         <v>2007</v>
@@ -8625,10 +8622,10 @@
         <v>160015</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>170023</v>
       </c>
@@ -8639,7 +8636,7 @@
         <v>52</v>
       </c>
       <c r="D238" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E238" s="1">
         <v>2011</v>
@@ -8648,10 +8645,10 @@
         <v>160016</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>170024</v>
       </c>
@@ -8662,7 +8659,7 @@
         <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E239" s="1">
         <v>2013</v>
@@ -8671,10 +8668,10 @@
         <v>160017</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>170025</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>52</v>
       </c>
       <c r="D240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E240" s="1">
         <v>1997</v>
@@ -8694,10 +8691,10 @@
         <v>160020</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>170026</v>
       </c>
@@ -8720,10 +8717,10 @@
         <v>160021</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>170027</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>52</v>
       </c>
       <c r="D242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E242" s="1">
         <v>1983</v>
@@ -8743,18 +8740,18 @@
         <v>160021</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B243" s="1">
         <v>17</v>
       </c>
       <c r="D243" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E243" s="1">
         <v>1983</v>
@@ -8763,7 +8760,7 @@
         <v>170027</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>170028</v>
       </c>
@@ -8774,7 +8771,7 @@
         <v>52</v>
       </c>
       <c r="D244" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E244" s="1">
         <v>1987</v>
@@ -8783,15 +8780,15 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B245" s="1">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>59</v>
@@ -8800,7 +8797,7 @@
         <v>170028</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>170029</v>
       </c>
@@ -8811,7 +8808,7 @@
         <v>52</v>
       </c>
       <c r="D246" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E246" s="1">
         <v>1989</v>
@@ -8820,15 +8817,15 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B247" s="1">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E247" s="1">
         <v>1991</v>
@@ -8837,7 +8834,7 @@
         <v>170029</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>170030</v>
       </c>
@@ -8848,7 +8845,7 @@
         <v>52</v>
       </c>
       <c r="D248" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E248" s="1">
         <v>2008</v>
@@ -8857,10 +8854,10 @@
         <v>160023</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>170031</v>
       </c>
@@ -8871,7 +8868,7 @@
         <v>52</v>
       </c>
       <c r="D249" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E249" s="1">
         <v>2006</v>
@@ -8880,10 +8877,10 @@
         <v>160024</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>170032</v>
       </c>
@@ -8894,7 +8891,7 @@
         <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E250" s="1">
         <v>1982</v>
@@ -8903,18 +8900,18 @@
         <v>160025</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B251" s="1">
         <v>17</v>
       </c>
       <c r="D251" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E251" s="1">
         <v>1983</v>
@@ -8923,7 +8920,7 @@
         <v>170032</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>170033</v>
       </c>
@@ -8934,7 +8931,7 @@
         <v>52</v>
       </c>
       <c r="D252" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E252" s="1">
         <v>1983</v>
@@ -8943,18 +8940,18 @@
         <v>160025</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B253" s="1">
         <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E253" s="1">
         <v>1987</v>
@@ -8963,7 +8960,7 @@
         <v>170033</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>170034</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>52</v>
       </c>
       <c r="D254" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E254" s="1">
         <v>1987</v>
@@ -8983,18 +8980,18 @@
         <v>160025</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B255" s="1">
         <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E255" s="1">
         <v>1990</v>
@@ -9003,7 +9000,7 @@
         <v>170034</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>170035</v>
       </c>
@@ -9014,7 +9011,7 @@
         <v>52</v>
       </c>
       <c r="D256" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E256" s="1">
         <v>1984</v>
@@ -9023,18 +9020,18 @@
         <v>160026</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B257" s="1">
         <v>17</v>
       </c>
       <c r="D257" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E257" s="1">
         <v>1984</v>
@@ -9043,7 +9040,7 @@
         <v>170035</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>170036</v>
       </c>
@@ -9054,7 +9051,7 @@
         <v>52</v>
       </c>
       <c r="D258" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E258" s="1">
         <v>1990</v>
@@ -9063,18 +9060,18 @@
         <v>160027</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B259" s="1">
         <v>17</v>
       </c>
       <c r="D259" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E259" s="1">
         <v>1993</v>
@@ -9083,7 +9080,7 @@
         <v>170036</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>170037</v>
       </c>
@@ -9094,7 +9091,7 @@
         <v>52</v>
       </c>
       <c r="D260" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E260" s="1">
         <v>1994</v>
@@ -9103,10 +9100,10 @@
         <v>160027</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>170038</v>
       </c>
@@ -9117,7 +9114,7 @@
         <v>52</v>
       </c>
       <c r="D261" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E261" s="1">
         <v>1994</v>
@@ -9126,10 +9123,10 @@
         <v>160028</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>170039</v>
       </c>
@@ -9140,7 +9137,7 @@
         <v>52</v>
       </c>
       <c r="D262" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E262" s="1">
         <v>1997</v>
@@ -9149,10 +9146,10 @@
         <v>160032</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>170040</v>
       </c>
@@ -9163,7 +9160,7 @@
         <v>52</v>
       </c>
       <c r="D263" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E263" s="1">
         <v>1987</v>
@@ -9172,10 +9169,10 @@
         <v>160033</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>170041</v>
       </c>
@@ -9186,7 +9183,7 @@
         <v>52</v>
       </c>
       <c r="D264" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E264" s="1">
         <v>1998</v>
@@ -9195,10 +9192,10 @@
         <v>160033</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>170042</v>
       </c>
@@ -9209,7 +9206,7 @@
         <v>52</v>
       </c>
       <c r="D265" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E265" s="1">
         <v>2003</v>
@@ -9218,10 +9215,10 @@
         <v>160042</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>170043</v>
       </c>
@@ -9232,7 +9229,7 @@
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E266" s="1">
         <v>1992</v>
@@ -9241,18 +9238,18 @@
         <v>160034</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B267" s="1">
         <v>17</v>
       </c>
       <c r="D267" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E267" s="1">
         <v>1991</v>
@@ -9261,7 +9258,7 @@
         <v>170043</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>170044</v>
       </c>
@@ -9272,7 +9269,7 @@
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E268" s="1">
         <v>2004</v>
@@ -9281,10 +9278,10 @@
         <v>160035</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>170045</v>
       </c>
@@ -9295,7 +9292,7 @@
         <v>52</v>
       </c>
       <c r="D269" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E269" s="1">
         <v>2005</v>
@@ -9304,10 +9301,10 @@
         <v>160035</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>170046</v>
       </c>
@@ -9318,7 +9315,7 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E270" s="1">
         <v>2002</v>
@@ -9327,10 +9324,10 @@
         <v>160036</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>170047</v>
       </c>
@@ -9341,7 +9338,7 @@
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E271" s="1">
         <v>2006</v>
@@ -9350,10 +9347,10 @@
         <v>160036</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>170048</v>
       </c>
@@ -9364,7 +9361,7 @@
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E272" s="1">
         <v>1982</v>
@@ -9373,18 +9370,18 @@
         <v>160038</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B273" s="1">
         <v>17</v>
       </c>
       <c r="D273" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E273" s="1">
         <v>1987</v>
@@ -9393,7 +9390,7 @@
         <v>170048</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>170006</v>
       </c>
@@ -9404,7 +9401,7 @@
         <v>52</v>
       </c>
       <c r="D274" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E274" s="1">
         <v>1991</v>
@@ -9413,10 +9410,10 @@
         <v>160018</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>180001</v>
       </c>
@@ -9427,7 +9424,7 @@
         <v>52</v>
       </c>
       <c r="D275" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E275" s="1">
         <v>2011</v>
@@ -9436,10 +9433,10 @@
         <v>170029</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>180002</v>
       </c>
@@ -9450,7 +9447,7 @@
         <v>52</v>
       </c>
       <c r="D276" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E276" s="1">
         <v>2005</v>
@@ -9459,10 +9456,10 @@
         <v>170032</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>180003</v>
       </c>
@@ -9473,7 +9470,7 @@
         <v>52</v>
       </c>
       <c r="D277" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E277" s="1">
         <v>2013</v>
@@ -9482,10 +9479,10 @@
         <v>170034</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>180004</v>
       </c>
@@ -9496,7 +9493,7 @@
         <v>52</v>
       </c>
       <c r="D278" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E278" s="1">
         <v>2016</v>
@@ -9505,10 +9502,10 @@
         <v>170034</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>180005</v>
       </c>
@@ -9519,7 +9516,7 @@
         <v>52</v>
       </c>
       <c r="D279" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E279" s="1">
         <v>2012</v>
@@ -9528,10 +9525,10 @@
         <v>170035</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>180006</v>
       </c>
@@ -9542,7 +9539,7 @@
         <v>52</v>
       </c>
       <c r="D280" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E280" s="1">
         <v>2012</v>
@@ -9551,10 +9548,10 @@
         <v>170012</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>180007</v>
       </c>
@@ -9565,7 +9562,7 @@
         <v>52</v>
       </c>
       <c r="D281" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E281" s="1">
         <v>2005</v>
@@ -9574,10 +9571,10 @@
         <v>170013</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>180008</v>
       </c>
@@ -9588,7 +9585,7 @@
         <v>52</v>
       </c>
       <c r="D282" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E282" s="1">
         <v>2008</v>
@@ -9597,10 +9594,10 @@
         <v>170048</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>180009</v>
       </c>
@@ -9611,7 +9608,7 @@
         <v>52</v>
       </c>
       <c r="D283" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E283" s="1">
         <v>2011</v>
@@ -9620,10 +9617,10 @@
         <v>170048</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>180010</v>
       </c>
@@ -9634,7 +9631,7 @@
         <v>52</v>
       </c>
       <c r="D284" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E284" s="1">
         <v>2014</v>
@@ -9643,10 +9640,10 @@
         <v>170007</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>180011</v>
       </c>
@@ -9657,7 +9654,7 @@
         <v>52</v>
       </c>
       <c r="D285" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E285" s="1">
         <v>2016</v>
@@ -9666,10 +9663,10 @@
         <v>170007</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>180012</v>
       </c>
@@ -9680,7 +9677,7 @@
         <v>52</v>
       </c>
       <c r="D286" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E286" s="1">
         <v>2009</v>
@@ -9689,10 +9686,10 @@
         <v>170027</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>180013</v>
       </c>
@@ -9703,7 +9700,7 @@
         <v>52</v>
       </c>
       <c r="D287" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E287" s="1">
         <v>2015</v>
@@ -9712,10 +9709,10 @@
         <v>170027</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>180014</v>
       </c>
@@ -9726,7 +9723,7 @@
         <v>52</v>
       </c>
       <c r="D288" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E288" s="1">
         <v>2019</v>
@@ -9735,10 +9732,10 @@
         <v>170006</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>180015</v>
       </c>
@@ -9749,7 +9746,7 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E289" s="1">
         <v>2014</v>
@@ -9758,10 +9755,10 @@
         <v>170036</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>180016</v>
       </c>
@@ -9772,7 +9769,7 @@
         <v>52</v>
       </c>
       <c r="D290" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E290" s="1">
         <v>2018</v>
@@ -9781,10 +9778,10 @@
         <v>170043</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>180017</v>
       </c>
@@ -9795,7 +9792,7 @@
         <v>52</v>
       </c>
       <c r="D291" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E291" s="1">
         <v>2023</v>
@@ -9804,10 +9801,10 @@
         <v>170043</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>180018</v>
       </c>
@@ -9818,7 +9815,7 @@
         <v>52</v>
       </c>
       <c r="D292" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E292" s="1">
         <v>2013</v>
@@ -9827,10 +9824,10 @@
         <v>170033</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>53</v>
       </c>
@@ -9854,7 +9851,7 @@
       </c>
       <c r="L293"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>55</v>
       </c>
@@ -9875,30 +9872,30 @@
       </c>
       <c r="L294"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B295" s="1">
         <v>14</v>
       </c>
       <c r="D295" t="s">
+        <v>135</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G295" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G295" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="L295" s="1">
         <v>140002</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>36</v>
       </c>
@@ -9919,7 +9916,7 @@
       </c>
       <c r="L296"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>38</v>
       </c>
@@ -9940,7 +9937,7 @@
       </c>
       <c r="L297"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>40</v>
       </c>
@@ -9961,15 +9958,15 @@
       </c>
       <c r="L298"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B299" s="1">
+        <v>16</v>
+      </c>
+      <c r="D299" t="s">
         <v>422</v>
-      </c>
-      <c r="B299" s="1">
-        <v>16</v>
-      </c>
-      <c r="D299" t="s">
-        <v>423</v>
       </c>
       <c r="E299" s="1">
         <v>1</v>
@@ -9978,18 +9975,18 @@
         <v>150003</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B300" s="1">
         <v>16</v>
       </c>
       <c r="D300" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E300" s="1">
         <v>2</v>
@@ -9998,18 +9995,18 @@
         <v>150003</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B301" s="1">
         <v>16</v>
       </c>
       <c r="D301" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E301" s="1">
         <v>1988</v>
@@ -10021,19 +10018,19 @@
         <v>150004</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L301"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B302" s="1">
+        <v>16</v>
+      </c>
+      <c r="D302" t="s">
         <v>428</v>
-      </c>
-      <c r="B302" s="1">
-        <v>16</v>
-      </c>
-      <c r="D302" t="s">
-        <v>429</v>
       </c>
       <c r="E302" s="1">
         <v>1</v>
@@ -10042,19 +10039,19 @@
         <v>150005</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L302"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B303" s="1">
+        <v>16</v>
+      </c>
+      <c r="D303" t="s">
         <v>431</v>
-      </c>
-      <c r="B303" s="1">
-        <v>16</v>
-      </c>
-      <c r="D303" t="s">
-        <v>432</v>
       </c>
       <c r="E303" s="1">
         <v>1984</v>
@@ -10063,19 +10060,19 @@
         <v>150006</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L303"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B304" s="1">
         <v>16</v>
       </c>
       <c r="D304" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E304" s="1">
         <v>1991</v>
@@ -10084,19 +10081,19 @@
         <v>150006</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L304"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B305" s="1">
         <v>16</v>
       </c>
       <c r="D305" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E305" s="1">
         <v>1991</v>
@@ -10105,19 +10102,19 @@
         <v>150007</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L305"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B306" s="1">
         <v>16</v>
       </c>
       <c r="D306" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E306" s="1">
         <v>1994</v>
@@ -10126,19 +10123,19 @@
         <v>150007</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L306"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B307" s="1">
         <v>16</v>
       </c>
       <c r="D307" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E307" s="1">
         <v>1995</v>
@@ -10147,19 +10144,19 @@
         <v>150007</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L307"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B308" s="1">
+        <v>16</v>
+      </c>
+      <c r="D308" t="s">
         <v>442</v>
-      </c>
-      <c r="B308" s="1">
-        <v>16</v>
-      </c>
-      <c r="D308" t="s">
-        <v>443</v>
       </c>
       <c r="E308" s="1">
         <v>2007</v>
@@ -10168,19 +10165,19 @@
         <v>150009</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L308"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B309" s="1">
         <v>16</v>
       </c>
       <c r="D309" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E309" s="1">
         <v>1982</v>
@@ -10189,19 +10186,19 @@
         <v>150011</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L309"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B310" s="1">
         <v>16</v>
       </c>
       <c r="D310" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E310" s="1">
         <v>1995</v>
@@ -10210,19 +10207,19 @@
         <v>150012</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L310"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B311" s="1">
+        <v>16</v>
+      </c>
+      <c r="D311" t="s">
         <v>447</v>
-      </c>
-      <c r="B311" s="1">
-        <v>16</v>
-      </c>
-      <c r="D311" t="s">
-        <v>448</v>
       </c>
       <c r="E311" s="1">
         <v>1986</v>
@@ -10231,19 +10228,19 @@
         <v>150013</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L311"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B312" s="1">
+        <v>16</v>
+      </c>
+      <c r="D312" t="s">
         <v>449</v>
-      </c>
-      <c r="B312" s="1">
-        <v>16</v>
-      </c>
-      <c r="D312" t="s">
-        <v>450</v>
       </c>
       <c r="E312" s="1">
         <v>1950</v>
@@ -10255,19 +10252,19 @@
         <v>150015</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L312"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B313" s="1">
         <v>16</v>
       </c>
       <c r="D313" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E313" s="1">
         <v>1965</v>
@@ -10276,24 +10273,24 @@
         <v>59</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J313" s="1">
         <v>150015</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B314" s="1">
         <v>16</v>
       </c>
       <c r="D314" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E314" s="1">
         <v>1961</v>
@@ -10305,18 +10302,18 @@
         <v>150015</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B315" s="1">
         <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E315" s="1">
         <v>1965</v>
@@ -10325,18 +10322,18 @@
         <v>150015</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B316" s="1">
         <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E316" s="1">
         <v>1957</v>
@@ -10348,18 +10345,18 @@
         <v>150016</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B317" s="1">
         <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E317" s="1">
         <v>1966</v>
@@ -10371,19 +10368,19 @@
         <v>150016</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L317"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B318" s="1">
+        <v>16</v>
+      </c>
+      <c r="D318" t="s">
         <v>462</v>
-      </c>
-      <c r="B318" s="1">
-        <v>16</v>
-      </c>
-      <c r="D318" t="s">
-        <v>463</v>
       </c>
       <c r="E318" s="1">
         <v>1977</v>
@@ -10395,19 +10392,19 @@
         <v>150016</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L318"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B319" s="1">
         <v>16</v>
       </c>
       <c r="D319" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E319" s="1">
         <v>1957</v>
@@ -10419,18 +10416,18 @@
         <v>150017</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B320" s="1">
         <v>16</v>
       </c>
       <c r="D320" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E320" s="1">
         <v>1979</v>
@@ -10439,19 +10436,19 @@
         <v>150019</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L320"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B321" s="1">
         <v>16</v>
       </c>
       <c r="D321" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E321" s="1">
         <v>1981</v>
@@ -10460,19 +10457,19 @@
         <v>150019</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L321"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B322" s="1">
         <v>16</v>
       </c>
       <c r="D322" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E322" s="1">
         <v>1955</v>
@@ -10481,19 +10478,19 @@
         <v>150020</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L322"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B323" s="1">
         <v>16</v>
       </c>
       <c r="D323" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E323" s="1">
         <v>1960</v>
@@ -10502,19 +10499,19 @@
         <v>150020</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L323"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B324" s="1">
         <v>16</v>
       </c>
       <c r="D324" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E324" s="1">
         <v>1965</v>
@@ -10523,19 +10520,19 @@
         <v>150020</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L324"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B325" s="1">
         <v>16</v>
       </c>
       <c r="D325" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E325" s="1">
         <v>1953</v>
@@ -10547,19 +10544,19 @@
         <v>150021</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L325"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B326" s="1">
         <v>16</v>
       </c>
       <c r="D326" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E326" s="1">
         <v>1961</v>
@@ -10571,19 +10568,19 @@
         <v>150021</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L326"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B327" s="1">
         <v>16</v>
       </c>
       <c r="D327" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E327" s="1">
         <v>1963</v>
@@ -10595,19 +10592,19 @@
         <v>150021</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L327"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B328" s="1">
         <v>16</v>
       </c>
       <c r="D328" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E328" s="1">
         <v>1968</v>
@@ -10619,19 +10616,19 @@
         <v>150021</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L328"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B329" s="1">
         <v>16</v>
       </c>
       <c r="D329" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E329" s="1">
         <v>1969</v>
@@ -10643,19 +10640,19 @@
         <v>150021</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L329"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B330" s="1">
         <v>16</v>
       </c>
       <c r="D330" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E330" s="1">
         <v>1971</v>
@@ -10667,19 +10664,19 @@
         <v>150021</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L330"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B331" s="1">
         <v>16</v>
       </c>
       <c r="D331" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E331" s="1">
         <v>1961</v>
@@ -10688,19 +10685,19 @@
         <v>150022</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L331"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B332" s="1">
         <v>16</v>
       </c>
       <c r="D332" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E332" s="1">
         <v>1964</v>
@@ -10709,19 +10706,19 @@
         <v>150022</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L332"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B333" s="1">
         <v>16</v>
       </c>
       <c r="D333" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E333" s="1">
         <v>1969</v>
@@ -10730,19 +10727,19 @@
         <v>150022</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L333"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B334" s="1">
         <v>16</v>
       </c>
       <c r="D334" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E334" s="1">
         <v>1972</v>
@@ -10751,19 +10748,19 @@
         <v>150022</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L334"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B335" s="1">
         <v>16</v>
       </c>
       <c r="D335" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E335" s="1">
         <v>1976</v>
@@ -10772,13 +10769,13 @@
         <v>150022</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L335"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B336" s="1">
         <v>16</v>
@@ -10793,19 +10790,19 @@
         <v>150023</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L336"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B337" s="1">
         <v>16</v>
       </c>
       <c r="D337" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E337" s="1">
         <v>1962</v>
@@ -10814,18 +10811,18 @@
         <v>150024</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B338" s="1">
         <v>16</v>
       </c>
       <c r="D338" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>59</v>
@@ -10834,10 +10831,10 @@
         <v>150024</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>42</v>
       </c>
@@ -10857,7 +10854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>44</v>
       </c>
@@ -10877,7 +10874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>46</v>
       </c>
@@ -10897,7 +10894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>49</v>
       </c>
@@ -10917,15 +10914,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B343" s="1">
         <v>17</v>
       </c>
       <c r="D343" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>59</v>
@@ -10934,18 +10931,18 @@
         <v>160006</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B344" s="1">
         <v>17</v>
       </c>
       <c r="D344" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>59</v>
@@ -10954,12 +10951,12 @@
         <v>160006</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B345" s="1">
         <v>17</v>
@@ -10974,18 +10971,18 @@
         <v>160007</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B346" s="1">
         <v>17</v>
       </c>
       <c r="D346" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>59</v>
@@ -10994,18 +10991,18 @@
         <v>160007</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B347" s="1">
         <v>17</v>
       </c>
       <c r="D347" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>59</v>
@@ -11014,18 +11011,18 @@
         <v>160008</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B348" s="1">
         <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E348" s="1">
         <v>2018</v>
@@ -11034,41 +11031,41 @@
         <v>160010</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B349" s="1">
         <v>17</v>
       </c>
       <c r="D349" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J349" s="1">
         <v>160011</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
       </c>
       <c r="D350" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E350" s="1">
         <v>2023</v>
@@ -11077,18 +11074,18 @@
         <v>160011</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B351" s="1">
         <v>17</v>
       </c>
       <c r="D351" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E351" s="1">
         <v>2005</v>
@@ -11097,18 +11094,18 @@
         <v>160015</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B352" s="1">
         <v>17</v>
       </c>
       <c r="D352" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E352" s="1">
         <v>2015</v>
@@ -11117,18 +11114,18 @@
         <v>160015</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E353" s="1">
         <v>2015</v>
@@ -11137,18 +11134,18 @@
         <v>160016</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E354" s="1">
         <v>2017</v>
@@ -11157,18 +11154,18 @@
         <v>160017</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B355" s="1">
         <v>17</v>
       </c>
       <c r="D355" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>59</v>
@@ -11177,18 +11174,18 @@
         <v>160018</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B356" s="1">
         <v>17</v>
       </c>
       <c r="D356" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>59</v>
@@ -11197,18 +11194,18 @@
         <v>160018</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
       <c r="D357" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>59</v>
@@ -11217,18 +11214,18 @@
         <v>160018</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E358" s="1">
         <v>1982</v>
@@ -11237,18 +11234,18 @@
         <v>160019</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
       </c>
       <c r="D359" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E359" s="1">
         <v>1984</v>
@@ -11257,18 +11254,18 @@
         <v>160019</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B360" s="1">
         <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E360" s="1">
         <v>1987</v>
@@ -11277,18 +11274,18 @@
         <v>160019</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E361" s="1">
         <v>2000</v>
@@ -11297,18 +11294,18 @@
         <v>160020</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B362" s="1">
         <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E362" s="1">
         <v>2005</v>
@@ -11317,18 +11314,18 @@
         <v>160020</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B363" s="1">
         <v>17</v>
       </c>
       <c r="D363" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E363" s="1">
         <v>1979</v>
@@ -11337,18 +11334,18 @@
         <v>160021</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B364" s="1">
         <v>17</v>
       </c>
       <c r="D364" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E364" s="1">
         <v>1994</v>
@@ -11357,18 +11354,18 @@
         <v>160023</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>59</v>
@@ -11377,24 +11374,24 @@
         <v>59</v>
       </c>
       <c r="G365" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J365" s="1">
         <v>160023</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B366" s="1">
         <v>17</v>
       </c>
       <c r="D366" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E366" s="1">
         <v>2002</v>
@@ -11403,18 +11400,18 @@
         <v>160024</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B367" s="1">
         <v>17</v>
       </c>
       <c r="D367" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E367" s="1">
         <v>1984</v>
@@ -11423,18 +11420,18 @@
         <v>160025</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E368" s="1">
         <v>1996</v>
@@ -11443,18 +11440,18 @@
         <v>160027</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B369" s="1">
         <v>17</v>
       </c>
       <c r="D369" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E369" s="1">
         <v>1992</v>
@@ -11463,18 +11460,18 @@
         <v>160028</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B370" s="1">
         <v>17</v>
       </c>
       <c r="D370" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E370" s="1">
         <v>2016</v>
@@ -11483,18 +11480,18 @@
         <v>160029</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E371" s="1">
         <v>2011</v>
@@ -11503,18 +11500,18 @@
         <v>160030</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B372" s="1">
         <v>17</v>
       </c>
       <c r="D372" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E372" s="1">
         <v>1981</v>
@@ -11523,18 +11520,18 @@
         <v>160031</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B373" s="1">
         <v>17</v>
       </c>
       <c r="D373" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E373" s="1">
         <v>1981</v>
@@ -11543,18 +11540,18 @@
         <v>160031</v>
       </c>
       <c r="K373" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B374" s="1">
         <v>17</v>
       </c>
       <c r="D374" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E374" s="1">
         <v>1986</v>
@@ -11563,18 +11560,18 @@
         <v>160031</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E375" s="1">
         <v>1992</v>
@@ -11583,18 +11580,18 @@
         <v>160032</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B376" s="1">
         <v>17</v>
       </c>
       <c r="D376" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E376" s="1">
         <v>1996</v>
@@ -11603,18 +11600,18 @@
         <v>160034</v>
       </c>
       <c r="K376" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E377" s="1">
         <v>2009</v>
@@ -11623,18 +11620,18 @@
         <v>160035</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E378" s="1">
         <v>2012</v>
@@ -11643,18 +11640,18 @@
         <v>160037</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E379" s="1">
         <v>2014</v>
@@ -11663,18 +11660,18 @@
         <v>160037</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B380" s="1">
         <v>17</v>
       </c>
       <c r="D380" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E380" s="1">
         <v>1986</v>
@@ -11683,18 +11680,18 @@
         <v>160038</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E381" s="1">
         <v>1996</v>
@@ -11703,18 +11700,18 @@
         <v>160039</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B382" s="1">
         <v>17</v>
       </c>
       <c r="D382" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E382" s="1">
         <v>1999</v>
@@ -11723,18 +11720,18 @@
         <v>160039</v>
       </c>
       <c r="K382" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B383" s="1">
         <v>17</v>
       </c>
       <c r="D383" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E383" s="1">
         <v>2001</v>
@@ -11743,18 +11740,18 @@
         <v>160039</v>
       </c>
       <c r="K383" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
       </c>
       <c r="D384" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>59</v>
@@ -11763,18 +11760,18 @@
         <v>160042</v>
       </c>
       <c r="K384" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B385" s="1">
         <v>18</v>
       </c>
       <c r="D385" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E385" s="1">
         <v>2015</v>
@@ -11783,18 +11780,18 @@
         <v>170006</v>
       </c>
       <c r="K385" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B386" s="1">
         <v>18</v>
       </c>
       <c r="D386" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E386" s="1">
         <v>2018</v>
@@ -11803,18 +11800,18 @@
         <v>170007</v>
       </c>
       <c r="K386" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B387" s="1">
         <v>18</v>
       </c>
       <c r="D387" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E387" s="1">
         <v>2006</v>
@@ -11823,18 +11820,18 @@
         <v>170012</v>
       </c>
       <c r="K387" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B388" s="1">
         <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E388" s="1">
         <v>2007</v>
@@ -11843,18 +11840,18 @@
         <v>170012</v>
       </c>
       <c r="K388" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B389" s="1">
         <v>18</v>
       </c>
       <c r="D389" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E389" s="1">
         <v>2008</v>
@@ -11863,18 +11860,18 @@
         <v>170013</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B390" s="1">
         <v>18</v>
       </c>
       <c r="D390" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E390" s="1">
         <v>2017</v>
@@ -11883,18 +11880,18 @@
         <v>170027</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B391" s="1">
         <v>18</v>
       </c>
       <c r="D391" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E391" s="1">
         <v>2022</v>
@@ -11903,18 +11900,18 @@
         <v>170028</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B392" s="1">
         <v>18</v>
       </c>
       <c r="D392" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E392" s="1">
         <v>2014</v>
@@ -11923,18 +11920,18 @@
         <v>170029</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B393" s="1">
         <v>18</v>
       </c>
       <c r="D393" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E393" s="1">
         <v>2007</v>
@@ -11943,18 +11940,18 @@
         <v>170032</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B394" s="1">
         <v>18</v>
       </c>
       <c r="D394" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E394" s="1">
         <v>2012</v>
@@ -11963,18 +11960,18 @@
         <v>170033</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B395" s="1">
         <v>18</v>
       </c>
       <c r="D395" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E395" s="1">
         <v>2009</v>
@@ -11983,7 +11980,7 @@
         <v>170035</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\Ver2.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\1406\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95933574-CF76-4580-A3F8-0A5146E21725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A62D10-0FF3-4344-B40F-65AF401FFD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1586,9 +1586,6 @@
     <t>160009v1</t>
   </si>
   <si>
-    <t>Dương Thị Đăng Khôi</t>
-  </si>
-  <si>
     <t>Dương Thị An Nhiên</t>
   </si>
   <si>
@@ -2135,6 +2132,9 @@
   </si>
   <si>
     <t>Dương Danh Thự</t>
+  </si>
+  <si>
+    <t>Dương Danh Đăng Khôi</t>
   </si>
 </sst>
 </file>
@@ -2510,24 +2510,24 @@
   <dimension ref="A1:L395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" style="1" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.86328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" style="10" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="8" max="8" width="8.53125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.46484375" style="10" customWidth="1"/>
+    <col min="10" max="11" width="11.46484375" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>80001</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>75</v>
@@ -2594,7 +2594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>80001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>90001</v>
       </c>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>90001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>100001</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>100002</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>347</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>348</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>100003</v>
       </c>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>389</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>100003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>110001</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>110001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>110001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>110002</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>110003</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>344</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>110003</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>110004</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>110005</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>110006</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>358</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>359</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>110006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>362</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>110006</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>110007</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>110008</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>397</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>110008</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>401</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>110008</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>120001</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>59</v>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>120001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>120001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>120002</v>
       </c>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>186</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>120002</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>120003</v>
       </c>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>120004</v>
       </c>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>373</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>120004</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>120005</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>377</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>120005</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>120006</v>
       </c>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>130001</v>
       </c>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>130001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>130002</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>130002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>130002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>130003</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>139</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>130003</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>130004</v>
       </c>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>200</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>130004</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>130004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>130005</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>213</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>130005</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>130006</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>130007</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>254</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>130007</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>130008</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>292</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>130008</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>130009</v>
       </c>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>130010</v>
       </c>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>380</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>381</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>140001</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>140001</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>140001</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>140002</v>
       </c>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>140003</v>
       </c>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>141</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>140003</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>140004</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>140004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>140005</v>
       </c>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="L68"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>171</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>140005</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>140006</v>
       </c>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>140007</v>
       </c>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>204</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>140007</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>140008</v>
       </c>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="L73"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>216</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>140008</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>140009</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>140010</v>
       </c>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>302</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>140010</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>317</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>140010</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>140011</v>
       </c>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>327</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>140011</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>140012</v>
       </c>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>339</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>140012</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>140013</v>
       </c>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>140014</v>
       </c>
@@ -5153,9 +5153,9 @@
       </c>
       <c r="L84"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -5182,7 +5182,7 @@
         <v>140014</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>150001</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="L86"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>150001</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>150002</v>
       </c>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="L88"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>150002</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>150003</v>
       </c>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="L90"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>144</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>150003</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>150004</v>
       </c>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="L92"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>155</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>150004</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>150005</v>
       </c>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="L94"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>159</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>150005</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>150006</v>
       </c>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>162</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>150006</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>150007</v>
       </c>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>164</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>150007</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>150008</v>
       </c>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>150008</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>150009</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>150009</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>150009</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>150010</v>
       </c>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="L105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>150011</v>
       </c>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="L106"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>179</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>150011</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>150012</v>
       </c>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="L108"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>183</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>150012</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>150013</v>
       </c>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="L110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>210</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>150013</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>150014</v>
       </c>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="L112"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>150015</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="L113"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>221</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>150015</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>150016</v>
       </c>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="L115"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>232</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>150016</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>150017</v>
       </c>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="L117"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>150017</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>150018</v>
       </c>
@@ -5999,11 +5999,11 @@
         <v>140014</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L119"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>150019</v>
       </c>
@@ -6035,11 +6035,11 @@
         <v>140014</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>270</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>150019</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>150020</v>
       </c>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>307</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>150020</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>150021</v>
       </c>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>150021</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>150022</v>
       </c>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>321</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>150022</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>150023</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>323</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>150023</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>150024</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="L130"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>331</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>150024</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>150025</v>
       </c>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="L132"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>160001</v>
       </c>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="L133"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>160001</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>160002</v>
       </c>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="L135"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>17</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>160002</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>160003</v>
       </c>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="L137"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>20</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>160003</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>160004</v>
       </c>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="L139"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>23</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>160004</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>160005</v>
       </c>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="L141"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>26</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>160005</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>160006</v>
       </c>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="L143"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>496</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>160006</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>160007</v>
       </c>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="L145"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>504</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>160007</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>160008</v>
       </c>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="L147"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>508</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>160008</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>160009</v>
       </c>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="L149"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>160010</v>
       </c>
@@ -6754,9 +6754,9 @@
       </c>
       <c r="L150"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B151" s="1">
         <v>16</v>
@@ -6771,7 +6771,7 @@
         <v>160010</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>160011</v>
       </c>
@@ -6795,9 +6795,9 @@
       </c>
       <c r="L152"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B153" s="1">
         <v>16</v>
@@ -6815,15 +6815,15 @@
         <v>160011</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B154" s="1">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>59</v>
@@ -6832,7 +6832,7 @@
         <v>160011</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>160012</v>
       </c>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="L155"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>160013</v>
       </c>
@@ -6880,15 +6880,15 @@
       </c>
       <c r="L156"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B157" s="1">
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E157" s="1">
         <v>1995</v>
@@ -6897,7 +6897,7 @@
         <v>160012</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>160014</v>
       </c>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="L158"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>160015</v>
       </c>
@@ -6945,15 +6945,15 @@
       </c>
       <c r="L159"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B160" s="1">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E160" s="1">
         <v>1985</v>
@@ -6962,7 +6962,7 @@
         <v>160015</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160016</v>
       </c>
@@ -6986,15 +6986,15 @@
       </c>
       <c r="L161"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B162" s="1">
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E162" s="1">
         <v>1989</v>
@@ -7003,7 +7003,7 @@
         <v>160016</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>160017</v>
       </c>
@@ -7027,15 +7027,15 @@
       </c>
       <c r="L163"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B164" s="1">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E164" s="1">
         <v>1990</v>
@@ -7044,7 +7044,7 @@
         <v>160017</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>160018</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="L165"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>226</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>160018</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>160019</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="L167"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>229</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>160019</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>160020</v>
       </c>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="L169"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>405</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>160020</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>160021</v>
       </c>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="L171"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>238</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E172" s="1">
         <v>1958</v>
@@ -7225,7 +7225,7 @@
         <v>160021</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>160022</v>
       </c>
@@ -7249,15 +7249,15 @@
       </c>
       <c r="L173"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E174" s="1">
         <v>1962</v>
@@ -7266,7 +7266,7 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>160023</v>
       </c>
@@ -7290,15 +7290,15 @@
       </c>
       <c r="L175"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B176" s="1">
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E176" s="1">
         <v>1975</v>
@@ -7307,7 +7307,7 @@
         <v>160023</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>160024</v>
       </c>
@@ -7331,27 +7331,27 @@
       </c>
       <c r="L177"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E178" s="1">
         <v>1976</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L178" s="1">
         <v>160024</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>160025</v>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="L179"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>245</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>160025</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>160026</v>
       </c>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="L181"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>247</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>160026</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>160027</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="L183"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>249</v>
       </c>
@@ -7465,13 +7465,13 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L184" s="1">
         <v>160027</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>160028</v>
       </c>
@@ -7495,15 +7495,15 @@
       </c>
       <c r="L185"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B186" s="1">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
         <v>584</v>
-      </c>
-      <c r="B186" s="1">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>585</v>
       </c>
       <c r="E186" s="1">
         <v>1972</v>
@@ -7512,7 +7512,7 @@
         <v>160028</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>160029</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="L187"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>275</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>160029</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>160030</v>
       </c>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="L189"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>285</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>160030</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>160031</v>
       </c>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="L191"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>310</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>160031</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>160032</v>
       </c>
@@ -7665,9 +7665,9 @@
       </c>
       <c r="L193"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B194" s="1">
         <v>16</v>
@@ -7685,7 +7685,7 @@
         <v>160032</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>160033</v>
       </c>
@@ -7709,15 +7709,15 @@
       </c>
       <c r="L195"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B196" s="1">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
         <v>596</v>
-      </c>
-      <c r="B196" s="1">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>597</v>
       </c>
       <c r="E196" s="1">
         <v>1963</v>
@@ -7726,7 +7726,7 @@
         <v>160033</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>160034</v>
       </c>
@@ -7750,15 +7750,15 @@
       </c>
       <c r="L197"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B198" s="1">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E198" s="1">
         <v>1966</v>
@@ -7767,7 +7767,7 @@
         <v>160034</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>160035</v>
       </c>
@@ -7791,15 +7791,15 @@
       </c>
       <c r="L199"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B200" s="1">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E200" s="1">
         <v>1980</v>
@@ -7808,7 +7808,7 @@
         <v>160035</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>160036</v>
       </c>
@@ -7832,15 +7832,15 @@
       </c>
       <c r="L201"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>59</v>
@@ -7849,7 +7849,7 @@
         <v>160036</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>160037</v>
       </c>
@@ -7873,15 +7873,15 @@
       </c>
       <c r="L203"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B204" s="1">
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E204" s="1">
         <v>1985</v>
@@ -7890,7 +7890,7 @@
         <v>160037</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>160038</v>
       </c>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="L205"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>333</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>160038</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>160039</v>
       </c>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="L207"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>338</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>160039</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>160040</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="L209"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>160041</v>
       </c>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="L210"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>160042</v>
       </c>
@@ -8056,15 +8056,15 @@
       </c>
       <c r="L211"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B212" s="1">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
         <v>599</v>
-      </c>
-      <c r="B212" s="1">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>600</v>
       </c>
       <c r="E212" s="1">
         <v>1973</v>
@@ -8073,7 +8073,7 @@
         <v>160042</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>160043</v>
       </c>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="L213"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>170001</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>170002</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>170003</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>170004</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>170005</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>170049</v>
       </c>
@@ -8235,15 +8235,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B220" s="1">
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E220" s="1">
         <v>1991</v>
@@ -8252,7 +8252,7 @@
         <v>170006</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>170007</v>
       </c>
@@ -8275,15 +8275,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B222" s="1">
         <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E222" s="1">
         <v>1992</v>
@@ -8292,7 +8292,7 @@
         <v>170007</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>170010</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>170011</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>170012</v>
       </c>
@@ -8361,15 +8361,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B226" s="1">
         <v>17</v>
       </c>
       <c r="D226" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E226" s="1">
         <v>1983</v>
@@ -8378,7 +8378,7 @@
         <v>170012</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>170013</v>
       </c>
@@ -8401,15 +8401,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B228" s="1">
         <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E228" s="1">
         <v>1979</v>
@@ -8418,7 +8418,7 @@
         <v>170013</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>170014</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>170015</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>170016</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>170017</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>170018</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>170019</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>52</v>
       </c>
       <c r="D234" t="s">
-        <v>515</v>
+        <v>697</v>
       </c>
       <c r="E234" s="1">
         <v>2018</v>
@@ -8556,7 +8556,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>170020</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>52</v>
       </c>
       <c r="D235" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E235" s="1">
         <v>2018</v>
@@ -8576,10 +8576,10 @@
         <v>160013</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>170021</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>52</v>
       </c>
       <c r="D236" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E236" s="1">
         <v>2023</v>
@@ -8599,10 +8599,10 @@
         <v>160013</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>170022</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E237" s="1">
         <v>2007</v>
@@ -8622,10 +8622,10 @@
         <v>160015</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>170023</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>52</v>
       </c>
       <c r="D238" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E238" s="1">
         <v>2011</v>
@@ -8645,10 +8645,10 @@
         <v>160016</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
         <v>170024</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E239" s="1">
         <v>2013</v>
@@ -8668,10 +8668,10 @@
         <v>160017</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
         <v>170025</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>170026</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
         <v>170027</v>
       </c>
@@ -8743,15 +8743,15 @@
         <v>238</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B243" s="1">
         <v>17</v>
       </c>
       <c r="D243" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E243" s="1">
         <v>1983</v>
@@ -8760,7 +8760,7 @@
         <v>170027</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
         <v>170028</v>
       </c>
@@ -8780,15 +8780,15 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B245" s="1">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>59</v>
@@ -8797,7 +8797,7 @@
         <v>170028</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
         <v>170029</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>52</v>
       </c>
       <c r="D246" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E246" s="1">
         <v>1989</v>
@@ -8817,15 +8817,15 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B247" s="1">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E247" s="1">
         <v>1991</v>
@@ -8834,7 +8834,7 @@
         <v>170029</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
         <v>170030</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>52</v>
       </c>
       <c r="D248" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E248" s="1">
         <v>2008</v>
@@ -8854,10 +8854,10 @@
         <v>160023</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
         <v>170031</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>52</v>
       </c>
       <c r="D249" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E249" s="1">
         <v>2006</v>
@@ -8877,10 +8877,10 @@
         <v>160024</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
         <v>170032</v>
       </c>
@@ -8903,15 +8903,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B251" s="1">
         <v>17</v>
       </c>
       <c r="D251" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E251" s="1">
         <v>1983</v>
@@ -8920,7 +8920,7 @@
         <v>170032</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
         <v>170033</v>
       </c>
@@ -8943,15 +8943,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B253" s="1">
         <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E253" s="1">
         <v>1987</v>
@@ -8960,7 +8960,7 @@
         <v>170033</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
         <v>170034</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>52</v>
       </c>
       <c r="D254" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E254" s="1">
         <v>1987</v>
@@ -8983,15 +8983,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B255" s="1">
         <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E255" s="1">
         <v>1990</v>
@@ -9000,7 +9000,7 @@
         <v>170034</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
         <v>170035</v>
       </c>
@@ -9023,15 +9023,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B257" s="1">
         <v>17</v>
       </c>
       <c r="D257" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E257" s="1">
         <v>1984</v>
@@ -9040,7 +9040,7 @@
         <v>170035</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
         <v>170036</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>52</v>
       </c>
       <c r="D258" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E258" s="1">
         <v>1990</v>
@@ -9063,15 +9063,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B259" s="1">
         <v>17</v>
       </c>
       <c r="D259" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E259" s="1">
         <v>1993</v>
@@ -9080,7 +9080,7 @@
         <v>170036</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
         <v>170037</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>52</v>
       </c>
       <c r="D260" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E260" s="1">
         <v>1994</v>
@@ -9103,7 +9103,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
         <v>170038</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>52</v>
       </c>
       <c r="D261" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E261" s="1">
         <v>1994</v>
@@ -9123,10 +9123,10 @@
         <v>160028</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
         <v>170039</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>52</v>
       </c>
       <c r="D262" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E262" s="1">
         <v>1997</v>
@@ -9146,10 +9146,10 @@
         <v>160032</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
         <v>170040</v>
       </c>
@@ -9169,10 +9169,10 @@
         <v>160033</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
         <v>170041</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>52</v>
       </c>
       <c r="D264" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E264" s="1">
         <v>1998</v>
@@ -9192,10 +9192,10 @@
         <v>160033</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
         <v>170042</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>52</v>
       </c>
       <c r="D265" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E265" s="1">
         <v>2003</v>
@@ -9215,10 +9215,10 @@
         <v>160042</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
         <v>170043</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E266" s="1">
         <v>1992</v>
@@ -9238,18 +9238,18 @@
         <v>160034</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B267" s="1">
         <v>17</v>
       </c>
       <c r="D267" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E267" s="1">
         <v>1991</v>
@@ -9258,7 +9258,7 @@
         <v>170043</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
         <v>170044</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E268" s="1">
         <v>2004</v>
@@ -9278,10 +9278,10 @@
         <v>160035</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
         <v>170045</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>52</v>
       </c>
       <c r="D269" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E269" s="1">
         <v>2005</v>
@@ -9301,10 +9301,10 @@
         <v>160035</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
         <v>170046</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E270" s="1">
         <v>2002</v>
@@ -9324,10 +9324,10 @@
         <v>160036</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
         <v>170047</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E271" s="1">
         <v>2006</v>
@@ -9347,10 +9347,10 @@
         <v>160036</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
         <v>170048</v>
       </c>
@@ -9373,15 +9373,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B273" s="1">
         <v>17</v>
       </c>
       <c r="D273" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E273" s="1">
         <v>1987</v>
@@ -9390,7 +9390,7 @@
         <v>170048</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
         <v>170006</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
         <v>180001</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>52</v>
       </c>
       <c r="D275" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E275" s="1">
         <v>2011</v>
@@ -9433,10 +9433,10 @@
         <v>170029</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
         <v>180002</v>
       </c>
@@ -9456,10 +9456,10 @@
         <v>170032</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
         <v>180003</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>52</v>
       </c>
       <c r="D277" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E277" s="1">
         <v>2013</v>
@@ -9479,10 +9479,10 @@
         <v>170034</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
         <v>180004</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>52</v>
       </c>
       <c r="D278" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E278" s="1">
         <v>2016</v>
@@ -9502,10 +9502,10 @@
         <v>170034</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
         <v>180005</v>
       </c>
@@ -9525,10 +9525,10 @@
         <v>170035</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
         <v>180006</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>52</v>
       </c>
       <c r="D280" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E280" s="1">
         <v>2012</v>
@@ -9548,10 +9548,10 @@
         <v>170012</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
         <v>180007</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>52</v>
       </c>
       <c r="D281" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E281" s="1">
         <v>2005</v>
@@ -9571,10 +9571,10 @@
         <v>170013</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
         <v>180008</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>52</v>
       </c>
       <c r="D282" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E282" s="1">
         <v>2008</v>
@@ -9594,10 +9594,10 @@
         <v>170048</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
         <v>180009</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>52</v>
       </c>
       <c r="D283" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E283" s="1">
         <v>2011</v>
@@ -9617,10 +9617,10 @@
         <v>170048</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
         <v>180010</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>52</v>
       </c>
       <c r="D284" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E284" s="1">
         <v>2014</v>
@@ -9640,10 +9640,10 @@
         <v>170007</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
         <v>180011</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>52</v>
       </c>
       <c r="D285" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E285" s="1">
         <v>2016</v>
@@ -9663,10 +9663,10 @@
         <v>170007</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
         <v>180012</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>52</v>
       </c>
       <c r="D286" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E286" s="1">
         <v>2009</v>
@@ -9686,10 +9686,10 @@
         <v>170027</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
         <v>180013</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>52</v>
       </c>
       <c r="D287" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E287" s="1">
         <v>2015</v>
@@ -9709,10 +9709,10 @@
         <v>170027</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
         <v>180014</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>52</v>
       </c>
       <c r="D288" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E288" s="1">
         <v>2019</v>
@@ -9732,10 +9732,10 @@
         <v>170006</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
         <v>180015</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E289" s="1">
         <v>2014</v>
@@ -9755,10 +9755,10 @@
         <v>170036</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
         <v>180016</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52</v>
       </c>
       <c r="D290" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E290" s="1">
         <v>2018</v>
@@ -9778,10 +9778,10 @@
         <v>170043</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
         <v>180017</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>52</v>
       </c>
       <c r="D291" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E291" s="1">
         <v>2023</v>
@@ -9801,10 +9801,10 @@
         <v>170043</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
         <v>180018</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>52</v>
       </c>
       <c r="D292" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E292" s="1">
         <v>2013</v>
@@ -9824,10 +9824,10 @@
         <v>170033</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>53</v>
       </c>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="L293"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>55</v>
       </c>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="L294"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>134</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>140002</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>36</v>
       </c>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="L296"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>38</v>
       </c>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="L297"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>40</v>
       </c>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="L298"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>421</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>424</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>426</v>
       </c>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="L301"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>427</v>
       </c>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="L302"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>430</v>
       </c>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="L303"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>433</v>
       </c>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="L304"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>437</v>
       </c>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="L305"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>438</v>
       </c>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="L306"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>439</v>
       </c>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="L307"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>441</v>
       </c>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="L308"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>444</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="L309"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>445</v>
       </c>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="L310"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>446</v>
       </c>
@@ -10232,7 +10232,7 @@
       </c>
       <c r="L311"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>448</v>
       </c>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="L312"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>451</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>454</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>456</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>458</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>460</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="L317"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>461</v>
       </c>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="L318"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>464</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>281</v>
       </c>
@@ -10440,7 +10440,7 @@
       </c>
       <c r="L320"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>282</v>
       </c>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="L321"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>468</v>
       </c>
@@ -10482,7 +10482,7 @@
       </c>
       <c r="L322"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>469</v>
       </c>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="L323"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>470</v>
       </c>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="L324"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>472</v>
       </c>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="L325"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>476</v>
       </c>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="L326"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>477</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="L327"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>478</v>
       </c>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="L328"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>479</v>
       </c>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="L329"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>480</v>
       </c>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="L330"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>482</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L331"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>483</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="L332"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>487</v>
       </c>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="L333"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>488</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="L334"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>489</v>
       </c>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="L335"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>490</v>
       </c>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="L336"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>493</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>494</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>42</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>44</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>46</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>49</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>499</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>500</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>505</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>506</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>512</v>
       </c>
@@ -11014,15 +11014,15 @@
         <v>508</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B348" s="1">
         <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E348" s="1">
         <v>2018</v>
@@ -11031,41 +11031,41 @@
         <v>160010</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B349" s="1">
         <v>17</v>
       </c>
       <c r="D349" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J349" s="1">
         <v>160011</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
       </c>
       <c r="D350" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E350" s="1">
         <v>2023</v>
@@ -11074,18 +11074,18 @@
         <v>160011</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B351" s="1">
         <v>17</v>
       </c>
       <c r="D351" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E351" s="1">
         <v>2005</v>
@@ -11094,18 +11094,18 @@
         <v>160015</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B352" s="1">
         <v>17</v>
       </c>
       <c r="D352" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E352" s="1">
         <v>2015</v>
@@ -11114,18 +11114,18 @@
         <v>160015</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E353" s="1">
         <v>2015</v>
@@ -11134,18 +11134,18 @@
         <v>160016</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E354" s="1">
         <v>2017</v>
@@ -11154,18 +11154,18 @@
         <v>160017</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B355" s="1">
         <v>17</v>
       </c>
       <c r="D355" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>59</v>
@@ -11177,15 +11177,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B356" s="1">
         <v>17</v>
       </c>
       <c r="D356" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>59</v>
@@ -11197,9 +11197,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
@@ -11217,15 +11217,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E358" s="1">
         <v>1982</v>
@@ -11237,15 +11237,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
       </c>
       <c r="D359" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E359" s="1">
         <v>1984</v>
@@ -11257,9 +11257,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B360" s="1">
         <v>17</v>
@@ -11277,15 +11277,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E361" s="1">
         <v>2000</v>
@@ -11297,15 +11297,15 @@
         <v>405</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B362" s="1">
         <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E362" s="1">
         <v>2005</v>
@@ -11317,9 +11317,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B363" s="1">
         <v>17</v>
@@ -11337,9 +11337,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B364" s="1">
         <v>17</v>
@@ -11354,18 +11354,18 @@
         <v>160023</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>59</v>
@@ -11380,18 +11380,18 @@
         <v>160023</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B366" s="1">
         <v>17</v>
       </c>
       <c r="D366" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E366" s="1">
         <v>2002</v>
@@ -11400,18 +11400,18 @@
         <v>160024</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B367" s="1">
         <v>17</v>
       </c>
       <c r="D367" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E367" s="1">
         <v>1984</v>
@@ -11423,9 +11423,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
@@ -11443,15 +11443,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B369" s="1">
         <v>17</v>
       </c>
       <c r="D369" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E369" s="1">
         <v>1992</v>
@@ -11460,10 +11460,10 @@
         <v>160028</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>288</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>280</v>
       </c>
@@ -11503,9 +11503,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B372" s="1">
         <v>17</v>
@@ -11523,15 +11523,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B373" s="1">
         <v>17</v>
       </c>
       <c r="D373" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E373" s="1">
         <v>1981</v>
@@ -11543,9 +11543,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B374" s="1">
         <v>17</v>
@@ -11563,15 +11563,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E375" s="1">
         <v>1992</v>
@@ -11580,18 +11580,18 @@
         <v>160032</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B376" s="1">
         <v>17</v>
       </c>
       <c r="D376" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E376" s="1">
         <v>1996</v>
@@ -11600,18 +11600,18 @@
         <v>160034</v>
       </c>
       <c r="K376" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E377" s="1">
         <v>2009</v>
@@ -11620,18 +11620,18 @@
         <v>160035</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E378" s="1">
         <v>2012</v>
@@ -11640,18 +11640,18 @@
         <v>160037</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E379" s="1">
         <v>2014</v>
@@ -11660,18 +11660,18 @@
         <v>160037</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B380" s="1">
         <v>17</v>
       </c>
       <c r="D380" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E380" s="1">
         <v>1986</v>
@@ -11683,15 +11683,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E381" s="1">
         <v>1996</v>
@@ -11703,9 +11703,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B382" s="1">
         <v>17</v>
@@ -11723,15 +11723,15 @@
         <v>338</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B383" s="1">
         <v>17</v>
       </c>
       <c r="D383" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E383" s="1">
         <v>2001</v>
@@ -11743,15 +11743,15 @@
         <v>338</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
       </c>
       <c r="D384" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>59</v>
@@ -11760,18 +11760,18 @@
         <v>160042</v>
       </c>
       <c r="K384" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B385" s="1">
         <v>18</v>
       </c>
       <c r="D385" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E385" s="1">
         <v>2015</v>
@@ -11780,18 +11780,18 @@
         <v>170006</v>
       </c>
       <c r="K385" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B386" s="1">
         <v>18</v>
       </c>
       <c r="D386" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E386" s="1">
         <v>2018</v>
@@ -11800,18 +11800,18 @@
         <v>170007</v>
       </c>
       <c r="K386" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B387" s="1">
         <v>18</v>
       </c>
       <c r="D387" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E387" s="1">
         <v>2006</v>
@@ -11820,18 +11820,18 @@
         <v>170012</v>
       </c>
       <c r="K387" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B388" s="1">
         <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E388" s="1">
         <v>2007</v>
@@ -11840,18 +11840,18 @@
         <v>170012</v>
       </c>
       <c r="K388" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B389" s="1">
         <v>18</v>
       </c>
       <c r="D389" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E389" s="1">
         <v>2008</v>
@@ -11860,12 +11860,12 @@
         <v>170013</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B390" s="1">
         <v>18</v>
@@ -11880,18 +11880,18 @@
         <v>170027</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B391" s="1">
         <v>18</v>
       </c>
       <c r="D391" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E391" s="1">
         <v>2022</v>
@@ -11900,12 +11900,12 @@
         <v>170028</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B392" s="1">
         <v>18</v>
@@ -11920,12 +11920,12 @@
         <v>170029</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B393" s="1">
         <v>18</v>
@@ -11940,18 +11940,18 @@
         <v>170032</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B394" s="1">
         <v>18</v>
       </c>
       <c r="D394" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E394" s="1">
         <v>2012</v>
@@ -11960,18 +11960,18 @@
         <v>170033</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B395" s="1">
         <v>18</v>
       </c>
       <c r="D395" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E395" s="1">
         <v>2009</v>
@@ -11980,7 +11980,7 @@
         <v>170035</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\1406\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9838E2-2F73-4CAF-9774-B40C4D9376B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AD830-5F9B-40E8-A27B-2DBAB78341D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,9 +640,6 @@
     <t>130004v2</t>
   </si>
   <si>
-    <t>Dương Danh Quy</t>
-  </si>
-  <si>
     <t>Dương Danh Chỉ</t>
   </si>
   <si>
@@ -2361,6 +2358,9 @@
   </si>
   <si>
     <t>Ngành 2</t>
+  </si>
+  <si>
+    <t>Dương Danh Qúy</t>
   </si>
 </sst>
 </file>
@@ -2738,9 +2738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2805,22 +2805,22 @@
         <v>52</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>699</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>700</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -2837,16 +2837,16 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>701</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>702</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>59</v>
@@ -2869,7 +2869,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -2898,16 +2898,16 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>59</v>
@@ -2930,7 +2930,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2939,10 +2939,10 @@
         <v>59</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J6" s="1">
         <v>40001</v>
@@ -2959,7 +2959,7 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -2968,7 +2968,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>59</v>
@@ -2988,7 +2988,7 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -2997,13 +2997,13 @@
         <v>59</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>720</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>721</v>
       </c>
       <c r="J8" s="1">
         <v>40001</v>
@@ -3020,7 +3020,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -3032,10 +3032,10 @@
         <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J9" s="1">
         <v>40001</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
@@ -3052,22 +3052,22 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="10" t="s">
         <v>708</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>709</v>
       </c>
       <c r="J10" s="1">
         <v>40001</v>
@@ -3075,19 +3075,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>722</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>724</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>725</v>
       </c>
       <c r="L11" s="1">
         <v>50003</v>
@@ -3104,7 +3104,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E12" s="11"/>
       <c r="J12" s="1">
@@ -3122,7 +3122,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E13" s="11"/>
       <c r="J13" s="1">
@@ -3140,7 +3140,7 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3149,7 +3149,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>59</v>
@@ -3161,7 +3161,7 @@
         <v>50003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -3175,7 +3175,7 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -3184,13 +3184,13 @@
         <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J15" s="1">
         <v>50003</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -3204,7 +3204,7 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -3213,16 +3213,16 @@
         <v>59</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="J16" s="1">
         <v>50003</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -3236,7 +3236,7 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -3248,30 +3248,30 @@
         <v>50003</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="D18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="L18" s="1">
         <v>60002</v>
@@ -3279,25 +3279,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>750</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>753</v>
       </c>
       <c r="L19" s="1">
         <v>60003</v>
@@ -3314,7 +3314,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
@@ -3329,7 +3329,7 @@
         <v>60002</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -3343,7 +3343,7 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3352,10 +3352,10 @@
         <v>59</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>63</v>
@@ -3364,7 +3364,7 @@
         <v>60003</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -3378,7 +3378,7 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -3387,39 +3387,39 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>766</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>767</v>
       </c>
       <c r="J22" s="1">
         <v>60003</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="D23" t="s">
+        <v>736</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>738</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>739</v>
       </c>
       <c r="L23" s="1">
         <v>70001</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
@@ -3442,7 +3442,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>59</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -3482,7 +3482,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
@@ -3491,16 +3491,16 @@
         <v>59</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>741</v>
       </c>
       <c r="J26" s="1">
         <v>70001</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.45">
@@ -3523,7 +3523,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>75</v>
@@ -3535,7 +3535,7 @@
         <v>70002</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -3549,7 +3549,7 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3558,16 +3558,16 @@
         <v>59</v>
       </c>
       <c r="G28" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>759</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="J28" s="1">
         <v>70002</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -3581,14 +3581,14 @@
         <v>52</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E29" s="11"/>
       <c r="J29" s="1">
         <v>70003</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
@@ -3622,25 +3622,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B31" s="1">
         <v>8</v>
       </c>
       <c r="D31" t="s">
+        <v>742</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>745</v>
       </c>
       <c r="L31" s="1">
         <v>80002</v>
@@ -3648,25 +3648,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="D32" t="s">
+        <v>762</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>764</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3718,7 +3718,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>59</v>
@@ -3733,7 +3733,7 @@
         <v>80002</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
@@ -3747,14 +3747,14 @@
         <v>52</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E35" s="11"/>
       <c r="J35" s="1">
         <v>80003</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -3842,7 +3842,7 @@
         <v>59</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>59</v>
@@ -3875,10 +3875,10 @@
         <v>59</v>
       </c>
       <c r="G39" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>59</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="1">
         <v>10</v>
@@ -3937,10 +3937,10 @@
         <v>59</v>
       </c>
       <c r="G41" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>59</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
@@ -3966,10 +3966,10 @@
         <v>59</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>59</v>
@@ -3980,25 +3980,25 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B43" s="1">
         <v>10</v>
       </c>
       <c r="D43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>59</v>
@@ -4089,19 +4089,19 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
+        <v>341</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>59</v>
@@ -4124,7 +4124,7 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>59</v>
@@ -4133,10 +4133,10 @@
         <v>59</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>59</v>
@@ -4145,7 +4145,7 @@
         <v>100002</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L47"/>
     </row>
@@ -4160,7 +4160,7 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>59</v>
@@ -4172,7 +4172,7 @@
         <v>100002</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L48"/>
     </row>
@@ -4187,19 +4187,19 @@
         <v>52</v>
       </c>
       <c r="D49" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>358</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>59</v>
@@ -4208,7 +4208,7 @@
         <v>100002</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L49"/>
     </row>
@@ -4223,7 +4223,7 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>59</v>
@@ -4232,10 +4232,10 @@
         <v>59</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>59</v>
@@ -4244,7 +4244,7 @@
         <v>100003</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L50"/>
     </row>
@@ -4259,7 +4259,7 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>59</v>
@@ -4268,7 +4268,7 @@
         <v>59</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>105</v>
@@ -4280,7 +4280,7 @@
         <v>100003</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L51"/>
     </row>
@@ -4344,13 +4344,13 @@
     </row>
     <row r="54" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B54" s="1">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>59</v>
@@ -4359,10 +4359,10 @@
         <v>59</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>59</v>
@@ -4373,22 +4373,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B55" s="1">
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>359</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>59</v>
@@ -4402,25 +4402,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="1">
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>362</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="8" t="s">
+      <c r="H56" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>59</v>
@@ -4431,25 +4431,25 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B57" s="1">
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>397</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="8" t="s">
+      <c r="H57" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>59</v>
@@ -4460,25 +4460,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B58" s="1">
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>401</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>403</v>
-      </c>
       <c r="H58" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>59</v>
@@ -4498,7 +4498,7 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
@@ -4543,7 +4543,7 @@
         <v>59</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>185</v>
@@ -4570,7 +4570,7 @@
         <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>59</v>
@@ -4579,10 +4579,10 @@
         <v>59</v>
       </c>
       <c r="G61" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>59</v>
@@ -4591,7 +4591,7 @@
         <v>110006</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L61"/>
     </row>
@@ -4606,7 +4606,7 @@
         <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>59</v>
@@ -4615,10 +4615,10 @@
         <v>59</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>59</v>
@@ -4627,7 +4627,7 @@
         <v>110006</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L62"/>
     </row>
@@ -4642,7 +4642,7 @@
         <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>59</v>
@@ -4651,10 +4651,10 @@
         <v>59</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>59</v>
@@ -4663,7 +4663,7 @@
         <v>110006</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L63"/>
     </row>
@@ -4678,7 +4678,7 @@
         <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>59</v>
@@ -4687,7 +4687,7 @@
         <v>59</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>59</v>
@@ -4696,7 +4696,7 @@
         <v>110008</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L64"/>
     </row>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B68" s="1">
         <v>12</v>
@@ -4804,10 +4804,10 @@
         <v>59</v>
       </c>
       <c r="G68" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>59</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B69" s="1">
         <v>12</v>
@@ -4833,10 +4833,10 @@
         <v>59</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>59</v>
@@ -5009,10 +5009,10 @@
         <v>59</v>
       </c>
       <c r="G74" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>59</v>
@@ -5045,10 +5045,10 @@
         <v>59</v>
       </c>
       <c r="G75" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>59</v>
@@ -5081,10 +5081,10 @@
         <v>59</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>59</v>
@@ -5117,10 +5117,10 @@
         <v>59</v>
       </c>
       <c r="G77" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="J77" s="1">
         <v>120002</v>
@@ -5141,7 +5141,7 @@
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>59</v>
@@ -5156,7 +5156,7 @@
         <v>120004</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L78"/>
     </row>
@@ -5171,7 +5171,7 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>59</v>
@@ -5189,7 +5189,7 @@
         <v>120005</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L79"/>
     </row>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B86" s="1">
         <v>13</v>
@@ -5375,7 +5375,7 @@
         <v>59</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>59</v>
@@ -5389,25 +5389,25 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B87" s="1">
         <v>13</v>
       </c>
       <c r="D87" t="s">
+        <v>254</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" s="8" t="s">
+      <c r="H87" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>59</v>
@@ -5418,25 +5418,25 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B88" s="1">
         <v>13</v>
       </c>
       <c r="D88" t="s">
+        <v>292</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" s="8" t="s">
+      <c r="H88" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>59</v>
@@ -5447,25 +5447,25 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B89" s="1">
         <v>13</v>
       </c>
       <c r="D89" t="s">
+        <v>381</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G89" s="8" t="s">
+      <c r="H89" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>59</v>
@@ -5476,13 +5476,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B90" s="1">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>59</v>
@@ -5670,7 +5670,7 @@
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>202</v>
+        <v>772</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>59</v>
@@ -5697,7 +5697,7 @@
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>59</v>
@@ -5724,7 +5724,7 @@
         <v>52</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>59</v>
@@ -5745,7 +5745,7 @@
         <v>130005</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L98"/>
     </row>
@@ -5760,19 +5760,19 @@
         <v>52</v>
       </c>
       <c r="D99" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G99" s="8" t="s">
+      <c r="H99" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>59</v>
@@ -5781,7 +5781,7 @@
         <v>130007</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L99"/>
     </row>
@@ -5796,7 +5796,7 @@
         <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>59</v>
@@ -5805,10 +5805,10 @@
         <v>59</v>
       </c>
       <c r="G100" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H100" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>59</v>
@@ -5817,7 +5817,7 @@
         <v>130008</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L100"/>
     </row>
@@ -5832,7 +5832,7 @@
         <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>59</v>
@@ -5844,7 +5844,7 @@
         <v>59</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>59</v>
@@ -5853,7 +5853,7 @@
         <v>130008</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L101"/>
     </row>
@@ -5868,7 +5868,7 @@
         <v>52</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>59</v>
@@ -5880,7 +5880,7 @@
         <v>130008</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L102"/>
     </row>
@@ -5895,7 +5895,7 @@
         <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>59</v>
@@ -5907,7 +5907,7 @@
         <v>130008</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L103"/>
     </row>
@@ -5922,7 +5922,7 @@
         <v>52</v>
       </c>
       <c r="D104" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>59</v>
@@ -5940,7 +5940,7 @@
         <v>130010</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L104"/>
     </row>
@@ -6111,22 +6111,22 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111" s="1">
         <v>14</v>
       </c>
       <c r="D111" t="s">
+        <v>204</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>59</v>
@@ -6140,13 +6140,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B112" s="1">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>59</v>
@@ -6166,13 +6166,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B113" s="1">
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>59</v>
@@ -6189,13 +6189,13 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B114" s="1">
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>59</v>
@@ -6218,13 +6218,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B115" s="1">
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>59</v>
@@ -6247,13 +6247,13 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B116" s="1">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>59</v>
@@ -6276,25 +6276,25 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B117" s="1">
         <v>14</v>
       </c>
       <c r="D117" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G117" s="8" t="s">
+      <c r="H117" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>59</v>
@@ -6689,7 +6689,7 @@
         <v>52</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E132" s="1">
         <v>1943</v>
@@ -6698,7 +6698,7 @@
         <v>140007</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L132"/>
     </row>
@@ -6713,16 +6713,16 @@
         <v>52</v>
       </c>
       <c r="D133" t="s">
+        <v>207</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>59</v>
@@ -6734,7 +6734,7 @@
         <v>140007</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L133"/>
     </row>
@@ -6749,7 +6749,7 @@
         <v>52</v>
       </c>
       <c r="D134" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -6761,7 +6761,7 @@
         <v>140008</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L134"/>
     </row>
@@ -6776,7 +6776,7 @@
         <v>52</v>
       </c>
       <c r="D135" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E135" s="1">
         <v>1930</v>
@@ -6785,7 +6785,7 @@
         <v>140008</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L135"/>
     </row>
@@ -6800,7 +6800,7 @@
         <v>52</v>
       </c>
       <c r="D136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>59</v>
@@ -6809,7 +6809,7 @@
         <v>140008</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L136"/>
     </row>
@@ -6824,7 +6824,7 @@
         <v>52</v>
       </c>
       <c r="D137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -6839,7 +6839,7 @@
         <v>140010</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L137"/>
     </row>
@@ -6854,7 +6854,7 @@
         <v>52</v>
       </c>
       <c r="D138" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E138" s="1">
         <v>1936</v>
@@ -6869,7 +6869,7 @@
         <v>140010</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L138"/>
     </row>
@@ -6884,7 +6884,7 @@
         <v>52</v>
       </c>
       <c r="D139" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E139" s="1">
         <v>1940</v>
@@ -6893,7 +6893,7 @@
         <v>140010</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L139"/>
     </row>
@@ -6908,7 +6908,7 @@
         <v>52</v>
       </c>
       <c r="D140" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E140" s="1">
         <v>1947</v>
@@ -6917,7 +6917,7 @@
         <v>140010</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L140"/>
     </row>
@@ -6932,7 +6932,7 @@
         <v>52</v>
       </c>
       <c r="D141" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E141" s="1">
         <v>1938</v>
@@ -6953,7 +6953,7 @@
         <v>140011</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L141"/>
     </row>
@@ -6968,7 +6968,7 @@
         <v>52</v>
       </c>
       <c r="D142" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>59</v>
@@ -6983,7 +6983,7 @@
         <v>140012</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L142"/>
     </row>
@@ -6998,7 +6998,7 @@
         <v>52</v>
       </c>
       <c r="D143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -7007,10 +7007,10 @@
         <v>59</v>
       </c>
       <c r="G143" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H143" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="I143" s="10" t="s">
         <v>59</v>
@@ -7019,7 +7019,7 @@
         <v>140014</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L143"/>
     </row>
@@ -7034,7 +7034,7 @@
         <v>52</v>
       </c>
       <c r="D144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E144" s="1">
         <v>1945</v>
@@ -7043,10 +7043,10 @@
         <v>2014</v>
       </c>
       <c r="G144" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H144" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="I144" s="10" t="s">
         <v>59</v>
@@ -7055,7 +7055,7 @@
         <v>140014</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L144"/>
     </row>
@@ -7073,7 +7073,7 @@
         <v>1953</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L145" s="1">
         <v>150001</v>
@@ -7093,7 +7093,7 @@
         <v>1958</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L146" s="1">
         <v>150002</v>
@@ -7107,13 +7107,13 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
+        <v>408</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="L147" s="1">
         <v>150003</v>
@@ -7190,7 +7190,7 @@
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E151" s="1">
         <v>1966</v>
@@ -7207,13 +7207,13 @@
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E152" s="1">
         <v>1971</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L152" s="1">
         <v>150008</v>
@@ -7227,13 +7227,13 @@
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E153" s="1">
         <v>1979</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L153" s="1">
         <v>150009</v>
@@ -7247,7 +7247,7 @@
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>59</v>
@@ -7281,7 +7281,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>59</v>
@@ -7292,19 +7292,19 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157" s="1">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E157" s="1">
         <v>1959</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L157" s="1">
         <v>150013</v>
@@ -7312,13 +7312,13 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B158" s="1">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>59</v>
@@ -7332,13 +7332,13 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B159" s="1">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E159" s="1">
         <v>1930</v>
@@ -7361,13 +7361,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B160" s="1">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>59</v>
@@ -7381,13 +7381,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B161" s="1">
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E161" s="1">
         <v>1947</v>
@@ -7398,13 +7398,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B162" s="1">
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>59</v>
@@ -7427,13 +7427,13 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B163" s="1">
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E163" s="1">
         <v>1940</v>
@@ -7442,7 +7442,7 @@
         <v>59</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>59</v>
@@ -7456,13 +7456,13 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B164" s="1">
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E164" s="1">
         <v>1940</v>
@@ -7473,19 +7473,19 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B165" s="1">
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E165" s="1">
         <v>1948</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L165" s="1">
         <v>150023</v>
@@ -7493,13 +7493,13 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B166" s="1">
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E166" s="1">
         <v>1938</v>
@@ -7747,13 +7747,13 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B177" s="1">
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -7767,13 +7767,13 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
@@ -7829,7 +7829,7 @@
         <v>59</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J180" s="1">
         <v>150004</v>
@@ -7841,13 +7841,13 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B181" s="1">
         <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E181" s="1">
         <v>1988</v>
@@ -7889,13 +7889,13 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B183" s="1">
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         <v>52</v>
       </c>
       <c r="D185" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>59</v>
@@ -7952,7 +7952,7 @@
         <v>59</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J185" s="1">
         <v>150006</v>
@@ -7964,13 +7964,13 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B186" s="1">
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E186" s="1">
         <v>1984</v>
@@ -7985,13 +7985,13 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B187" s="1">
         <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E187" s="1">
         <v>1991</v>
@@ -8030,13 +8030,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B189" s="1">
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E189" s="1">
         <v>1991</v>
@@ -8051,13 +8051,13 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B190" s="1">
         <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E190" s="1">
         <v>1994</v>
@@ -8072,13 +8072,13 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B191" s="1">
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E191" s="1">
         <v>1995</v>
@@ -8150,7 +8150,7 @@
         <v>52</v>
       </c>
       <c r="D194" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E194" s="1">
         <v>2010</v>
@@ -8165,13 +8165,13 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B195" s="1">
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E195" s="1">
         <v>2007</v>
@@ -8234,13 +8234,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B198" s="1">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E198" s="1">
         <v>1982</v>
@@ -8279,13 +8279,13 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B200" s="1">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E200" s="1">
         <v>1995</v>
@@ -8309,7 +8309,7 @@
         <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E201" s="1">
         <v>1998</v>
@@ -8318,19 +8318,19 @@
         <v>150013</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L201"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E202" s="1">
         <v>1986</v>
@@ -8339,7 +8339,7 @@
         <v>150013</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L202"/>
     </row>
@@ -8354,7 +8354,7 @@
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E203" s="1">
         <v>1952</v>
@@ -8375,7 +8375,7 @@
         <v>150015</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L203"/>
     </row>
@@ -8390,7 +8390,7 @@
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E204" s="1">
         <v>1954</v>
@@ -8399,7 +8399,7 @@
         <v>150015</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L204"/>
     </row>
@@ -8414,31 +8414,31 @@
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E205" s="1">
         <v>1964</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J205" s="1">
         <v>150015</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L205"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B206" s="1">
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E206" s="1">
         <v>1950</v>
@@ -8450,19 +8450,19 @@
         <v>150015</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L206"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B207" s="1">
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E207" s="1">
         <v>1965</v>
@@ -8471,24 +8471,24 @@
         <v>59</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J207" s="1">
         <v>150015</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B208" s="1">
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E208" s="1">
         <v>1961</v>
@@ -8500,18 +8500,18 @@
         <v>150015</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B209" s="1">
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E209" s="1">
         <v>1965</v>
@@ -8520,7 +8520,7 @@
         <v>150015</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.45">
@@ -8534,7 +8534,7 @@
         <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E210" s="1">
         <v>1954</v>
@@ -8543,7 +8543,7 @@
         <v>150016</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L210"/>
     </row>
@@ -8558,7 +8558,7 @@
         <v>52</v>
       </c>
       <c r="D211" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E211" s="1">
         <v>1960</v>
@@ -8567,7 +8567,7 @@
         <v>150016</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L211"/>
     </row>
@@ -8582,7 +8582,7 @@
         <v>52</v>
       </c>
       <c r="D212" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E212" s="1">
         <v>1968</v>
@@ -8591,7 +8591,7 @@
         <v>150016</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L212"/>
     </row>
@@ -8606,7 +8606,7 @@
         <v>52</v>
       </c>
       <c r="D213" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E213" s="1">
         <v>1978</v>
@@ -8615,19 +8615,19 @@
         <v>150016</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L213"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B214" s="1">
         <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E214" s="1">
         <v>1957</v>
@@ -8639,18 +8639,18 @@
         <v>150016</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B215" s="1">
         <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E215" s="1">
         <v>1966</v>
@@ -8662,19 +8662,19 @@
         <v>150016</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L215"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B216" s="1">
         <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E216" s="1">
         <v>1977</v>
@@ -8686,7 +8686,7 @@
         <v>150016</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L216"/>
     </row>
@@ -8701,7 +8701,7 @@
         <v>52</v>
       </c>
       <c r="D217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8710,7 +8710,7 @@
         <v>150017</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L217"/>
     </row>
@@ -8725,7 +8725,7 @@
         <v>52</v>
       </c>
       <c r="D218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E218" s="1">
         <v>1959</v>
@@ -8734,7 +8734,7 @@
         <v>150017</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L218"/>
     </row>
@@ -8749,7 +8749,7 @@
         <v>52</v>
       </c>
       <c r="D219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E219" s="1">
         <v>1961</v>
@@ -8758,7 +8758,7 @@
         <v>150017</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L219"/>
     </row>
@@ -8782,19 +8782,19 @@
         <v>150017</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L220"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B221" s="1">
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E221" s="1">
         <v>1957</v>
@@ -8806,7 +8806,7 @@
         <v>150017</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
@@ -8820,7 +8820,7 @@
         <v>52</v>
       </c>
       <c r="D222" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E222" s="1">
         <v>1974</v>
@@ -8829,7 +8829,7 @@
         <v>150019</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L222"/>
     </row>
@@ -8844,31 +8844,31 @@
         <v>52</v>
       </c>
       <c r="D223" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E223" s="1">
         <v>1977</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J223" s="1">
         <v>150019</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L223"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B224" s="1">
         <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E224" s="1">
         <v>1979</v>
@@ -8877,19 +8877,19 @@
         <v>150019</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L224"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B225" s="1">
         <v>16</v>
       </c>
       <c r="D225" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E225" s="1">
         <v>1981</v>
@@ -8898,7 +8898,7 @@
         <v>150019</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L225"/>
     </row>
@@ -8913,7 +8913,7 @@
         <v>52</v>
       </c>
       <c r="D226" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E226" s="1">
         <v>1952</v>
@@ -8922,19 +8922,19 @@
         <v>150020</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L226"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B227" s="1">
         <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E227" s="1">
         <v>1955</v>
@@ -8943,19 +8943,19 @@
         <v>150020</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L227"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B228" s="1">
         <v>16</v>
       </c>
       <c r="D228" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E228" s="1">
         <v>1960</v>
@@ -8964,19 +8964,19 @@
         <v>150020</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L228"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B229" s="1">
         <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E229" s="1">
         <v>1965</v>
@@ -8985,7 +8985,7 @@
         <v>150020</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L229"/>
     </row>
@@ -9000,7 +9000,7 @@
         <v>52</v>
       </c>
       <c r="D230" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E230" s="1">
         <v>1960</v>
@@ -9009,7 +9009,7 @@
         <v>150021</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L230"/>
     </row>
@@ -9024,7 +9024,7 @@
         <v>52</v>
       </c>
       <c r="D231" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E231" s="1">
         <v>1964</v>
@@ -9033,7 +9033,7 @@
         <v>150021</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L231"/>
     </row>
@@ -9048,7 +9048,7 @@
         <v>52</v>
       </c>
       <c r="D232" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E232" s="1">
         <v>1974</v>
@@ -9060,19 +9060,19 @@
         <v>150021</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L232"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B233" s="1">
         <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E233" s="1">
         <v>1953</v>
@@ -9084,19 +9084,19 @@
         <v>150021</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L233"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B234" s="1">
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E234" s="1">
         <v>1961</v>
@@ -9108,19 +9108,19 @@
         <v>150021</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L234"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B235" s="1">
         <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E235" s="1">
         <v>1963</v>
@@ -9132,19 +9132,19 @@
         <v>150021</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L235"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B236" s="1">
         <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E236" s="1">
         <v>1968</v>
@@ -9156,19 +9156,19 @@
         <v>150021</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L236"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B237" s="1">
         <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E237" s="1">
         <v>1969</v>
@@ -9180,19 +9180,19 @@
         <v>150021</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L237"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B238" s="1">
         <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E238" s="1">
         <v>1971</v>
@@ -9204,7 +9204,7 @@
         <v>150021</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L238"/>
     </row>
@@ -9228,7 +9228,7 @@
         <v>150022</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L239"/>
     </row>
@@ -9252,19 +9252,19 @@
         <v>150022</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L240"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B241" s="1">
         <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E241" s="1">
         <v>1961</v>
@@ -9273,19 +9273,19 @@
         <v>150022</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L241"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B242" s="1">
         <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E242" s="1">
         <v>1964</v>
@@ -9294,19 +9294,19 @@
         <v>150022</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L242"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B243" s="1">
         <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E243" s="1">
         <v>1969</v>
@@ -9315,19 +9315,19 @@
         <v>150022</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L243"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B244" s="1">
         <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E244" s="1">
         <v>1972</v>
@@ -9336,19 +9336,19 @@
         <v>150022</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L244"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B245" s="1">
         <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E245" s="1">
         <v>1976</v>
@@ -9357,7 +9357,7 @@
         <v>150022</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L245"/>
     </row>
@@ -9372,7 +9372,7 @@
         <v>52</v>
       </c>
       <c r="D246" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E246" s="1">
         <v>1970</v>
@@ -9381,7 +9381,7 @@
         <v>150023</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L246"/>
     </row>
@@ -9396,7 +9396,7 @@
         <v>52</v>
       </c>
       <c r="D247" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E247" s="1">
         <v>1981</v>
@@ -9405,13 +9405,13 @@
         <v>150023</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L247"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B248" s="1">
         <v>16</v>
@@ -9426,7 +9426,7 @@
         <v>150023</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L248"/>
     </row>
@@ -9441,7 +9441,7 @@
         <v>52</v>
       </c>
       <c r="D249" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E249" s="1">
         <v>1960</v>
@@ -9450,7 +9450,7 @@
         <v>150024</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L249"/>
     </row>
@@ -9474,19 +9474,19 @@
         <v>150024</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L250"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B251" s="1">
         <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E251" s="1">
         <v>1962</v>
@@ -9495,18 +9495,18 @@
         <v>150024</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B252" s="1">
         <v>16</v>
       </c>
       <c r="D252" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>59</v>
@@ -9515,7 +9515,7 @@
         <v>150024</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.45">
@@ -9532,7 +9532,7 @@
         <v>1983</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -9554,7 +9554,7 @@
         <v>1985</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -9576,7 +9576,7 @@
         <v>1989</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -9598,7 +9598,7 @@
         <v>1983</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -9627,13 +9627,13 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B258" s="1">
         <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>59</v>
@@ -9645,13 +9645,13 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B259" s="1">
         <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>59</v>
@@ -9663,13 +9663,13 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B260" s="1">
         <v>16</v>
       </c>
       <c r="D260" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E260" s="1">
         <v>1981</v>
@@ -9680,13 +9680,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B261" s="1">
         <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E261" s="1">
         <v>1981</v>
@@ -9697,19 +9697,19 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B262" s="1">
         <v>16</v>
       </c>
       <c r="D262" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L262" s="1">
         <v>160011</v>
@@ -9717,13 +9717,13 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B263" s="1">
         <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>59</v>
@@ -9734,13 +9734,13 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B264" s="1">
         <v>16</v>
       </c>
       <c r="D264" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E264" s="1">
         <v>1995</v>
@@ -9751,13 +9751,13 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B265" s="1">
         <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E265" s="1">
         <v>1985</v>
@@ -9768,13 +9768,13 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B266" s="1">
         <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E266" s="1">
         <v>1989</v>
@@ -9785,13 +9785,13 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B267" s="1">
         <v>16</v>
       </c>
       <c r="D267" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E267" s="1">
         <v>1990</v>
@@ -9802,13 +9802,13 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B268" s="1">
         <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E268" s="1">
         <v>1953</v>
@@ -9819,13 +9819,13 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="1">
         <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E269" s="1">
         <v>1962</v>
@@ -9836,13 +9836,13 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B270" s="1">
         <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E270" s="1">
         <v>1977</v>
@@ -9855,13 +9855,13 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B271" s="1">
         <v>16</v>
       </c>
       <c r="D271" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E271" s="1">
         <v>1958</v>
@@ -9872,13 +9872,13 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B272" s="1">
         <v>16</v>
       </c>
       <c r="D272" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E272" s="1">
         <v>1962</v>
@@ -9889,13 +9889,13 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B273" s="1">
         <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E273" s="1">
         <v>1975</v>
@@ -9906,19 +9906,19 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B274" s="1">
         <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E274" s="1">
         <v>1976</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L274" s="1">
         <v>160024</v>
@@ -9926,13 +9926,13 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B275" s="1">
         <v>16</v>
       </c>
       <c r="D275" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E275" s="1">
         <v>1951</v>
@@ -9943,13 +9943,13 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B276" s="1">
         <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E276" s="1">
         <v>1963</v>
@@ -9960,13 +9960,13 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B277" s="1">
         <v>16</v>
       </c>
       <c r="D277" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L277" s="1">
         <v>160027</v>
@@ -9974,13 +9974,13 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B278" s="1">
         <v>16</v>
       </c>
       <c r="D278" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E278" s="1">
         <v>1972</v>
@@ -9991,13 +9991,13 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B279" s="1">
         <v>16</v>
       </c>
       <c r="D279" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E279" s="1">
         <v>1979</v>
@@ -10008,19 +10008,19 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B280" s="1">
         <v>16</v>
       </c>
       <c r="D280" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E280" s="1">
         <v>1989</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L280" s="1">
         <v>160030</v>
@@ -10028,13 +10028,13 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B281" s="1">
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E281" s="1">
         <v>1954</v>
@@ -10045,19 +10045,19 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B282" s="1">
         <v>16</v>
       </c>
       <c r="D282" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E282" s="1">
         <v>1960</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L282" s="1">
         <v>160032</v>
@@ -10065,13 +10065,13 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B283" s="1">
         <v>16</v>
       </c>
       <c r="D283" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E283" s="1">
         <v>1963</v>
@@ -10082,13 +10082,13 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B284" s="1">
         <v>16</v>
       </c>
       <c r="D284" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E284" s="1">
         <v>1966</v>
@@ -10099,13 +10099,13 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B285" s="1">
         <v>16</v>
       </c>
       <c r="D285" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E285" s="1">
         <v>1980</v>
@@ -10116,13 +10116,13 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B286" s="1">
         <v>16</v>
       </c>
       <c r="D286" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>59</v>
@@ -10133,13 +10133,13 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B287" s="1">
         <v>16</v>
       </c>
       <c r="D287" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E287" s="1">
         <v>1985</v>
@@ -10150,19 +10150,19 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B288" s="1">
         <v>16</v>
       </c>
       <c r="D288" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E288" s="1">
         <v>1963</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L288" s="1">
         <v>160038</v>
@@ -10170,13 +10170,13 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B289" s="1">
         <v>16</v>
       </c>
       <c r="D289" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E289" s="1">
         <v>1975</v>
@@ -10187,13 +10187,13 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B290" s="1">
         <v>16</v>
       </c>
       <c r="D290" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E290" s="1">
         <v>1973</v>
@@ -10422,13 +10422,13 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B301" s="1">
         <v>17</v>
       </c>
       <c r="D301" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>59</v>
@@ -10437,18 +10437,18 @@
         <v>160006</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B302" s="1">
         <v>17</v>
       </c>
       <c r="D302" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>59</v>
@@ -10457,7 +10457,7 @@
         <v>160006</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.45">
@@ -10471,7 +10471,7 @@
         <v>52</v>
       </c>
       <c r="D303" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>59</v>
@@ -10480,12 +10480,12 @@
         <v>160007</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B304" s="1">
         <v>17</v>
@@ -10500,18 +10500,18 @@
         <v>160007</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B305" s="1">
         <v>17</v>
       </c>
       <c r="D305" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>59</v>
@@ -10520,7 +10520,7 @@
         <v>160007</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.45">
@@ -10534,7 +10534,7 @@
         <v>52</v>
       </c>
       <c r="D306" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E306" s="1">
         <v>2012</v>
@@ -10543,7 +10543,7 @@
         <v>160008</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.45">
@@ -10557,7 +10557,7 @@
         <v>52</v>
       </c>
       <c r="D307" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E307" s="1">
         <v>2014</v>
@@ -10566,18 +10566,18 @@
         <v>160008</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B308" s="1">
         <v>17</v>
       </c>
       <c r="D308" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>59</v>
@@ -10586,7 +10586,7 @@
         <v>160008</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.45">
@@ -10600,7 +10600,7 @@
         <v>52</v>
       </c>
       <c r="D309" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E309" s="1">
         <v>2018</v>
@@ -10609,18 +10609,18 @@
         <v>160010</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B310" s="1">
         <v>17</v>
       </c>
       <c r="D310" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E310" s="1">
         <v>2018</v>
@@ -10629,41 +10629,41 @@
         <v>160010</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B311" s="1">
         <v>17</v>
       </c>
       <c r="D311" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J311" s="1">
         <v>160011</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B312" s="1">
         <v>17</v>
       </c>
       <c r="D312" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E312" s="1">
         <v>2023</v>
@@ -10672,7 +10672,7 @@
         <v>160011</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.45">
@@ -10686,7 +10686,7 @@
         <v>52</v>
       </c>
       <c r="D313" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E313" s="1">
         <v>2018</v>
@@ -10695,7 +10695,7 @@
         <v>160013</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.45">
@@ -10709,7 +10709,7 @@
         <v>52</v>
       </c>
       <c r="D314" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E314" s="1">
         <v>2023</v>
@@ -10718,7 +10718,7 @@
         <v>160013</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.45">
@@ -10732,7 +10732,7 @@
         <v>52</v>
       </c>
       <c r="D315" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E315" s="1">
         <v>2007</v>
@@ -10741,18 +10741,18 @@
         <v>160015</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B316" s="1">
         <v>17</v>
       </c>
       <c r="D316" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E316" s="1">
         <v>2005</v>
@@ -10761,18 +10761,18 @@
         <v>160015</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B317" s="1">
         <v>17</v>
       </c>
       <c r="D317" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E317" s="1">
         <v>2015</v>
@@ -10781,7 +10781,7 @@
         <v>160015</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.45">
@@ -10795,7 +10795,7 @@
         <v>52</v>
       </c>
       <c r="D318" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E318" s="1">
         <v>2011</v>
@@ -10804,18 +10804,18 @@
         <v>160016</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B319" s="1">
         <v>17</v>
       </c>
       <c r="D319" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E319" s="1">
         <v>2015</v>
@@ -10824,7 +10824,7 @@
         <v>160016</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.45">
@@ -10838,7 +10838,7 @@
         <v>52</v>
       </c>
       <c r="D320" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E320" s="1">
         <v>2013</v>
@@ -10847,18 +10847,18 @@
         <v>160017</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B321" s="1">
         <v>17</v>
       </c>
       <c r="D321" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E321" s="1">
         <v>2017</v>
@@ -10867,7 +10867,7 @@
         <v>160017</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.45">
@@ -10881,7 +10881,7 @@
         <v>52</v>
       </c>
       <c r="D322" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E322" s="1">
         <v>1991</v>
@@ -10890,18 +10890,18 @@
         <v>160018</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B323" s="1">
         <v>17</v>
       </c>
       <c r="D323" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>59</v>
@@ -10910,18 +10910,18 @@
         <v>160018</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B324" s="1">
         <v>17</v>
       </c>
       <c r="D324" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>59</v>
@@ -10930,18 +10930,18 @@
         <v>160018</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B325" s="1">
         <v>17</v>
       </c>
       <c r="D325" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>59</v>
@@ -10950,7 +10950,7 @@
         <v>160018</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.45">
@@ -10964,7 +10964,7 @@
         <v>52</v>
       </c>
       <c r="D326" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E326" s="1">
         <v>1992</v>
@@ -10973,18 +10973,18 @@
         <v>160019</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B327" s="1">
         <v>17</v>
       </c>
       <c r="D327" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E327" s="1">
         <v>1982</v>
@@ -10993,18 +10993,18 @@
         <v>160019</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B328" s="1">
         <v>17</v>
       </c>
       <c r="D328" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E328" s="1">
         <v>1984</v>
@@ -11013,18 +11013,18 @@
         <v>160019</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B329" s="1">
         <v>17</v>
       </c>
       <c r="D329" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E329" s="1">
         <v>1987</v>
@@ -11033,7 +11033,7 @@
         <v>160019</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.45">
@@ -11056,18 +11056,18 @@
         <v>160020</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B331" s="1">
         <v>17</v>
       </c>
       <c r="D331" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E331" s="1">
         <v>2000</v>
@@ -11076,18 +11076,18 @@
         <v>160020</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B332" s="1">
         <v>17</v>
       </c>
       <c r="D332" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E332" s="1">
         <v>2005</v>
@@ -11096,7 +11096,7 @@
         <v>160020</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.45">
@@ -11122,7 +11122,7 @@
         <v>160021</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.45">
@@ -11136,7 +11136,7 @@
         <v>52</v>
       </c>
       <c r="D334" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E334" s="1">
         <v>1983</v>
@@ -11145,18 +11145,18 @@
         <v>160021</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B335" s="1">
         <v>17</v>
       </c>
       <c r="D335" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E335" s="1">
         <v>1979</v>
@@ -11165,7 +11165,7 @@
         <v>160021</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.45">
@@ -11179,7 +11179,7 @@
         <v>52</v>
       </c>
       <c r="D336" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E336" s="1">
         <v>2008</v>
@@ -11188,18 +11188,18 @@
         <v>160023</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B337" s="1">
         <v>17</v>
       </c>
       <c r="D337" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E337" s="1">
         <v>1994</v>
@@ -11208,18 +11208,18 @@
         <v>160023</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B338" s="1">
         <v>17</v>
       </c>
       <c r="D338" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>59</v>
@@ -11228,13 +11228,13 @@
         <v>59</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J338" s="1">
         <v>160023</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.45">
@@ -11248,7 +11248,7 @@
         <v>52</v>
       </c>
       <c r="D339" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E339" s="1">
         <v>2006</v>
@@ -11257,18 +11257,18 @@
         <v>160024</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B340" s="1">
         <v>17</v>
       </c>
       <c r="D340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E340" s="1">
         <v>2002</v>
@@ -11277,7 +11277,7 @@
         <v>160024</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.45">
@@ -11300,7 +11300,7 @@
         <v>160025</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.45">
@@ -11323,7 +11323,7 @@
         <v>160025</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.45">
@@ -11337,7 +11337,7 @@
         <v>52</v>
       </c>
       <c r="D343" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E343" s="1">
         <v>1987</v>
@@ -11346,18 +11346,18 @@
         <v>160025</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B344" s="1">
         <v>17</v>
       </c>
       <c r="D344" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E344" s="1">
         <v>1984</v>
@@ -11366,7 +11366,7 @@
         <v>160025</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.45">
@@ -11389,7 +11389,7 @@
         <v>160026</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.45">
@@ -11403,7 +11403,7 @@
         <v>52</v>
       </c>
       <c r="D346" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E346" s="1">
         <v>1990</v>
@@ -11412,7 +11412,7 @@
         <v>160027</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.45">
@@ -11426,7 +11426,7 @@
         <v>52</v>
       </c>
       <c r="D347" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E347" s="1">
         <v>1994</v>
@@ -11435,18 +11435,18 @@
         <v>160027</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B348" s="1">
         <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E348" s="1">
         <v>1996</v>
@@ -11455,7 +11455,7 @@
         <v>160027</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.45">
@@ -11469,7 +11469,7 @@
         <v>52</v>
       </c>
       <c r="D349" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E349" s="1">
         <v>1994</v>
@@ -11478,18 +11478,18 @@
         <v>160028</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
       </c>
       <c r="D350" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E350" s="1">
         <v>1992</v>
@@ -11498,7 +11498,7 @@
         <v>160028</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.45">
@@ -11512,7 +11512,7 @@
         <v>52</v>
       </c>
       <c r="D351" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E351" s="1">
         <v>2005</v>
@@ -11521,7 +11521,7 @@
         <v>160029</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.45">
@@ -11535,7 +11535,7 @@
         <v>52</v>
       </c>
       <c r="D352" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E352" s="1">
         <v>2008</v>
@@ -11544,18 +11544,18 @@
         <v>160029</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E353" s="1">
         <v>2016</v>
@@ -11564,18 +11564,18 @@
         <v>160029</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E354" s="1">
         <v>2011</v>
@@ -11584,7 +11584,7 @@
         <v>160030</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.45">
@@ -11598,7 +11598,7 @@
         <v>52</v>
       </c>
       <c r="D355" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E355" s="1">
         <v>1975</v>
@@ -11607,7 +11607,7 @@
         <v>160031</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.45">
@@ -11621,7 +11621,7 @@
         <v>52</v>
       </c>
       <c r="D356" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E356" s="1">
         <v>1978</v>
@@ -11630,18 +11630,18 @@
         <v>160031</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
       <c r="D357" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E357" s="1">
         <v>1981</v>
@@ -11650,18 +11650,18 @@
         <v>160031</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E358" s="1">
         <v>1981</v>
@@ -11670,18 +11670,18 @@
         <v>160031</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
       </c>
       <c r="D359" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E359" s="1">
         <v>1986</v>
@@ -11690,7 +11690,7 @@
         <v>160031</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.45">
@@ -11704,7 +11704,7 @@
         <v>52</v>
       </c>
       <c r="D360" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E360" s="1">
         <v>1997</v>
@@ -11713,18 +11713,18 @@
         <v>160032</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E361" s="1">
         <v>1992</v>
@@ -11733,7 +11733,7 @@
         <v>160032</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.45">
@@ -11756,7 +11756,7 @@
         <v>160033</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.45">
@@ -11770,7 +11770,7 @@
         <v>52</v>
       </c>
       <c r="D363" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E363" s="1">
         <v>1998</v>
@@ -11779,7 +11779,7 @@
         <v>160033</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.45">
@@ -11793,7 +11793,7 @@
         <v>52</v>
       </c>
       <c r="D364" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E364" s="1">
         <v>1992</v>
@@ -11802,18 +11802,18 @@
         <v>160034</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E365" s="1">
         <v>1996</v>
@@ -11822,7 +11822,7 @@
         <v>160034</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.45">
@@ -11836,7 +11836,7 @@
         <v>52</v>
       </c>
       <c r="D366" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E366" s="1">
         <v>2004</v>
@@ -11845,7 +11845,7 @@
         <v>160035</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.45">
@@ -11859,7 +11859,7 @@
         <v>52</v>
       </c>
       <c r="D367" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E367" s="1">
         <v>2005</v>
@@ -11868,18 +11868,18 @@
         <v>160035</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E368" s="1">
         <v>2009</v>
@@ -11888,7 +11888,7 @@
         <v>160035</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.45">
@@ -11902,7 +11902,7 @@
         <v>52</v>
       </c>
       <c r="D369" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E369" s="1">
         <v>2002</v>
@@ -11911,7 +11911,7 @@
         <v>160036</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.45">
@@ -11925,7 +11925,7 @@
         <v>52</v>
       </c>
       <c r="D370" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E370" s="1">
         <v>2006</v>
@@ -11934,18 +11934,18 @@
         <v>160036</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E371" s="1">
         <v>2012</v>
@@ -11954,18 +11954,18 @@
         <v>160037</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B372" s="1">
         <v>17</v>
       </c>
       <c r="D372" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E372" s="1">
         <v>2014</v>
@@ -11974,7 +11974,7 @@
         <v>160037</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.45">
@@ -11988,7 +11988,7 @@
         <v>52</v>
       </c>
       <c r="D373" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E373" s="1">
         <v>1982</v>
@@ -11997,7 +11997,7 @@
         <v>160038</v>
       </c>
       <c r="K373" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.45">
@@ -12011,7 +12011,7 @@
         <v>52</v>
       </c>
       <c r="D374" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E374" s="1">
         <v>1982</v>
@@ -12020,18 +12020,18 @@
         <v>160038</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E375" s="1">
         <v>1986</v>
@@ -12040,7 +12040,7 @@
         <v>160038</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.45">
@@ -12054,7 +12054,7 @@
         <v>52</v>
       </c>
       <c r="D376" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E376" s="1">
         <v>2005</v>
@@ -12063,18 +12063,18 @@
         <v>160039</v>
       </c>
       <c r="K376" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E377" s="1">
         <v>1996</v>
@@ -12083,18 +12083,18 @@
         <v>160039</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E378" s="1">
         <v>1999</v>
@@ -12103,18 +12103,18 @@
         <v>160039</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E379" s="1">
         <v>2001</v>
@@ -12123,7 +12123,7 @@
         <v>160039</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.45">
@@ -12137,7 +12137,7 @@
         <v>52</v>
       </c>
       <c r="D380" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E380" s="1">
         <v>2003</v>
@@ -12146,18 +12146,18 @@
         <v>160042</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>59</v>
@@ -12166,7 +12166,7 @@
         <v>160042</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.45">
@@ -12200,7 +12200,7 @@
         <v>52</v>
       </c>
       <c r="D383" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E383" s="1">
         <v>1989</v>
@@ -12211,13 +12211,13 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
       </c>
       <c r="D384" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E384" s="1">
         <v>1991</v>
@@ -12228,13 +12228,13 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B385" s="1">
         <v>17</v>
       </c>
       <c r="D385" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E385" s="1">
         <v>1992</v>
@@ -12245,13 +12245,13 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B386" s="1">
         <v>17</v>
       </c>
       <c r="D386" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E386" s="1">
         <v>1983</v>
@@ -12262,13 +12262,13 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B387" s="1">
         <v>17</v>
       </c>
       <c r="D387" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E387" s="1">
         <v>1979</v>
@@ -12279,13 +12279,13 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B388" s="1">
         <v>17</v>
       </c>
       <c r="D388" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E388" s="1">
         <v>1983</v>
@@ -12296,13 +12296,13 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B389" s="1">
         <v>17</v>
       </c>
       <c r="D389" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>59</v>
@@ -12313,13 +12313,13 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B390" s="1">
         <v>17</v>
       </c>
       <c r="D390" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E390" s="1">
         <v>1991</v>
@@ -12330,13 +12330,13 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B391" s="1">
         <v>17</v>
       </c>
       <c r="D391" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E391" s="1">
         <v>1983</v>
@@ -12347,13 +12347,13 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B392" s="1">
         <v>17</v>
       </c>
       <c r="D392" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E392" s="1">
         <v>1987</v>
@@ -12364,13 +12364,13 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B393" s="1">
         <v>17</v>
       </c>
       <c r="D393" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E393" s="1">
         <v>1990</v>
@@ -12381,13 +12381,13 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B394" s="1">
         <v>17</v>
       </c>
       <c r="D394" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E394" s="1">
         <v>1984</v>
@@ -12398,13 +12398,13 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B395" s="1">
         <v>17</v>
       </c>
       <c r="D395" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E395" s="1">
         <v>1993</v>
@@ -12415,14 +12415,14 @@
     </row>
     <row r="396" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B396" s="1">
         <v>17</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E396" s="1">
         <v>1991</v>
@@ -12439,13 +12439,13 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B397" s="1">
         <v>17</v>
       </c>
       <c r="D397" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E397" s="1">
         <v>1987</v>
@@ -12465,7 +12465,7 @@
         <v>52</v>
       </c>
       <c r="D398" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E398" s="1">
         <v>2019</v>
@@ -12474,18 +12474,18 @@
         <v>170006</v>
       </c>
       <c r="K398" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B399" s="1">
         <v>18</v>
       </c>
       <c r="D399" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E399" s="1">
         <v>2015</v>
@@ -12494,7 +12494,7 @@
         <v>170006</v>
       </c>
       <c r="K399" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.45">
@@ -12508,7 +12508,7 @@
         <v>52</v>
       </c>
       <c r="D400" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E400" s="1">
         <v>2014</v>
@@ -12517,7 +12517,7 @@
         <v>170007</v>
       </c>
       <c r="K400" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.45">
@@ -12531,7 +12531,7 @@
         <v>52</v>
       </c>
       <c r="D401" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E401" s="1">
         <v>2016</v>
@@ -12540,18 +12540,18 @@
         <v>170007</v>
       </c>
       <c r="K401" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B402" s="1">
         <v>18</v>
       </c>
       <c r="D402" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E402" s="1">
         <v>2018</v>
@@ -12560,7 +12560,7 @@
         <v>170007</v>
       </c>
       <c r="K402" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.45">
@@ -12574,7 +12574,7 @@
         <v>52</v>
       </c>
       <c r="D403" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E403" s="1">
         <v>2012</v>
@@ -12583,18 +12583,18 @@
         <v>170012</v>
       </c>
       <c r="K403" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B404" s="1">
         <v>18</v>
       </c>
       <c r="D404" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E404" s="1">
         <v>2006</v>
@@ -12603,18 +12603,18 @@
         <v>170012</v>
       </c>
       <c r="K404" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B405" s="1">
         <v>18</v>
       </c>
       <c r="D405" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E405" s="1">
         <v>2007</v>
@@ -12623,7 +12623,7 @@
         <v>170012</v>
       </c>
       <c r="K405" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.45">
@@ -12637,7 +12637,7 @@
         <v>52</v>
       </c>
       <c r="D406" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E406" s="1">
         <v>2005</v>
@@ -12646,18 +12646,18 @@
         <v>170013</v>
       </c>
       <c r="K406" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B407" s="1">
         <v>18</v>
       </c>
       <c r="D407" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E407" s="1">
         <v>2008</v>
@@ -12666,7 +12666,7 @@
         <v>170013</v>
       </c>
       <c r="K407" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.45">
@@ -12680,7 +12680,7 @@
         <v>52</v>
       </c>
       <c r="D408" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E408" s="1">
         <v>2009</v>
@@ -12689,7 +12689,7 @@
         <v>170027</v>
       </c>
       <c r="K408" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.45">
@@ -12703,7 +12703,7 @@
         <v>52</v>
       </c>
       <c r="D409" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E409" s="1">
         <v>2015</v>
@@ -12712,18 +12712,18 @@
         <v>170027</v>
       </c>
       <c r="K409" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B410" s="1">
         <v>18</v>
       </c>
       <c r="D410" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E410" s="1">
         <v>2017</v>
@@ -12732,18 +12732,18 @@
         <v>170027</v>
       </c>
       <c r="K410" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B411" s="1">
         <v>18</v>
       </c>
       <c r="D411" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E411" s="1">
         <v>2022</v>
@@ -12752,7 +12752,7 @@
         <v>170028</v>
       </c>
       <c r="K411" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.45">
@@ -12766,7 +12766,7 @@
         <v>52</v>
       </c>
       <c r="D412" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E412" s="1">
         <v>2011</v>
@@ -12775,18 +12775,18 @@
         <v>170029</v>
       </c>
       <c r="K412" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B413" s="1">
         <v>18</v>
       </c>
       <c r="D413" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E413" s="1">
         <v>2014</v>
@@ -12795,7 +12795,7 @@
         <v>170029</v>
       </c>
       <c r="K413" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.45">
@@ -12818,18 +12818,18 @@
         <v>170032</v>
       </c>
       <c r="K414" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B415" s="1">
         <v>18</v>
       </c>
       <c r="D415" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E415" s="1">
         <v>2007</v>
@@ -12838,7 +12838,7 @@
         <v>170032</v>
       </c>
       <c r="K415" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.45">
@@ -12852,7 +12852,7 @@
         <v>52</v>
       </c>
       <c r="D416" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E416" s="1">
         <v>2013</v>
@@ -12861,18 +12861,18 @@
         <v>170033</v>
       </c>
       <c r="K416" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B417" s="1">
         <v>18</v>
       </c>
       <c r="D417" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E417" s="1">
         <v>2012</v>
@@ -12881,7 +12881,7 @@
         <v>170033</v>
       </c>
       <c r="K417" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.45">
@@ -12895,7 +12895,7 @@
         <v>52</v>
       </c>
       <c r="D418" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E418" s="1">
         <v>2013</v>
@@ -12904,7 +12904,7 @@
         <v>170034</v>
       </c>
       <c r="K418" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.45">
@@ -12918,7 +12918,7 @@
         <v>52</v>
       </c>
       <c r="D419" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E419" s="1">
         <v>2016</v>
@@ -12927,7 +12927,7 @@
         <v>170034</v>
       </c>
       <c r="K419" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.45">
@@ -12950,18 +12950,18 @@
         <v>170035</v>
       </c>
       <c r="K420" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B421" s="1">
         <v>18</v>
       </c>
       <c r="D421" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E421" s="1">
         <v>2009</v>
@@ -12970,7 +12970,7 @@
         <v>170035</v>
       </c>
       <c r="K421" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.45">
@@ -12984,7 +12984,7 @@
         <v>52</v>
       </c>
       <c r="D422" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E422" s="1">
         <v>2014</v>
@@ -12993,7 +12993,7 @@
         <v>170036</v>
       </c>
       <c r="K422" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.45">
@@ -13007,7 +13007,7 @@
         <v>52</v>
       </c>
       <c r="D423" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E423" s="1">
         <v>2018</v>
@@ -13016,7 +13016,7 @@
         <v>170043</v>
       </c>
       <c r="K423" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.45">
@@ -13030,7 +13030,7 @@
         <v>52</v>
       </c>
       <c r="D424" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E424" s="1">
         <v>2023</v>
@@ -13039,7 +13039,7 @@
         <v>170043</v>
       </c>
       <c r="K424" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.45">
@@ -13053,7 +13053,7 @@
         <v>52</v>
       </c>
       <c r="D425" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E425" s="1">
         <v>2008</v>
@@ -13062,7 +13062,7 @@
         <v>170048</v>
       </c>
       <c r="K425" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.45">
@@ -13076,7 +13076,7 @@
         <v>52</v>
       </c>
       <c r="D426" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E426" s="1">
         <v>2011</v>
@@ -13085,7 +13085,7 @@
         <v>170048</v>
       </c>
       <c r="K426" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\1406\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AD830-5F9B-40E8-A27B-2DBAB78341D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D34446-116B-4FCB-AA19-46E5852F2678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2117,10 +2117,6 @@
     <t>140014v1</t>
   </si>
   <si>
-    <t>Hiệu Đôn Mẫn. Cụ tổ Phái 3 - Ngành 3
-- Ông Dương Danh Chính thờ phụng</t>
-  </si>
-  <si>
     <t>Chưa rõ cụ nào sinh ra???, có trùng với cụ Trọng Phong không?
 Hiệu Chất Thực</t>
   </si>
@@ -2361,6 +2357,10 @@
   </si>
   <si>
     <t>Dương Danh Qúy</t>
+  </si>
+  <si>
+    <t>Hiệu Đôn Mẫn. Cụ tổ Phái 3 - Ngành 3
+- Ông Chính thờ phụng</t>
   </si>
 </sst>
 </file>
@@ -2739,8 +2739,8 @@
   <dimension ref="A1:L426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2805,22 +2805,22 @@
         <v>52</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>698</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>699</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -2837,16 +2837,16 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>700</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>701</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>59</v>
@@ -2869,7 +2869,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -2898,16 +2898,16 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>703</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>704</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>59</v>
@@ -2930,7 +2930,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2939,10 +2939,10 @@
         <v>59</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J6" s="1">
         <v>40001</v>
@@ -2959,7 +2959,7 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -2968,7 +2968,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>59</v>
@@ -2988,7 +2988,7 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -2997,13 +2997,13 @@
         <v>59</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>719</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>720</v>
       </c>
       <c r="J8" s="1">
         <v>40001</v>
@@ -3020,7 +3020,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -3032,10 +3032,10 @@
         <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J9" s="1">
         <v>40001</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
@@ -3052,22 +3052,22 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="10" t="s">
         <v>707</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>708</v>
       </c>
       <c r="J10" s="1">
         <v>40001</v>
@@ -3075,19 +3075,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>721</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="L11" s="1">
         <v>50003</v>
@@ -3104,7 +3104,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E12" s="11"/>
       <c r="J12" s="1">
@@ -3122,7 +3122,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E13" s="11"/>
       <c r="J13" s="1">
@@ -3140,7 +3140,7 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3149,7 +3149,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>59</v>
@@ -3161,7 +3161,7 @@
         <v>50003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -3175,7 +3175,7 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -3184,13 +3184,13 @@
         <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J15" s="1">
         <v>50003</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -3204,7 +3204,7 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -3213,16 +3213,16 @@
         <v>59</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="J16" s="1">
         <v>50003</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -3236,7 +3236,7 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -3248,30 +3248,30 @@
         <v>50003</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="D18" t="s">
+        <v>731</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="L18" s="1">
         <v>60002</v>
@@ -3279,25 +3279,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>749</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>751</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>752</v>
       </c>
       <c r="L19" s="1">
         <v>60003</v>
@@ -3314,7 +3314,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
@@ -3329,7 +3329,7 @@
         <v>60002</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -3343,7 +3343,7 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>266</v>
@@ -3364,7 +3364,7 @@
         <v>60003</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -3378,7 +3378,7 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -3387,39 +3387,39 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="J22" s="1">
         <v>60003</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="D23" t="s">
+        <v>735</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="L23" s="1">
         <v>70001</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
@@ -3442,7 +3442,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>59</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -3482,7 +3482,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
@@ -3491,19 +3491,19 @@
         <v>59</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>740</v>
       </c>
       <c r="J26" s="1">
         <v>70001</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>80001</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>75</v>
@@ -3535,7 +3535,7 @@
         <v>70002</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -3549,7 +3549,7 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3558,16 +3558,16 @@
         <v>59</v>
       </c>
       <c r="G28" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>759</v>
       </c>
       <c r="J28" s="1">
         <v>70002</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -3581,14 +3581,14 @@
         <v>52</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E29" s="11"/>
       <c r="J29" s="1">
         <v>70003</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
@@ -3622,25 +3622,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B31" s="1">
         <v>8</v>
       </c>
       <c r="D31" t="s">
+        <v>741</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="L31" s="1">
         <v>80002</v>
@@ -3648,25 +3648,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="D32" t="s">
+        <v>761</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>763</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3718,7 +3718,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>59</v>
@@ -3733,7 +3733,7 @@
         <v>80002</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
@@ -3747,14 +3747,14 @@
         <v>52</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E35" s="11"/>
       <c r="J35" s="1">
         <v>80003</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -4196,7 +4196,7 @@
         <v>59</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>357</v>
@@ -4498,7 +4498,7 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
@@ -5670,7 +5670,7 @@
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>59</v>
@@ -9734,7 +9734,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B264" s="1">
         <v>16</v>
@@ -10600,7 +10600,7 @@
         <v>52</v>
       </c>
       <c r="D309" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E309" s="1">
         <v>2018</v>
@@ -10695,7 +10695,7 @@
         <v>160013</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.45">
@@ -10718,7 +10718,7 @@
         <v>160013</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.45">

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\Ver2.3\1406\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D34446-116B-4FCB-AA19-46E5852F2678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49932FC1-D4BE-42EA-A834-59EFAFA41344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="773">
   <si>
     <t>ID</t>
   </si>
@@ -2739,24 +2739,24 @@
   <dimension ref="A1:L426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30:G31"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="10.86328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.53125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.46484375" style="10" customWidth="1"/>
-    <col min="10" max="11" width="11.46484375" customWidth="1"/>
-    <col min="12" max="12" width="9.1328125" style="1"/>
+    <col min="8" max="8" width="8.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="10" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>10001</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>30001</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>40001</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>50001</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>50002</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>50003</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>50004</v>
       </c>
@@ -3041,16 +3041,13 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" t="s">
         <v>705</v>
       </c>
@@ -3073,7 +3070,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>720</v>
       </c>
@@ -3093,7 +3090,7 @@
         <v>50003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>60005</v>
       </c>
@@ -3111,7 +3108,7 @@
         <v>50001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>60006</v>
       </c>
@@ -3129,7 +3126,7 @@
         <v>50002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>60001</v>
       </c>
@@ -3164,7 +3161,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>60002</v>
       </c>
@@ -3193,7 +3190,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>60003</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>60004</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>730</v>
       </c>
@@ -3277,7 +3274,7 @@
         <v>60002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>748</v>
       </c>
@@ -3303,7 +3300,7 @@
         <v>60003</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>70001</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>70002</v>
       </c>
@@ -3367,7 +3364,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>70003</v>
       </c>
@@ -3399,7 +3396,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>734</v>
       </c>
@@ -3425,7 +3422,7 @@
         <v>70001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>754</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>70002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>766</v>
       </c>
@@ -3471,7 +3468,7 @@
         <v>70003</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>80002</v>
       </c>
@@ -3503,7 +3500,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>80001</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>80003</v>
       </c>
@@ -3570,7 +3567,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>80004</v>
       </c>
@@ -3591,7 +3588,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3620,7 +3617,7 @@
         <v>80001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>740</v>
       </c>
@@ -3646,7 +3643,7 @@
         <v>80002</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>760</v>
       </c>
@@ -3671,7 +3668,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>90001</v>
       </c>
@@ -3707,7 +3704,7 @@
       </c>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>90002</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>90003</v>
       </c>
@@ -3757,7 +3754,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>90001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>100001</v>
       </c>
@@ -3822,7 +3819,7 @@
       </c>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>100002</v>
       </c>
@@ -3855,7 +3852,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>100003</v>
       </c>
@@ -3891,7 +3888,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>346</v>
       </c>
@@ -3949,7 +3946,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>347</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>388</v>
       </c>
@@ -4007,7 +4004,7 @@
         <v>100003</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>110001</v>
       </c>
@@ -4043,7 +4040,7 @@
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>110002</v>
       </c>
@@ -4078,7 +4075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>110003</v>
       </c>
@@ -4113,7 +4110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>110004</v>
       </c>
@@ -4149,7 +4146,7 @@
       </c>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>110005</v>
       </c>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>110006</v>
       </c>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>110007</v>
       </c>
@@ -4248,7 +4245,7 @@
       </c>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>110008</v>
       </c>
@@ -4284,7 +4281,7 @@
       </c>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
@@ -4313,7 +4310,7 @@
         <v>110001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -4342,7 +4339,7 @@
         <v>110001</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>343</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>110003</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>358</v>
       </c>
@@ -4400,7 +4397,7 @@
         <v>110006</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -4429,7 +4426,7 @@
         <v>110006</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>396</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>110008</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>400</v>
       </c>
@@ -4487,7 +4484,7 @@
         <v>110008</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>120001</v>
       </c>
@@ -4523,7 +4520,7 @@
       </c>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>120002</v>
       </c>
@@ -4559,7 +4556,7 @@
       </c>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>120003</v>
       </c>
@@ -4595,7 +4592,7 @@
       </c>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>120004</v>
       </c>
@@ -4631,7 +4628,7 @@
       </c>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>120005</v>
       </c>
@@ -4667,7 +4664,7 @@
       </c>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>120006</v>
       </c>
@@ -4700,7 +4697,7 @@
       </c>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>110</v>
       </c>
@@ -4729,7 +4726,7 @@
         <v>120001</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
@@ -4758,7 +4755,7 @@
         <v>120001</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>120002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>372</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>120004</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>376</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>120005</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>130001</v>
       </c>
@@ -4881,7 +4878,7 @@
       </c>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>130002</v>
       </c>
@@ -4917,7 +4914,7 @@
       </c>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>130003</v>
       </c>
@@ -4953,7 +4950,7 @@
       </c>
       <c r="L72"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>130004</v>
       </c>
@@ -4989,7 +4986,7 @@
       </c>
       <c r="L73"/>
     </row>
-    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>130005</v>
       </c>
@@ -5025,7 +5022,7 @@
       </c>
       <c r="L74"/>
     </row>
-    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>130006</v>
       </c>
@@ -5061,7 +5058,7 @@
       </c>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>130007</v>
       </c>
@@ -5097,7 +5094,7 @@
       </c>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>130008</v>
       </c>
@@ -5130,7 +5127,7 @@
       </c>
       <c r="L77"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>130009</v>
       </c>
@@ -5160,7 +5157,7 @@
       </c>
       <c r="L78"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>130010</v>
       </c>
@@ -5193,7 +5190,7 @@
       </c>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>66</v>
       </c>
@@ -5222,7 +5219,7 @@
         <v>130001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>125</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>130002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>129</v>
       </c>
@@ -5280,7 +5277,7 @@
         <v>130002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>139</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>130003</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>200</v>
       </c>
@@ -5335,7 +5332,7 @@
         <v>130004</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>201</v>
       </c>
@@ -5358,7 +5355,7 @@
         <v>130004</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>212</v>
       </c>
@@ -5387,7 +5384,7 @@
         <v>130005</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>253</v>
       </c>
@@ -5416,7 +5413,7 @@
         <v>130007</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>291</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>130008</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>379</v>
       </c>
@@ -5474,7 +5471,7 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>380</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>140001</v>
       </c>
@@ -5533,7 +5530,7 @@
       </c>
       <c r="L91"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>140002</v>
       </c>
@@ -5569,7 +5566,7 @@
       </c>
       <c r="L92"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>140003</v>
       </c>
@@ -5605,7 +5602,7 @@
       </c>
       <c r="L93"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140004</v>
       </c>
@@ -5632,7 +5629,7 @@
       </c>
       <c r="L94"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>140005</v>
       </c>
@@ -5659,7 +5656,7 @@
       </c>
       <c r="L95"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>140006</v>
       </c>
@@ -5686,7 +5683,7 @@
       </c>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>140007</v>
       </c>
@@ -5713,7 +5710,7 @@
       </c>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>140008</v>
       </c>
@@ -5749,7 +5746,7 @@
       </c>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>140014</v>
       </c>
@@ -5785,7 +5782,7 @@
       </c>
       <c r="L99"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>140009</v>
       </c>
@@ -5821,7 +5818,7 @@
       </c>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>140010</v>
       </c>
@@ -5857,7 +5854,7 @@
       </c>
       <c r="L101"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>140011</v>
       </c>
@@ -5884,7 +5881,7 @@
       </c>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>140012</v>
       </c>
@@ -5911,7 +5908,7 @@
       </c>
       <c r="L103"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>140013</v>
       </c>
@@ -5944,7 +5941,7 @@
       </c>
       <c r="L104"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>68</v>
       </c>
@@ -5973,7 +5970,7 @@
         <v>140001</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>57</v>
       </c>
@@ -5999,7 +5996,7 @@
         <v>140001</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>134</v>
       </c>
@@ -6022,7 +6019,7 @@
         <v>140002</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -6051,7 +6048,7 @@
         <v>140003</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>147</v>
       </c>
@@ -6080,7 +6077,7 @@
         <v>140004</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>171</v>
       </c>
@@ -6109,7 +6106,7 @@
         <v>140005</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>203</v>
       </c>
@@ -6138,7 +6135,7 @@
         <v>140007</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>215</v>
       </c>
@@ -6164,7 +6161,7 @@
         <v>140008</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>301</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>140010</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>316</v>
       </c>
@@ -6216,7 +6213,7 @@
         <v>140010</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>326</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>140011</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>338</v>
       </c>
@@ -6274,7 +6271,7 @@
         <v>140012</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>690</v>
       </c>
@@ -6303,7 +6300,7 @@
         <v>140014</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>150001</v>
       </c>
@@ -6330,7 +6327,7 @@
       </c>
       <c r="L118"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>150002</v>
       </c>
@@ -6354,7 +6351,7 @@
       </c>
       <c r="L119"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>53</v>
       </c>
@@ -6378,7 +6375,7 @@
       </c>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>55</v>
       </c>
@@ -6399,7 +6396,7 @@
       </c>
       <c r="L121"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>150003</v>
       </c>
@@ -6423,7 +6420,7 @@
       </c>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>150004</v>
       </c>
@@ -6459,7 +6456,7 @@
       </c>
       <c r="L123"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>150005</v>
       </c>
@@ -6495,7 +6492,7 @@
       </c>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>150006</v>
       </c>
@@ -6519,7 +6516,7 @@
       </c>
       <c r="L125"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>150007</v>
       </c>
@@ -6543,7 +6540,7 @@
       </c>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>150008</v>
       </c>
@@ -6567,7 +6564,7 @@
       </c>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>150009</v>
       </c>
@@ -6591,7 +6588,7 @@
       </c>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>150010</v>
       </c>
@@ -6627,7 +6624,7 @@
       </c>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>150011</v>
       </c>
@@ -6654,7 +6651,7 @@
       </c>
       <c r="L130"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>150012</v>
       </c>
@@ -6678,7 +6675,7 @@
       </c>
       <c r="L131"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>150013</v>
       </c>
@@ -6702,7 +6699,7 @@
       </c>
       <c r="L132"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>150014</v>
       </c>
@@ -6738,7 +6735,7 @@
       </c>
       <c r="L133"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>150015</v>
       </c>
@@ -6765,7 +6762,7 @@
       </c>
       <c r="L134"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>150016</v>
       </c>
@@ -6789,7 +6786,7 @@
       </c>
       <c r="L135"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>150017</v>
       </c>
@@ -6813,7 +6810,7 @@
       </c>
       <c r="L136"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>150020</v>
       </c>
@@ -6843,7 +6840,7 @@
       </c>
       <c r="L137"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>150021</v>
       </c>
@@ -6873,7 +6870,7 @@
       </c>
       <c r="L138"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>150022</v>
       </c>
@@ -6897,7 +6894,7 @@
       </c>
       <c r="L139"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>150023</v>
       </c>
@@ -6921,7 +6918,7 @@
       </c>
       <c r="L140"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>150024</v>
       </c>
@@ -6957,7 +6954,7 @@
       </c>
       <c r="L141"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>150025</v>
       </c>
@@ -6987,7 +6984,7 @@
       </c>
       <c r="L142"/>
     </row>
-    <row r="143" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>150018</v>
       </c>
@@ -7023,7 +7020,7 @@
       </c>
       <c r="L143"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>150019</v>
       </c>
@@ -7059,7 +7056,7 @@
       </c>
       <c r="L144"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -7079,7 +7076,7 @@
         <v>150001</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
@@ -7099,7 +7096,7 @@
         <v>150002</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>144</v>
       </c>
@@ -7119,7 +7116,7 @@
         <v>150003</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
@@ -7136,7 +7133,7 @@
         <v>150004</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -7165,7 +7162,7 @@
         <v>150005</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
@@ -7182,7 +7179,7 @@
         <v>150006</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>164</v>
       </c>
@@ -7199,7 +7196,7 @@
         <v>150007</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>166</v>
       </c>
@@ -7219,7 +7216,7 @@
         <v>150008</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>169</v>
       </c>
@@ -7239,7 +7236,7 @@
         <v>150009</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -7256,7 +7253,7 @@
         <v>150009</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>179</v>
       </c>
@@ -7273,7 +7270,7 @@
         <v>150011</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>183</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>150012</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>209</v>
       </c>
@@ -7310,7 +7307,7 @@
         <v>150013</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>220</v>
       </c>
@@ -7330,7 +7327,7 @@
         <v>150015</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>231</v>
       </c>
@@ -7359,7 +7356,7 @@
         <v>150016</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>239</v>
       </c>
@@ -7379,7 +7376,7 @@
         <v>150017</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>269</v>
       </c>
@@ -7396,7 +7393,7 @@
         <v>150019</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>306</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>150020</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>313</v>
       </c>
@@ -7454,7 +7451,7 @@
         <v>150021</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>320</v>
       </c>
@@ -7471,7 +7468,7 @@
         <v>150022</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>322</v>
       </c>
@@ -7491,7 +7488,7 @@
         <v>150023</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>330</v>
       </c>
@@ -7508,7 +7505,7 @@
         <v>150024</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>160001</v>
       </c>
@@ -7532,7 +7529,7 @@
       </c>
       <c r="L167"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>160002</v>
       </c>
@@ -7556,7 +7553,7 @@
       </c>
       <c r="L168"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>160003</v>
       </c>
@@ -7580,7 +7577,7 @@
       </c>
       <c r="L169"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>36</v>
       </c>
@@ -7601,7 +7598,7 @@
       </c>
       <c r="L170"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>38</v>
       </c>
@@ -7622,7 +7619,7 @@
       </c>
       <c r="L171"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>160004</v>
       </c>
@@ -7646,7 +7643,7 @@
       </c>
       <c r="L172"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>160005</v>
       </c>
@@ -7676,7 +7673,7 @@
       </c>
       <c r="L173"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>40</v>
       </c>
@@ -7697,7 +7694,7 @@
       </c>
       <c r="L174"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>160006</v>
       </c>
@@ -7721,7 +7718,7 @@
       </c>
       <c r="L175"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>160007</v>
       </c>
@@ -7745,7 +7742,7 @@
       </c>
       <c r="L176"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>420</v>
       </c>
@@ -7765,7 +7762,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>423</v>
       </c>
@@ -7785,7 +7782,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>160008</v>
       </c>
@@ -7809,7 +7806,7 @@
       </c>
       <c r="L179"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>160009</v>
       </c>
@@ -7839,7 +7836,7 @@
       </c>
       <c r="L180"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>425</v>
       </c>
@@ -7863,7 +7860,7 @@
       </c>
       <c r="L181"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>160010</v>
       </c>
@@ -7887,7 +7884,7 @@
       </c>
       <c r="L182"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>426</v>
       </c>
@@ -7908,7 +7905,7 @@
       </c>
       <c r="L183"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>160011</v>
       </c>
@@ -7932,7 +7929,7 @@
       </c>
       <c r="L184"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>160040</v>
       </c>
@@ -7962,7 +7959,7 @@
       </c>
       <c r="L185"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>429</v>
       </c>
@@ -7983,7 +7980,7 @@
       </c>
       <c r="L186"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>432</v>
       </c>
@@ -8004,7 +8001,7 @@
       </c>
       <c r="L187"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>160012</v>
       </c>
@@ -8028,7 +8025,7 @@
       </c>
       <c r="L188"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>436</v>
       </c>
@@ -8049,7 +8046,7 @@
       </c>
       <c r="L189"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>437</v>
       </c>
@@ -8070,7 +8067,7 @@
       </c>
       <c r="L190"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>438</v>
       </c>
@@ -8091,7 +8088,7 @@
       </c>
       <c r="L191"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>160013</v>
       </c>
@@ -8115,7 +8112,7 @@
       </c>
       <c r="L192"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>160014</v>
       </c>
@@ -8139,7 +8136,7 @@
       </c>
       <c r="L193"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>160043</v>
       </c>
@@ -8163,7 +8160,7 @@
       </c>
       <c r="L194"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>440</v>
       </c>
@@ -8184,7 +8181,7 @@
       </c>
       <c r="L195"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>160015</v>
       </c>
@@ -8208,7 +8205,7 @@
       </c>
       <c r="L196"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>160016</v>
       </c>
@@ -8232,7 +8229,7 @@
       </c>
       <c r="L197"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>443</v>
       </c>
@@ -8253,7 +8250,7 @@
       </c>
       <c r="L198"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>160017</v>
       </c>
@@ -8277,7 +8274,7 @@
       </c>
       <c r="L199"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>444</v>
       </c>
@@ -8298,7 +8295,7 @@
       </c>
       <c r="L200"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>160041</v>
       </c>
@@ -8322,7 +8319,7 @@
       </c>
       <c r="L201"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>445</v>
       </c>
@@ -8343,7 +8340,7 @@
       </c>
       <c r="L202"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>160018</v>
       </c>
@@ -8379,7 +8376,7 @@
       </c>
       <c r="L203"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>160019</v>
       </c>
@@ -8403,7 +8400,7 @@
       </c>
       <c r="L204"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>160020</v>
       </c>
@@ -8430,7 +8427,7 @@
       </c>
       <c r="L205"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>447</v>
       </c>
@@ -8454,7 +8451,7 @@
       </c>
       <c r="L206"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>450</v>
       </c>
@@ -8480,7 +8477,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>453</v>
       </c>
@@ -8503,7 +8500,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>455</v>
       </c>
@@ -8523,7 +8520,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>160021</v>
       </c>
@@ -8547,7 +8544,7 @@
       </c>
       <c r="L210"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>160022</v>
       </c>
@@ -8571,7 +8568,7 @@
       </c>
       <c r="L211"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>160023</v>
       </c>
@@ -8595,7 +8592,7 @@
       </c>
       <c r="L212"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>160024</v>
       </c>
@@ -8619,7 +8616,7 @@
       </c>
       <c r="L213"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>457</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>459</v>
       </c>
@@ -8666,7 +8663,7 @@
       </c>
       <c r="L215"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>460</v>
       </c>
@@ -8690,7 +8687,7 @@
       </c>
       <c r="L216"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>160025</v>
       </c>
@@ -8714,7 +8711,7 @@
       </c>
       <c r="L217"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>160026</v>
       </c>
@@ -8738,7 +8735,7 @@
       </c>
       <c r="L218"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>160027</v>
       </c>
@@ -8762,7 +8759,7 @@
       </c>
       <c r="L219"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>160028</v>
       </c>
@@ -8786,7 +8783,7 @@
       </c>
       <c r="L220"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>463</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>160029</v>
       </c>
@@ -8833,7 +8830,7 @@
       </c>
       <c r="L222"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>160030</v>
       </c>
@@ -8860,7 +8857,7 @@
       </c>
       <c r="L223"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>280</v>
       </c>
@@ -8881,7 +8878,7 @@
       </c>
       <c r="L224"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>281</v>
       </c>
@@ -8902,7 +8899,7 @@
       </c>
       <c r="L225"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>160031</v>
       </c>
@@ -8926,7 +8923,7 @@
       </c>
       <c r="L226"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>467</v>
       </c>
@@ -8947,7 +8944,7 @@
       </c>
       <c r="L227"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>468</v>
       </c>
@@ -8968,7 +8965,7 @@
       </c>
       <c r="L228"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>469</v>
       </c>
@@ -8989,7 +8986,7 @@
       </c>
       <c r="L229"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>160032</v>
       </c>
@@ -9013,7 +9010,7 @@
       </c>
       <c r="L230"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>160033</v>
       </c>
@@ -9037,7 +9034,7 @@
       </c>
       <c r="L231"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>160042</v>
       </c>
@@ -9064,7 +9061,7 @@
       </c>
       <c r="L232"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>471</v>
       </c>
@@ -9088,7 +9085,7 @@
       </c>
       <c r="L233"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>475</v>
       </c>
@@ -9112,7 +9109,7 @@
       </c>
       <c r="L234"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>476</v>
       </c>
@@ -9136,7 +9133,7 @@
       </c>
       <c r="L235"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>477</v>
       </c>
@@ -9160,7 +9157,7 @@
       </c>
       <c r="L236"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>478</v>
       </c>
@@ -9184,7 +9181,7 @@
       </c>
       <c r="L237"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>479</v>
       </c>
@@ -9208,7 +9205,7 @@
       </c>
       <c r="L238"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>160034</v>
       </c>
@@ -9232,7 +9229,7 @@
       </c>
       <c r="L239"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>160035</v>
       </c>
@@ -9256,7 +9253,7 @@
       </c>
       <c r="L240"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>481</v>
       </c>
@@ -9277,7 +9274,7 @@
       </c>
       <c r="L241"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>482</v>
       </c>
@@ -9298,7 +9295,7 @@
       </c>
       <c r="L242"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>486</v>
       </c>
@@ -9319,7 +9316,7 @@
       </c>
       <c r="L243"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>487</v>
       </c>
@@ -9340,7 +9337,7 @@
       </c>
       <c r="L244"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>488</v>
       </c>
@@ -9361,7 +9358,7 @@
       </c>
       <c r="L245"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>160036</v>
       </c>
@@ -9385,7 +9382,7 @@
       </c>
       <c r="L246"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>160037</v>
       </c>
@@ -9409,7 +9406,7 @@
       </c>
       <c r="L247"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>489</v>
       </c>
@@ -9430,7 +9427,7 @@
       </c>
       <c r="L248"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>160038</v>
       </c>
@@ -9454,7 +9451,7 @@
       </c>
       <c r="L249"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>160039</v>
       </c>
@@ -9478,7 +9475,7 @@
       </c>
       <c r="L250"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>492</v>
       </c>
@@ -9498,7 +9495,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>493</v>
       </c>
@@ -9518,7 +9515,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>14</v>
       </c>
@@ -9540,7 +9537,7 @@
         <v>160001</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>17</v>
       </c>
@@ -9562,7 +9559,7 @@
         <v>160002</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>20</v>
       </c>
@@ -9584,7 +9581,7 @@
         <v>160003</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>23</v>
       </c>
@@ -9606,7 +9603,7 @@
         <v>160004</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>26</v>
       </c>
@@ -9625,7 +9622,7 @@
         <v>160005</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>495</v>
       </c>
@@ -9643,7 +9640,7 @@
         <v>160006</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>503</v>
       </c>
@@ -9661,7 +9658,7 @@
         <v>160007</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>507</v>
       </c>
@@ -9678,7 +9675,7 @@
         <v>160008</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>516</v>
       </c>
@@ -9695,7 +9692,7 @@
         <v>160010</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>522</v>
       </c>
@@ -9715,7 +9712,7 @@
         <v>160011</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>523</v>
       </c>
@@ -9732,7 +9729,7 @@
         <v>160011</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>693</v>
       </c>
@@ -9749,7 +9746,7 @@
         <v>160012</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>529</v>
       </c>
@@ -9766,7 +9763,7 @@
         <v>160015</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>536</v>
       </c>
@@ -9783,7 +9780,7 @@
         <v>160016</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>543</v>
       </c>
@@ -9800,7 +9797,7 @@
         <v>160017</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>225</v>
       </c>
@@ -9817,7 +9814,7 @@
         <v>160018</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>228</v>
       </c>
@@ -9834,7 +9831,7 @@
         <v>160019</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>404</v>
       </c>
@@ -9853,7 +9850,7 @@
         <v>160020</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>237</v>
       </c>
@@ -9870,7 +9867,7 @@
         <v>160021</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>562</v>
       </c>
@@ -9887,7 +9884,7 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>567</v>
       </c>
@@ -9904,7 +9901,7 @@
         <v>160023</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>565</v>
       </c>
@@ -9924,7 +9921,7 @@
         <v>160024</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>244</v>
       </c>
@@ -9941,7 +9938,7 @@
         <v>160025</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>246</v>
       </c>
@@ -9958,7 +9955,7 @@
         <v>160026</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>248</v>
       </c>
@@ -9972,7 +9969,7 @@
         <v>160027</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>582</v>
       </c>
@@ -9989,7 +9986,7 @@
         <v>160028</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>274</v>
       </c>
@@ -10006,7 +10003,7 @@
         <v>160029</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>284</v>
       </c>
@@ -10026,7 +10023,7 @@
         <v>160030</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>309</v>
       </c>
@@ -10043,7 +10040,7 @@
         <v>160031</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>591</v>
       </c>
@@ -10063,7 +10060,7 @@
         <v>160032</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>594</v>
       </c>
@@ -10080,7 +10077,7 @@
         <v>160033</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>603</v>
       </c>
@@ -10097,7 +10094,7 @@
         <v>160034</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>608</v>
       </c>
@@ -10114,7 +10111,7 @@
         <v>160035</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>616</v>
       </c>
@@ -10131,7 +10128,7 @@
         <v>160036</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>618</v>
       </c>
@@ -10148,7 +10145,7 @@
         <v>160037</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>332</v>
       </c>
@@ -10168,7 +10165,7 @@
         <v>160038</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>337</v>
       </c>
@@ -10185,7 +10182,7 @@
         <v>160039</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>597</v>
       </c>
@@ -10202,7 +10199,7 @@
         <v>160042</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>170001</v>
       </c>
@@ -10225,7 +10222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>42</v>
       </c>
@@ -10245,7 +10242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>170002</v>
       </c>
@@ -10268,7 +10265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>44</v>
       </c>
@@ -10288,7 +10285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>170003</v>
       </c>
@@ -10311,7 +10308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>170004</v>
       </c>
@@ -10334,7 +10331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>46</v>
       </c>
@@ -10354,7 +10351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>170005</v>
       </c>
@@ -10377,7 +10374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>170049</v>
       </c>
@@ -10400,7 +10397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>49</v>
       </c>
@@ -10420,7 +10417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>498</v>
       </c>
@@ -10440,7 +10437,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>499</v>
       </c>
@@ -10460,7 +10457,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>170016</v>
       </c>
@@ -10483,7 +10480,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>504</v>
       </c>
@@ -10503,7 +10500,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>505</v>
       </c>
@@ -10523,7 +10520,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>170017</v>
       </c>
@@ -10546,7 +10543,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>170018</v>
       </c>
@@ -10569,7 +10566,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>511</v>
       </c>
@@ -10589,7 +10586,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>170019</v>
       </c>
@@ -10612,7 +10609,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>520</v>
       </c>
@@ -10632,7 +10629,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>524</v>
       </c>
@@ -10655,7 +10652,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>525</v>
       </c>
@@ -10675,7 +10672,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>170020</v>
       </c>
@@ -10698,7 +10695,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>170021</v>
       </c>
@@ -10721,7 +10718,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>170022</v>
       </c>
@@ -10744,7 +10741,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>533</v>
       </c>
@@ -10764,7 +10761,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>534</v>
       </c>
@@ -10784,7 +10781,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>170023</v>
       </c>
@@ -10807,7 +10804,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>539</v>
       </c>
@@ -10827,7 +10824,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>170024</v>
       </c>
@@ -10850,7 +10847,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>544</v>
       </c>
@@ -10870,7 +10867,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>170006</v>
       </c>
@@ -10893,7 +10890,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>547</v>
       </c>
@@ -10913,7 +10910,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>548</v>
       </c>
@@ -10933,7 +10930,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>549</v>
       </c>
@@ -10953,7 +10950,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>170007</v>
       </c>
@@ -10976,7 +10973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>552</v>
       </c>
@@ -10996,7 +10993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>553</v>
       </c>
@@ -11016,7 +11013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>554</v>
       </c>
@@ -11036,7 +11033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>170025</v>
       </c>
@@ -11059,7 +11056,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>557</v>
       </c>
@@ -11079,7 +11076,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>558</v>
       </c>
@@ -11099,7 +11096,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>170026</v>
       </c>
@@ -11125,7 +11122,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>170027</v>
       </c>
@@ -11148,7 +11145,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>559</v>
       </c>
@@ -11168,7 +11165,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>170030</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>570</v>
       </c>
@@ -11211,7 +11208,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>571</v>
       </c>
@@ -11237,7 +11234,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>170031</v>
       </c>
@@ -11260,7 +11257,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>574</v>
       </c>
@@ -11280,7 +11277,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>170032</v>
       </c>
@@ -11303,7 +11300,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>170033</v>
       </c>
@@ -11326,7 +11323,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>170034</v>
       </c>
@@ -11349,7 +11346,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>578</v>
       </c>
@@ -11369,7 +11366,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>170035</v>
       </c>
@@ -11392,7 +11389,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>170036</v>
       </c>
@@ -11415,7 +11412,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>170037</v>
       </c>
@@ -11438,7 +11435,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>581</v>
       </c>
@@ -11458,7 +11455,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>170038</v>
       </c>
@@ -11481,7 +11478,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>586</v>
       </c>
@@ -11501,7 +11498,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>170010</v>
       </c>
@@ -11524,7 +11521,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>170011</v>
       </c>
@@ -11547,7 +11544,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>287</v>
       </c>
@@ -11567,7 +11564,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>279</v>
       </c>
@@ -11587,7 +11584,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>170012</v>
       </c>
@@ -11610,7 +11607,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>170013</v>
       </c>
@@ -11633,7 +11630,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>588</v>
       </c>
@@ -11653,7 +11650,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>589</v>
       </c>
@@ -11673,7 +11670,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>590</v>
       </c>
@@ -11693,7 +11690,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>170039</v>
       </c>
@@ -11716,7 +11713,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>593</v>
       </c>
@@ -11736,7 +11733,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>170040</v>
       </c>
@@ -11759,7 +11756,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>170041</v>
       </c>
@@ -11782,7 +11779,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>170043</v>
       </c>
@@ -11805,7 +11802,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>606</v>
       </c>
@@ -11825,7 +11822,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>170044</v>
       </c>
@@ -11848,7 +11845,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>170045</v>
       </c>
@@ -11871,7 +11868,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>612</v>
       </c>
@@ -11891,7 +11888,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>170046</v>
       </c>
@@ -11914,7 +11911,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>170047</v>
       </c>
@@ -11937,7 +11934,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>621</v>
       </c>
@@ -11957,7 +11954,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>622</v>
       </c>
@@ -11977,7 +11974,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>170014</v>
       </c>
@@ -12000,7 +11997,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>170048</v>
       </c>
@@ -12023,7 +12020,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>624</v>
       </c>
@@ -12043,7 +12040,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>170015</v>
       </c>
@@ -12066,7 +12063,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>627</v>
       </c>
@@ -12086,7 +12083,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>628</v>
       </c>
@@ -12106,7 +12103,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>629</v>
       </c>
@@ -12126,7 +12123,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>170042</v>
       </c>
@@ -12149,7 +12146,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>601</v>
       </c>
@@ -12169,7 +12166,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>170028</v>
       </c>
@@ -12189,7 +12186,7 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>170029</v>
       </c>
@@ -12209,7 +12206,7 @@
         <v>160022</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>671</v>
       </c>
@@ -12226,7 +12223,7 @@
         <v>170006</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>661</v>
       </c>
@@ -12243,7 +12240,7 @@
         <v>170007</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>649</v>
       </c>
@@ -12260,7 +12257,7 @@
         <v>170012</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>652</v>
       </c>
@@ -12277,7 +12274,7 @@
         <v>170013</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>667</v>
       </c>
@@ -12294,7 +12291,7 @@
         <v>170027</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>686</v>
       </c>
@@ -12311,7 +12308,7 @@
         <v>170028</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>630</v>
       </c>
@@ -12328,7 +12325,7 @@
         <v>170029</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>634</v>
       </c>
@@ -12345,7 +12342,7 @@
         <v>170032</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>682</v>
       </c>
@@ -12362,7 +12359,7 @@
         <v>170033</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>637</v>
       </c>
@@ -12379,7 +12376,7 @@
         <v>170034</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>642</v>
       </c>
@@ -12396,7 +12393,7 @@
         <v>170035</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>676</v>
       </c>
@@ -12413,7 +12410,7 @@
         <v>170036</v>
       </c>
     </row>
-    <row r="396" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>679</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v>170043</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>657</v>
       </c>
@@ -12454,7 +12451,7 @@
         <v>170048</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>180014</v>
       </c>
@@ -12477,7 +12474,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>675</v>
       </c>
@@ -12497,7 +12494,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>180010</v>
       </c>
@@ -12520,7 +12517,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>180011</v>
       </c>
@@ -12543,7 +12540,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>666</v>
       </c>
@@ -12563,7 +12560,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>180006</v>
       </c>
@@ -12586,7 +12583,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>650</v>
       </c>
@@ -12606,7 +12603,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>651</v>
       </c>
@@ -12626,7 +12623,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>180007</v>
       </c>
@@ -12649,7 +12646,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>656</v>
       </c>
@@ -12669,7 +12666,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>180012</v>
       </c>
@@ -12692,7 +12689,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>180013</v>
       </c>
@@ -12715,7 +12712,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>670</v>
       </c>
@@ -12735,7 +12732,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>689</v>
       </c>
@@ -12755,7 +12752,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>180001</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>633</v>
       </c>
@@ -12798,7 +12795,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>180002</v>
       </c>
@@ -12821,7 +12818,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>636</v>
       </c>
@@ -12841,7 +12838,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>180018</v>
       </c>
@@ -12864,7 +12861,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>685</v>
       </c>
@@ -12884,7 +12881,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>180003</v>
       </c>
@@ -12907,7 +12904,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>180004</v>
       </c>
@@ -12930,7 +12927,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>180005</v>
       </c>
@@ -12953,7 +12950,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>644</v>
       </c>
@@ -12973,7 +12970,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>180015</v>
       </c>
@@ -12996,7 +12993,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>180016</v>
       </c>
@@ -13019,7 +13016,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>180017</v>
       </c>
@@ -13042,7 +13039,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>180008</v>
       </c>
@@ -13065,7 +13062,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>180009</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\Ver2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49932FC1-D4BE-42EA-A834-59EFAFA41344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9624F2C3-861C-4F47-A239-5289AC4B1646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,30 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$395</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$426</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="783">
   <si>
     <t>ID</t>
   </si>
@@ -350,9 +361,6 @@
     <t>07/03</t>
   </si>
   <si>
-    <t>Dương Danh Khương</t>
-  </si>
-  <si>
     <t>Hiệu Phúc Trạch</t>
   </si>
   <si>
@@ -363,9 +371,6 @@
   </si>
   <si>
     <t>120001v1</t>
-  </si>
-  <si>
-    <t>Lý Thị Thẳn</t>
   </si>
   <si>
     <t>Hiệu Thục Hiền</t>
@@ -2361,6 +2366,42 @@
   <si>
     <t>Hiệu Đôn Mẫn. Cụ tổ Phái 3 - Ngành 3
 - Ông Chính thờ phụng</t>
+  </si>
+  <si>
+    <t>Lý Thị Thản</t>
+  </si>
+  <si>
+    <t>20/06</t>
+  </si>
+  <si>
+    <t>Biếu</t>
+  </si>
+  <si>
+    <t>11/07</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diệu</t>
+  </si>
+  <si>
+    <t>Miếu</t>
+  </si>
+  <si>
+    <t>Tổ trẻ</t>
+  </si>
+  <si>
+    <t>Dương Trọng Khương</t>
+  </si>
+  <si>
+    <t>15/11</t>
+  </si>
+  <si>
+    <t>10/03</t>
+  </si>
+  <si>
+    <t>Chồng: Nguyễn Văn Thật - Ngô Sài</t>
+  </si>
+  <si>
+    <t>Chồng: Nguyễn Nho Long - Sài Sơn</t>
   </si>
 </sst>
 </file>
@@ -2739,8 +2780,8 @@
   <dimension ref="A1:L426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2805,22 +2846,22 @@
         <v>52</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>698</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -2837,7 +2878,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>59</v>
@@ -2846,7 +2887,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>59</v>
@@ -2869,7 +2910,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -2898,7 +2939,7 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>59</v>
@@ -2907,7 +2948,7 @@
         <v>59</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>59</v>
@@ -2930,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2939,10 +2980,10 @@
         <v>59</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J6" s="1">
         <v>40001</v>
@@ -2959,7 +3000,7 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -2968,7 +3009,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>59</v>
@@ -2988,7 +3029,7 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -2997,13 +3038,13 @@
         <v>59</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J8" s="1">
         <v>40001</v>
@@ -3020,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -3029,13 +3070,13 @@
         <v>59</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>59</v>
+        <v>777</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J9" s="1">
         <v>40001</v>
@@ -3043,28 +3084,28 @@
     </row>
     <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>703</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>705</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="J10" s="1">
         <v>40001</v>
@@ -3072,19 +3113,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>719</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>723</v>
       </c>
       <c r="L11" s="1">
         <v>50003</v>
@@ -3101,7 +3142,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E12" s="11"/>
       <c r="J12" s="1">
@@ -3119,7 +3160,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E13" s="11"/>
       <c r="J13" s="1">
@@ -3137,7 +3178,7 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3146,7 +3187,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>59</v>
@@ -3158,7 +3199,7 @@
         <v>50003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -3172,7 +3213,7 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -3181,13 +3222,13 @@
         <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J15" s="1">
         <v>50003</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3201,7 +3242,7 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -3210,16 +3251,16 @@
         <v>59</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J16" s="1">
         <v>50003</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3233,7 +3274,7 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -3245,18 +3286,18 @@
         <v>50003</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
@@ -3265,10 +3306,10 @@
         <v>59</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L18" s="1">
         <v>60002</v>
@@ -3276,25 +3317,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>747</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>749</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="L19" s="1">
         <v>60003</v>
@@ -3311,7 +3352,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
@@ -3326,7 +3367,7 @@
         <v>60002</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3340,7 +3381,7 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3349,10 +3390,10 @@
         <v>59</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>63</v>
@@ -3361,7 +3402,7 @@
         <v>60003</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3375,7 +3416,7 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -3384,39 +3425,39 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J22" s="1">
         <v>60003</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="D23" t="s">
+        <v>733</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="L23" s="1">
         <v>70001</v>
@@ -3424,7 +3465,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
@@ -3439,7 +3480,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>59</v>
@@ -3450,13 +3491,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -3479,7 +3520,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
@@ -3488,16 +3529,16 @@
         <v>59</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J26" s="1">
         <v>70001</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3520,7 +3561,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>75</v>
@@ -3532,7 +3573,7 @@
         <v>70002</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3546,7 +3587,7 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3555,16 +3596,16 @@
         <v>59</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J28" s="1">
         <v>70002</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3578,14 +3619,14 @@
         <v>52</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E29" s="11"/>
       <c r="J29" s="1">
         <v>70003</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3611,7 +3652,7 @@
         <v>59</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>59</v>
+        <v>696</v>
       </c>
       <c r="L30" s="1">
         <v>80001</v>
@@ -3619,25 +3660,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B31" s="1">
         <v>8</v>
       </c>
       <c r="D31" t="s">
+        <v>739</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>743</v>
       </c>
       <c r="L31" s="1">
         <v>80002</v>
@@ -3645,13 +3686,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>59</v>
@@ -3660,10 +3701,10 @@
         <v>59</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3715,7 +3756,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>59</v>
@@ -3730,7 +3771,7 @@
         <v>80002</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3744,14 +3785,14 @@
         <v>52</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E35" s="11"/>
       <c r="J35" s="1">
         <v>80003</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3777,7 +3818,7 @@
         <v>85</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L36" s="1">
         <v>90001</v>
@@ -3809,7 +3850,7 @@
         <v>88</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1">
         <v>90001</v>
@@ -3839,7 +3880,7 @@
         <v>59</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>59</v>
@@ -3872,10 +3913,10 @@
         <v>59</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>59</v>
@@ -3911,7 +3952,7 @@
         <v>92</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L40" s="1">
         <v>100001</v>
@@ -3919,7 +3960,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B41" s="1">
         <v>10</v>
@@ -3934,10 +3975,10 @@
         <v>59</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>59</v>
@@ -3948,7 +3989,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
@@ -3963,10 +4004,10 @@
         <v>59</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>59</v>
@@ -3977,25 +4018,25 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B43" s="1">
         <v>10</v>
       </c>
       <c r="D43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>59</v>
@@ -4030,7 +4071,7 @@
         <v>97</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J44" s="1">
         <v>100001</v>
@@ -4051,7 +4092,7 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>59</v>
@@ -4086,7 +4127,7 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>59</v>
@@ -4098,7 +4139,7 @@
         <v>59</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>59</v>
@@ -4121,19 +4162,19 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>354</v>
-      </c>
       <c r="H47" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>59</v>
@@ -4142,7 +4183,7 @@
         <v>100002</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L47"/>
     </row>
@@ -4157,7 +4198,7 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>59</v>
@@ -4169,7 +4210,7 @@
         <v>100002</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L48"/>
     </row>
@@ -4184,7 +4225,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>59</v>
@@ -4193,10 +4234,10 @@
         <v>59</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>59</v>
@@ -4205,7 +4246,7 @@
         <v>100002</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L49"/>
     </row>
@@ -4220,19 +4261,19 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
+        <v>390</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="H50" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>59</v>
@@ -4241,7 +4282,7 @@
         <v>100003</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L50"/>
     </row>
@@ -4256,16 +4297,16 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
+        <v>391</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>105</v>
@@ -4277,7 +4318,7 @@
         <v>100003</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L51"/>
     </row>
@@ -4289,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>775</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>59</v>
@@ -4304,7 +4345,7 @@
         <v>101</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>59</v>
+        <v>773</v>
       </c>
       <c r="L52" s="1">
         <v>110001</v>
@@ -4333,7 +4374,7 @@
         <v>105</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L53" s="1">
         <v>110001</v>
@@ -4341,13 +4382,13 @@
     </row>
     <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B54" s="1">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>59</v>
@@ -4356,10 +4397,10 @@
         <v>59</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>59</v>
@@ -4370,13 +4411,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B55" s="1">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>59</v>
@@ -4385,7 +4426,7 @@
         <v>59</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>59</v>
@@ -4399,25 +4440,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B56" s="1">
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>360</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>59</v>
@@ -4428,25 +4469,25 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B57" s="1">
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>395</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>59</v>
@@ -4457,13 +4498,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B58" s="1">
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>59</v>
@@ -4472,10 +4513,10 @@
         <v>59</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>59</v>
@@ -4495,7 +4536,7 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
@@ -4504,10 +4545,10 @@
         <v>59</v>
       </c>
       <c r="G59" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>59</v>
@@ -4531,7 +4572,7 @@
         <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>778</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>59</v>
@@ -4540,10 +4581,10 @@
         <v>59</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>59</v>
@@ -4567,7 +4608,7 @@
         <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>59</v>
@@ -4576,10 +4617,10 @@
         <v>59</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>59</v>
@@ -4588,7 +4629,7 @@
         <v>110006</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L61"/>
     </row>
@@ -4603,7 +4644,7 @@
         <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>59</v>
@@ -4612,10 +4653,10 @@
         <v>59</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>59</v>
@@ -4624,7 +4665,7 @@
         <v>110006</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L62"/>
     </row>
@@ -4639,7 +4680,7 @@
         <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>59</v>
@@ -4648,10 +4689,10 @@
         <v>59</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>59</v>
@@ -4660,7 +4701,7 @@
         <v>110006</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L63"/>
     </row>
@@ -4675,7 +4716,7 @@
         <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>59</v>
@@ -4684,7 +4725,7 @@
         <v>59</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>59</v>
@@ -4693,31 +4734,31 @@
         <v>110008</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L64"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" s="1">
         <v>12</v>
       </c>
       <c r="D65" t="s">
+        <v>771</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>59</v>
@@ -4728,28 +4769,28 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1">
         <v>12</v>
       </c>
       <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="I66" s="10" t="s">
-        <v>59</v>
+        <v>776</v>
       </c>
       <c r="L66" s="1">
         <v>120001</v>
@@ -4757,13 +4798,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="1">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>59</v>
@@ -4772,13 +4813,13 @@
         <v>59</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L67" s="1">
         <v>120002</v>
@@ -4786,7 +4827,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B68" s="1">
         <v>12</v>
@@ -4801,10 +4842,10 @@
         <v>59</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>59</v>
@@ -4815,13 +4856,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B69" s="1">
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>59</v>
@@ -4830,10 +4871,10 @@
         <v>59</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>59</v>
@@ -4862,10 +4903,10 @@
         <v>59</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>59</v>
@@ -4874,7 +4915,7 @@
         <v>120001</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L70"/>
     </row>
@@ -4889,7 +4930,7 @@
         <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>59</v>
@@ -4898,7 +4939,7 @@
         <v>59</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>59</v>
@@ -4910,7 +4951,7 @@
         <v>120001</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L71"/>
     </row>
@@ -4925,7 +4966,7 @@
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>59</v>
@@ -4937,7 +4978,7 @@
         <v>59</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>59</v>
@@ -4946,7 +4987,7 @@
         <v>120001</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L72"/>
     </row>
@@ -4961,7 +5002,7 @@
         <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>59</v>
@@ -4970,19 +5011,19 @@
         <v>59</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>59</v>
+        <v>773</v>
       </c>
       <c r="J73" s="1">
         <v>120002</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L73"/>
     </row>
@@ -4997,7 +5038,7 @@
         <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>59</v>
@@ -5006,10 +5047,10 @@
         <v>59</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>59</v>
@@ -5018,7 +5059,7 @@
         <v>120002</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L74"/>
     </row>
@@ -5033,7 +5074,7 @@
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>59</v>
@@ -5042,10 +5083,10 @@
         <v>59</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>59</v>
@@ -5054,7 +5095,7 @@
         <v>120002</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L75"/>
     </row>
@@ -5069,7 +5110,7 @@
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>59</v>
@@ -5078,10 +5119,10 @@
         <v>59</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>59</v>
@@ -5090,7 +5131,7 @@
         <v>120002</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L76"/>
     </row>
@@ -5105,7 +5146,7 @@
         <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>59</v>
@@ -5114,16 +5155,16 @@
         <v>59</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J77" s="1">
         <v>120002</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L77"/>
     </row>
@@ -5138,7 +5179,7 @@
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>59</v>
@@ -5153,7 +5194,7 @@
         <v>120004</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L78"/>
     </row>
@@ -5168,7 +5209,7 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>59</v>
@@ -5186,7 +5227,7 @@
         <v>120005</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L79"/>
     </row>
@@ -5207,10 +5248,10 @@
         <v>59</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>63</v>
@@ -5221,25 +5262,25 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" s="1">
         <v>13</v>
       </c>
       <c r="D81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>59</v>
@@ -5250,25 +5291,25 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B82" s="1">
         <v>13</v>
       </c>
       <c r="D82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>59</v>
@@ -5279,7 +5320,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1">
         <v>13</v>
@@ -5308,13 +5349,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B84" s="1">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>59</v>
@@ -5323,10 +5364,10 @@
         <v>59</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L84" s="1">
         <v>130004</v>
@@ -5334,13 +5375,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B85" s="1">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>59</v>
@@ -5349,7 +5390,7 @@
         <v>59</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L85" s="1">
         <v>130004</v>
@@ -5357,7 +5398,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86" s="1">
         <v>13</v>
@@ -5372,13 +5413,13 @@
         <v>59</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L86" s="1">
         <v>130005</v>
@@ -5386,25 +5427,25 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B87" s="1">
         <v>13</v>
       </c>
       <c r="D87" t="s">
+        <v>252</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>59</v>
@@ -5415,25 +5456,25 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B88" s="1">
         <v>13</v>
       </c>
       <c r="D88" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>59</v>
@@ -5444,25 +5485,25 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B89" s="1">
         <v>13</v>
       </c>
       <c r="D89" t="s">
+        <v>379</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H89" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>59</v>
@@ -5473,13 +5514,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B90" s="1">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>59</v>
@@ -5541,7 +5582,7 @@
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>59</v>
@@ -5562,7 +5603,7 @@
         <v>130002</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L92"/>
     </row>
@@ -5577,16 +5618,16 @@
         <v>52</v>
       </c>
       <c r="D93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>59</v>
@@ -5598,7 +5639,7 @@
         <v>130003</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L93"/>
     </row>
@@ -5625,7 +5666,7 @@
         <v>130003</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L94"/>
     </row>
@@ -5652,7 +5693,7 @@
         <v>130003</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L95"/>
     </row>
@@ -5667,7 +5708,7 @@
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>59</v>
@@ -5679,7 +5720,7 @@
         <v>130004</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L96"/>
     </row>
@@ -5694,7 +5735,7 @@
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>59</v>
@@ -5706,7 +5747,7 @@
         <v>130004</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L97"/>
     </row>
@@ -5721,7 +5762,7 @@
         <v>52</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>59</v>
@@ -5733,16 +5774,16 @@
         <v>59</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>59</v>
+        <v>779</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J98" s="1">
         <v>130005</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L98"/>
     </row>
@@ -5757,19 +5798,19 @@
         <v>52</v>
       </c>
       <c r="D99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>59</v>
@@ -5778,7 +5819,7 @@
         <v>130007</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L99"/>
     </row>
@@ -5793,7 +5834,7 @@
         <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>59</v>
@@ -5802,10 +5843,10 @@
         <v>59</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>59</v>
@@ -5814,7 +5855,7 @@
         <v>130008</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L100"/>
     </row>
@@ -5829,7 +5870,7 @@
         <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>59</v>
@@ -5841,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>59</v>
@@ -5850,7 +5891,7 @@
         <v>130008</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L101"/>
     </row>
@@ -5865,7 +5906,7 @@
         <v>52</v>
       </c>
       <c r="D102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>59</v>
@@ -5877,7 +5918,7 @@
         <v>130008</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L102"/>
     </row>
@@ -5892,7 +5933,7 @@
         <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>59</v>
@@ -5904,7 +5945,7 @@
         <v>130008</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L103"/>
     </row>
@@ -5919,7 +5960,7 @@
         <v>52</v>
       </c>
       <c r="D104" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>59</v>
@@ -5937,7 +5978,7 @@
         <v>130010</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L104"/>
     </row>
@@ -5998,13 +6039,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B107" s="1">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>59</v>
@@ -6013,7 +6054,7 @@
         <v>59</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L107" s="1">
         <v>140002</v>
@@ -6021,13 +6062,13 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B108" s="1">
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>59</v>
@@ -6050,28 +6091,28 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B109" s="1">
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>59</v>
+        <v>146</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1926</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2020</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>59</v>
+        <v>780</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L109" s="1">
         <v>140004</v>
@@ -6079,13 +6120,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B110" s="1">
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>59</v>
@@ -6108,13 +6149,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B111" s="1">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>59</v>
@@ -6123,7 +6164,7 @@
         <v>59</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>59</v>
@@ -6137,13 +6178,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B112" s="1">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>59</v>
@@ -6163,13 +6204,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B113" s="1">
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>59</v>
@@ -6186,13 +6227,13 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B114" s="1">
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>59</v>
@@ -6215,13 +6256,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B115" s="1">
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>59</v>
@@ -6244,28 +6285,28 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B116" s="1">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>59</v>
+      <c r="F116" s="1">
+        <v>2002</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>59</v>
+        <v>772</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L116" s="1">
         <v>140012</v>
@@ -6273,25 +6314,25 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B117" s="1">
         <v>14</v>
       </c>
       <c r="D117" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>59</v>
@@ -6407,7 +6448,7 @@
         <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>59</v>
@@ -6416,7 +6457,7 @@
         <v>140003</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L122"/>
     </row>
@@ -6431,7 +6472,7 @@
         <v>52</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -6452,7 +6493,7 @@
         <v>140004</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L123"/>
     </row>
@@ -6467,7 +6508,7 @@
         <v>52</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E124" s="1">
         <v>2</v>
@@ -6488,7 +6529,7 @@
         <v>140004</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L124"/>
     </row>
@@ -6503,7 +6544,7 @@
         <v>52</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E125" s="1">
         <v>1957</v>
@@ -6512,7 +6553,7 @@
         <v>140004</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L125"/>
     </row>
@@ -6527,7 +6568,7 @@
         <v>52</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E126" s="1">
         <v>1961</v>
@@ -6536,7 +6577,7 @@
         <v>140004</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L126"/>
     </row>
@@ -6551,7 +6592,7 @@
         <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E127" s="1">
         <v>1964</v>
@@ -6560,7 +6601,7 @@
         <v>140004</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L127"/>
     </row>
@@ -6575,7 +6616,7 @@
         <v>52</v>
       </c>
       <c r="D128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E128" s="1">
         <v>1974</v>
@@ -6584,7 +6625,7 @@
         <v>140004</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L128"/>
     </row>
@@ -6599,7 +6640,7 @@
         <v>52</v>
       </c>
       <c r="D129" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
@@ -6608,19 +6649,19 @@
         <v>59</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J129" s="1">
         <v>140005</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L129"/>
     </row>
@@ -6635,19 +6676,19 @@
         <v>52</v>
       </c>
       <c r="D130" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E130" s="1">
         <v>1951</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J130" s="1">
         <v>140005</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L130"/>
     </row>
@@ -6662,7 +6703,7 @@
         <v>52</v>
       </c>
       <c r="D131" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E131" s="1">
         <v>1960</v>
@@ -6671,7 +6712,7 @@
         <v>140005</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L131"/>
     </row>
@@ -6686,7 +6727,7 @@
         <v>52</v>
       </c>
       <c r="D132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E132" s="1">
         <v>1943</v>
@@ -6695,7 +6736,7 @@
         <v>140007</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L132"/>
     </row>
@@ -6710,7 +6751,7 @@
         <v>52</v>
       </c>
       <c r="D133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>59</v>
@@ -6719,7 +6760,7 @@
         <v>59</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>59</v>
@@ -6731,7 +6772,7 @@
         <v>140007</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L133"/>
     </row>
@@ -6746,7 +6787,7 @@
         <v>52</v>
       </c>
       <c r="D134" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -6758,7 +6799,7 @@
         <v>140008</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L134"/>
     </row>
@@ -6773,7 +6814,7 @@
         <v>52</v>
       </c>
       <c r="D135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E135" s="1">
         <v>1930</v>
@@ -6782,7 +6823,7 @@
         <v>140008</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L135"/>
     </row>
@@ -6797,7 +6838,7 @@
         <v>52</v>
       </c>
       <c r="D136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>59</v>
@@ -6806,7 +6847,7 @@
         <v>140008</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L136"/>
     </row>
@@ -6821,7 +6862,7 @@
         <v>52</v>
       </c>
       <c r="D137" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -6836,7 +6877,7 @@
         <v>140010</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L137"/>
     </row>
@@ -6851,7 +6892,7 @@
         <v>52</v>
       </c>
       <c r="D138" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E138" s="1">
         <v>1936</v>
@@ -6866,7 +6907,7 @@
         <v>140010</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L138"/>
     </row>
@@ -6881,7 +6922,7 @@
         <v>52</v>
       </c>
       <c r="D139" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E139" s="1">
         <v>1940</v>
@@ -6890,7 +6931,7 @@
         <v>140010</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L139"/>
     </row>
@@ -6905,7 +6946,7 @@
         <v>52</v>
       </c>
       <c r="D140" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E140" s="1">
         <v>1947</v>
@@ -6914,7 +6955,7 @@
         <v>140010</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L140"/>
     </row>
@@ -6929,7 +6970,7 @@
         <v>52</v>
       </c>
       <c r="D141" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E141" s="1">
         <v>1938</v>
@@ -6950,7 +6991,7 @@
         <v>140011</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L141"/>
     </row>
@@ -6965,7 +7006,7 @@
         <v>52</v>
       </c>
       <c r="D142" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>59</v>
@@ -6974,13 +7015,13 @@
         <v>59</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J142" s="1">
         <v>140012</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L142"/>
     </row>
@@ -6995,7 +7036,7 @@
         <v>52</v>
       </c>
       <c r="D143" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -7004,10 +7045,10 @@
         <v>59</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I143" s="10" t="s">
         <v>59</v>
@@ -7016,7 +7057,7 @@
         <v>140014</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L143"/>
     </row>
@@ -7031,7 +7072,7 @@
         <v>52</v>
       </c>
       <c r="D144" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E144" s="1">
         <v>1945</v>
@@ -7040,10 +7081,10 @@
         <v>2014</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I144" s="10" t="s">
         <v>59</v>
@@ -7052,7 +7093,7 @@
         <v>140014</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L144"/>
     </row>
@@ -7070,7 +7111,7 @@
         <v>1953</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L145" s="1">
         <v>150001</v>
@@ -7090,7 +7131,7 @@
         <v>1958</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L146" s="1">
         <v>150002</v>
@@ -7098,19 +7139,19 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147" s="1">
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L147" s="1">
         <v>150003</v>
@@ -7118,13 +7159,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B148" s="1">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>59</v>
@@ -7135,13 +7176,13 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B149" s="1">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>59</v>
@@ -7164,13 +7205,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B150" s="1">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E150" s="1">
         <v>1961</v>
@@ -7181,13 +7222,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B151" s="1">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E151" s="1">
         <v>1966</v>
@@ -7198,19 +7239,19 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B152" s="1">
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E152" s="1">
         <v>1971</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L152" s="1">
         <v>150008</v>
@@ -7218,19 +7259,19 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B153" s="1">
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E153" s="1">
         <v>1979</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L153" s="1">
         <v>150009</v>
@@ -7238,13 +7279,13 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B154" s="1">
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>59</v>
@@ -7255,13 +7296,13 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B155" s="1">
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E155" s="1">
         <v>1959</v>
@@ -7272,13 +7313,13 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B156" s="1">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>59</v>
@@ -7289,19 +7330,19 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B157" s="1">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E157" s="1">
         <v>1959</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L157" s="1">
         <v>150013</v>
@@ -7309,13 +7350,13 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B158" s="1">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>59</v>
@@ -7329,13 +7370,13 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B159" s="1">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E159" s="1">
         <v>1930</v>
@@ -7350,7 +7391,7 @@
         <v>59</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L159" s="1">
         <v>150016</v>
@@ -7358,13 +7399,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B160" s="1">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>59</v>
@@ -7378,13 +7419,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B161" s="1">
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E161" s="1">
         <v>1947</v>
@@ -7395,13 +7436,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B162" s="1">
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>59</v>
@@ -7424,13 +7465,13 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B163" s="1">
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E163" s="1">
         <v>1940</v>
@@ -7439,7 +7480,7 @@
         <v>59</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>59</v>
@@ -7453,13 +7494,13 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B164" s="1">
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E164" s="1">
         <v>1940</v>
@@ -7470,19 +7511,19 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B165" s="1">
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E165" s="1">
         <v>1948</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L165" s="1">
         <v>150023</v>
@@ -7490,13 +7531,13 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B166" s="1">
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E166" s="1">
         <v>1938</v>
@@ -7590,6 +7631,9 @@
       <c r="E170" s="1">
         <v>1977</v>
       </c>
+      <c r="G170" s="8" t="s">
+        <v>781</v>
+      </c>
       <c r="J170" s="1">
         <v>150001</v>
       </c>
@@ -7611,6 +7655,9 @@
       <c r="E171" s="1">
         <v>1991</v>
       </c>
+      <c r="G171" s="8" t="s">
+        <v>782</v>
+      </c>
       <c r="J171" s="1">
         <v>150001</v>
       </c>
@@ -7705,7 +7752,7 @@
         <v>52</v>
       </c>
       <c r="D175" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E175" s="1">
         <v>3</v>
@@ -7714,7 +7761,7 @@
         <v>150003</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L175"/>
     </row>
@@ -7729,7 +7776,7 @@
         <v>52</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E176" s="1">
         <v>4</v>
@@ -7738,19 +7785,19 @@
         <v>150003</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L176"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B177" s="1">
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -7759,18 +7806,18 @@
         <v>150003</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
@@ -7779,7 +7826,7 @@
         <v>150003</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -7793,7 +7840,7 @@
         <v>52</v>
       </c>
       <c r="D179" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E179" s="1">
         <v>1980</v>
@@ -7802,7 +7849,7 @@
         <v>150004</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L179"/>
     </row>
@@ -7817,7 +7864,7 @@
         <v>52</v>
       </c>
       <c r="D180" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>59</v>
@@ -7826,25 +7873,25 @@
         <v>59</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J180" s="1">
         <v>150004</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L180"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B181" s="1">
         <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E181" s="1">
         <v>1988</v>
@@ -7856,7 +7903,7 @@
         <v>150004</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L181"/>
     </row>
@@ -7871,7 +7918,7 @@
         <v>52</v>
       </c>
       <c r="D182" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E182" s="1">
         <v>1983</v>
@@ -7880,19 +7927,19 @@
         <v>150005</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L182"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B183" s="1">
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -7901,7 +7948,7 @@
         <v>150005</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L183"/>
     </row>
@@ -7925,7 +7972,7 @@
         <v>150006</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L184"/>
     </row>
@@ -7940,7 +7987,7 @@
         <v>52</v>
       </c>
       <c r="D185" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>59</v>
@@ -7949,25 +7996,25 @@
         <v>59</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J185" s="1">
         <v>150006</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L185"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B186" s="1">
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E186" s="1">
         <v>1984</v>
@@ -7976,19 +8023,19 @@
         <v>150006</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L186"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B187" s="1">
         <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E187" s="1">
         <v>1991</v>
@@ -7997,7 +8044,7 @@
         <v>150006</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L187"/>
     </row>
@@ -8012,7 +8059,7 @@
         <v>52</v>
       </c>
       <c r="D188" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E188" s="1">
         <v>2000</v>
@@ -8021,19 +8068,19 @@
         <v>150007</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L188"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B189" s="1">
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E189" s="1">
         <v>1991</v>
@@ -8042,19 +8089,19 @@
         <v>150007</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L189"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B190" s="1">
         <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E190" s="1">
         <v>1994</v>
@@ -8063,19 +8110,19 @@
         <v>150007</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L190"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B191" s="1">
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E191" s="1">
         <v>1995</v>
@@ -8084,7 +8131,7 @@
         <v>150007</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L191"/>
     </row>
@@ -8099,7 +8146,7 @@
         <v>52</v>
       </c>
       <c r="D192" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E192" s="1">
         <v>1993</v>
@@ -8108,7 +8155,7 @@
         <v>150008</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L192"/>
     </row>
@@ -8123,7 +8170,7 @@
         <v>52</v>
       </c>
       <c r="D193" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E193" s="1">
         <v>1997</v>
@@ -8132,7 +8179,7 @@
         <v>150008</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L193"/>
     </row>
@@ -8147,7 +8194,7 @@
         <v>52</v>
       </c>
       <c r="D194" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E194" s="1">
         <v>2010</v>
@@ -8156,19 +8203,19 @@
         <v>150009</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L194"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B195" s="1">
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E195" s="1">
         <v>2007</v>
@@ -8177,7 +8224,7 @@
         <v>150009</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L195"/>
     </row>
@@ -8192,7 +8239,7 @@
         <v>52</v>
       </c>
       <c r="D196" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E196" s="1">
         <v>1979</v>
@@ -8201,7 +8248,7 @@
         <v>150011</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L196"/>
     </row>
@@ -8216,7 +8263,7 @@
         <v>52</v>
       </c>
       <c r="D197" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E197" s="1">
         <v>1984</v>
@@ -8225,19 +8272,19 @@
         <v>150011</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L197"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B198" s="1">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E198" s="1">
         <v>1982</v>
@@ -8246,7 +8293,7 @@
         <v>150011</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L198"/>
     </row>
@@ -8261,7 +8308,7 @@
         <v>52</v>
       </c>
       <c r="D199" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E199" s="1">
         <v>1989</v>
@@ -8270,19 +8317,19 @@
         <v>150012</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L199"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B200" s="1">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E200" s="1">
         <v>1995</v>
@@ -8291,7 +8338,7 @@
         <v>150012</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L200"/>
     </row>
@@ -8306,7 +8353,7 @@
         <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E201" s="1">
         <v>1998</v>
@@ -8315,19 +8362,19 @@
         <v>150013</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L201"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E202" s="1">
         <v>1986</v>
@@ -8336,7 +8383,7 @@
         <v>150013</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L202"/>
     </row>
@@ -8351,7 +8398,7 @@
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E203" s="1">
         <v>1952</v>
@@ -8366,13 +8413,13 @@
         <v>59</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J203" s="1">
         <v>150015</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L203"/>
     </row>
@@ -8387,7 +8434,7 @@
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E204" s="1">
         <v>1954</v>
@@ -8396,7 +8443,7 @@
         <v>150015</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L204"/>
     </row>
@@ -8411,31 +8458,31 @@
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E205" s="1">
         <v>1964</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J205" s="1">
         <v>150015</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L205"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B206" s="1">
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E206" s="1">
         <v>1950</v>
@@ -8447,19 +8494,19 @@
         <v>150015</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L206"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B207" s="1">
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E207" s="1">
         <v>1965</v>
@@ -8468,24 +8515,24 @@
         <v>59</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J207" s="1">
         <v>150015</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B208" s="1">
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E208" s="1">
         <v>1961</v>
@@ -8497,18 +8544,18 @@
         <v>150015</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B209" s="1">
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E209" s="1">
         <v>1965</v>
@@ -8517,7 +8564,7 @@
         <v>150015</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
@@ -8531,7 +8578,7 @@
         <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E210" s="1">
         <v>1954</v>
@@ -8540,7 +8587,7 @@
         <v>150016</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L210"/>
     </row>
@@ -8555,7 +8602,7 @@
         <v>52</v>
       </c>
       <c r="D211" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E211" s="1">
         <v>1960</v>
@@ -8564,7 +8611,7 @@
         <v>150016</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L211"/>
     </row>
@@ -8579,7 +8626,7 @@
         <v>52</v>
       </c>
       <c r="D212" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E212" s="1">
         <v>1968</v>
@@ -8588,7 +8635,7 @@
         <v>150016</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L212"/>
     </row>
@@ -8603,7 +8650,7 @@
         <v>52</v>
       </c>
       <c r="D213" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E213" s="1">
         <v>1978</v>
@@ -8612,19 +8659,19 @@
         <v>150016</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L213"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B214" s="1">
         <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E214" s="1">
         <v>1957</v>
@@ -8636,18 +8683,18 @@
         <v>150016</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B215" s="1">
         <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E215" s="1">
         <v>1966</v>
@@ -8659,19 +8706,19 @@
         <v>150016</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L215"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B216" s="1">
         <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E216" s="1">
         <v>1977</v>
@@ -8683,7 +8730,7 @@
         <v>150016</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L216"/>
     </row>
@@ -8698,7 +8745,7 @@
         <v>52</v>
       </c>
       <c r="D217" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8707,7 +8754,7 @@
         <v>150017</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L217"/>
     </row>
@@ -8722,7 +8769,7 @@
         <v>52</v>
       </c>
       <c r="D218" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E218" s="1">
         <v>1959</v>
@@ -8731,7 +8778,7 @@
         <v>150017</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L218"/>
     </row>
@@ -8746,7 +8793,7 @@
         <v>52</v>
       </c>
       <c r="D219" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E219" s="1">
         <v>1961</v>
@@ -8755,7 +8802,7 @@
         <v>150017</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L219"/>
     </row>
@@ -8770,7 +8817,7 @@
         <v>52</v>
       </c>
       <c r="D220" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E220" s="1">
         <v>1963</v>
@@ -8779,19 +8826,19 @@
         <v>150017</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L220"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B221" s="1">
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E221" s="1">
         <v>1957</v>
@@ -8803,7 +8850,7 @@
         <v>150017</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
@@ -8817,7 +8864,7 @@
         <v>52</v>
       </c>
       <c r="D222" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E222" s="1">
         <v>1974</v>
@@ -8826,7 +8873,7 @@
         <v>150019</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L222"/>
     </row>
@@ -8841,31 +8888,31 @@
         <v>52</v>
       </c>
       <c r="D223" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E223" s="1">
         <v>1977</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J223" s="1">
         <v>150019</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L223"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B224" s="1">
         <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E224" s="1">
         <v>1979</v>
@@ -8874,19 +8921,19 @@
         <v>150019</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L224"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B225" s="1">
         <v>16</v>
       </c>
       <c r="D225" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E225" s="1">
         <v>1981</v>
@@ -8895,7 +8942,7 @@
         <v>150019</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L225"/>
     </row>
@@ -8910,7 +8957,7 @@
         <v>52</v>
       </c>
       <c r="D226" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E226" s="1">
         <v>1952</v>
@@ -8919,19 +8966,19 @@
         <v>150020</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L226"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B227" s="1">
         <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E227" s="1">
         <v>1955</v>
@@ -8940,19 +8987,19 @@
         <v>150020</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L227"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B228" s="1">
         <v>16</v>
       </c>
       <c r="D228" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E228" s="1">
         <v>1960</v>
@@ -8961,19 +9008,19 @@
         <v>150020</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L228"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B229" s="1">
         <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E229" s="1">
         <v>1965</v>
@@ -8982,7 +9029,7 @@
         <v>150020</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L229"/>
     </row>
@@ -8997,7 +9044,7 @@
         <v>52</v>
       </c>
       <c r="D230" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E230" s="1">
         <v>1960</v>
@@ -9006,7 +9053,7 @@
         <v>150021</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L230"/>
     </row>
@@ -9021,7 +9068,7 @@
         <v>52</v>
       </c>
       <c r="D231" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E231" s="1">
         <v>1964</v>
@@ -9030,7 +9077,7 @@
         <v>150021</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L231"/>
     </row>
@@ -9045,7 +9092,7 @@
         <v>52</v>
       </c>
       <c r="D232" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E232" s="1">
         <v>1974</v>
@@ -9057,19 +9104,19 @@
         <v>150021</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L232"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B233" s="1">
         <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E233" s="1">
         <v>1953</v>
@@ -9081,19 +9128,19 @@
         <v>150021</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L233"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B234" s="1">
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E234" s="1">
         <v>1961</v>
@@ -9105,19 +9152,19 @@
         <v>150021</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L234"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B235" s="1">
         <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E235" s="1">
         <v>1963</v>
@@ -9129,19 +9176,19 @@
         <v>150021</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L235"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B236" s="1">
         <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E236" s="1">
         <v>1968</v>
@@ -9153,19 +9200,19 @@
         <v>150021</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L236"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B237" s="1">
         <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E237" s="1">
         <v>1969</v>
@@ -9177,19 +9224,19 @@
         <v>150021</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L237"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B238" s="1">
         <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E238" s="1">
         <v>1971</v>
@@ -9201,7 +9248,7 @@
         <v>150021</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L238"/>
     </row>
@@ -9216,7 +9263,7 @@
         <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E239" s="1">
         <v>1966</v>
@@ -9225,7 +9272,7 @@
         <v>150022</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L239"/>
     </row>
@@ -9240,7 +9287,7 @@
         <v>52</v>
       </c>
       <c r="D240" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E240" s="1">
         <v>1974</v>
@@ -9249,19 +9296,19 @@
         <v>150022</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L240"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B241" s="1">
         <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E241" s="1">
         <v>1961</v>
@@ -9270,19 +9317,19 @@
         <v>150022</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L241"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B242" s="1">
         <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E242" s="1">
         <v>1964</v>
@@ -9291,19 +9338,19 @@
         <v>150022</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L242"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B243" s="1">
         <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E243" s="1">
         <v>1969</v>
@@ -9312,19 +9359,19 @@
         <v>150022</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L243"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B244" s="1">
         <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E244" s="1">
         <v>1972</v>
@@ -9333,19 +9380,19 @@
         <v>150022</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L244"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B245" s="1">
         <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E245" s="1">
         <v>1976</v>
@@ -9354,7 +9401,7 @@
         <v>150022</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L245"/>
     </row>
@@ -9369,7 +9416,7 @@
         <v>52</v>
       </c>
       <c r="D246" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E246" s="1">
         <v>1970</v>
@@ -9378,7 +9425,7 @@
         <v>150023</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L246"/>
     </row>
@@ -9393,7 +9440,7 @@
         <v>52</v>
       </c>
       <c r="D247" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E247" s="1">
         <v>1981</v>
@@ -9402,13 +9449,13 @@
         <v>150023</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L247"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B248" s="1">
         <v>16</v>
@@ -9423,7 +9470,7 @@
         <v>150023</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L248"/>
     </row>
@@ -9438,7 +9485,7 @@
         <v>52</v>
       </c>
       <c r="D249" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E249" s="1">
         <v>1960</v>
@@ -9447,7 +9494,7 @@
         <v>150024</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L249"/>
     </row>
@@ -9462,7 +9509,7 @@
         <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E250" s="1">
         <v>1963</v>
@@ -9471,19 +9518,19 @@
         <v>150024</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L250"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B251" s="1">
         <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E251" s="1">
         <v>1962</v>
@@ -9492,18 +9539,18 @@
         <v>150024</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B252" s="1">
         <v>16</v>
       </c>
       <c r="D252" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>59</v>
@@ -9512,7 +9559,7 @@
         <v>150024</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
@@ -9529,7 +9576,7 @@
         <v>1983</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -9551,7 +9598,7 @@
         <v>1985</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -9573,7 +9620,7 @@
         <v>1989</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -9595,7 +9642,7 @@
         <v>1983</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -9624,13 +9671,13 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B258" s="1">
         <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>59</v>
@@ -9642,13 +9689,13 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B259" s="1">
         <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>59</v>
@@ -9660,13 +9707,13 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B260" s="1">
         <v>16</v>
       </c>
       <c r="D260" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E260" s="1">
         <v>1981</v>
@@ -9677,13 +9724,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B261" s="1">
         <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E261" s="1">
         <v>1981</v>
@@ -9694,19 +9741,19 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B262" s="1">
         <v>16</v>
       </c>
       <c r="D262" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L262" s="1">
         <v>160011</v>
@@ -9714,13 +9761,13 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B263" s="1">
         <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>59</v>
@@ -9731,13 +9778,13 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B264" s="1">
         <v>16</v>
       </c>
       <c r="D264" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E264" s="1">
         <v>1995</v>
@@ -9748,13 +9795,13 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B265" s="1">
         <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E265" s="1">
         <v>1985</v>
@@ -9765,13 +9812,13 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B266" s="1">
         <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E266" s="1">
         <v>1989</v>
@@ -9782,13 +9829,13 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B267" s="1">
         <v>16</v>
       </c>
       <c r="D267" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E267" s="1">
         <v>1990</v>
@@ -9799,13 +9846,13 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B268" s="1">
         <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E268" s="1">
         <v>1953</v>
@@ -9816,13 +9863,13 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B269" s="1">
         <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E269" s="1">
         <v>1962</v>
@@ -9833,13 +9880,13 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B270" s="1">
         <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E270" s="1">
         <v>1977</v>
@@ -9852,13 +9899,13 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B271" s="1">
         <v>16</v>
       </c>
       <c r="D271" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E271" s="1">
         <v>1958</v>
@@ -9869,13 +9916,13 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B272" s="1">
         <v>16</v>
       </c>
       <c r="D272" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E272" s="1">
         <v>1962</v>
@@ -9886,13 +9933,13 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B273" s="1">
         <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E273" s="1">
         <v>1975</v>
@@ -9903,19 +9950,19 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B274" s="1">
         <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E274" s="1">
         <v>1976</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L274" s="1">
         <v>160024</v>
@@ -9923,13 +9970,13 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B275" s="1">
         <v>16</v>
       </c>
       <c r="D275" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E275" s="1">
         <v>1951</v>
@@ -9940,13 +9987,13 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B276" s="1">
         <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E276" s="1">
         <v>1963</v>
@@ -9957,13 +10004,13 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B277" s="1">
         <v>16</v>
       </c>
       <c r="D277" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L277" s="1">
         <v>160027</v>
@@ -9971,13 +10018,13 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B278" s="1">
         <v>16</v>
       </c>
       <c r="D278" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E278" s="1">
         <v>1972</v>
@@ -9988,13 +10035,13 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B279" s="1">
         <v>16</v>
       </c>
       <c r="D279" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E279" s="1">
         <v>1979</v>
@@ -10005,19 +10052,19 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B280" s="1">
         <v>16</v>
       </c>
       <c r="D280" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E280" s="1">
         <v>1989</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L280" s="1">
         <v>160030</v>
@@ -10025,13 +10072,13 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B281" s="1">
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E281" s="1">
         <v>1954</v>
@@ -10042,19 +10089,19 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B282" s="1">
         <v>16</v>
       </c>
       <c r="D282" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E282" s="1">
         <v>1960</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L282" s="1">
         <v>160032</v>
@@ -10062,13 +10109,13 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B283" s="1">
         <v>16</v>
       </c>
       <c r="D283" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E283" s="1">
         <v>1963</v>
@@ -10079,13 +10126,13 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B284" s="1">
         <v>16</v>
       </c>
       <c r="D284" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E284" s="1">
         <v>1966</v>
@@ -10096,13 +10143,13 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B285" s="1">
         <v>16</v>
       </c>
       <c r="D285" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E285" s="1">
         <v>1980</v>
@@ -10113,13 +10160,13 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B286" s="1">
         <v>16</v>
       </c>
       <c r="D286" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>59</v>
@@ -10130,13 +10177,13 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B287" s="1">
         <v>16</v>
       </c>
       <c r="D287" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E287" s="1">
         <v>1985</v>
@@ -10147,19 +10194,19 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B288" s="1">
         <v>16</v>
       </c>
       <c r="D288" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E288" s="1">
         <v>1963</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L288" s="1">
         <v>160038</v>
@@ -10167,13 +10214,13 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B289" s="1">
         <v>16</v>
       </c>
       <c r="D289" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E289" s="1">
         <v>1975</v>
@@ -10184,13 +10231,13 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B290" s="1">
         <v>16</v>
       </c>
       <c r="D290" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E290" s="1">
         <v>1973</v>
@@ -10419,13 +10466,13 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B301" s="1">
         <v>17</v>
       </c>
       <c r="D301" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>59</v>
@@ -10434,18 +10481,18 @@
         <v>160006</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B302" s="1">
         <v>17</v>
       </c>
       <c r="D302" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>59</v>
@@ -10454,7 +10501,7 @@
         <v>160006</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -10468,7 +10515,7 @@
         <v>52</v>
       </c>
       <c r="D303" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>59</v>
@@ -10477,12 +10524,12 @@
         <v>160007</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B304" s="1">
         <v>17</v>
@@ -10497,18 +10544,18 @@
         <v>160007</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B305" s="1">
         <v>17</v>
       </c>
       <c r="D305" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>59</v>
@@ -10517,7 +10564,7 @@
         <v>160007</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
@@ -10531,7 +10578,7 @@
         <v>52</v>
       </c>
       <c r="D306" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E306" s="1">
         <v>2012</v>
@@ -10540,7 +10587,7 @@
         <v>160008</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
@@ -10554,7 +10601,7 @@
         <v>52</v>
       </c>
       <c r="D307" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E307" s="1">
         <v>2014</v>
@@ -10563,18 +10610,18 @@
         <v>160008</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B308" s="1">
         <v>17</v>
       </c>
       <c r="D308" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>59</v>
@@ -10583,7 +10630,7 @@
         <v>160008</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -10597,7 +10644,7 @@
         <v>52</v>
       </c>
       <c r="D309" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E309" s="1">
         <v>2018</v>
@@ -10606,18 +10653,18 @@
         <v>160010</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B310" s="1">
         <v>17</v>
       </c>
       <c r="D310" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E310" s="1">
         <v>2018</v>
@@ -10626,41 +10673,41 @@
         <v>160010</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B311" s="1">
         <v>17</v>
       </c>
       <c r="D311" t="s">
+        <v>515</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G311" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G311" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="J311" s="1">
         <v>160011</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B312" s="1">
         <v>17</v>
       </c>
       <c r="D312" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E312" s="1">
         <v>2023</v>
@@ -10669,7 +10716,7 @@
         <v>160011</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
@@ -10683,7 +10730,7 @@
         <v>52</v>
       </c>
       <c r="D313" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E313" s="1">
         <v>2018</v>
@@ -10692,7 +10739,7 @@
         <v>160013</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
@@ -10706,7 +10753,7 @@
         <v>52</v>
       </c>
       <c r="D314" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E314" s="1">
         <v>2023</v>
@@ -10715,7 +10762,7 @@
         <v>160013</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -10729,7 +10776,7 @@
         <v>52</v>
       </c>
       <c r="D315" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E315" s="1">
         <v>2007</v>
@@ -10738,18 +10785,18 @@
         <v>160015</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B316" s="1">
         <v>17</v>
       </c>
       <c r="D316" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E316" s="1">
         <v>2005</v>
@@ -10758,18 +10805,18 @@
         <v>160015</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B317" s="1">
         <v>17</v>
       </c>
       <c r="D317" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E317" s="1">
         <v>2015</v>
@@ -10778,7 +10825,7 @@
         <v>160015</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -10792,7 +10839,7 @@
         <v>52</v>
       </c>
       <c r="D318" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E318" s="1">
         <v>2011</v>
@@ -10801,18 +10848,18 @@
         <v>160016</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B319" s="1">
         <v>17</v>
       </c>
       <c r="D319" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E319" s="1">
         <v>2015</v>
@@ -10821,7 +10868,7 @@
         <v>160016</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
@@ -10835,7 +10882,7 @@
         <v>52</v>
       </c>
       <c r="D320" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E320" s="1">
         <v>2013</v>
@@ -10844,18 +10891,18 @@
         <v>160017</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B321" s="1">
         <v>17</v>
       </c>
       <c r="D321" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E321" s="1">
         <v>2017</v>
@@ -10864,7 +10911,7 @@
         <v>160017</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
@@ -10878,7 +10925,7 @@
         <v>52</v>
       </c>
       <c r="D322" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E322" s="1">
         <v>1991</v>
@@ -10887,18 +10934,18 @@
         <v>160018</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B323" s="1">
         <v>17</v>
       </c>
       <c r="D323" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>59</v>
@@ -10907,18 +10954,18 @@
         <v>160018</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B324" s="1">
         <v>17</v>
       </c>
       <c r="D324" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>59</v>
@@ -10927,18 +10974,18 @@
         <v>160018</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B325" s="1">
         <v>17</v>
       </c>
       <c r="D325" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>59</v>
@@ -10947,7 +10994,7 @@
         <v>160018</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
@@ -10961,7 +11008,7 @@
         <v>52</v>
       </c>
       <c r="D326" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E326" s="1">
         <v>1992</v>
@@ -10970,18 +11017,18 @@
         <v>160019</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B327" s="1">
         <v>17</v>
       </c>
       <c r="D327" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E327" s="1">
         <v>1982</v>
@@ -10990,18 +11037,18 @@
         <v>160019</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B328" s="1">
         <v>17</v>
       </c>
       <c r="D328" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E328" s="1">
         <v>1984</v>
@@ -11010,18 +11057,18 @@
         <v>160019</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B329" s="1">
         <v>17</v>
       </c>
       <c r="D329" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E329" s="1">
         <v>1987</v>
@@ -11030,7 +11077,7 @@
         <v>160019</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
@@ -11044,7 +11091,7 @@
         <v>52</v>
       </c>
       <c r="D330" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E330" s="1">
         <v>1997</v>
@@ -11053,18 +11100,18 @@
         <v>160020</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B331" s="1">
         <v>17</v>
       </c>
       <c r="D331" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E331" s="1">
         <v>2000</v>
@@ -11073,18 +11120,18 @@
         <v>160020</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B332" s="1">
         <v>17</v>
       </c>
       <c r="D332" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E332" s="1">
         <v>2005</v>
@@ -11093,7 +11140,7 @@
         <v>160020</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
@@ -11119,7 +11166,7 @@
         <v>160021</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
@@ -11133,7 +11180,7 @@
         <v>52</v>
       </c>
       <c r="D334" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E334" s="1">
         <v>1983</v>
@@ -11142,18 +11189,18 @@
         <v>160021</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B335" s="1">
         <v>17</v>
       </c>
       <c r="D335" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E335" s="1">
         <v>1979</v>
@@ -11162,7 +11209,7 @@
         <v>160021</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
@@ -11176,7 +11223,7 @@
         <v>52</v>
       </c>
       <c r="D336" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E336" s="1">
         <v>2008</v>
@@ -11185,18 +11232,18 @@
         <v>160023</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B337" s="1">
         <v>17</v>
       </c>
       <c r="D337" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E337" s="1">
         <v>1994</v>
@@ -11205,18 +11252,18 @@
         <v>160023</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B338" s="1">
         <v>17</v>
       </c>
       <c r="D338" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>59</v>
@@ -11225,13 +11272,16 @@
         <v>59</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>774</v>
       </c>
       <c r="J338" s="1">
         <v>160023</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
@@ -11245,7 +11295,7 @@
         <v>52</v>
       </c>
       <c r="D339" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E339" s="1">
         <v>2006</v>
@@ -11254,18 +11304,18 @@
         <v>160024</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B340" s="1">
         <v>17</v>
       </c>
       <c r="D340" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E340" s="1">
         <v>2002</v>
@@ -11274,7 +11324,7 @@
         <v>160024</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
@@ -11288,7 +11338,7 @@
         <v>52</v>
       </c>
       <c r="D341" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E341" s="1">
         <v>1982</v>
@@ -11297,7 +11347,7 @@
         <v>160025</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
@@ -11311,7 +11361,7 @@
         <v>52</v>
       </c>
       <c r="D342" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E342" s="1">
         <v>1983</v>
@@ -11320,7 +11370,7 @@
         <v>160025</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
@@ -11334,7 +11384,7 @@
         <v>52</v>
       </c>
       <c r="D343" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E343" s="1">
         <v>1987</v>
@@ -11343,18 +11393,18 @@
         <v>160025</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B344" s="1">
         <v>17</v>
       </c>
       <c r="D344" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E344" s="1">
         <v>1984</v>
@@ -11363,7 +11413,7 @@
         <v>160025</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
@@ -11377,7 +11427,7 @@
         <v>52</v>
       </c>
       <c r="D345" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E345" s="1">
         <v>1984</v>
@@ -11386,7 +11436,7 @@
         <v>160026</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
@@ -11400,7 +11450,7 @@
         <v>52</v>
       </c>
       <c r="D346" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E346" s="1">
         <v>1990</v>
@@ -11409,7 +11459,7 @@
         <v>160027</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
@@ -11423,7 +11473,7 @@
         <v>52</v>
       </c>
       <c r="D347" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E347" s="1">
         <v>1994</v>
@@ -11432,18 +11482,18 @@
         <v>160027</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B348" s="1">
         <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E348" s="1">
         <v>1996</v>
@@ -11452,7 +11502,7 @@
         <v>160027</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
@@ -11466,7 +11516,7 @@
         <v>52</v>
       </c>
       <c r="D349" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E349" s="1">
         <v>1994</v>
@@ -11475,18 +11525,18 @@
         <v>160028</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
       </c>
       <c r="D350" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E350" s="1">
         <v>1992</v>
@@ -11495,7 +11545,7 @@
         <v>160028</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
@@ -11509,7 +11559,7 @@
         <v>52</v>
       </c>
       <c r="D351" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E351" s="1">
         <v>2005</v>
@@ -11518,7 +11568,7 @@
         <v>160029</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
@@ -11532,7 +11582,7 @@
         <v>52</v>
       </c>
       <c r="D352" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E352" s="1">
         <v>2008</v>
@@ -11541,18 +11591,18 @@
         <v>160029</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
       <c r="D353" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E353" s="1">
         <v>2016</v>
@@ -11561,18 +11611,18 @@
         <v>160029</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
       <c r="D354" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E354" s="1">
         <v>2011</v>
@@ -11581,7 +11631,7 @@
         <v>160030</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
@@ -11595,7 +11645,7 @@
         <v>52</v>
       </c>
       <c r="D355" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E355" s="1">
         <v>1975</v>
@@ -11604,7 +11654,7 @@
         <v>160031</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
@@ -11618,7 +11668,7 @@
         <v>52</v>
       </c>
       <c r="D356" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E356" s="1">
         <v>1978</v>
@@ -11627,18 +11677,18 @@
         <v>160031</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
       <c r="D357" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E357" s="1">
         <v>1981</v>
@@ -11647,18 +11697,18 @@
         <v>160031</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E358" s="1">
         <v>1981</v>
@@ -11667,18 +11717,18 @@
         <v>160031</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
       </c>
       <c r="D359" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E359" s="1">
         <v>1986</v>
@@ -11687,7 +11737,7 @@
         <v>160031</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
@@ -11701,7 +11751,7 @@
         <v>52</v>
       </c>
       <c r="D360" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E360" s="1">
         <v>1997</v>
@@ -11710,18 +11760,18 @@
         <v>160032</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E361" s="1">
         <v>1992</v>
@@ -11730,7 +11780,7 @@
         <v>160032</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
@@ -11744,7 +11794,7 @@
         <v>52</v>
       </c>
       <c r="D362" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E362" s="1">
         <v>1987</v>
@@ -11753,7 +11803,7 @@
         <v>160033</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
@@ -11767,7 +11817,7 @@
         <v>52</v>
       </c>
       <c r="D363" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E363" s="1">
         <v>1998</v>
@@ -11776,7 +11826,7 @@
         <v>160033</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -11790,7 +11840,7 @@
         <v>52</v>
       </c>
       <c r="D364" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E364" s="1">
         <v>1992</v>
@@ -11799,18 +11849,18 @@
         <v>160034</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E365" s="1">
         <v>1996</v>
@@ -11819,7 +11869,7 @@
         <v>160034</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
@@ -11833,7 +11883,7 @@
         <v>52</v>
       </c>
       <c r="D366" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E366" s="1">
         <v>2004</v>
@@ -11842,7 +11892,7 @@
         <v>160035</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -11856,7 +11906,7 @@
         <v>52</v>
       </c>
       <c r="D367" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E367" s="1">
         <v>2005</v>
@@ -11865,18 +11915,18 @@
         <v>160035</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E368" s="1">
         <v>2009</v>
@@ -11885,7 +11935,7 @@
         <v>160035</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -11899,7 +11949,7 @@
         <v>52</v>
       </c>
       <c r="D369" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E369" s="1">
         <v>2002</v>
@@ -11908,7 +11958,7 @@
         <v>160036</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -11922,7 +11972,7 @@
         <v>52</v>
       </c>
       <c r="D370" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E370" s="1">
         <v>2006</v>
@@ -11931,18 +11981,18 @@
         <v>160036</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E371" s="1">
         <v>2012</v>
@@ -11951,18 +12001,18 @@
         <v>160037</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B372" s="1">
         <v>17</v>
       </c>
       <c r="D372" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E372" s="1">
         <v>2014</v>
@@ -11971,7 +12021,7 @@
         <v>160037</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -11985,7 +12035,7 @@
         <v>52</v>
       </c>
       <c r="D373" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E373" s="1">
         <v>1982</v>
@@ -11994,7 +12044,7 @@
         <v>160038</v>
       </c>
       <c r="K373" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -12008,7 +12058,7 @@
         <v>52</v>
       </c>
       <c r="D374" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E374" s="1">
         <v>1982</v>
@@ -12017,18 +12067,18 @@
         <v>160038</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B375" s="1">
         <v>17</v>
       </c>
       <c r="D375" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E375" s="1">
         <v>1986</v>
@@ -12037,7 +12087,7 @@
         <v>160038</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -12051,7 +12101,7 @@
         <v>52</v>
       </c>
       <c r="D376" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E376" s="1">
         <v>2005</v>
@@ -12060,18 +12110,18 @@
         <v>160039</v>
       </c>
       <c r="K376" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E377" s="1">
         <v>1996</v>
@@ -12080,18 +12130,18 @@
         <v>160039</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E378" s="1">
         <v>1999</v>
@@ -12100,18 +12150,18 @@
         <v>160039</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B379" s="1">
         <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E379" s="1">
         <v>2001</v>
@@ -12120,7 +12170,7 @@
         <v>160039</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -12134,7 +12184,7 @@
         <v>52</v>
       </c>
       <c r="D380" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E380" s="1">
         <v>2003</v>
@@ -12143,18 +12193,18 @@
         <v>160042</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>59</v>
@@ -12163,7 +12213,7 @@
         <v>160042</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -12177,7 +12227,7 @@
         <v>52</v>
       </c>
       <c r="D382" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E382" s="1">
         <v>1987</v>
@@ -12197,7 +12247,7 @@
         <v>52</v>
       </c>
       <c r="D383" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E383" s="1">
         <v>1989</v>
@@ -12208,13 +12258,13 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
       </c>
       <c r="D384" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E384" s="1">
         <v>1991</v>
@@ -12225,13 +12275,13 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B385" s="1">
         <v>17</v>
       </c>
       <c r="D385" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E385" s="1">
         <v>1992</v>
@@ -12242,13 +12292,13 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B386" s="1">
         <v>17</v>
       </c>
       <c r="D386" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E386" s="1">
         <v>1983</v>
@@ -12259,13 +12309,13 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B387" s="1">
         <v>17</v>
       </c>
       <c r="D387" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E387" s="1">
         <v>1979</v>
@@ -12276,13 +12326,13 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B388" s="1">
         <v>17</v>
       </c>
       <c r="D388" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E388" s="1">
         <v>1983</v>
@@ -12293,13 +12343,13 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B389" s="1">
         <v>17</v>
       </c>
       <c r="D389" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>59</v>
@@ -12310,13 +12360,13 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B390" s="1">
         <v>17</v>
       </c>
       <c r="D390" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E390" s="1">
         <v>1991</v>
@@ -12327,13 +12377,13 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B391" s="1">
         <v>17</v>
       </c>
       <c r="D391" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E391" s="1">
         <v>1983</v>
@@ -12344,13 +12394,13 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B392" s="1">
         <v>17</v>
       </c>
       <c r="D392" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E392" s="1">
         <v>1987</v>
@@ -12361,13 +12411,13 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B393" s="1">
         <v>17</v>
       </c>
       <c r="D393" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E393" s="1">
         <v>1990</v>
@@ -12378,13 +12428,13 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B394" s="1">
         <v>17</v>
       </c>
       <c r="D394" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E394" s="1">
         <v>1984</v>
@@ -12395,13 +12445,13 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B395" s="1">
         <v>17</v>
       </c>
       <c r="D395" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E395" s="1">
         <v>1993</v>
@@ -12412,14 +12462,14 @@
     </row>
     <row r="396" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B396" s="1">
         <v>17</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E396" s="1">
         <v>1991</v>
@@ -12436,13 +12486,13 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B397" s="1">
         <v>17</v>
       </c>
       <c r="D397" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E397" s="1">
         <v>1987</v>
@@ -12462,7 +12512,7 @@
         <v>52</v>
       </c>
       <c r="D398" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E398" s="1">
         <v>2019</v>
@@ -12471,18 +12521,18 @@
         <v>170006</v>
       </c>
       <c r="K398" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B399" s="1">
         <v>18</v>
       </c>
       <c r="D399" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E399" s="1">
         <v>2015</v>
@@ -12491,7 +12541,7 @@
         <v>170006</v>
       </c>
       <c r="K399" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
@@ -12505,7 +12555,7 @@
         <v>52</v>
       </c>
       <c r="D400" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E400" s="1">
         <v>2014</v>
@@ -12514,7 +12564,7 @@
         <v>170007</v>
       </c>
       <c r="K400" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
@@ -12528,7 +12578,7 @@
         <v>52</v>
       </c>
       <c r="D401" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E401" s="1">
         <v>2016</v>
@@ -12537,18 +12587,18 @@
         <v>170007</v>
       </c>
       <c r="K401" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B402" s="1">
         <v>18</v>
       </c>
       <c r="D402" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E402" s="1">
         <v>2018</v>
@@ -12557,7 +12607,7 @@
         <v>170007</v>
       </c>
       <c r="K402" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
@@ -12571,7 +12621,7 @@
         <v>52</v>
       </c>
       <c r="D403" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E403" s="1">
         <v>2012</v>
@@ -12580,18 +12630,18 @@
         <v>170012</v>
       </c>
       <c r="K403" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B404" s="1">
         <v>18</v>
       </c>
       <c r="D404" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E404" s="1">
         <v>2006</v>
@@ -12600,18 +12650,18 @@
         <v>170012</v>
       </c>
       <c r="K404" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B405" s="1">
         <v>18</v>
       </c>
       <c r="D405" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E405" s="1">
         <v>2007</v>
@@ -12620,7 +12670,7 @@
         <v>170012</v>
       </c>
       <c r="K405" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
@@ -12634,7 +12684,7 @@
         <v>52</v>
       </c>
       <c r="D406" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E406" s="1">
         <v>2005</v>
@@ -12643,18 +12693,18 @@
         <v>170013</v>
       </c>
       <c r="K406" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B407" s="1">
         <v>18</v>
       </c>
       <c r="D407" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E407" s="1">
         <v>2008</v>
@@ -12663,7 +12713,7 @@
         <v>170013</v>
       </c>
       <c r="K407" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
@@ -12677,7 +12727,7 @@
         <v>52</v>
       </c>
       <c r="D408" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E408" s="1">
         <v>2009</v>
@@ -12686,7 +12736,7 @@
         <v>170027</v>
       </c>
       <c r="K408" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
@@ -12700,7 +12750,7 @@
         <v>52</v>
       </c>
       <c r="D409" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E409" s="1">
         <v>2015</v>
@@ -12709,18 +12759,18 @@
         <v>170027</v>
       </c>
       <c r="K409" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B410" s="1">
         <v>18</v>
       </c>
       <c r="D410" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E410" s="1">
         <v>2017</v>
@@ -12729,18 +12779,18 @@
         <v>170027</v>
       </c>
       <c r="K410" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B411" s="1">
         <v>18</v>
       </c>
       <c r="D411" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E411" s="1">
         <v>2022</v>
@@ -12749,7 +12799,7 @@
         <v>170028</v>
       </c>
       <c r="K411" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
@@ -12763,7 +12813,7 @@
         <v>52</v>
       </c>
       <c r="D412" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E412" s="1">
         <v>2011</v>
@@ -12772,18 +12822,18 @@
         <v>170029</v>
       </c>
       <c r="K412" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B413" s="1">
         <v>18</v>
       </c>
       <c r="D413" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E413" s="1">
         <v>2014</v>
@@ -12792,7 +12842,7 @@
         <v>170029</v>
       </c>
       <c r="K413" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
@@ -12806,7 +12856,7 @@
         <v>52</v>
       </c>
       <c r="D414" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E414" s="1">
         <v>2005</v>
@@ -12815,18 +12865,18 @@
         <v>170032</v>
       </c>
       <c r="K414" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B415" s="1">
         <v>18</v>
       </c>
       <c r="D415" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E415" s="1">
         <v>2007</v>
@@ -12835,7 +12885,7 @@
         <v>170032</v>
       </c>
       <c r="K415" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
@@ -12849,7 +12899,7 @@
         <v>52</v>
       </c>
       <c r="D416" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E416" s="1">
         <v>2013</v>
@@ -12858,18 +12908,18 @@
         <v>170033</v>
       </c>
       <c r="K416" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B417" s="1">
         <v>18</v>
       </c>
       <c r="D417" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E417" s="1">
         <v>2012</v>
@@ -12878,7 +12928,7 @@
         <v>170033</v>
       </c>
       <c r="K417" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
@@ -12892,7 +12942,7 @@
         <v>52</v>
       </c>
       <c r="D418" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E418" s="1">
         <v>2013</v>
@@ -12901,7 +12951,7 @@
         <v>170034</v>
       </c>
       <c r="K418" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
@@ -12915,7 +12965,7 @@
         <v>52</v>
       </c>
       <c r="D419" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E419" s="1">
         <v>2016</v>
@@ -12924,7 +12974,7 @@
         <v>170034</v>
       </c>
       <c r="K419" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
@@ -12938,7 +12988,7 @@
         <v>52</v>
       </c>
       <c r="D420" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E420" s="1">
         <v>2012</v>
@@ -12947,18 +12997,18 @@
         <v>170035</v>
       </c>
       <c r="K420" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B421" s="1">
         <v>18</v>
       </c>
       <c r="D421" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E421" s="1">
         <v>2009</v>
@@ -12967,7 +13017,7 @@
         <v>170035</v>
       </c>
       <c r="K421" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
@@ -12981,7 +13031,7 @@
         <v>52</v>
       </c>
       <c r="D422" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E422" s="1">
         <v>2014</v>
@@ -12990,7 +13040,7 @@
         <v>170036</v>
       </c>
       <c r="K422" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
@@ -13004,7 +13054,7 @@
         <v>52</v>
       </c>
       <c r="D423" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E423" s="1">
         <v>2018</v>
@@ -13013,7 +13063,7 @@
         <v>170043</v>
       </c>
       <c r="K423" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
@@ -13027,7 +13077,7 @@
         <v>52</v>
       </c>
       <c r="D424" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E424" s="1">
         <v>2023</v>
@@ -13036,7 +13086,7 @@
         <v>170043</v>
       </c>
       <c r="K424" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
@@ -13050,7 +13100,7 @@
         <v>52</v>
       </c>
       <c r="D425" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E425" s="1">
         <v>2008</v>
@@ -13059,7 +13109,7 @@
         <v>170048</v>
       </c>
       <c r="K425" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
@@ -13073,7 +13123,7 @@
         <v>52</v>
       </c>
       <c r="D426" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E426" s="1">
         <v>2011</v>
@@ -13082,11 +13132,11 @@
         <v>170048</v>
       </c>
       <c r="K426" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N395" xr:uid="{22D72683-6866-4431-9C3B-624A912C74B3}">
+  <autoFilter ref="A1:N426" xr:uid="{22D72683-6866-4431-9C3B-624A912C74B3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N395">
       <sortCondition ref="M1:M395"/>
     </sortState>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\26012026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16479D03-2CF2-4D6B-BDE0-0AEEB4EE59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D6CE9D-125D-4EF5-ACF4-87329426D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$427</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$431</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="815">
   <si>
     <t>ID</t>
   </si>
@@ -1769,9 +1768,6 @@
     <t>Trần Thị Tuyết</t>
   </si>
   <si>
-    <t>Dương Danh Mạnh</t>
-  </si>
-  <si>
     <t>160027g1</t>
   </si>
   <si>
@@ -1857,9 +1853,6 @@
   </si>
   <si>
     <t>Dương Danh Thái Hòa</t>
-  </si>
-  <si>
-    <t>Dương Thị Anh Thư</t>
   </si>
   <si>
     <t>160035g1</t>
@@ -2479,6 +2472,33 @@
   <si>
     <t>Khởi tổ Ngành 3
 Hiệu Phúc Minh</t>
+  </si>
+  <si>
+    <t>Tọa X</t>
+  </si>
+  <si>
+    <t>Tọa Y</t>
+  </si>
+  <si>
+    <t>160003g1</t>
+  </si>
+  <si>
+    <t>Dương Gia Hân</t>
+  </si>
+  <si>
+    <t>Dương Nguyễn Anh Thư</t>
+  </si>
+  <si>
+    <t>Dương Trọng Huynh</t>
+  </si>
+  <si>
+    <t>Dương Văn Mạnh</t>
+  </si>
+  <si>
+    <t>Dương Gia Bảo</t>
+  </si>
+  <si>
+    <t>Dương Mạnh Đức</t>
   </si>
 </sst>
 </file>
@@ -2854,12 +2874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M427"/>
+  <dimension ref="A1:O431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H426" sqref="H426"/>
+      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D430" sqref="D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,9 +2893,11 @@
     <col min="10" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="9.109375" style="1"/>
     <col min="13" max="13" width="13.44140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2914,10 +2935,16 @@
         <v>28</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>10001</v>
       </c>
@@ -2928,31 +2955,31 @@
         <v>52</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>684</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>686</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -2963,7 +2990,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>59</v>
@@ -2972,7 +2999,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>59</v>
@@ -2984,10 +3011,10 @@
         <v>10001</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>30001</v>
       </c>
@@ -2998,7 +3025,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -3016,10 +3043,10 @@
         <v>20001</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>40001</v>
       </c>
@@ -3030,7 +3057,7 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>59</v>
@@ -3039,7 +3066,7 @@
         <v>59</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>59</v>
@@ -3051,10 +3078,10 @@
         <v>30001</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>50001</v>
       </c>
@@ -3065,7 +3092,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -3074,10 +3101,10 @@
         <v>59</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J6" s="1">
         <v>40001</v>
@@ -3086,7 +3113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>50002</v>
       </c>
@@ -3097,7 +3124,7 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3106,7 +3133,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>59</v>
@@ -3118,10 +3145,10 @@
         <v>40001</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>50003</v>
       </c>
@@ -3132,7 +3159,7 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -3141,10 +3168,10 @@
         <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>59</v>
@@ -3153,10 +3180,10 @@
         <v>40001</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>50004</v>
       </c>
@@ -3167,7 +3194,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -3176,77 +3203,79 @@
         <v>59</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J9" s="1">
         <v>40001</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>693</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>695</v>
       </c>
       <c r="J10" s="1">
         <v>40001</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>705</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="L11" s="1">
         <v>50003</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>60005</v>
       </c>
@@ -3257,17 +3286,19 @@
         <v>52</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E12" s="11"/>
       <c r="J12" s="1">
         <v>50001</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>60006</v>
       </c>
@@ -3278,17 +3309,19 @@
         <v>52</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E13" s="11"/>
       <c r="J13" s="1">
         <v>50002</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>60001</v>
       </c>
@@ -3299,7 +3332,7 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3308,7 +3341,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>59</v>
@@ -3320,13 +3353,13 @@
         <v>50003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>60002</v>
       </c>
@@ -3337,7 +3370,7 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -3346,7 +3379,7 @@
         <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>59</v>
@@ -3355,13 +3388,13 @@
         <v>50003</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>60003</v>
       </c>
@@ -3372,7 +3405,7 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -3381,10 +3414,10 @@
         <v>59</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>59</v>
@@ -3393,13 +3426,13 @@
         <v>50003</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>60004</v>
       </c>
@@ -3410,7 +3443,7 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -3425,21 +3458,21 @@
         <v>50003</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
@@ -3448,10 +3481,10 @@
         <v>59</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>59</v>
@@ -3460,30 +3493,30 @@
         <v>60002</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>733</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>59</v>
@@ -3492,10 +3525,10 @@
         <v>60003</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>70001</v>
       </c>
@@ -3506,7 +3539,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
@@ -3524,13 +3557,13 @@
         <v>60002</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>70002</v>
       </c>
@@ -3541,7 +3574,7 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3550,7 +3583,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>258</v>
@@ -3562,13 +3595,14 @@
         <v>60003</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>70003</v>
       </c>
@@ -3579,7 +3613,7 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -3588,10 +3622,10 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>59</v>
@@ -3600,33 +3634,33 @@
         <v>60003</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="D23" t="s">
+        <v>719</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>723</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>59</v>
@@ -3635,12 +3669,12 @@
         <v>70001</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
@@ -3655,7 +3689,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>59</v>
@@ -3667,18 +3701,18 @@
         <v>70002</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -3693,10 +3727,10 @@
         <v>70003</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>80002</v>
       </c>
@@ -3707,7 +3741,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
@@ -3716,10 +3750,10 @@
         <v>59</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>59</v>
@@ -3728,13 +3762,13 @@
         <v>70001</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>80001</v>
       </c>
@@ -3754,25 +3788,25 @@
         <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J27" s="1">
         <v>70002</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>80003</v>
       </c>
@@ -3783,7 +3817,7 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3792,10 +3826,10 @@
         <v>59</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>59</v>
@@ -3804,13 +3838,13 @@
         <v>70002</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>80004</v>
       </c>
@@ -3821,20 +3855,22 @@
         <v>52</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E29" s="11"/>
       <c r="J29" s="1">
         <v>70003</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -3857,36 +3893,36 @@
         <v>59</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L30" s="1">
         <v>80001</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B31" s="1">
         <v>8</v>
       </c>
       <c r="D31" t="s">
+        <v>725</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>727</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>729</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>59</v>
@@ -3895,18 +3931,18 @@
         <v>80002</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>59</v>
@@ -3915,10 +3951,10 @@
         <v>59</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>59</v>
@@ -3926,10 +3962,10 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="M32" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>90001</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>80</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J33" s="1">
         <v>80001</v>
@@ -3965,10 +4001,10 @@
       </c>
       <c r="L33"/>
       <c r="M33" s="8" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>90002</v>
       </c>
@@ -3979,7 +4015,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>59</v>
@@ -3997,13 +4033,13 @@
         <v>80002</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>90003</v>
       </c>
@@ -4014,20 +4050,22 @@
         <v>52</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E35" s="11"/>
       <c r="J35" s="1">
         <v>80003</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
@@ -4059,7 +4097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>100001</v>
       </c>
@@ -4098,7 +4136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>100002</v>
       </c>
@@ -4131,10 +4169,10 @@
       </c>
       <c r="L38"/>
       <c r="M38" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>100003</v>
       </c>
@@ -4170,10 +4208,10 @@
       </c>
       <c r="L39"/>
       <c r="M39" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -4205,7 +4243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>338</v>
       </c>
@@ -4234,10 +4272,10 @@
         <v>100002</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>339</v>
       </c>
@@ -4266,10 +4304,10 @@
         <v>100002</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>380</v>
       </c>
@@ -4298,10 +4336,10 @@
         <v>100003</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>110001</v>
       </c>
@@ -4339,8 +4377,9 @@
       <c r="M44" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>110002</v>
       </c>
@@ -4375,10 +4414,10 @@
         <v>88</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>110003</v>
       </c>
@@ -4413,10 +4452,10 @@
         <v>88</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>110004</v>
       </c>
@@ -4452,10 +4491,10 @@
       </c>
       <c r="L47"/>
       <c r="M47" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>110005</v>
       </c>
@@ -4485,10 +4524,10 @@
       </c>
       <c r="L48"/>
       <c r="M48" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>110006</v>
       </c>
@@ -4508,7 +4547,7 @@
         <v>59</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>349</v>
@@ -4524,10 +4563,10 @@
       </c>
       <c r="L49"/>
       <c r="M49" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>110007</v>
       </c>
@@ -4563,10 +4602,10 @@
       </c>
       <c r="L50"/>
       <c r="M50" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>110008</v>
       </c>
@@ -4602,10 +4641,10 @@
       </c>
       <c r="L51"/>
       <c r="M51" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -4613,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>59</v>
@@ -4628,16 +4667,16 @@
         <v>100</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L52" s="1">
         <v>110001</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -4668,8 +4707,9 @@
       <c r="M53" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>335</v>
       </c>
@@ -4698,10 +4738,10 @@
         <v>110003</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>350</v>
       </c>
@@ -4730,10 +4770,10 @@
         <v>110006</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>353</v>
       </c>
@@ -4762,10 +4802,10 @@
         <v>110006</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>388</v>
       </c>
@@ -4794,10 +4834,10 @@
         <v>110008</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>392</v>
       </c>
@@ -4826,10 +4866,10 @@
         <v>110008</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>120001</v>
       </c>
@@ -4840,7 +4880,7 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
@@ -4855,7 +4895,7 @@
         <v>106</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J59" s="1">
         <v>110001</v>
@@ -4865,10 +4905,10 @@
       </c>
       <c r="L59"/>
       <c r="M59" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>120002</v>
       </c>
@@ -4879,7 +4919,7 @@
         <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>59</v>
@@ -4894,7 +4934,7 @@
         <v>179</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J60" s="1">
         <v>110001</v>
@@ -4904,10 +4944,10 @@
       </c>
       <c r="L60"/>
       <c r="M60" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>120003</v>
       </c>
@@ -4943,10 +4983,10 @@
       </c>
       <c r="L61"/>
       <c r="M61" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>120004</v>
       </c>
@@ -4982,10 +5022,10 @@
       </c>
       <c r="L62"/>
       <c r="M62" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>120005</v>
       </c>
@@ -5021,10 +5061,10 @@
       </c>
       <c r="L63"/>
       <c r="M63" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>120006</v>
       </c>
@@ -5057,7 +5097,7 @@
       </c>
       <c r="L64"/>
       <c r="M64" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -5068,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>59</v>
@@ -5089,7 +5129,7 @@
         <v>120001</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -5115,13 +5155,13 @@
         <v>114</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="L66" s="1">
         <v>120001</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -5185,7 +5225,7 @@
         <v>120004</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -5217,7 +5257,7 @@
         <v>120005</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -5256,7 +5296,7 @@
       </c>
       <c r="L70"/>
       <c r="M70" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -5295,7 +5335,7 @@
       </c>
       <c r="L71"/>
       <c r="M71" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -5318,7 +5358,7 @@
         <v>59</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>134</v>
@@ -5334,7 +5374,7 @@
       </c>
       <c r="L72"/>
       <c r="M72" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -5363,7 +5403,7 @@
         <v>189</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J73" s="1">
         <v>120002</v>
@@ -5373,7 +5413,7 @@
       </c>
       <c r="L73"/>
       <c r="M73" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -5399,7 +5439,7 @@
         <v>204</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>59</v>
@@ -5412,7 +5452,7 @@
       </c>
       <c r="L74"/>
       <c r="M74" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -5529,7 +5569,7 @@
       </c>
       <c r="L77"/>
       <c r="M77" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -5562,7 +5602,7 @@
       </c>
       <c r="L78"/>
       <c r="M78" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -5598,7 +5638,7 @@
       </c>
       <c r="L79"/>
       <c r="M79" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -5633,7 +5673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
@@ -5662,10 +5702,10 @@
         <v>130002</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>126</v>
       </c>
@@ -5694,10 +5734,10 @@
         <v>130002</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>136</v>
       </c>
@@ -5726,10 +5766,10 @@
         <v>130003</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>194</v>
       </c>
@@ -5758,10 +5798,10 @@
         <v>130004</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>195</v>
       </c>
@@ -5787,10 +5827,10 @@
         <v>130004</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>205</v>
       </c>
@@ -5798,7 +5838,7 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>59</v>
@@ -5821,8 +5861,9 @@
       <c r="M86" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
@@ -5851,10 +5892,10 @@
         <v>130007</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>283</v>
       </c>
@@ -5883,10 +5924,10 @@
         <v>130008</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>371</v>
       </c>
@@ -5915,10 +5956,10 @@
         <v>130010</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>372</v>
       </c>
@@ -5941,10 +5982,10 @@
         <v>130010</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>140001</v>
       </c>
@@ -5982,8 +6023,9 @@
       <c r="M91" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>140002</v>
       </c>
@@ -6019,10 +6061,10 @@
       </c>
       <c r="L92"/>
       <c r="M92" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>140003</v>
       </c>
@@ -6061,7 +6103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140004</v>
       </c>
@@ -6081,7 +6123,7 @@
         <v>59</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J94">
         <v>130003</v>
@@ -6091,10 +6133,10 @@
       </c>
       <c r="L94"/>
       <c r="M94" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>140005</v>
       </c>
@@ -6114,7 +6156,7 @@
         <v>59</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J95">
         <v>130003</v>
@@ -6124,10 +6166,10 @@
       </c>
       <c r="L95"/>
       <c r="M95" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>140006</v>
       </c>
@@ -6138,7 +6180,7 @@
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>59</v>
@@ -6157,10 +6199,10 @@
       </c>
       <c r="L96"/>
       <c r="M96" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>140007</v>
       </c>
@@ -6190,10 +6232,10 @@
       </c>
       <c r="L97"/>
       <c r="M97" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>140008</v>
       </c>
@@ -6216,7 +6258,7 @@
         <v>59</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>63</v>
@@ -6232,7 +6274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>140014</v>
       </c>
@@ -6258,7 +6300,7 @@
         <v>251</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J99" s="1">
         <v>130007</v>
@@ -6268,10 +6310,10 @@
       </c>
       <c r="L99"/>
       <c r="M99" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>140009</v>
       </c>
@@ -6307,10 +6349,10 @@
       </c>
       <c r="L100"/>
       <c r="M100" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>140010</v>
       </c>
@@ -6346,10 +6388,10 @@
       </c>
       <c r="L101"/>
       <c r="M101" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>140011</v>
       </c>
@@ -6379,10 +6421,10 @@
       </c>
       <c r="L102"/>
       <c r="M102" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>140012</v>
       </c>
@@ -6412,10 +6454,10 @@
       </c>
       <c r="L103"/>
       <c r="M103" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>140013</v>
       </c>
@@ -6435,10 +6477,10 @@
         <v>59</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J104" s="1">
         <v>130010</v>
@@ -6448,10 +6490,10 @@
       </c>
       <c r="L104"/>
       <c r="M104" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>67</v>
       </c>
@@ -6482,8 +6524,9 @@
       <c r="M105" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>57</v>
       </c>
@@ -6511,8 +6554,9 @@
       <c r="M106" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N106" s="9"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -6538,10 +6582,10 @@
         <v>140002</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>138</v>
       </c>
@@ -6573,7 +6617,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>144</v>
       </c>
@@ -6593,19 +6637,20 @@
         <v>59</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L109" s="1">
         <v>140004</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>166</v>
       </c>
@@ -6628,16 +6673,16 @@
         <v>59</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L110" s="1">
         <v>140005</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>197</v>
       </c>
@@ -6666,10 +6711,10 @@
         <v>140007</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>208</v>
       </c>
@@ -6677,7 +6722,7 @@
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>59</v>
@@ -6686,10 +6731,10 @@
         <v>59</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>63</v>
@@ -6701,7 +6746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>293</v>
       </c>
@@ -6727,10 +6772,10 @@
         <v>140010</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>308</v>
       </c>
@@ -6753,16 +6798,17 @@
         <v>59</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L114" s="1">
         <v>140010</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>318</v>
       </c>
@@ -6791,10 +6837,10 @@
         <v>140011</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>330</v>
       </c>
@@ -6814,21 +6860,22 @@
         <v>59</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L116" s="1">
         <v>140012</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B117" s="1">
         <v>14</v>
@@ -6849,16 +6896,16 @@
         <v>254</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L117" s="1">
         <v>140014</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>150001</v>
       </c>
@@ -6884,8 +6931,10 @@
         <v>57</v>
       </c>
       <c r="L118"/>
-    </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N118" s="8"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>150002</v>
       </c>
@@ -6908,8 +6957,10 @@
         <v>57</v>
       </c>
       <c r="L119"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N119" s="8"/>
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>53</v>
       </c>
@@ -6936,10 +6987,10 @@
       </c>
       <c r="L120"/>
       <c r="M120" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>55</v>
       </c>
@@ -6959,8 +7010,10 @@
         <v>57</v>
       </c>
       <c r="L121"/>
-    </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N121" s="8"/>
+      <c r="O121"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>150003</v>
       </c>
@@ -6983,8 +7036,10 @@
         <v>138</v>
       </c>
       <c r="L122"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N122" s="8"/>
+      <c r="O122"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>150004</v>
       </c>
@@ -7020,10 +7075,10 @@
       </c>
       <c r="L123"/>
       <c r="M123" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>150005</v>
       </c>
@@ -7059,10 +7114,10 @@
       </c>
       <c r="L124"/>
       <c r="M124" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>150006</v>
       </c>
@@ -7085,8 +7140,10 @@
         <v>144</v>
       </c>
       <c r="L125"/>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N125" s="8"/>
+      <c r="O125"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>150007</v>
       </c>
@@ -7109,8 +7166,10 @@
         <v>144</v>
       </c>
       <c r="L126"/>
-    </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N126" s="8"/>
+      <c r="O126"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>150008</v>
       </c>
@@ -7133,8 +7192,10 @@
         <v>144</v>
       </c>
       <c r="L127"/>
-    </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N127" s="8"/>
+      <c r="O127"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>150009</v>
       </c>
@@ -7157,8 +7218,10 @@
         <v>144</v>
       </c>
       <c r="L128"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N128" s="8"/>
+      <c r="O128"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>150010</v>
       </c>
@@ -7169,7 +7232,7 @@
         <v>52</v>
       </c>
       <c r="D129" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
@@ -7194,10 +7257,10 @@
       </c>
       <c r="L129"/>
       <c r="M129" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>150011</v>
       </c>
@@ -7223,8 +7286,10 @@
         <v>166</v>
       </c>
       <c r="L130"/>
-    </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N130" s="8"/>
+      <c r="O130"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>150012</v>
       </c>
@@ -7247,8 +7312,10 @@
         <v>166</v>
       </c>
       <c r="L131"/>
-    </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N131" s="8"/>
+      <c r="O131"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>150013</v>
       </c>
@@ -7271,8 +7338,10 @@
         <v>197</v>
       </c>
       <c r="L132"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N132" s="8"/>
+      <c r="O132"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>150014</v>
       </c>
@@ -7308,10 +7377,10 @@
       </c>
       <c r="L133"/>
       <c r="M133" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>150015</v>
       </c>
@@ -7331,10 +7400,10 @@
         <v>59</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>63</v>
@@ -7350,7 +7419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>150016</v>
       </c>
@@ -7370,10 +7439,10 @@
         <v>2026</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J135" s="1">
         <v>140008</v>
@@ -7383,10 +7452,10 @@
       </c>
       <c r="L135"/>
       <c r="M135" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>150017</v>
       </c>
@@ -7409,8 +7478,10 @@
         <v>208</v>
       </c>
       <c r="L136"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N136" s="8"/>
+      <c r="O136"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>150020</v>
       </c>
@@ -7443,10 +7514,10 @@
       </c>
       <c r="L137"/>
       <c r="M137" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>150021</v>
       </c>
@@ -7469,10 +7540,10 @@
         <v>59</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J138" s="1">
         <v>140010</v>
@@ -7482,10 +7553,10 @@
       </c>
       <c r="L138"/>
       <c r="M138" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>150022</v>
       </c>
@@ -7508,8 +7579,10 @@
         <v>308</v>
       </c>
       <c r="L139"/>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N139" s="8"/>
+      <c r="O139"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>150023</v>
       </c>
@@ -7532,8 +7605,10 @@
         <v>308</v>
       </c>
       <c r="L140"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N140" s="8"/>
+      <c r="O140"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>150024</v>
       </c>
@@ -7569,10 +7644,10 @@
       </c>
       <c r="L141"/>
       <c r="M141" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>150025</v>
       </c>
@@ -7605,10 +7680,10 @@
       </c>
       <c r="L142"/>
       <c r="M142" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>150018</v>
       </c>
@@ -7640,14 +7715,14 @@
         <v>140014</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L143"/>
       <c r="M143" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>150019</v>
       </c>
@@ -7679,14 +7754,14 @@
         <v>140014</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L144"/>
       <c r="M144" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -7705,8 +7780,10 @@
       <c r="L145" s="1">
         <v>150001</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N145" s="8"/>
+      <c r="O145"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
@@ -7725,8 +7802,10 @@
       <c r="L146" s="1">
         <v>150002</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N146" s="8"/>
+      <c r="O146"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
@@ -7745,8 +7824,10 @@
       <c r="L147" s="1">
         <v>150003</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N147" s="8"/>
+      <c r="O147"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -7762,8 +7843,10 @@
       <c r="L148" s="1">
         <v>150004</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N148" s="8"/>
+      <c r="O148"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
@@ -7780,10 +7863,10 @@
         <v>2021</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I149" s="10" t="s">
         <v>63</v>
@@ -7795,7 +7878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>159</v>
       </c>
@@ -7811,8 +7894,10 @@
       <c r="L150" s="1">
         <v>150006</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N150" s="8"/>
+      <c r="O150"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -7828,8 +7913,10 @@
       <c r="L151" s="1">
         <v>150007</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N151" s="8"/>
+      <c r="O151"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>163</v>
       </c>
@@ -7848,8 +7935,10 @@
       <c r="L152" s="1">
         <v>150008</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N152" s="8"/>
+      <c r="O152"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>164</v>
       </c>
@@ -7868,8 +7957,10 @@
       <c r="L153" s="1">
         <v>150009</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N153" s="8"/>
+      <c r="O153"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>165</v>
       </c>
@@ -7885,8 +7976,10 @@
       <c r="L154" s="1">
         <v>150009</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N154" s="8"/>
+      <c r="O154"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>173</v>
       </c>
@@ -7902,8 +7995,10 @@
       <c r="L155" s="1">
         <v>150011</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N155" s="8"/>
+      <c r="O155"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>177</v>
       </c>
@@ -7919,8 +8014,10 @@
       <c r="L156" s="1">
         <v>150012</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N156" s="8"/>
+      <c r="O156"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>203</v>
       </c>
@@ -7939,8 +8036,10 @@
       <c r="L157" s="1">
         <v>150013</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N157" s="8"/>
+      <c r="O157"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>212</v>
       </c>
@@ -7957,19 +8056,19 @@
         <v>59</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L158" s="1">
         <v>150015</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>223</v>
       </c>
@@ -8001,7 +8100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>231</v>
       </c>
@@ -8024,10 +8123,10 @@
         <v>150017</v>
       </c>
       <c r="M160" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>261</v>
       </c>
@@ -8043,8 +8142,10 @@
       <c r="L161" s="1">
         <v>150019</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N161" s="8"/>
+      <c r="O161"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>298</v>
       </c>
@@ -8073,10 +8174,10 @@
         <v>150020</v>
       </c>
       <c r="M162" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>305</v>
       </c>
@@ -8105,10 +8206,10 @@
         <v>150021</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>312</v>
       </c>
@@ -8124,8 +8225,10 @@
       <c r="L164" s="1">
         <v>150022</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N164" s="8"/>
+      <c r="O164"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>314</v>
       </c>
@@ -8144,8 +8247,10 @@
       <c r="L165" s="1">
         <v>150023</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N165" s="8"/>
+      <c r="O165"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>322</v>
       </c>
@@ -8161,8 +8266,10 @@
       <c r="L166" s="1">
         <v>150024</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N166" s="8"/>
+      <c r="O166"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>160001</v>
       </c>
@@ -8185,8 +8292,10 @@
         <v>9</v>
       </c>
       <c r="L167"/>
-    </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N167" s="8"/>
+      <c r="O167"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>160002</v>
       </c>
@@ -8209,8 +8318,10 @@
         <v>9</v>
       </c>
       <c r="L168"/>
-    </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N168" s="8"/>
+      <c r="O168"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>160003</v>
       </c>
@@ -8233,8 +8344,10 @@
         <v>9</v>
       </c>
       <c r="L169"/>
-    </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N169" s="8"/>
+      <c r="O169"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>36</v>
       </c>
@@ -8248,7 +8361,7 @@
         <v>1977</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J170" s="1">
         <v>150001</v>
@@ -8257,8 +8370,10 @@
         <v>9</v>
       </c>
       <c r="L170"/>
-    </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N170" s="8"/>
+      <c r="O170"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>38</v>
       </c>
@@ -8272,7 +8387,7 @@
         <v>1991</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J171" s="1">
         <v>150001</v>
@@ -8281,8 +8396,10 @@
         <v>9</v>
       </c>
       <c r="L171"/>
-    </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N171" s="8"/>
+      <c r="O171"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>160004</v>
       </c>
@@ -8305,8 +8422,10 @@
         <v>11</v>
       </c>
       <c r="L172"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N172" s="8"/>
+      <c r="O172"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>160005</v>
       </c>
@@ -8326,7 +8445,7 @@
         <v>2023</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J173" s="1">
         <v>150002</v>
@@ -8336,10 +8455,10 @@
       </c>
       <c r="L173"/>
       <c r="M173" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>40</v>
       </c>
@@ -8359,8 +8478,10 @@
         <v>11</v>
       </c>
       <c r="L174"/>
-    </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N174" s="8"/>
+      <c r="O174"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>160006</v>
       </c>
@@ -8383,8 +8504,10 @@
         <v>141</v>
       </c>
       <c r="L175"/>
-    </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N175" s="8"/>
+      <c r="O175"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>160007</v>
       </c>
@@ -8407,8 +8530,10 @@
         <v>141</v>
       </c>
       <c r="L176"/>
-    </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N176" s="8"/>
+      <c r="O176"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>412</v>
       </c>
@@ -8427,8 +8552,10 @@
       <c r="K177" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N177" s="8"/>
+      <c r="O177"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>415</v>
       </c>
@@ -8447,8 +8574,10 @@
       <c r="K178" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N178" s="8"/>
+      <c r="O178"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>160008</v>
       </c>
@@ -8471,8 +8600,10 @@
         <v>152</v>
       </c>
       <c r="L179"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N179" s="8"/>
+      <c r="O179"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>160009</v>
       </c>
@@ -8505,10 +8636,10 @@
       </c>
       <c r="L180"/>
       <c r="M180" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>417</v>
       </c>
@@ -8525,7 +8656,7 @@
         <v>2025</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J181" s="1">
         <v>150004</v>
@@ -8535,10 +8666,10 @@
       </c>
       <c r="L181"/>
       <c r="M181" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>160010</v>
       </c>
@@ -8561,8 +8692,10 @@
         <v>156</v>
       </c>
       <c r="L182"/>
-    </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N182" s="8"/>
+      <c r="O182"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>418</v>
       </c>
@@ -8582,8 +8715,10 @@
         <v>156</v>
       </c>
       <c r="L183"/>
-    </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N183" s="8"/>
+      <c r="O183"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>160011</v>
       </c>
@@ -8606,8 +8741,10 @@
         <v>159</v>
       </c>
       <c r="L184"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N184" s="8"/>
+      <c r="O184"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>160040</v>
       </c>
@@ -8630,7 +8767,7 @@
         <v>202</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J185" s="1">
         <v>150006</v>
@@ -8643,7 +8780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>421</v>
       </c>
@@ -8663,8 +8800,10 @@
         <v>159</v>
       </c>
       <c r="L186"/>
-    </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N186" s="8"/>
+      <c r="O186"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>424</v>
       </c>
@@ -8684,8 +8823,10 @@
         <v>159</v>
       </c>
       <c r="L187"/>
-    </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N187" s="8"/>
+      <c r="O187"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>160012</v>
       </c>
@@ -8708,8 +8849,10 @@
         <v>161</v>
       </c>
       <c r="L188"/>
-    </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N188" s="8"/>
+      <c r="O188"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>428</v>
       </c>
@@ -8729,8 +8872,10 @@
         <v>161</v>
       </c>
       <c r="L189"/>
-    </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N189" s="8"/>
+      <c r="O189"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>429</v>
       </c>
@@ -8750,8 +8895,10 @@
         <v>161</v>
       </c>
       <c r="L190"/>
-    </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N190" s="8"/>
+      <c r="O190"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>430</v>
       </c>
@@ -8771,8 +8918,10 @@
         <v>161</v>
       </c>
       <c r="L191"/>
-    </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N191" s="8"/>
+      <c r="O191"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>160013</v>
       </c>
@@ -8783,7 +8932,7 @@
         <v>52</v>
       </c>
       <c r="D192" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E192" s="1">
         <v>1993</v>
@@ -8795,8 +8944,10 @@
         <v>163</v>
       </c>
       <c r="L192"/>
-    </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N192" s="8"/>
+      <c r="O192"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>160014</v>
       </c>
@@ -8807,7 +8958,7 @@
         <v>52</v>
       </c>
       <c r="D193" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E193" s="1">
         <v>1997</v>
@@ -8819,8 +8970,10 @@
         <v>163</v>
       </c>
       <c r="L193"/>
-    </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N193" s="8"/>
+      <c r="O193"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>160043</v>
       </c>
@@ -8843,8 +8996,10 @@
         <v>165</v>
       </c>
       <c r="L194"/>
-    </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N194" s="8"/>
+      <c r="O194"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>432</v>
       </c>
@@ -8864,8 +9019,10 @@
         <v>165</v>
       </c>
       <c r="L195"/>
-    </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N195" s="8"/>
+      <c r="O195"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>160015</v>
       </c>
@@ -8888,8 +9045,10 @@
         <v>173</v>
       </c>
       <c r="L196"/>
-    </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N196" s="8"/>
+      <c r="O196"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>160016</v>
       </c>
@@ -8912,8 +9071,10 @@
         <v>173</v>
       </c>
       <c r="L197"/>
-    </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N197" s="8"/>
+      <c r="O197"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>435</v>
       </c>
@@ -8933,8 +9094,10 @@
         <v>173</v>
       </c>
       <c r="L198"/>
-    </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N198" s="8"/>
+      <c r="O198"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>160017</v>
       </c>
@@ -8957,8 +9120,10 @@
         <v>177</v>
       </c>
       <c r="L199"/>
-    </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N199" s="8"/>
+      <c r="O199"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>436</v>
       </c>
@@ -8978,8 +9143,10 @@
         <v>177</v>
       </c>
       <c r="L200"/>
-    </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N200" s="8"/>
+      <c r="O200"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>160041</v>
       </c>
@@ -9002,8 +9169,10 @@
         <v>203</v>
       </c>
       <c r="L201"/>
-    </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N201" s="8"/>
+      <c r="O201"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>437</v>
       </c>
@@ -9023,8 +9192,10 @@
         <v>203</v>
       </c>
       <c r="L202"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N202" s="8"/>
+      <c r="O202"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>160018</v>
       </c>
@@ -9050,7 +9221,7 @@
         <v>59</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J203" s="1">
         <v>150015</v>
@@ -9060,10 +9231,10 @@
       </c>
       <c r="L203"/>
       <c r="M203" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>160019</v>
       </c>
@@ -9086,8 +9257,10 @@
         <v>212</v>
       </c>
       <c r="L204"/>
-    </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N204" s="8"/>
+      <c r="O204"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>160020</v>
       </c>
@@ -9113,8 +9286,10 @@
         <v>212</v>
       </c>
       <c r="L205"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N205" s="8"/>
+      <c r="O205"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>439</v>
       </c>
@@ -9141,10 +9316,10 @@
       </c>
       <c r="L206"/>
       <c r="M206" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>442</v>
       </c>
@@ -9167,7 +9342,7 @@
         <v>59</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J207" s="1">
         <v>150015</v>
@@ -9176,10 +9351,10 @@
         <v>212</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>445</v>
       </c>
@@ -9205,10 +9380,10 @@
         <v>212</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>447</v>
       </c>
@@ -9227,8 +9402,10 @@
       <c r="K209" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N209" s="8"/>
+      <c r="O209"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>160021</v>
       </c>
@@ -9251,8 +9428,10 @@
         <v>223</v>
       </c>
       <c r="L210"/>
-    </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N210" s="8"/>
+      <c r="O210"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>160022</v>
       </c>
@@ -9275,8 +9454,10 @@
         <v>223</v>
       </c>
       <c r="L211"/>
-    </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N211" s="8"/>
+      <c r="O211"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>160023</v>
       </c>
@@ -9299,8 +9480,10 @@
         <v>223</v>
       </c>
       <c r="L212"/>
-    </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N212" s="8"/>
+      <c r="O212"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>160024</v>
       </c>
@@ -9323,8 +9506,10 @@
         <v>223</v>
       </c>
       <c r="L213"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N213" s="8"/>
+      <c r="O213"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>449</v>
       </c>
@@ -9350,10 +9535,10 @@
         <v>223</v>
       </c>
       <c r="M214" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>451</v>
       </c>
@@ -9380,10 +9565,10 @@
       </c>
       <c r="L215"/>
       <c r="M215" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>452</v>
       </c>
@@ -9410,10 +9595,10 @@
       </c>
       <c r="L216"/>
       <c r="M216" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>160025</v>
       </c>
@@ -9436,8 +9621,10 @@
         <v>231</v>
       </c>
       <c r="L217"/>
-    </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N217" s="8"/>
+      <c r="O217"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>160026</v>
       </c>
@@ -9460,8 +9647,10 @@
         <v>231</v>
       </c>
       <c r="L218"/>
-    </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N218" s="8"/>
+      <c r="O218"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>160027</v>
       </c>
@@ -9484,8 +9673,10 @@
         <v>231</v>
       </c>
       <c r="L219"/>
-    </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N219" s="8"/>
+      <c r="O219"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>160028</v>
       </c>
@@ -9508,8 +9699,10 @@
         <v>231</v>
       </c>
       <c r="L220"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N220" s="8"/>
+      <c r="O220"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>455</v>
       </c>
@@ -9535,10 +9728,10 @@
         <v>231</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>160029</v>
       </c>
@@ -9561,8 +9754,10 @@
         <v>261</v>
       </c>
       <c r="L222"/>
-    </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N222" s="8"/>
+      <c r="O222"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>160030</v>
       </c>
@@ -9588,8 +9783,10 @@
         <v>261</v>
       </c>
       <c r="L223"/>
-    </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N223" s="8"/>
+      <c r="O223"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>272</v>
       </c>
@@ -9609,8 +9806,10 @@
         <v>261</v>
       </c>
       <c r="L224"/>
-    </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N224" s="8"/>
+      <c r="O224"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>273</v>
       </c>
@@ -9630,8 +9829,10 @@
         <v>261</v>
       </c>
       <c r="L225"/>
-    </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N225" s="8"/>
+      <c r="O225"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>160031</v>
       </c>
@@ -9654,8 +9855,10 @@
         <v>298</v>
       </c>
       <c r="L226"/>
-    </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N226" s="8"/>
+      <c r="O226"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>459</v>
       </c>
@@ -9675,8 +9878,10 @@
         <v>298</v>
       </c>
       <c r="L227"/>
-    </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N227" s="8"/>
+      <c r="O227"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>460</v>
       </c>
@@ -9696,8 +9901,10 @@
         <v>298</v>
       </c>
       <c r="L228"/>
-    </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N228" s="8"/>
+      <c r="O228"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -9717,8 +9924,10 @@
         <v>298</v>
       </c>
       <c r="L229"/>
-    </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N229" s="8"/>
+      <c r="O229"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>160032</v>
       </c>
@@ -9741,8 +9950,10 @@
         <v>305</v>
       </c>
       <c r="L230"/>
-    </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N230" s="8"/>
+      <c r="O230"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>160033</v>
       </c>
@@ -9765,8 +9976,10 @@
         <v>305</v>
       </c>
       <c r="L231"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N231" s="8"/>
+      <c r="O231"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>160042</v>
       </c>
@@ -9796,10 +10009,10 @@
       </c>
       <c r="L232"/>
       <c r="M232" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>463</v>
       </c>
@@ -9826,10 +10039,10 @@
       </c>
       <c r="L233"/>
       <c r="M233" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>467</v>
       </c>
@@ -9856,10 +10069,10 @@
       </c>
       <c r="L234"/>
       <c r="M234" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>468</v>
       </c>
@@ -9886,10 +10099,10 @@
       </c>
       <c r="L235"/>
       <c r="M235" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>469</v>
       </c>
@@ -9916,10 +10129,10 @@
       </c>
       <c r="L236"/>
       <c r="M236" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>470</v>
       </c>
@@ -9946,10 +10159,10 @@
       </c>
       <c r="L237"/>
       <c r="M237" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>471</v>
       </c>
@@ -9976,10 +10189,10 @@
       </c>
       <c r="L238"/>
       <c r="M238" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>160034</v>
       </c>
@@ -10002,8 +10215,10 @@
         <v>312</v>
       </c>
       <c r="L239"/>
-    </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N239" s="8"/>
+      <c r="O239"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>160035</v>
       </c>
@@ -10026,113 +10241,145 @@
         <v>312</v>
       </c>
       <c r="L240"/>
-    </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N240" s="8"/>
+      <c r="O240"/>
+    </row>
+    <row r="241" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B241" s="1">
         <v>16</v>
       </c>
+      <c r="C241" s="1"/>
       <c r="D241" t="s">
         <v>453</v>
       </c>
       <c r="E241" s="1">
         <v>1961</v>
       </c>
+      <c r="F241" s="1"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="10"/>
       <c r="J241" s="1">
         <v>150022</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L241"/>
-    </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M241" s="8"/>
+      <c r="N241" s="8"/>
+    </row>
+    <row r="242" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B242" s="1">
         <v>16</v>
       </c>
+      <c r="C242" s="1"/>
       <c r="D242" t="s">
         <v>472</v>
       </c>
       <c r="E242" s="1">
         <v>1964</v>
       </c>
+      <c r="F242" s="1"/>
+      <c r="G242" s="8"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="10"/>
       <c r="J242" s="1">
         <v>150022</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L242"/>
-    </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M242" s="8"/>
+      <c r="N242" s="8"/>
+    </row>
+    <row r="243" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B243" s="1">
         <v>16</v>
       </c>
+      <c r="C243" s="1"/>
       <c r="D243" t="s">
         <v>475</v>
       </c>
       <c r="E243" s="1">
         <v>1969</v>
       </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="8"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="10"/>
       <c r="J243" s="1">
         <v>150022</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L243"/>
-    </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M243" s="8"/>
+      <c r="N243" s="8"/>
+    </row>
+    <row r="244" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B244" s="1">
         <v>16</v>
       </c>
+      <c r="C244" s="1"/>
       <c r="D244" t="s">
         <v>476</v>
       </c>
       <c r="E244" s="1">
         <v>1972</v>
       </c>
+      <c r="F244" s="1"/>
+      <c r="G244" s="8"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="10"/>
       <c r="J244" s="1">
         <v>150022</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L244"/>
-    </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M244" s="8"/>
+      <c r="N244" s="8"/>
+    </row>
+    <row r="245" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B245" s="1">
         <v>16</v>
       </c>
+      <c r="C245" s="1"/>
       <c r="D245" t="s">
         <v>477</v>
       </c>
       <c r="E245" s="1">
         <v>1976</v>
       </c>
+      <c r="F245" s="1"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="10"/>
       <c r="J245" s="1">
         <v>150022</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L245"/>
-    </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M245" s="8"/>
+      <c r="N245" s="8"/>
+    </row>
+    <row r="246" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>160036</v>
       </c>
@@ -10148,15 +10395,20 @@
       <c r="E246" s="1">
         <v>1970</v>
       </c>
+      <c r="F246" s="1"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="10"/>
       <c r="J246" s="1">
         <v>150023</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="L246"/>
-    </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M246" s="8"/>
+      <c r="N246" s="8"/>
+    </row>
+    <row r="247" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>160037</v>
       </c>
@@ -10172,36 +10424,47 @@
       <c r="E247" s="1">
         <v>1981</v>
       </c>
+      <c r="F247" s="1"/>
+      <c r="G247" s="8"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="10"/>
       <c r="J247" s="1">
         <v>150023</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="L247"/>
-    </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M247" s="8"/>
+      <c r="N247" s="8"/>
+    </row>
+    <row r="248" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B248" s="1">
         <v>16</v>
       </c>
+      <c r="C248" s="1"/>
       <c r="D248" t="s">
         <v>39</v>
       </c>
       <c r="E248" s="1">
         <v>1977</v>
       </c>
+      <c r="F248" s="1"/>
+      <c r="G248" s="8"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="10"/>
       <c r="J248" s="1">
         <v>150023</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="L248"/>
-    </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M248" s="8"/>
+      <c r="N248" s="8"/>
+    </row>
+    <row r="249" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>160038</v>
       </c>
@@ -10217,15 +10480,20 @@
       <c r="E249" s="1">
         <v>1960</v>
       </c>
+      <c r="F249" s="1"/>
+      <c r="G249" s="8"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="10"/>
       <c r="J249" s="1">
         <v>150024</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L249"/>
-    </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M249" s="8"/>
+      <c r="N249" s="8"/>
+    </row>
+    <row r="250" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>160039</v>
       </c>
@@ -10241,739 +10509,1018 @@
       <c r="E250" s="1">
         <v>1963</v>
       </c>
+      <c r="F250" s="1"/>
+      <c r="G250" s="8"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="10"/>
       <c r="J250" s="1">
         <v>150024</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L250"/>
-    </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M250" s="8"/>
+      <c r="N250" s="8"/>
+    </row>
+    <row r="251" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B251" s="1">
         <v>16</v>
       </c>
+      <c r="C251" s="1"/>
       <c r="D251" t="s">
         <v>482</v>
       </c>
       <c r="E251" s="1">
         <v>1962</v>
       </c>
+      <c r="F251" s="1"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="10"/>
       <c r="J251" s="1">
         <v>150024</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L251" s="1"/>
+      <c r="M251" s="8"/>
+      <c r="N251" s="8"/>
+    </row>
+    <row r="252" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B252" s="1">
         <v>16</v>
       </c>
+      <c r="C252" s="1"/>
       <c r="D252" t="s">
         <v>483</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F252" s="1"/>
+      <c r="G252" s="8"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="10"/>
       <c r="J252" s="1">
         <v>150024</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L252" s="1"/>
+      <c r="M252" s="8"/>
+      <c r="N252" s="8"/>
+    </row>
+    <row r="253" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B253" s="1">
         <v>16</v>
       </c>
+      <c r="C253" s="1"/>
       <c r="D253" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1">
         <v>1983</v>
       </c>
+      <c r="F253" s="1"/>
       <c r="G253" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="H253" s="5"/>
+      <c r="I253" s="10"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1">
         <v>160001</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M253" s="8"/>
+      <c r="N253" s="8"/>
+    </row>
+    <row r="254" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B254" s="1">
         <v>16</v>
       </c>
+      <c r="C254" s="1"/>
       <c r="D254" t="s">
         <v>18</v>
       </c>
       <c r="E254" s="1">
         <v>1985</v>
       </c>
+      <c r="F254" s="1"/>
       <c r="G254" s="8" t="s">
         <v>409</v>
       </c>
+      <c r="H254" s="5"/>
+      <c r="I254" s="10"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1">
         <v>160002</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M254" s="8"/>
+      <c r="N254" s="8"/>
+    </row>
+    <row r="255" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B255" s="1">
         <v>16</v>
       </c>
+      <c r="C255" s="1"/>
       <c r="D255" t="s">
         <v>21</v>
       </c>
       <c r="E255" s="1">
         <v>1989</v>
       </c>
+      <c r="F255" s="1"/>
       <c r="G255" s="8" t="s">
         <v>410</v>
       </c>
+      <c r="H255" s="5"/>
+      <c r="I255" s="10"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1">
         <v>160003</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M255" s="8"/>
+      <c r="N255" s="8"/>
+    </row>
+    <row r="256" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B256" s="1">
         <v>16</v>
       </c>
+      <c r="C256" s="1"/>
       <c r="D256" t="s">
         <v>24</v>
       </c>
       <c r="E256" s="1">
         <v>1983</v>
       </c>
+      <c r="F256" s="1"/>
       <c r="G256" s="8" t="s">
         <v>411</v>
       </c>
+      <c r="H256" s="5"/>
+      <c r="I256" s="10"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1">
         <v>160004</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M256" s="8"/>
+      <c r="N256" s="8"/>
+    </row>
+    <row r="257" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B257" s="1">
         <v>16</v>
       </c>
+      <c r="C257" s="1"/>
       <c r="D257" t="s">
         <v>27</v>
       </c>
       <c r="E257" s="1">
         <v>1987</v>
       </c>
+      <c r="F257" s="1"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="10"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1">
         <v>160005</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M257" s="8"/>
+      <c r="N257" s="8"/>
+    </row>
+    <row r="258" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B258" s="1">
         <v>16</v>
       </c>
+      <c r="C258" s="1"/>
       <c r="D258" t="s">
         <v>486</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F258" s="1"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="10"/>
       <c r="J258" s="1"/>
       <c r="L258" s="1">
         <v>160006</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M258" s="8"/>
+      <c r="N258" s="8"/>
+    </row>
+    <row r="259" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B259" s="1">
         <v>16</v>
       </c>
+      <c r="C259" s="1"/>
       <c r="D259" t="s">
         <v>492</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F259" s="1"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="10"/>
       <c r="J259" s="1"/>
       <c r="L259" s="1">
         <v>160007</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M259" s="8"/>
+      <c r="N259" s="8"/>
+    </row>
+    <row r="260" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B260" s="1">
         <v>16</v>
       </c>
+      <c r="C260" s="1"/>
       <c r="D260" t="s">
         <v>498</v>
       </c>
       <c r="E260" s="1">
         <v>1981</v>
       </c>
+      <c r="F260" s="1"/>
+      <c r="G260" s="8"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="10"/>
       <c r="L260" s="1">
         <v>160008</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M260" s="8"/>
+      <c r="N260" s="8"/>
+    </row>
+    <row r="261" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B261" s="1">
         <v>16</v>
       </c>
+      <c r="C261" s="1"/>
       <c r="D261" t="s">
         <v>504</v>
       </c>
       <c r="E261" s="1">
         <v>1981</v>
       </c>
+      <c r="F261" s="1"/>
+      <c r="G261" s="8"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="10"/>
       <c r="L261" s="1">
         <v>160010</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M261" s="8"/>
+      <c r="N261" s="8"/>
+    </row>
+    <row r="262" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B262" s="1">
         <v>16</v>
       </c>
+      <c r="C262" s="1"/>
       <c r="D262" t="s">
         <v>331</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F262" s="1"/>
       <c r="G262" s="8" t="s">
         <v>406</v>
       </c>
+      <c r="H262" s="5"/>
+      <c r="I262" s="10"/>
       <c r="L262" s="1">
         <v>160011</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M262" s="8"/>
+      <c r="N262" s="8"/>
+    </row>
+    <row r="263" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B263" s="1">
         <v>16</v>
       </c>
+      <c r="C263" s="1"/>
       <c r="D263" t="s">
         <v>507</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F263" s="1"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="10"/>
       <c r="L263" s="1">
         <v>160011</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M263" s="8"/>
+      <c r="N263" s="8"/>
+    </row>
+    <row r="264" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B264" s="1">
         <v>16</v>
       </c>
+      <c r="C264" s="1"/>
       <c r="D264" t="s">
         <v>513</v>
       </c>
       <c r="E264" s="1">
         <v>1995</v>
       </c>
+      <c r="F264" s="1"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="10"/>
       <c r="L264" s="1">
         <v>160012</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M264" s="8"/>
+      <c r="N264" s="8"/>
+    </row>
+    <row r="265" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>521</v>
       </c>
       <c r="B265" s="1">
         <v>16</v>
       </c>
+      <c r="C265" s="1"/>
       <c r="D265" t="s">
         <v>520</v>
       </c>
       <c r="E265" s="1">
         <v>1985</v>
       </c>
+      <c r="F265" s="1"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="10"/>
       <c r="L265" s="1">
         <v>160015</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M265" s="8"/>
+      <c r="N265" s="8"/>
+    </row>
+    <row r="266" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B266" s="1">
         <v>16</v>
       </c>
+      <c r="C266" s="1"/>
       <c r="D266" t="s">
         <v>527</v>
       </c>
       <c r="E266" s="1">
         <v>1989</v>
       </c>
+      <c r="F266" s="1"/>
+      <c r="G266" s="8"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="10"/>
       <c r="L266" s="1">
         <v>160016</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M266" s="8"/>
+      <c r="N266" s="8"/>
+    </row>
+    <row r="267" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B267" s="1">
         <v>16</v>
       </c>
+      <c r="C267" s="1"/>
       <c r="D267" t="s">
         <v>532</v>
       </c>
       <c r="E267" s="1">
         <v>1990</v>
       </c>
+      <c r="F267" s="1"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="10"/>
       <c r="L267" s="1">
         <v>160017</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M267" s="8"/>
+      <c r="N267" s="8"/>
+    </row>
+    <row r="268" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B268" s="1">
         <v>16</v>
       </c>
+      <c r="C268" s="1"/>
       <c r="D268" t="s">
         <v>218</v>
       </c>
       <c r="E268" s="1">
         <v>1953</v>
       </c>
+      <c r="F268" s="1"/>
+      <c r="G268" s="8"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="10"/>
       <c r="L268" s="1">
         <v>160018</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M268" s="8"/>
+      <c r="N268" s="8"/>
+    </row>
+    <row r="269" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B269" s="1">
         <v>16</v>
       </c>
+      <c r="C269" s="1"/>
       <c r="D269" t="s">
         <v>221</v>
       </c>
       <c r="E269" s="1">
         <v>1962</v>
       </c>
+      <c r="F269" s="1"/>
+      <c r="G269" s="8"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="10"/>
       <c r="L269" s="1">
         <v>160019</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M269" s="8"/>
+      <c r="N269" s="8"/>
+    </row>
+    <row r="270" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B270" s="1">
         <v>16</v>
       </c>
+      <c r="C270" s="1"/>
       <c r="D270" t="s">
         <v>397</v>
       </c>
       <c r="E270" s="1">
         <v>1977</v>
       </c>
+      <c r="F270" s="1"/>
+      <c r="G270" s="8"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="10"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1">
         <v>160020</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M270" s="8"/>
+      <c r="N270" s="8"/>
+    </row>
+    <row r="271" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B271" s="1">
         <v>16</v>
       </c>
+      <c r="C271" s="1"/>
       <c r="D271" t="s">
         <v>552</v>
       </c>
       <c r="E271" s="1">
         <v>1958</v>
       </c>
+      <c r="F271" s="1"/>
+      <c r="G271" s="8"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="10"/>
       <c r="L271" s="1">
         <v>160021</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M271" s="8"/>
+      <c r="N271" s="8"/>
+    </row>
+    <row r="272" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B272" s="1">
         <v>16</v>
       </c>
+      <c r="C272" s="1"/>
       <c r="D272" t="s">
         <v>553</v>
       </c>
       <c r="E272" s="1">
         <v>1962</v>
       </c>
+      <c r="F272" s="1"/>
+      <c r="G272" s="8"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="10"/>
       <c r="L272" s="1">
         <v>160022</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M272" s="8"/>
+      <c r="N272" s="8"/>
+    </row>
+    <row r="273" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B273" s="1">
         <v>16</v>
       </c>
+      <c r="C273" s="1"/>
       <c r="D273" t="s">
         <v>558</v>
       </c>
       <c r="E273" s="1">
         <v>1975</v>
       </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="8"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="10"/>
       <c r="L273" s="1">
         <v>160023</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M273" s="8"/>
+      <c r="N273" s="8"/>
+    </row>
+    <row r="274" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B274" s="1">
         <v>16</v>
       </c>
+      <c r="C274" s="1"/>
       <c r="D274" t="s">
         <v>556</v>
       </c>
       <c r="E274" s="1">
         <v>1976</v>
       </c>
+      <c r="F274" s="1"/>
       <c r="G274" s="8" t="s">
         <v>567</v>
       </c>
+      <c r="H274" s="5"/>
+      <c r="I274" s="10"/>
       <c r="L274" s="1">
         <v>160024</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M274" s="8"/>
+      <c r="N274" s="8"/>
+    </row>
+    <row r="275" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B275" s="1">
         <v>16</v>
       </c>
+      <c r="C275" s="1"/>
       <c r="D275" t="s">
         <v>237</v>
       </c>
       <c r="E275" s="1">
         <v>1951</v>
       </c>
+      <c r="F275" s="1"/>
+      <c r="G275" s="8"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="10"/>
       <c r="L275" s="1">
         <v>160025</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M275" s="8"/>
+      <c r="N275" s="8"/>
+    </row>
+    <row r="276" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B276" s="1">
         <v>16</v>
       </c>
+      <c r="C276" s="1"/>
       <c r="D276" t="s">
         <v>239</v>
       </c>
       <c r="E276" s="1">
         <v>1963</v>
       </c>
+      <c r="F276" s="1"/>
+      <c r="G276" s="8"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="10"/>
       <c r="L276" s="1">
         <v>160026</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M276" s="8"/>
+      <c r="N276" s="8"/>
+    </row>
+    <row r="277" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B277" s="1">
         <v>16</v>
       </c>
+      <c r="C277" s="1"/>
       <c r="D277" t="s">
         <v>571</v>
       </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="8"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="10"/>
       <c r="L277" s="1">
         <v>160027</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M277" s="8"/>
+      <c r="N277" s="8"/>
+    </row>
+    <row r="278" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B278" s="1">
         <v>16</v>
       </c>
+      <c r="C278" s="1"/>
       <c r="D278" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E278" s="1">
         <v>1972</v>
       </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="8"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="10"/>
       <c r="L278" s="1">
         <v>160028</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M278" s="8"/>
+      <c r="N278" s="8"/>
+    </row>
+    <row r="279" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B279" s="1">
         <v>16</v>
       </c>
+      <c r="C279" s="1"/>
       <c r="D279" t="s">
         <v>267</v>
       </c>
       <c r="E279" s="1">
         <v>1979</v>
       </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="8"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="10"/>
       <c r="L279" s="1">
         <v>160029</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M279" s="8"/>
+      <c r="N279" s="8"/>
+    </row>
+    <row r="280" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B280" s="1">
         <v>16</v>
       </c>
+      <c r="C280" s="1"/>
       <c r="D280" t="s">
         <v>277</v>
       </c>
       <c r="E280" s="1">
         <v>1989</v>
       </c>
+      <c r="F280" s="1"/>
       <c r="G280" s="8" t="s">
         <v>278</v>
       </c>
+      <c r="H280" s="5"/>
+      <c r="I280" s="10"/>
       <c r="L280" s="1">
         <v>160030</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M280" s="8"/>
+      <c r="N280" s="8"/>
+    </row>
+    <row r="281" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B281" s="1">
         <v>16</v>
       </c>
+      <c r="C281" s="1"/>
       <c r="D281" t="s">
         <v>302</v>
       </c>
       <c r="E281" s="1">
         <v>1954</v>
       </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="10"/>
       <c r="L281" s="1">
         <v>160031</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M281" s="8"/>
+      <c r="N281" s="8"/>
+    </row>
+    <row r="282" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B282" s="1">
         <v>16</v>
       </c>
+      <c r="C282" s="1"/>
       <c r="D282" t="s">
         <v>239</v>
       </c>
       <c r="E282" s="1">
         <v>1960</v>
       </c>
+      <c r="F282" s="1"/>
       <c r="G282" s="8" t="s">
         <v>409</v>
       </c>
+      <c r="H282" s="5"/>
+      <c r="I282" s="10"/>
       <c r="L282" s="1">
         <v>160032</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M282" s="8"/>
+      <c r="N282" s="8"/>
+    </row>
+    <row r="283" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B283" s="1">
         <v>16</v>
       </c>
+      <c r="C283" s="1"/>
       <c r="D283" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E283" s="1">
         <v>1963</v>
       </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="10"/>
       <c r="L283" s="1">
         <v>160033</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M283" s="8"/>
+      <c r="N283" s="8"/>
+    </row>
+    <row r="284" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B284" s="1">
         <v>16</v>
       </c>
+      <c r="C284" s="1"/>
       <c r="D284" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E284" s="1">
         <v>1966</v>
       </c>
+      <c r="F284" s="1"/>
+      <c r="G284" s="8"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="10"/>
       <c r="L284" s="1">
         <v>160034</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M284" s="8"/>
+      <c r="N284" s="8"/>
+    </row>
+    <row r="285" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B285" s="1">
         <v>16</v>
       </c>
+      <c r="C285" s="1"/>
       <c r="D285" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E285" s="1">
         <v>1980</v>
       </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="10"/>
       <c r="L285" s="1">
         <v>160035</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M285" s="8"/>
+      <c r="N285" s="8"/>
+    </row>
+    <row r="286" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B286" s="1">
         <v>16</v>
       </c>
+      <c r="C286" s="1"/>
       <c r="D286" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F286" s="1"/>
+      <c r="G286" s="8"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="10"/>
       <c r="L286" s="1">
         <v>160036</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M286" s="8"/>
+      <c r="N286" s="8"/>
+    </row>
+    <row r="287" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B287" s="1">
         <v>16</v>
       </c>
+      <c r="C287" s="1"/>
       <c r="D287" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E287" s="1">
         <v>1985</v>
       </c>
+      <c r="F287" s="1"/>
+      <c r="G287" s="8"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="10"/>
       <c r="L287" s="1">
         <v>160037</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M287" s="8"/>
+      <c r="N287" s="8"/>
+    </row>
+    <row r="288" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B288" s="1">
         <v>16</v>
       </c>
+      <c r="C288" s="1"/>
       <c r="D288" t="s">
         <v>325</v>
       </c>
       <c r="E288" s="1">
         <v>1963</v>
       </c>
+      <c r="F288" s="1"/>
       <c r="G288" s="8" t="s">
         <v>411</v>
       </c>
+      <c r="H288" s="5"/>
+      <c r="I288" s="10"/>
       <c r="L288" s="1">
         <v>160038</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M288" s="8"/>
+      <c r="N288" s="8"/>
+    </row>
+    <row r="289" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B289" s="1">
         <v>16</v>
       </c>
+      <c r="C289" s="1"/>
       <c r="D289" t="s">
         <v>327</v>
       </c>
       <c r="E289" s="1">
         <v>1975</v>
       </c>
+      <c r="F289" s="1"/>
+      <c r="G289" s="8"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="10"/>
       <c r="L289" s="1">
         <v>160039</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M289" s="8"/>
+      <c r="N289" s="8"/>
+    </row>
+    <row r="290" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B290" s="1">
         <v>16</v>
       </c>
+      <c r="C290" s="1"/>
       <c r="D290" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E290" s="1">
         <v>1973</v>
       </c>
+      <c r="F290" s="1"/>
+      <c r="G290" s="8"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="10"/>
       <c r="L290" s="1">
         <v>160042</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M290" s="8"/>
+      <c r="N290" s="8"/>
+    </row>
+    <row r="291" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>170001</v>
       </c>
@@ -10989,34 +11536,49 @@
       <c r="E291" s="1">
         <v>2007</v>
       </c>
+      <c r="F291" s="1"/>
+      <c r="G291" s="8"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="10"/>
       <c r="J291" s="1">
         <v>160001</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L291" s="1"/>
+      <c r="M291" s="8"/>
+      <c r="N291" s="8"/>
+    </row>
+    <row r="292" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B292" s="1">
         <v>17</v>
       </c>
+      <c r="C292" s="1"/>
       <c r="D292" t="s">
         <v>43</v>
       </c>
       <c r="E292" s="1">
         <v>2012</v>
       </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="8"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="10"/>
       <c r="J292" s="1">
         <v>160001</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L292" s="1"/>
+      <c r="M292" s="8"/>
+      <c r="N292" s="8"/>
+    </row>
+    <row r="293" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>170002</v>
       </c>
@@ -11032,34 +11594,49 @@
       <c r="E293" s="1">
         <v>2020</v>
       </c>
+      <c r="F293" s="1"/>
+      <c r="G293" s="8"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="10"/>
       <c r="J293" s="1">
         <v>160002</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L293" s="1"/>
+      <c r="M293" s="8"/>
+      <c r="N293" s="8"/>
+    </row>
+    <row r="294" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B294" s="1">
         <v>17</v>
       </c>
+      <c r="C294" s="1"/>
       <c r="D294" t="s">
         <v>45</v>
       </c>
       <c r="E294" s="1">
         <v>2016</v>
       </c>
+      <c r="F294" s="1"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="10"/>
       <c r="J294" s="1">
         <v>160002</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L294" s="1"/>
+      <c r="M294" s="8"/>
+      <c r="N294" s="8"/>
+    </row>
+    <row r="295" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>170003</v>
       </c>
@@ -11075,14 +11652,21 @@
       <c r="E295" s="1">
         <v>2005</v>
       </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="8"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="10"/>
       <c r="J295" s="1">
         <v>160004</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L295" s="1"/>
+      <c r="M295" s="8"/>
+      <c r="N295" s="8"/>
+    </row>
+    <row r="296" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>170004</v>
       </c>
@@ -11098,34 +11682,49 @@
       <c r="E296" s="1">
         <v>2009</v>
       </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="8"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="10"/>
       <c r="J296" s="1">
         <v>160004</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L296" s="1"/>
+      <c r="M296" s="8"/>
+      <c r="N296" s="8"/>
+    </row>
+    <row r="297" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B297" s="1">
         <v>17</v>
       </c>
+      <c r="C297" s="1"/>
       <c r="D297" t="s">
         <v>47</v>
       </c>
       <c r="E297" s="1">
         <v>2003</v>
       </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="8"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="10"/>
       <c r="J297" s="1">
         <v>160004</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L297" s="1"/>
+      <c r="M297" s="8"/>
+      <c r="N297" s="8"/>
+    </row>
+    <row r="298" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>170005</v>
       </c>
@@ -11141,14 +11740,21 @@
       <c r="E298" s="1">
         <v>2004</v>
       </c>
+      <c r="F298" s="1"/>
+      <c r="G298" s="8"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="10"/>
       <c r="J298" s="1">
         <v>160005</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L298" s="1"/>
+      <c r="M298" s="8"/>
+      <c r="N298" s="8"/>
+    </row>
+    <row r="299" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>170049</v>
       </c>
@@ -11164,74 +11770,105 @@
       <c r="E299" s="1">
         <v>2010</v>
       </c>
+      <c r="F299" s="1"/>
+      <c r="G299" s="8"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="10"/>
       <c r="J299" s="1">
         <v>160005</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L299" s="1"/>
+      <c r="M299" s="8"/>
+      <c r="N299" s="8"/>
+    </row>
+    <row r="300" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B300" s="1">
         <v>17</v>
       </c>
+      <c r="C300" s="1"/>
       <c r="D300" t="s">
         <v>48</v>
       </c>
       <c r="E300" s="1">
         <v>2007</v>
       </c>
+      <c r="F300" s="1"/>
+      <c r="G300" s="8"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="10"/>
       <c r="J300" s="1">
         <v>160005</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L300" s="1"/>
+      <c r="M300" s="8"/>
+      <c r="N300" s="8"/>
+    </row>
+    <row r="301" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B301" s="1">
         <v>17</v>
       </c>
+      <c r="C301" s="1"/>
       <c r="D301" t="s">
         <v>488</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F301" s="1"/>
+      <c r="G301" s="8"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="10"/>
       <c r="J301" s="1">
         <v>160006</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L301" s="1"/>
+      <c r="M301" s="8"/>
+      <c r="N301" s="8"/>
+    </row>
+    <row r="302" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B302" s="1">
         <v>17</v>
       </c>
+      <c r="C302" s="1"/>
       <c r="D302" t="s">
         <v>489</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="8"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="10"/>
       <c r="J302" s="1">
         <v>160006</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L302" s="1"/>
+      <c r="M302" s="8"/>
+      <c r="N302" s="8"/>
+    </row>
+    <row r="303" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>170016</v>
       </c>
@@ -11247,54 +11884,77 @@
       <c r="E303" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F303" s="1"/>
+      <c r="G303" s="8"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="10"/>
       <c r="J303" s="1">
         <v>160007</v>
       </c>
       <c r="K303" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L303" s="1"/>
+      <c r="M303" s="8"/>
+      <c r="N303" s="8"/>
+    </row>
+    <row r="304" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B304" s="1">
         <v>17</v>
       </c>
+      <c r="C304" s="1"/>
       <c r="D304" t="s">
         <v>43</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F304" s="1"/>
+      <c r="G304" s="8"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="10"/>
       <c r="J304" s="1">
         <v>160007</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L304" s="1"/>
+      <c r="M304" s="8"/>
+      <c r="N304" s="8"/>
+    </row>
+    <row r="305" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B305" s="1">
         <v>17</v>
       </c>
+      <c r="C305" s="1"/>
       <c r="D305" t="s">
         <v>494</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F305" s="1"/>
+      <c r="G305" s="8"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="10"/>
       <c r="J305" s="1">
         <v>160007</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L305" s="1"/>
+      <c r="M305" s="8"/>
+      <c r="N305" s="8"/>
+    </row>
+    <row r="306" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>170017</v>
       </c>
@@ -11310,14 +11970,21 @@
       <c r="E306" s="1">
         <v>2012</v>
       </c>
+      <c r="F306" s="1"/>
+      <c r="G306" s="8"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="10"/>
       <c r="J306" s="1">
         <v>160008</v>
       </c>
       <c r="K306" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L306" s="1"/>
+      <c r="M306" s="8"/>
+      <c r="N306" s="8"/>
+    </row>
+    <row r="307" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>170018</v>
       </c>
@@ -11333,34 +12000,49 @@
       <c r="E307" s="1">
         <v>2014</v>
       </c>
+      <c r="F307" s="1"/>
+      <c r="G307" s="8"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="10"/>
       <c r="J307" s="1">
         <v>160008</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L307" s="1"/>
+      <c r="M307" s="8"/>
+      <c r="N307" s="8"/>
+    </row>
+    <row r="308" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B308" s="1">
         <v>17</v>
       </c>
+      <c r="C308" s="1"/>
       <c r="D308" t="s">
         <v>502</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F308" s="1"/>
+      <c r="G308" s="8"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="10"/>
       <c r="J308" s="1">
         <v>160008</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L308" s="1"/>
+      <c r="M308" s="8"/>
+      <c r="N308" s="8"/>
+    </row>
+    <row r="309" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>170019</v>
       </c>
@@ -11371,82 +12053,112 @@
         <v>52</v>
       </c>
       <c r="D309" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E309" s="1">
         <v>2018</v>
       </c>
+      <c r="F309" s="1"/>
+      <c r="G309" s="8"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="10"/>
       <c r="J309" s="1">
         <v>160010</v>
       </c>
       <c r="K309" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L309" s="1"/>
+      <c r="M309" s="8"/>
+      <c r="N309" s="8"/>
+    </row>
+    <row r="310" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B310" s="1">
         <v>17</v>
       </c>
+      <c r="C310" s="1"/>
       <c r="D310" t="s">
         <v>506</v>
       </c>
       <c r="E310" s="1">
         <v>2018</v>
       </c>
+      <c r="F310" s="1"/>
+      <c r="G310" s="8"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="10"/>
       <c r="J310" s="1">
         <v>160010</v>
       </c>
       <c r="K310" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L310" s="1"/>
+      <c r="M310" s="8"/>
+      <c r="N310" s="8"/>
+    </row>
+    <row r="311" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>516</v>
       </c>
       <c r="B311" s="1">
         <v>17</v>
       </c>
+      <c r="C311" s="1"/>
       <c r="D311" t="s">
         <v>509</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F311" s="1"/>
       <c r="G311" s="8" t="s">
         <v>511</v>
       </c>
+      <c r="H311" s="5"/>
+      <c r="I311" s="10"/>
       <c r="J311" s="1">
         <v>160011</v>
       </c>
       <c r="K311" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L311" s="1"/>
+      <c r="M311" s="8"/>
+      <c r="N311" s="8"/>
+    </row>
+    <row r="312" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B312" s="1">
         <v>17</v>
       </c>
+      <c r="C312" s="1"/>
       <c r="D312" t="s">
         <v>510</v>
       </c>
       <c r="E312" s="1">
         <v>2023</v>
       </c>
+      <c r="F312" s="1"/>
+      <c r="G312" s="8"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="10"/>
       <c r="J312" s="1">
         <v>160011</v>
       </c>
       <c r="K312" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L312" s="1"/>
+      <c r="M312" s="8"/>
+      <c r="N312" s="8"/>
+    </row>
+    <row r="313" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>170020</v>
       </c>
@@ -11462,14 +12174,21 @@
       <c r="E313" s="1">
         <v>2018</v>
       </c>
+      <c r="F313" s="1"/>
+      <c r="G313" s="8"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="10"/>
       <c r="J313" s="1">
         <v>160013</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="L313" s="1"/>
+      <c r="M313" s="8"/>
+      <c r="N313" s="8"/>
+    </row>
+    <row r="314" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>170021</v>
       </c>
@@ -11485,14 +12204,21 @@
       <c r="E314" s="1">
         <v>2022</v>
       </c>
+      <c r="F314" s="1"/>
+      <c r="G314" s="8"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="10"/>
       <c r="J314" s="1">
         <v>160013</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="L314" s="1"/>
+      <c r="M314" s="8"/>
+      <c r="N314" s="8"/>
+    </row>
+    <row r="315" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>170022</v>
       </c>
@@ -11508,54 +12234,77 @@
       <c r="E315" s="1">
         <v>2007</v>
       </c>
+      <c r="F315" s="1"/>
+      <c r="G315" s="8"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="10"/>
       <c r="J315" s="1">
         <v>160015</v>
       </c>
       <c r="K315" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L315" s="1"/>
+      <c r="M315" s="8"/>
+      <c r="N315" s="8"/>
+    </row>
+    <row r="316" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B316" s="1">
         <v>17</v>
       </c>
+      <c r="C316" s="1"/>
       <c r="D316" t="s">
         <v>522</v>
       </c>
       <c r="E316" s="1">
         <v>2005</v>
       </c>
+      <c r="F316" s="1"/>
+      <c r="G316" s="8"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="10"/>
       <c r="J316" s="1">
         <v>160015</v>
       </c>
       <c r="K316" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L316" s="1"/>
+      <c r="M316" s="8"/>
+      <c r="N316" s="8"/>
+    </row>
+    <row r="317" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B317" s="1">
         <v>17</v>
       </c>
+      <c r="C317" s="1"/>
       <c r="D317" t="s">
         <v>524</v>
       </c>
       <c r="E317" s="1">
         <v>2015</v>
       </c>
+      <c r="F317" s="1"/>
+      <c r="G317" s="8"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="10"/>
       <c r="J317" s="1">
         <v>160015</v>
       </c>
       <c r="K317" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L317" s="1"/>
+      <c r="M317" s="8"/>
+      <c r="N317" s="8"/>
+    </row>
+    <row r="318" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>170023</v>
       </c>
@@ -11571,34 +12320,49 @@
       <c r="E318" s="1">
         <v>2011</v>
       </c>
+      <c r="F318" s="1"/>
+      <c r="G318" s="8"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="10"/>
       <c r="J318" s="1">
         <v>160016</v>
       </c>
       <c r="K318" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L318" s="1"/>
+      <c r="M318" s="8"/>
+      <c r="N318" s="8"/>
+    </row>
+    <row r="319" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B319" s="1">
         <v>17</v>
       </c>
+      <c r="C319" s="1"/>
       <c r="D319" t="s">
         <v>530</v>
       </c>
       <c r="E319" s="1">
         <v>2015</v>
       </c>
+      <c r="F319" s="1"/>
+      <c r="G319" s="8"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="10"/>
       <c r="J319" s="1">
         <v>160016</v>
       </c>
       <c r="K319" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L319" s="1"/>
+      <c r="M319" s="8"/>
+      <c r="N319" s="8"/>
+    </row>
+    <row r="320" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>170024</v>
       </c>
@@ -11614,14 +12378,21 @@
       <c r="E320" s="1">
         <v>2013</v>
       </c>
+      <c r="F320" s="1"/>
+      <c r="G320" s="8"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="10"/>
       <c r="J320" s="1">
         <v>160017</v>
       </c>
       <c r="K320" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L320" s="1"/>
+      <c r="M320" s="8"/>
+      <c r="N320" s="8"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>536</v>
       </c>
@@ -11640,8 +12411,10 @@
       <c r="K321" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N321" s="8"/>
+      <c r="O321"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>170006</v>
       </c>
@@ -11663,8 +12436,10 @@
       <c r="K322" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N322" s="8"/>
+      <c r="O322"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>539</v>
       </c>
@@ -11683,8 +12458,10 @@
       <c r="K323" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N323" s="8"/>
+      <c r="O323"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>540</v>
       </c>
@@ -11703,8 +12480,10 @@
       <c r="K324" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N324" s="8"/>
+      <c r="O324"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>541</v>
       </c>
@@ -11723,8 +12502,10 @@
       <c r="K325" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N325" s="8"/>
+      <c r="O325"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>170007</v>
       </c>
@@ -11746,8 +12527,10 @@
       <c r="K326" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N326" s="8"/>
+      <c r="O326"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>544</v>
       </c>
@@ -11766,8 +12549,10 @@
       <c r="K327" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N327" s="8"/>
+      <c r="O327"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>545</v>
       </c>
@@ -11786,8 +12571,10 @@
       <c r="K328" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N328" s="8"/>
+      <c r="O328"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>546</v>
       </c>
@@ -11806,8 +12593,10 @@
       <c r="K329" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N329" s="8"/>
+      <c r="O329"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>170025</v>
       </c>
@@ -11829,8 +12618,10 @@
       <c r="K330" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N330" s="8"/>
+      <c r="O330"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>549</v>
       </c>
@@ -11849,8 +12640,10 @@
       <c r="K331" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N331" s="8"/>
+      <c r="O331"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>550</v>
       </c>
@@ -11869,8 +12662,10 @@
       <c r="K332" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N332" s="8"/>
+      <c r="O332"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>170026</v>
       </c>
@@ -11899,10 +12694,10 @@
         <v>229</v>
       </c>
       <c r="M333" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>170027</v>
       </c>
@@ -11924,8 +12719,10 @@
       <c r="K334" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N334" s="8"/>
+      <c r="O334"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>551</v>
       </c>
@@ -11944,8 +12741,10 @@
       <c r="K335" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N335" s="8"/>
+      <c r="O335"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>170030</v>
       </c>
@@ -11967,8 +12766,10 @@
       <c r="K336" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N336" s="8"/>
+      <c r="O336"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>562</v>
       </c>
@@ -11987,8 +12788,10 @@
       <c r="K337" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N337" s="8"/>
+      <c r="O337"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>563</v>
       </c>
@@ -12005,13 +12808,13 @@
         <v>2007</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H338" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I338" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J338" s="1">
         <v>160023</v>
@@ -12023,7 +12826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>170031</v>
       </c>
@@ -12045,8 +12848,10 @@
       <c r="K339" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N339" s="8"/>
+      <c r="O339"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>566</v>
       </c>
@@ -12065,8 +12870,10 @@
       <c r="K340" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N340" s="8"/>
+      <c r="O340"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>170032</v>
       </c>
@@ -12088,8 +12895,10 @@
       <c r="K341" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N341" s="8"/>
+      <c r="O341"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>170033</v>
       </c>
@@ -12111,8 +12920,10 @@
       <c r="K342" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N342" s="8"/>
+      <c r="O342"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>170034</v>
       </c>
@@ -12134,8 +12945,10 @@
       <c r="K343" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N343" s="8"/>
+      <c r="O343"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>570</v>
       </c>
@@ -12154,8 +12967,10 @@
       <c r="K344" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N344" s="8"/>
+      <c r="O344"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>170035</v>
       </c>
@@ -12177,8 +12992,10 @@
       <c r="K345" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N345" s="8"/>
+      <c r="O345"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>170036</v>
       </c>
@@ -12189,7 +13006,7 @@
         <v>52</v>
       </c>
       <c r="D346" t="s">
-        <v>572</v>
+        <v>812</v>
       </c>
       <c r="E346" s="1">
         <v>1990</v>
@@ -12200,8 +13017,10 @@
       <c r="K346" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N346" s="8"/>
+      <c r="O346"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>170037</v>
       </c>
@@ -12223,10 +13042,12 @@
       <c r="K347" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N347" s="8"/>
+      <c r="O347"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B348" s="1">
         <v>17</v>
@@ -12243,8 +13064,10 @@
       <c r="K348" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N348" s="8"/>
+      <c r="O348"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>170038</v>
       </c>
@@ -12255,7 +13078,7 @@
         <v>52</v>
       </c>
       <c r="D349" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E349" s="1">
         <v>1994</v>
@@ -12264,18 +13087,20 @@
         <v>160028</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="N349" s="8"/>
+      <c r="O349"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B350" s="1">
         <v>17</v>
       </c>
       <c r="D350" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E350" s="1">
         <v>1992</v>
@@ -12284,10 +13109,12 @@
         <v>160028</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="N350" s="8"/>
+      <c r="O350"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>170010</v>
       </c>
@@ -12309,8 +13136,10 @@
       <c r="K351" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N351" s="8"/>
+      <c r="O351"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>170011</v>
       </c>
@@ -12332,48 +13161,66 @@
       <c r="K352" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N352" s="8"/>
+      <c r="O352"/>
+    </row>
+    <row r="353" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B353" s="1">
         <v>17</v>
       </c>
+      <c r="C353" s="1"/>
       <c r="D353" t="s">
         <v>270</v>
       </c>
       <c r="E353" s="1">
         <v>2016</v>
       </c>
+      <c r="F353" s="1"/>
+      <c r="G353" s="8"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="10"/>
       <c r="J353" s="1">
         <v>160029</v>
       </c>
       <c r="K353" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L353" s="1"/>
+      <c r="M353" s="8"/>
+      <c r="N353" s="8"/>
+    </row>
+    <row r="354" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B354" s="1">
         <v>17</v>
       </c>
+      <c r="C354" s="1"/>
       <c r="D354" t="s">
         <v>280</v>
       </c>
       <c r="E354" s="1">
         <v>2011</v>
       </c>
+      <c r="F354" s="1"/>
+      <c r="G354" s="8"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="10"/>
       <c r="J354" s="1">
         <v>160030</v>
       </c>
       <c r="K354" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L354" s="1"/>
+      <c r="M354" s="8"/>
+      <c r="N354" s="8"/>
+    </row>
+    <row r="355" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>170012</v>
       </c>
@@ -12389,14 +13236,21 @@
       <c r="E355" s="1">
         <v>1975</v>
       </c>
+      <c r="F355" s="1"/>
+      <c r="G355" s="8"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="10"/>
       <c r="J355" s="1">
         <v>160031</v>
       </c>
       <c r="K355" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L355" s="1"/>
+      <c r="M355" s="8"/>
+      <c r="N355" s="8"/>
+    </row>
+    <row r="356" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>170013</v>
       </c>
@@ -12412,74 +13266,105 @@
       <c r="E356" s="1">
         <v>1978</v>
       </c>
+      <c r="F356" s="1"/>
+      <c r="G356" s="8"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="10"/>
       <c r="J356" s="1">
         <v>160031</v>
       </c>
       <c r="K356" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L356" s="1"/>
+      <c r="M356" s="8"/>
+      <c r="N356" s="8"/>
+    </row>
+    <row r="357" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B357" s="1">
         <v>17</v>
       </c>
+      <c r="C357" s="1"/>
       <c r="D357" t="s">
         <v>423</v>
       </c>
       <c r="E357" s="1">
         <v>1981</v>
       </c>
+      <c r="F357" s="1"/>
+      <c r="G357" s="8"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="10"/>
       <c r="J357" s="1">
         <v>160031</v>
       </c>
       <c r="K357" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L357" s="1"/>
+      <c r="M357" s="8"/>
+      <c r="N357" s="8"/>
+    </row>
+    <row r="358" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B358" s="1">
         <v>17</v>
       </c>
+      <c r="C358" s="1"/>
       <c r="D358" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E358" s="1">
         <v>1981</v>
       </c>
+      <c r="F358" s="1"/>
+      <c r="G358" s="8"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="10"/>
       <c r="J358" s="1">
         <v>160031</v>
       </c>
       <c r="K358" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L358" s="1"/>
+      <c r="M358" s="8"/>
+      <c r="N358" s="8"/>
+    </row>
+    <row r="359" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B359" s="1">
         <v>17</v>
       </c>
+      <c r="C359" s="1"/>
       <c r="D359" t="s">
         <v>438</v>
       </c>
       <c r="E359" s="1">
         <v>1986</v>
       </c>
+      <c r="F359" s="1"/>
+      <c r="G359" s="8"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="10"/>
       <c r="J359" s="1">
         <v>160031</v>
       </c>
       <c r="K359" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L359" s="1"/>
+      <c r="M359" s="8"/>
+      <c r="N359" s="8"/>
+    </row>
+    <row r="360" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>170039</v>
       </c>
@@ -12490,39 +13375,54 @@
         <v>52</v>
       </c>
       <c r="D360" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E360" s="1">
         <v>1997</v>
       </c>
+      <c r="F360" s="1"/>
+      <c r="G360" s="8"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="10"/>
       <c r="J360" s="1">
         <v>160032</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="L360" s="1"/>
+      <c r="M360" s="8"/>
+      <c r="N360" s="8"/>
+    </row>
+    <row r="361" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B361" s="1">
         <v>17</v>
       </c>
+      <c r="C361" s="1"/>
       <c r="D361" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E361" s="1">
         <v>1992</v>
       </c>
+      <c r="F361" s="1"/>
+      <c r="G361" s="8"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="10"/>
       <c r="J361" s="1">
         <v>160032</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="L361" s="1"/>
+      <c r="M361" s="8"/>
+      <c r="N361" s="8"/>
+    </row>
+    <row r="362" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>170040</v>
       </c>
@@ -12538,14 +13438,21 @@
       <c r="E362" s="1">
         <v>1987</v>
       </c>
+      <c r="F362" s="1"/>
+      <c r="G362" s="8"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="10"/>
       <c r="J362" s="1">
         <v>160033</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="L362" s="1"/>
+      <c r="M362" s="8"/>
+      <c r="N362" s="8"/>
+    </row>
+    <row r="363" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>170041</v>
       </c>
@@ -12556,19 +13463,26 @@
         <v>52</v>
       </c>
       <c r="D363" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E363" s="1">
         <v>1998</v>
       </c>
+      <c r="F363" s="1"/>
+      <c r="G363" s="8"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="10"/>
       <c r="J363" s="1">
         <v>160033</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="L363" s="1"/>
+      <c r="M363" s="8"/>
+      <c r="N363" s="8"/>
+    </row>
+    <row r="364" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>170043</v>
       </c>
@@ -12579,39 +13493,54 @@
         <v>52</v>
       </c>
       <c r="D364" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E364" s="1">
         <v>1992</v>
       </c>
+      <c r="F364" s="1"/>
+      <c r="G364" s="8"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="10"/>
       <c r="J364" s="1">
         <v>160034</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="L364" s="1"/>
+      <c r="M364" s="8"/>
+      <c r="N364" s="8"/>
+    </row>
+    <row r="365" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B365" s="1">
         <v>17</v>
       </c>
+      <c r="C365" s="1"/>
       <c r="D365" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E365" s="1">
         <v>1996</v>
       </c>
+      <c r="F365" s="1"/>
+      <c r="G365" s="8"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="10"/>
       <c r="J365" s="1">
         <v>160034</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="L365" s="1"/>
+      <c r="M365" s="8"/>
+      <c r="N365" s="8"/>
+    </row>
+    <row r="366" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>170044</v>
       </c>
@@ -12622,19 +13551,26 @@
         <v>52</v>
       </c>
       <c r="D366" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E366" s="1">
         <v>2004</v>
       </c>
+      <c r="F366" s="1"/>
+      <c r="G366" s="8"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="10"/>
       <c r="J366" s="1">
         <v>160035</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="L366" s="1"/>
+      <c r="M366" s="8"/>
+      <c r="N366" s="8"/>
+    </row>
+    <row r="367" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>170045</v>
       </c>
@@ -12645,39 +13581,54 @@
         <v>52</v>
       </c>
       <c r="D367" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E367" s="1">
         <v>2015</v>
       </c>
+      <c r="F367" s="1"/>
+      <c r="G367" s="8"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="10"/>
       <c r="J367" s="1">
         <v>160035</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="L367" s="1"/>
+      <c r="M367" s="8"/>
+      <c r="N367" s="8"/>
+    </row>
+    <row r="368" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B368" s="1">
         <v>17</v>
       </c>
+      <c r="C368" s="1"/>
       <c r="D368" t="s">
-        <v>602</v>
+        <v>810</v>
       </c>
       <c r="E368" s="1">
         <v>2009</v>
       </c>
+      <c r="F368" s="1"/>
+      <c r="G368" s="8"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="10"/>
       <c r="J368" s="1">
         <v>160035</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="L368" s="1"/>
+      <c r="M368" s="8"/>
+      <c r="N368" s="8"/>
+    </row>
+    <row r="369" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>170046</v>
       </c>
@@ -12688,19 +13639,26 @@
         <v>52</v>
       </c>
       <c r="D369" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E369" s="1">
         <v>2002</v>
       </c>
+      <c r="F369" s="1"/>
+      <c r="G369" s="8"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="10"/>
       <c r="J369" s="1">
         <v>160036</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="L369" s="1"/>
+      <c r="M369" s="8"/>
+      <c r="N369" s="8"/>
+    </row>
+    <row r="370" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>170047</v>
       </c>
@@ -12711,59 +13669,82 @@
         <v>52</v>
       </c>
       <c r="D370" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E370" s="1">
         <v>2006</v>
       </c>
+      <c r="F370" s="1"/>
+      <c r="G370" s="8"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="10"/>
       <c r="J370" s="1">
         <v>160036</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="L370" s="1"/>
+      <c r="M370" s="8"/>
+      <c r="N370" s="8"/>
+    </row>
+    <row r="371" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B371" s="1">
         <v>17</v>
       </c>
+      <c r="C371" s="1"/>
       <c r="D371" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E371" s="1">
         <v>2012</v>
       </c>
+      <c r="F371" s="1"/>
+      <c r="G371" s="8"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="10"/>
       <c r="J371" s="1">
         <v>160037</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="L371" s="1"/>
+      <c r="M371" s="8"/>
+      <c r="N371" s="8"/>
+    </row>
+    <row r="372" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B372" s="1">
         <v>17</v>
       </c>
+      <c r="C372" s="1"/>
       <c r="D372" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E372" s="1">
         <v>2014</v>
       </c>
+      <c r="F372" s="1"/>
+      <c r="G372" s="8"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="10"/>
       <c r="J372" s="1">
         <v>160037</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="L372" s="1"/>
+      <c r="M372" s="8"/>
+      <c r="N372" s="8"/>
+    </row>
+    <row r="373" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>170048</v>
       </c>
@@ -12779,34 +13760,49 @@
       <c r="E373" s="1">
         <v>1982</v>
       </c>
+      <c r="F373" s="1"/>
+      <c r="G373" s="8"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="10"/>
       <c r="J373" s="1">
         <v>160038</v>
       </c>
       <c r="K373" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L373" s="1"/>
+      <c r="M373" s="8"/>
+      <c r="N373" s="8"/>
+    </row>
+    <row r="374" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B374" s="1">
         <v>17</v>
       </c>
+      <c r="C374" s="1"/>
       <c r="D374" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E374" s="1">
         <v>1986</v>
       </c>
+      <c r="F374" s="1"/>
+      <c r="G374" s="8"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="10"/>
       <c r="J374" s="1">
         <v>160038</v>
       </c>
       <c r="K374" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L374" s="1"/>
+      <c r="M374" s="8"/>
+      <c r="N374" s="8"/>
+    </row>
+    <row r="375" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>170015</v>
       </c>
@@ -12822,74 +13818,105 @@
       <c r="E375" s="1">
         <v>2005</v>
       </c>
+      <c r="F375" s="1"/>
+      <c r="G375" s="8"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="10"/>
       <c r="J375" s="1">
         <v>160039</v>
       </c>
       <c r="K375" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L375" s="1"/>
+      <c r="M375" s="8"/>
+      <c r="N375" s="8"/>
+    </row>
+    <row r="376" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B376" s="1">
         <v>17</v>
       </c>
+      <c r="C376" s="1"/>
       <c r="D376" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E376" s="1">
         <v>1996</v>
       </c>
+      <c r="F376" s="1"/>
+      <c r="G376" s="8"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="10"/>
       <c r="J376" s="1">
         <v>160039</v>
       </c>
       <c r="K376" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L376" s="1"/>
+      <c r="M376" s="8"/>
+      <c r="N376" s="8"/>
+    </row>
+    <row r="377" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B377" s="1">
         <v>17</v>
       </c>
+      <c r="C377" s="1"/>
       <c r="D377" t="s">
         <v>426</v>
       </c>
       <c r="E377" s="1">
         <v>1999</v>
       </c>
+      <c r="F377" s="1"/>
+      <c r="G377" s="8"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="10"/>
       <c r="J377" s="1">
         <v>160039</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L377" s="1"/>
+      <c r="M377" s="8"/>
+      <c r="N377" s="8"/>
+    </row>
+    <row r="378" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B378" s="1">
         <v>17</v>
       </c>
+      <c r="C378" s="1"/>
       <c r="D378" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E378" s="1">
         <v>2001</v>
       </c>
+      <c r="F378" s="1"/>
+      <c r="G378" s="8"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="10"/>
       <c r="J378" s="1">
         <v>160039</v>
       </c>
       <c r="K378" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L378" s="1"/>
+      <c r="M378" s="8"/>
+      <c r="N378" s="8"/>
+    </row>
+    <row r="379" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>170042</v>
       </c>
@@ -12900,39 +13927,54 @@
         <v>52</v>
       </c>
       <c r="D379" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E379" s="1">
         <v>2003</v>
       </c>
+      <c r="F379" s="1"/>
+      <c r="G379" s="8"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="10"/>
       <c r="J379" s="1">
         <v>160042</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="L379" s="1"/>
+      <c r="M379" s="8"/>
+      <c r="N379" s="8"/>
+    </row>
+    <row r="380" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B380" s="1">
         <v>17</v>
       </c>
+      <c r="C380" s="1"/>
       <c r="D380" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F380" s="1"/>
+      <c r="G380" s="8"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="10"/>
       <c r="J380" s="1">
         <v>160042</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="L380" s="1"/>
+      <c r="M380" s="8"/>
+      <c r="N380" s="8"/>
+    </row>
+    <row r="381" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>170028</v>
       </c>
@@ -12948,11 +13990,18 @@
       <c r="E381" s="1">
         <v>1987</v>
       </c>
+      <c r="F381" s="1"/>
+      <c r="G381" s="8"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="10"/>
       <c r="K381" s="1">
         <v>160022</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L381" s="1"/>
+      <c r="M381" s="8"/>
+      <c r="N381" s="8"/>
+    </row>
+    <row r="382" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>170029</v>
       </c>
@@ -12968,224 +14017,315 @@
       <c r="E382" s="1">
         <v>1989</v>
       </c>
+      <c r="F382" s="1"/>
+      <c r="G382" s="8"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="10"/>
       <c r="K382" s="1">
         <v>160022</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L382" s="1"/>
+      <c r="M382" s="8"/>
+      <c r="N382" s="8"/>
+    </row>
+    <row r="383" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B383" s="1">
         <v>17</v>
       </c>
+      <c r="C383" s="1"/>
       <c r="D383" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E383" s="1">
         <v>1991</v>
       </c>
+      <c r="F383" s="1"/>
+      <c r="G383" s="8"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="10"/>
       <c r="L383" s="1">
         <v>170006</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M383" s="8"/>
+      <c r="N383" s="8"/>
+    </row>
+    <row r="384" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B384" s="1">
         <v>17</v>
       </c>
+      <c r="C384" s="1"/>
       <c r="D384" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E384" s="1">
         <v>1992</v>
       </c>
+      <c r="F384" s="1"/>
+      <c r="G384" s="8"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="10"/>
       <c r="L384" s="1">
         <v>170007</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M384" s="8"/>
+      <c r="N384" s="8"/>
+    </row>
+    <row r="385" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B385" s="1">
         <v>17</v>
       </c>
+      <c r="C385" s="1"/>
       <c r="D385" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E385" s="1">
         <v>1983</v>
       </c>
+      <c r="F385" s="1"/>
+      <c r="G385" s="8"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="10"/>
       <c r="L385" s="1">
         <v>170012</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M385" s="8"/>
+      <c r="N385" s="8"/>
+    </row>
+    <row r="386" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B386" s="1">
         <v>17</v>
       </c>
+      <c r="C386" s="1"/>
       <c r="D386" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E386" s="1">
         <v>1979</v>
       </c>
+      <c r="F386" s="1"/>
+      <c r="G386" s="8"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="10"/>
       <c r="L386" s="1">
         <v>170013</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M386" s="8"/>
+      <c r="N386" s="8"/>
+    </row>
+    <row r="387" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B387" s="1">
         <v>17</v>
       </c>
+      <c r="C387" s="1"/>
       <c r="D387" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E387" s="1">
         <v>1983</v>
       </c>
+      <c r="F387" s="1"/>
+      <c r="G387" s="8"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="10"/>
       <c r="L387" s="1">
         <v>170027</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M387" s="8"/>
+      <c r="N387" s="8"/>
+    </row>
+    <row r="388" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B388" s="1">
         <v>17</v>
       </c>
+      <c r="C388" s="1"/>
       <c r="D388" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F388" s="1"/>
+      <c r="G388" s="8"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="10"/>
       <c r="L388" s="1">
         <v>170028</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M388" s="8"/>
+      <c r="N388" s="8"/>
+    </row>
+    <row r="389" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B389" s="1">
         <v>17</v>
       </c>
+      <c r="C389" s="1"/>
       <c r="D389" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E389" s="1">
         <v>1991</v>
       </c>
+      <c r="F389" s="1"/>
+      <c r="G389" s="8"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="10"/>
       <c r="L389" s="1">
         <v>170029</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M389" s="8"/>
+      <c r="N389" s="8"/>
+    </row>
+    <row r="390" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B390" s="1">
         <v>17</v>
       </c>
+      <c r="C390" s="1"/>
       <c r="D390" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E390" s="1">
         <v>1983</v>
       </c>
+      <c r="F390" s="1"/>
+      <c r="G390" s="8"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="10"/>
       <c r="L390" s="1">
         <v>170032</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M390" s="8"/>
+      <c r="N390" s="8"/>
+    </row>
+    <row r="391" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B391" s="1">
         <v>17</v>
       </c>
+      <c r="C391" s="1"/>
       <c r="D391" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E391" s="1">
         <v>1987</v>
       </c>
+      <c r="F391" s="1"/>
+      <c r="G391" s="8"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="10"/>
       <c r="L391" s="1">
         <v>170033</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M391" s="8"/>
+      <c r="N391" s="8"/>
+    </row>
+    <row r="392" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B392" s="1">
         <v>17</v>
       </c>
+      <c r="C392" s="1"/>
       <c r="D392" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E392" s="1">
         <v>1990</v>
       </c>
+      <c r="F392" s="1"/>
+      <c r="G392" s="8"/>
+      <c r="H392" s="5"/>
+      <c r="I392" s="10"/>
       <c r="L392" s="1">
         <v>170034</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M392" s="8"/>
+      <c r="N392" s="8"/>
+    </row>
+    <row r="393" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B393" s="1">
         <v>17</v>
       </c>
+      <c r="C393" s="1"/>
       <c r="D393" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E393" s="1">
         <v>1984</v>
       </c>
+      <c r="F393" s="1"/>
+      <c r="G393" s="8"/>
+      <c r="H393" s="5"/>
+      <c r="I393" s="10"/>
       <c r="L393" s="1">
         <v>170035</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M393" s="8"/>
+      <c r="N393" s="8"/>
+    </row>
+    <row r="394" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B394" s="1">
         <v>17</v>
       </c>
+      <c r="C394" s="1"/>
       <c r="D394" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E394" s="1">
         <v>1993</v>
       </c>
+      <c r="F394" s="1"/>
+      <c r="G394" s="8"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="10"/>
       <c r="L394" s="1">
         <v>170036</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M394" s="8"/>
+      <c r="N394" s="8"/>
+    </row>
+    <row r="395" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B395" s="1">
         <v>17</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E395" s="1">
         <v>1991</v>
@@ -13200,25 +14340,33 @@
         <v>170043</v>
       </c>
       <c r="M395" s="16"/>
-    </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N395" s="16"/>
+    </row>
+    <row r="396" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B396" s="1">
         <v>17</v>
       </c>
+      <c r="C396" s="1"/>
       <c r="D396" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E396" s="1">
         <v>1987</v>
       </c>
+      <c r="F396" s="1"/>
+      <c r="G396" s="8"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="10"/>
       <c r="L396" s="1">
         <v>170048</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M396" s="8"/>
+      <c r="N396" s="8"/>
+    </row>
+    <row r="397" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>180014</v>
       </c>
@@ -13229,39 +14377,54 @@
         <v>52</v>
       </c>
       <c r="D397" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E397" s="1">
         <v>2019</v>
       </c>
+      <c r="F397" s="1"/>
+      <c r="G397" s="8"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="10"/>
       <c r="J397" s="1">
         <v>170006</v>
       </c>
       <c r="K397" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="L397" s="1"/>
+      <c r="M397" s="8"/>
+      <c r="N397" s="8"/>
+    </row>
+    <row r="398" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B398" s="1">
         <v>18</v>
       </c>
+      <c r="C398" s="1"/>
       <c r="D398" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E398" s="1">
         <v>2015</v>
       </c>
+      <c r="F398" s="1"/>
+      <c r="G398" s="8"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="10"/>
       <c r="J398" s="1">
         <v>170006</v>
       </c>
       <c r="K398" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="L398" s="1"/>
+      <c r="M398" s="8"/>
+      <c r="N398" s="8"/>
+    </row>
+    <row r="399" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>180010</v>
       </c>
@@ -13272,19 +14435,26 @@
         <v>52</v>
       </c>
       <c r="D399" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E399" s="1">
         <v>2014</v>
       </c>
+      <c r="F399" s="1"/>
+      <c r="G399" s="8"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="10"/>
       <c r="J399" s="1">
         <v>170007</v>
       </c>
       <c r="K399" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="L399" s="1"/>
+      <c r="M399" s="8"/>
+      <c r="N399" s="8"/>
+    </row>
+    <row r="400" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>180011</v>
       </c>
@@ -13295,39 +14465,54 @@
         <v>52</v>
       </c>
       <c r="D400" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E400" s="1">
         <v>2016</v>
       </c>
+      <c r="F400" s="1"/>
+      <c r="G400" s="8"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="10"/>
       <c r="J400" s="1">
         <v>170007</v>
       </c>
       <c r="K400" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="L400" s="1"/>
+      <c r="M400" s="8"/>
+      <c r="N400" s="8"/>
+    </row>
+    <row r="401" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B401" s="1">
         <v>18</v>
       </c>
+      <c r="C401" s="1"/>
       <c r="D401" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E401" s="1">
         <v>2018</v>
       </c>
+      <c r="F401" s="1"/>
+      <c r="G401" s="8"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="10"/>
       <c r="J401" s="1">
         <v>170007</v>
       </c>
       <c r="K401" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="L401" s="1"/>
+      <c r="M401" s="8"/>
+      <c r="N401" s="8"/>
+    </row>
+    <row r="402" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>180006</v>
       </c>
@@ -13338,59 +14523,82 @@
         <v>52</v>
       </c>
       <c r="D402" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E402" s="1">
         <v>2012</v>
       </c>
+      <c r="F402" s="1"/>
+      <c r="G402" s="8"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="10"/>
       <c r="J402" s="1">
         <v>170012</v>
       </c>
       <c r="K402" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="L402" s="1"/>
+      <c r="M402" s="8"/>
+      <c r="N402" s="8"/>
+    </row>
+    <row r="403" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B403" s="1">
         <v>18</v>
       </c>
+      <c r="C403" s="1"/>
       <c r="D403" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E403" s="1">
         <v>2006</v>
       </c>
+      <c r="F403" s="1"/>
+      <c r="G403" s="8"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="10"/>
       <c r="J403" s="1">
         <v>170012</v>
       </c>
       <c r="K403" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="L403" s="1"/>
+      <c r="M403" s="8"/>
+      <c r="N403" s="8"/>
+    </row>
+    <row r="404" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="B404" s="1">
         <v>18</v>
       </c>
+      <c r="C404" s="1"/>
       <c r="D404" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E404" s="1">
         <v>2007</v>
       </c>
+      <c r="F404" s="1"/>
+      <c r="G404" s="8"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="10"/>
       <c r="J404" s="1">
         <v>170012</v>
       </c>
       <c r="K404" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="L404" s="1"/>
+      <c r="M404" s="8"/>
+      <c r="N404" s="8"/>
+    </row>
+    <row r="405" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>180007</v>
       </c>
@@ -13401,39 +14609,54 @@
         <v>52</v>
       </c>
       <c r="D405" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E405" s="1">
         <v>2005</v>
       </c>
+      <c r="F405" s="1"/>
+      <c r="G405" s="8"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="10"/>
       <c r="J405" s="1">
         <v>170013</v>
       </c>
       <c r="K405" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="L405" s="1"/>
+      <c r="M405" s="8"/>
+      <c r="N405" s="8"/>
+    </row>
+    <row r="406" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B406" s="1">
         <v>18</v>
       </c>
+      <c r="C406" s="1"/>
       <c r="D406" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E406" s="1">
         <v>2008</v>
       </c>
+      <c r="F406" s="1"/>
+      <c r="G406" s="8"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="10"/>
       <c r="J406" s="1">
         <v>170013</v>
       </c>
       <c r="K406" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="L406" s="1"/>
+      <c r="M406" s="8"/>
+      <c r="N406" s="8"/>
+    </row>
+    <row r="407" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>180012</v>
       </c>
@@ -13449,14 +14672,21 @@
       <c r="E407" s="1">
         <v>2009</v>
       </c>
+      <c r="F407" s="1"/>
+      <c r="G407" s="8"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="10"/>
       <c r="J407" s="1">
         <v>170027</v>
       </c>
       <c r="K407" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="L407" s="1"/>
+      <c r="M407" s="8"/>
+      <c r="N407" s="8"/>
+    </row>
+    <row r="408" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>180013</v>
       </c>
@@ -13467,59 +14697,82 @@
         <v>52</v>
       </c>
       <c r="D408" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E408" s="1">
         <v>2015</v>
       </c>
+      <c r="F408" s="1"/>
+      <c r="G408" s="8"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="10"/>
       <c r="J408" s="1">
         <v>170027</v>
       </c>
       <c r="K408" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="L408" s="1"/>
+      <c r="M408" s="8"/>
+      <c r="N408" s="8"/>
+    </row>
+    <row r="409" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B409" s="1">
         <v>18</v>
       </c>
+      <c r="C409" s="1"/>
       <c r="D409" t="s">
         <v>458</v>
       </c>
       <c r="E409" s="1">
         <v>2017</v>
       </c>
+      <c r="F409" s="1"/>
+      <c r="G409" s="8"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="10"/>
       <c r="J409" s="1">
         <v>170027</v>
       </c>
       <c r="K409" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="L409" s="1"/>
+      <c r="M409" s="8"/>
+      <c r="N409" s="8"/>
+    </row>
+    <row r="410" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B410" s="1">
         <v>18</v>
       </c>
+      <c r="C410" s="1"/>
       <c r="D410" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E410" s="1">
         <v>2022</v>
       </c>
+      <c r="F410" s="1"/>
+      <c r="G410" s="8"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="10"/>
       <c r="J410" s="1">
         <v>170028</v>
       </c>
       <c r="K410" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+      <c r="L410" s="1"/>
+      <c r="M410" s="8"/>
+      <c r="N410" s="8"/>
+    </row>
+    <row r="411" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>180001</v>
       </c>
@@ -13530,39 +14783,54 @@
         <v>52</v>
       </c>
       <c r="D411" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E411" s="1">
         <v>2011</v>
       </c>
+      <c r="F411" s="1"/>
+      <c r="G411" s="8"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="10"/>
       <c r="J411" s="1">
         <v>170029</v>
       </c>
       <c r="K411" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="L411" s="1"/>
+      <c r="M411" s="8"/>
+      <c r="N411" s="8"/>
+    </row>
+    <row r="412" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B412" s="1">
         <v>18</v>
       </c>
+      <c r="C412" s="1"/>
       <c r="D412" t="s">
         <v>434</v>
       </c>
       <c r="E412" s="1">
         <v>2014</v>
       </c>
+      <c r="F412" s="1"/>
+      <c r="G412" s="8"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="10"/>
       <c r="J412" s="1">
         <v>170029</v>
       </c>
       <c r="K412" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="L412" s="1"/>
+      <c r="M412" s="8"/>
+      <c r="N412" s="8"/>
+    </row>
+    <row r="413" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>180002</v>
       </c>
@@ -13578,34 +14846,49 @@
       <c r="E413" s="1">
         <v>2005</v>
       </c>
+      <c r="F413" s="1"/>
+      <c r="G413" s="8"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="10"/>
       <c r="J413" s="1">
         <v>170032</v>
       </c>
       <c r="K413" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L413" s="1"/>
+      <c r="M413" s="8"/>
+      <c r="N413" s="8"/>
+    </row>
+    <row r="414" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="B414" s="1">
         <v>18</v>
       </c>
+      <c r="C414" s="1"/>
       <c r="D414" t="s">
         <v>466</v>
       </c>
       <c r="E414" s="1">
         <v>2007</v>
       </c>
+      <c r="F414" s="1"/>
+      <c r="G414" s="8"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="10"/>
       <c r="J414" s="1">
         <v>170032</v>
       </c>
       <c r="K414" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+      <c r="L414" s="1"/>
+      <c r="M414" s="8"/>
+      <c r="N414" s="8"/>
+    </row>
+    <row r="415" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>180018</v>
       </c>
@@ -13616,39 +14899,54 @@
         <v>52</v>
       </c>
       <c r="D415" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E415" s="1">
         <v>2013</v>
       </c>
+      <c r="F415" s="1"/>
+      <c r="G415" s="8"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="10"/>
       <c r="J415" s="1">
         <v>170033</v>
       </c>
       <c r="K415" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="L415" s="1"/>
+      <c r="M415" s="8"/>
+      <c r="N415" s="8"/>
+    </row>
+    <row r="416" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B416" s="1">
         <v>18</v>
       </c>
+      <c r="C416" s="1"/>
       <c r="D416" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E416" s="1">
         <v>2012</v>
       </c>
+      <c r="F416" s="1"/>
+      <c r="G416" s="8"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="10"/>
       <c r="J416" s="1">
         <v>170033</v>
       </c>
       <c r="K416" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="L416" s="1"/>
+      <c r="M416" s="8"/>
+      <c r="N416" s="8"/>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>180003</v>
       </c>
@@ -13659,7 +14957,7 @@
         <v>52</v>
       </c>
       <c r="D417" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E417" s="1">
         <v>2013</v>
@@ -13668,10 +14966,12 @@
         <v>170034</v>
       </c>
       <c r="K417" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="N417" s="8"/>
+      <c r="O417"/>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>180004</v>
       </c>
@@ -13682,7 +14982,7 @@
         <v>52</v>
       </c>
       <c r="D418" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E418" s="1">
         <v>2016</v>
@@ -13691,10 +14991,12 @@
         <v>170034</v>
       </c>
       <c r="K418" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="N418" s="8"/>
+      <c r="O418"/>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>180005</v>
       </c>
@@ -13714,18 +15016,20 @@
         <v>170035</v>
       </c>
       <c r="K419" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="N419" s="8"/>
+      <c r="O419"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
         <v>633</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="B420" s="1">
         <v>18</v>
       </c>
       <c r="D420" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E420" s="1">
         <v>2009</v>
@@ -13734,10 +15038,12 @@
         <v>170035</v>
       </c>
       <c r="K420" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="N420" s="8"/>
+      <c r="O420"/>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>180015</v>
       </c>
@@ -13748,7 +15054,7 @@
         <v>52</v>
       </c>
       <c r="D421" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E421" s="1">
         <v>2014</v>
@@ -13757,10 +15063,12 @@
         <v>170036</v>
       </c>
       <c r="K421" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+      <c r="N421" s="8"/>
+      <c r="O421"/>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>180016</v>
       </c>
@@ -13771,7 +15079,7 @@
         <v>52</v>
       </c>
       <c r="D422" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E422" s="1">
         <v>2018</v>
@@ -13780,10 +15088,12 @@
         <v>170043</v>
       </c>
       <c r="K422" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="N422" s="8"/>
+      <c r="O422"/>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>180017</v>
       </c>
@@ -13794,7 +15104,7 @@
         <v>52</v>
       </c>
       <c r="D423" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E423" s="1">
         <v>2023</v>
@@ -13803,10 +15113,12 @@
         <v>170043</v>
       </c>
       <c r="K423" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="N423" s="8"/>
+      <c r="O423"/>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>180008</v>
       </c>
@@ -13817,7 +15129,7 @@
         <v>52</v>
       </c>
       <c r="D424" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E424" s="1">
         <v>2008</v>
@@ -13826,10 +15138,12 @@
         <v>170048</v>
       </c>
       <c r="K424" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="N424" s="8"/>
+      <c r="O424"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>180009</v>
       </c>
@@ -13840,7 +15154,7 @@
         <v>52</v>
       </c>
       <c r="D425" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E425" s="1">
         <v>2011</v>
@@ -13849,30 +15163,32 @@
         <v>170048</v>
       </c>
       <c r="K425" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="N425" s="8"/>
+      <c r="O425"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B426" s="1">
         <v>15</v>
       </c>
       <c r="D426" t="s">
+        <v>781</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="I426" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H426" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="I426" s="10" t="s">
-        <v>785</v>
       </c>
       <c r="J426" s="1">
         <v>140011</v>
@@ -13881,10 +15197,10 @@
         <v>318</v>
       </c>
       <c r="M426" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>150026</v>
       </c>
@@ -13895,7 +15211,7 @@
         <v>52</v>
       </c>
       <c r="D427" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>59</v>
@@ -13907,7 +15223,7 @@
         <v>115</v>
       </c>
       <c r="I427" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J427" s="1">
         <v>140011</v>
@@ -13916,17 +15232,113 @@
         <v>318</v>
       </c>
       <c r="M427" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B428" s="1">
+        <v>17</v>
+      </c>
+      <c r="D428" t="s">
+        <v>809</v>
+      </c>
+      <c r="E428" s="1">
+        <v>2025</v>
+      </c>
+      <c r="J428" s="1">
+        <v>160003</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>130011</v>
+      </c>
+      <c r="B429" s="1">
+        <v>13</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D429" t="s">
+        <v>811</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G429" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I429" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J429" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M429" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>180019</v>
+      </c>
+      <c r="B430" s="1">
+        <v>18</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D430" t="s">
+        <v>813</v>
+      </c>
+      <c r="E430" s="1">
+        <v>1</v>
+      </c>
+      <c r="J430" s="1">
+        <v>170036</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>180020</v>
+      </c>
+      <c r="B431" s="1">
+        <v>18</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D431" t="s">
+        <v>814</v>
+      </c>
+      <c r="E431" s="1">
+        <v>2</v>
+      </c>
+      <c r="J431" s="1">
+        <v>170036</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N427" xr:uid="{22D72683-6866-4431-9C3B-624A912C74B3}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N394">
+  <autoFilter ref="A1:O431" xr:uid="{22D72683-6866-4431-9C3B-624A912C74B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O394">
       <sortCondition ref="M1:M394"/>
     </sortState>
   </autoFilter>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\Ver 3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC3A2DE-7B4E-4CAF-9330-CA1EB7C5B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E020E-6CD2-4826-8DEE-F0E53AD73021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2973,8 +2973,8 @@
   <dimension ref="A1:P460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28:E128"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N462" sqref="N462:O462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3075,6 +3075,12 @@
       <c r="M2" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N2" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O2">
+        <v>105.666575814257</v>
+      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -3131,6 +3137,12 @@
       <c r="M4" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N4" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O4">
+        <v>105.666575814257</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3184,6 +3196,12 @@
       <c r="M6" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N6" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O6">
+        <v>105.666575814257</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3240,6 +3258,12 @@
       <c r="M8" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N8" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O8">
+        <v>105.666575814257</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3293,6 +3317,12 @@
       <c r="M10" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N10" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O10">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3410,6 +3440,12 @@
       <c r="M13" s="8" t="s">
         <v>786</v>
       </c>
+      <c r="N13" s="8">
+        <v>21.016309601299501</v>
+      </c>
+      <c r="O13">
+        <v>105.65990582900299</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -3446,6 +3482,12 @@
       <c r="M14" s="8" t="s">
         <v>786</v>
       </c>
+      <c r="N14" s="8">
+        <v>21.016309601299501</v>
+      </c>
+      <c r="O14">
+        <v>105.65990582900299</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -3910,7 +3952,12 @@
       <c r="M30" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O30">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -4151,6 +4198,12 @@
       <c r="M37" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N37" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O37">
+        <v>105.655111203495</v>
+      </c>
       <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4249,6 +4302,12 @@
       <c r="M40" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N40" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O40">
+        <v>105.666575814257</v>
+      </c>
       <c r="P40" s="1">
         <v>1</v>
       </c>
@@ -4360,6 +4419,12 @@
       <c r="M43" s="8" t="s">
         <v>786</v>
       </c>
+      <c r="N43" s="8">
+        <v>21.016309601299501</v>
+      </c>
+      <c r="O43">
+        <v>105.65990582900299</v>
+      </c>
       <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -4455,6 +4520,12 @@
       <c r="M46" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N46" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O46">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P46" s="1">
         <v>1</v>
       </c>
@@ -4496,6 +4567,12 @@
       <c r="M47" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N47" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O47">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -4604,6 +4681,12 @@
       <c r="M50" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N50" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O50">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P50" s="1">
         <v>1</v>
       </c>
@@ -4750,7 +4833,12 @@
       <c r="M54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O54">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P54" s="4"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -5075,6 +5163,12 @@
       <c r="M63" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N63" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O63">
+        <v>105.666575814257</v>
+      </c>
       <c r="P63" s="1">
         <v>1</v>
       </c>
@@ -5110,7 +5204,12 @@
       <c r="M64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N64" s="7"/>
+      <c r="N64" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O64">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P64" s="1">
         <v>2</v>
       </c>
@@ -5396,6 +5495,12 @@
       <c r="M74" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N74" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O74">
+        <v>105.666575814257</v>
+      </c>
       <c r="P74" s="4"/>
     </row>
     <row r="75" spans="1:16" ht="72" x14ac:dyDescent="0.3">
@@ -5435,6 +5540,12 @@
       <c r="M75" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N75" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O75">
+        <v>105.655111203495</v>
+      </c>
       <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -5728,6 +5839,12 @@
       <c r="M84" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N84" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O84">
+        <v>105.666575814257</v>
+      </c>
       <c r="P84" s="1">
         <v>2</v>
       </c>
@@ -5763,6 +5880,12 @@
       <c r="M85" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N85" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O85">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P85" s="1">
         <v>1</v>
       </c>
@@ -5986,6 +6109,12 @@
       <c r="M92" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N92" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O92">
+        <v>105.655111203495</v>
+      </c>
       <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -6025,6 +6154,12 @@
       <c r="M93" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N93" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O93">
+        <v>105.666575814257</v>
+      </c>
       <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -6103,6 +6238,12 @@
       <c r="M95" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N95" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O95">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -6142,6 +6283,12 @@
       <c r="M96" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N96" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O96">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P96" s="4"/>
     </row>
     <row r="97" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -6217,6 +6364,12 @@
       <c r="M98" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N98" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O98">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P98" s="4"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -6319,6 +6472,12 @@
       <c r="M101" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N101" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O101">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P101" s="1">
         <v>1</v>
       </c>
@@ -6526,7 +6685,12 @@
       <c r="M107" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N107" s="7"/>
+      <c r="N107" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O107">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P107" s="1">
         <v>1</v>
       </c>
@@ -6719,7 +6883,12 @@
       <c r="M113" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N113" s="7"/>
+      <c r="N113" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O113">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P113" s="4"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -6798,6 +6967,12 @@
       <c r="M115" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N115" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O115">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P115" s="4"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -6831,6 +7006,12 @@
       <c r="M116" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N116" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O116">
+        <v>105.655111203495</v>
+      </c>
       <c r="P116" s="4"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6864,6 +7045,12 @@
       <c r="M117" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N117" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O117">
+        <v>105.655111203495</v>
+      </c>
       <c r="P117" s="4"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6969,6 +7156,12 @@
       <c r="M120" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N120" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O120">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P120" s="4"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -7008,6 +7201,12 @@
       <c r="M121" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N121" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O121">
+        <v>105.655111203495</v>
+      </c>
       <c r="P121" s="4"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -7188,6 +7387,12 @@
       <c r="M126" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N126" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O126">
+        <v>105.655111203495</v>
+      </c>
       <c r="P126" s="4"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
@@ -7269,7 +7474,12 @@
       <c r="M129" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N129" s="7"/>
+      <c r="N129" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O129">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P129" s="1">
         <v>1</v>
       </c>
@@ -7302,7 +7512,12 @@
       <c r="M130" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N130" s="7"/>
+      <c r="N130" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O130">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P130" s="1">
         <v>2</v>
       </c>
@@ -7370,6 +7585,12 @@
       <c r="M132" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N132" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O132">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P132" s="1">
         <v>1</v>
       </c>
@@ -7405,7 +7626,12 @@
       <c r="M133" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N133" s="7"/>
+      <c r="N133" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O133">
+        <v>105.655111203495</v>
+      </c>
       <c r="P133" s="1">
         <v>1</v>
       </c>
@@ -7441,6 +7667,12 @@
       <c r="M134" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N134" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O134">
+        <v>105.655111203495</v>
+      </c>
       <c r="P134" s="1">
         <v>1</v>
       </c>
@@ -7528,6 +7760,12 @@
       <c r="M137" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N137" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O137">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P137" s="1">
         <v>1</v>
       </c>
@@ -7612,7 +7850,12 @@
       <c r="M140" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N140" s="7"/>
+      <c r="N140" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O140">
+        <v>105.655111203495</v>
+      </c>
       <c r="P140" s="1">
         <v>2</v>
       </c>
@@ -7683,7 +7926,12 @@
       <c r="M142" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N142" s="7"/>
+      <c r="N142" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O142">
+        <v>105.655111203495</v>
+      </c>
       <c r="P142" s="1">
         <v>1</v>
       </c>
@@ -7719,6 +7967,12 @@
       <c r="M143" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N143" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O143">
+        <v>105.655111203495</v>
+      </c>
       <c r="P143" s="1">
         <v>1</v>
       </c>
@@ -8235,6 +8489,12 @@
       <c r="M160" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N160" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O160">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P160" s="4"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
@@ -8271,6 +8531,12 @@
       <c r="M161" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N161" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O161">
+        <v>105.655111203495</v>
+      </c>
       <c r="P161" s="4"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -8372,6 +8638,12 @@
       <c r="M164" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N164" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O164">
+        <v>105.655111203495</v>
+      </c>
       <c r="P164" s="4"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
@@ -8499,6 +8771,12 @@
       <c r="M168" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N168" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O168">
+        <v>105.666575814257</v>
+      </c>
       <c r="P168" s="4"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
@@ -8532,6 +8810,12 @@
       <c r="M169" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N169" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O169">
+        <v>105.666575814257</v>
+      </c>
       <c r="P169" s="4"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
@@ -8607,6 +8891,12 @@
       <c r="M171" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N171" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O171">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P171" s="4"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
@@ -8646,6 +8936,12 @@
       <c r="M172" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N172" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O172">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P172" s="4"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
@@ -8823,6 +9119,12 @@
       </c>
       <c r="M179" s="8" t="s">
         <v>62</v>
+      </c>
+      <c r="N179" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O179">
+        <v>105.65060486244001</v>
       </c>
       <c r="P179" s="1">
         <v>1</v>
@@ -9041,6 +9343,12 @@
       <c r="M188" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N188" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O188">
+        <v>105.655111203495</v>
+      </c>
       <c r="P188" s="1">
         <v>1</v>
       </c>
@@ -9076,6 +9384,12 @@
       <c r="M189" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N189" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O189">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P189" s="1">
         <v>1</v>
       </c>
@@ -9457,6 +9771,12 @@
       <c r="M203" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N203" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O203">
+        <v>105.655111203495</v>
+      </c>
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
@@ -9670,6 +9990,12 @@
       <c r="M211" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N211" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O211">
+        <v>105.655111203495</v>
+      </c>
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
@@ -9781,6 +10107,12 @@
       <c r="M215" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N215" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O215">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
@@ -10235,6 +10567,12 @@
       <c r="M233" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N233" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O233">
+        <v>105.655111203495</v>
+      </c>
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.3">
@@ -10355,6 +10693,12 @@
       </c>
       <c r="M237" s="8" t="s">
         <v>776</v>
+      </c>
+      <c r="N237" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O237">
+        <v>105.666575814257</v>
       </c>
       <c r="P237" s="4"/>
     </row>
@@ -13631,6 +13975,12 @@
       </c>
       <c r="M370" s="8" t="s">
         <v>62</v>
+      </c>
+      <c r="N370" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O370">
+        <v>105.65060486244001</v>
       </c>
       <c r="P370" s="4"/>
     </row>
